--- a/기사데이터/토스/엑셀파일/news(토스, 2023.02.01~2023.02.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.02.01~2023.02.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2507 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스씨엑스, 상담 직군 '커스터머 히어로' 직원 채용</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013759136?sid=102</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>토스씨엑스, 커스터머 히어로 채용[토스씨엑스 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 토스의 비대면 금융 상담 전문 계열사 토스씨엑스는 고객 상담 직군인 '커스터머 히어로'를 채용한다고 15일 밝혔다.    커스터머 히어로는 24시간 전화 및 채팅을 통한 전문 금융 서비스 상담을 주 업무로 맡고, 제품 개발 및 개선에도 참여한다.    토스씨엑스는 연말까지 커스터머 히어로 최대 100명을 추가 채용하며, 경력과 학력, 성별 제한은 없다. 자세한 사항은 토스 채용 홈페이지 참조.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.02.12.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>진성 이용자 늘어나는 KB Pay, 신한플레이 추격</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002102665?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>KB Pay, 확보고객 11→7위 상승5위 신한플레이와 간극 좁혀[제공=컨슈머인사이트][헤럴드경제=김현경 기자] KB Pay를 정기적·필수적으로 이용하는 진성 이용자가 빠르게 증가하고 있는 것으로 나타났다.시장조사기관 컨슈머인사이트에 따르면 KB Pay는 올해 1월 확보고객 비율이 19.3%로 금융 앱 중 7위를 기록했다. 지난달 11위에서 4계단 상승하며 10위권 안에 신규 진입했다. 6개월 전 대비로는 10위나 올랐다.확보고객 비율은 금융소비자의 행동 특성을 반영해 개발한 지표로, ‘정기적으로 이용하거나 생활하는데 필수적으로 이용한다’는 응답 비율을 뜻한다. 일반적으로 활용되는 월간 활성이용자수(MAU)와 구분되는 인식적 지표로 진성 이용자를 파악할 수 있다.확보고객 비율 1위는 토스(34.6%), 2위는 KB국민은행 스타뱅킹(32.0%), 3위는 카카오뱅크(26.8%), 4위는 신한 쏠(SOL)(22.3%), 5위는 신한플레이(22.1%)로 전달과 순위가 같았다.6위는 카카오페이(19.6%), 8~9위는 페이북/ISP(18.1%), NH스마트뱅킹(17.6%), 삼성카드(17.6%)로 집계됐다.지난해 12월 오픈페이 서비스가 시작된 데 이어 애플페이의 국내 상륙이 예정돼 있어 지급결제 시장 경쟁이 더욱 치열해질 것으로 예상되는 가운데, KB국민카드와 신한카드는 자체 플랫폼 강화를 위해 각각 KB페이, 신한플레이 앱으로 결제와 콘텐츠를 통합, 이용고객 확대를 꾀하고 있다.신한플레이는 기존 신한카드 앱의 이용자가 지속 유입하면서 꾸준히 확보고객 성장세를 보이고 있고, KB Pay는 지난해 11월 이후 확보고객이 급격히 증가하며 신한플레이를 바짝 추격하고 있다.컨슈머인사이트는 "기존 앱에서 전환하지 않은 이용자가 아직 많고 핀테크, 빅테크와의 서비스 경쟁도 더욱 치열해질 것이어서 향후 확보고객 경쟁의 향방이 주목된다"고 밝혔다.이번 조사는 전국의 만 20~69세 성인 2607명을 대상으로 진행됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] '금리인하 요구권' 실적 자랑 욕심에 토스뱅크의 '무리수'</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000321277?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>"지난해 전체 금리인하 요구 건수는 총 18만 9천 건으로, 5대 시중은행 평균의 2.3배에 달한다"토스뱅크가 고객들의 금리인하 요구가 많았다면서 지난달 30일 배포한 보도자료 내용입니다.이는 지난해 5대 시중은행 평균 신청 건수 약 8만 건보다, 2. 3배 정도 많은 규모입니다. 그만큼 소비자들의 금리인하요구권 신청을 적극적으로 받았다는 게 토스뱅크의 주장입니다.정말 시중은행 신청 건수는 토스뱅크의 절반에도 미치지 못했던 것일까요?은행연합회에 공시된 지난해 상반기 5대 은행의 평균 금리인하 신청 건수는 3만 9406건이었습니다. 하반기 금리인하요구권 자료는 아직 공시되지 않은 상황입니다.이에 연간 데이터를 알 수 없었던 토스뱅크는 상반기 신청 건수를 2배해 연간 데이터를 추산했습니다. 이로 인해 상반기 신청 건수인 3만 9406건의 2배 수준인 8만여 건이 나온 것입니다. 즉, 하반기에도 상반기 수준의 신청 건수가 나왔을 것이라는 전제가 깔린 것입니다.그렇다면 5대 은행의 하반기 금리인하 신청 건수가 상반기 수준이었을까요?하반기 자료가 공시되지 않았지만, 상반기를 훨씬 웃돌았을 것으로 보입니다. 시중은행 관계자는 "하반기 금리인하 신청 건수는 상반기를 월등히 앞질렀다"며 토스뱅크의 추산에 반발했습니다. [지난해 토스뱅크는 상반기의 3배 수준의 금리인하 신청 건수가 접수됐지만, 은행에는 2배를 적용해 실적을 부풀렸다.]지지난해 18만 9천여 건을 기록했다는 토스뱅크만 해도 상반기에는 6만 5천 건에도 미치지 못했습니다. 그럼에도 연간 신청 건수는 상반기의 3배 수준이 됐습니다.하지만 시중은행의 연간 금리인하 신청 건수는 상반기에 2배로 추산해 시중은행의 2.3배에 달한다는 다소 부풀려진 규모의 결론으로 이어졌습니다.게다가 신청된 금리인하요구권이 실제로 수용된 비율인 '수용률'을 따지면 또 다른 얘기가 됩니다.토스뱅크의 지난해 금리인하 수용률은 19.6%로, 토스뱅크가 추정한 시중은행 평균치인 35.8%에 훨씬 못 미치기 때문입니다. 토스뱅크가 추산한 데이터를 근거로 금리인하요구권 신청 건수를 인정한다 하더라도 토스뱅크의 수용률은 시중은행보다 크게 떨어지는 셈입니다.토스뱅크는 이같은 데이터 비교에 어떤 입장일까요?토스뱅크 관계자는 "금리인하요구권과 관련해 (5대 은행 실적)을 무리하게 추정했다는 지적에 공감한다"고 인정했습니다.다만 "은행 중 최초로 상시금리인하요구권으로 고객의 권리를 미리 알리고 활성화 될 수 있도록 노력한 점은 긍정적으로 봐주시기 바란다"고 말했습니다.  토스뱅크의 추산이 사실이었는지 아닌지는 지난해 하반기 금리인하요구권 실적이 이달 말 공시되면 드러날 것으로 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.02.11.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[스타트UP] “퇴근 후에도 돈 벌어요”… 개발자 매칭 플랫폼 ‘DIO’</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000876652?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>블라인드 방식으로 구직자·구인기업 연결개발자·마케터 6000명·기업 3000곳 등록총 700건 계약 체결… 누적 거래 17억원 “2년 전 전 직원이 6명인 한 스타트업에서 프로덕트 매니저(PM·상품 전략을 세우고 관리하는 )로 일한 적이 있습니다. 전사 미팅을 하면서 각자 자기소개를 하는데 3명이 현직자였습니다. 한 친구는 유명 게임사의 데이터 과학자였고, 또 다른 친구는 한 검색엔진 회사의 프론트엔드(프로그래밍) 개발자였습니다. 이름을 들으면 알만한 회사의 디자이너도 있었습니다. 그날 이후로 정보통신(IT) 업계에 부업을 하는 사람들이 정말 많다는 것을 알게 됐습니다.”황현태 스페이스와이 대표는 경력직 파트타임 채용 플랫폼 ‘DIO(디오)’를 출시하게 된 계기로 IT업계에 몸담으면서 느꼈던 경험을 언급했다. 국내에 다양한 구인구직 플랫폼이 있지만 파트타임 일자리를 구하는 현직자를 위한 플랫폼은 없다는 점을 깨닫고 사업 성공 가능성을 포착했다는 것이 황 대표의 설명이었다.황현태 스페이스와이 대표. 스페이스와이는 경력자 채용 플랫폼 '디오(DIO)'를 운영하고 있다./최온정 기자        DIO는 IT업계에 종사하는 현직자와 기업을 연결해주는 서비스를 제공한다. 현직자를 대상으로하는 만큼 일반적인 구인구직 플랫폼과는 달리 블라인드 방식으로 채용 과정이 이뤄진다. 자체적인 검증을 거친 현직자들을 인력 풀(Pool)에 등록한 후, 알고리즘을 통해 기업이 원하는 조건에 맞는 사람을 연결해주는 방식이다. 현직자와 기업이 면접을 수락하면 화상 미팅이 열리고 계약 여부를 결정한다.익명성이 보장되는 채용 방식이 입소문을 타면서 현재 6000명의 현직자가 서비스에 가입했다. 구인기업은 3000여개사가 등록돼있다. DIO를 통해 계약까지 체결된 경우는 작년 2월부터 현재까지 700여건이다. 누적 거래액(DIO를 통해 현직자에게 지급된 급여 총액)은 17억원이다. 황 대표를 서울 강남구의 한 공유오피스에서 만났다.-어떻게 창업을 결심하게 됐나.“스페이스와이를 창업하기 전 B2B 세무 스타트업인 ‘혜움랩스’에 초기 멤버로 합류했다. 그전까지는 연세대학교 기계공학과 박사과정을 밟으면서 쭉 학교에 있었다. 그런데 스타트업에 들어온 후 공부보다는 기업을 운영하는 과정에 더 재미를 느꼈다. 내가 원하는 것을 주도적으로 이뤄낼 수 있다는 점에서 창업에 본능적으로 끌렸다. 이후 4년을 근무하다가 스페이스와이의 공동창업자인 남송학 최고기술책임자(CTO)를 만나면서 직접 창업을 하게됐다.”-파트타임 채용 플랫폼을 만들게 된 계기는 무엇인가.“시니어 개발자인 남송학 CTO의 경험이 기반이 됐다. 창업을 준비하며 남 CTO에게 스타트업의 테크리드(기술적 의사결정을 담당하고 책임을 지는 사람) 제안이 많이 들어왔고, 작년에는 파트타임 제안까지도 들어왔다. 남 CTO는 개인적인 경험을 기반으로 현직자를 대상으로 하는 경력직 파트타임 채용 플랫폼을 제안했다.작은 회사가 좋은 회사에 있는 사람을 데려오는 것은 현실적으로 불가능하다. 하지만 부업 방식이라면 회사를 바꾸지 않고도 추가 소득을 얻을 수 있어 마다할 이유가 없을 것으로 봤다. 그래서 사업 구상을 시작했고, 2021년 11~12월 테스트를 거쳐 작년 2월 정식으로 런칭했다.”-스타트업 시장에서 인력난이 심각한가.“한국직업능력개발원에 따르면 지난해 소프트웨어(SW) 분야 개발인력 수요는 32만6450명이다. 그러나 공급은 18만8700명에 그친다. 특히 기업이 선호하는 경력 3년 이상의 시니어급 인재는 많이 부족하다. 지난 2021년 국내 기업은 총 700만개를 넘어섰는데, 이 중 상위 200등 이내 기업을 제외하면 모두 인력난에 시달리고 있다.소위 말하는 ‘네카라쿠배당토’(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)에 다니는 시니어 개발자들이 잘 다니고 있는 회사를 그만두고 작은 회사에 몸담기가 쉽지 않기 때문이다. 시니어급 인재를 데려오려는 기업의 경쟁은 점차 치열해지고 있다.”디오(DIO)는 기업이 원하는 조건에 맞춰 다양한 직종의 구직자를 매칭해준다./디오 홈페이지 캡처. -DIO는 어떤 플랫폼인가.“DIO는 경력직 실무자를 구하는 기업과 현직자를 연결해주는 플랫폼이다. 주로 개발자나 마케터, 디자이너, 프로덕트 매니저를 대상으로 한다. IT업계에는 프리랜서도 많지만 사실 일을 잘하는 사람은 현직자 중에 더 많다. 채용 프로세스를 거치면서 검증 과정을 거친 인재들이기 때문이다. 이 사람들을 활용하면 스타트업의 인력난을 해결할 수 있다고 생각해 서비스를 제공하게 됐다.”-채용 과정은 어떻게 되나.“기업이 공고를 내면 알고리즘을 통해 조건에 맞는 현직자를 추천해준다. 현직자는 DIO가 직접 업종과 능력을 검증한 후 인력 풀에 등록하는데, 구인기업과 구직자의 요구조건이 맞으면 자동으로 연결된다. 양쪽이 연결되는 과정은 소개팅 애플리케이션(앱)의 연결 방식과 비슷하다.구직자에게 조건이 맞는 기업을 추천해주면, 구직자는 해당 기업의 조건을 따져 면접 여부를 결정한다. 기업과 구직자가 연결되면, DIO가 함께 참여하는 화상 미팅이 열리고 계약 여부를 결정한다. 최종적으로 계약이 체결되면 DIO는 현직자가 받는 월급의 약 10~15%를 기업으로부터 별도 수수료로 얻어간다.”-현직자가 부업을 갖는 것이 법적으로 문제가 될 소지는 없나.“근로계약서에 명시된 업무시간을 잘 지키고, 소속회사와 경쟁관계에 있는 회사에서 일하지만 않는다면 문제가 되지 않는다. 퇴근 후에 집에서 쿠팡 라이더를 하거나, 유튜브나 스마트스토어를 운영하는 사람이 많은 것도 이 때문이다. 개발자들이 인터넷 강의를 하는 것도 문제가 되지 않는다. 실제로 출퇴근 이외의 시간에 실시한 수익 활동을 사생활의 범주로 보는 판례(서울행법 2001. 7. 24. 선고, 2001구7465판결 참조)도 있었다.”-부업 사실이 공개되지 않기를 바라는 현직자가 많을텐데.“채용 과정이 철저히 블라인드 방식으로 이뤄지기 때문에 걱정할 필요가 없다. DIO가 고려하는 연결 기준은 간단하다. 기업이 원하는 업무를 현직자가 경험해 본 적이 있는지, 현직자가 원하는 처우를 기업이 맞춰줄 수 있는지 등이다. 이 조건이 맞으면 기업과 현직자를 연결해주고, 현직자와 기업이 동의하면 화상 면접이 열린다. 채용이 돼도 현직자가 이름이나 소속 회사를 알릴 필요가 없다. 현직자가 직접 밝히지 않는 한 소속 회사가 부업 사실을 알 방법이 없다는 뜻이다.”디오의 현직자-구인기업 매칭 과정/스페이스와이 제공 -현직자들과 구인기업들의 반응은 어떤가.“현직자들은 월급 외 부수입을 올릴 수 있어 만족하고 있다. DIO를 통해 부업을 구한 사람들은 평균적으로 월 300만원의 수입을 더 얻고 있다. 한 빅테크(네이버, 카카오 등) 기업에 다니는 개발자는 DIO에서 6개월간 약 5000만원을 벌어가기도 했다. 빅테크 회사에 다니지는 않지만, 업무 능력을 인정받아 DIO에서 6개월간 3400만원을 번 개발자도 있다.기업도 만족도가 높다. DIO에서는 공고 등록 후 매칭까지 약 3일이 소요된다. 지원자를 구하지 못해 인력난에 시달리던 기업이 DIO를 통하면 대기업 출신 개발자를 채용할 수 있다. DIO를 통해 파트타임 근로자를 구한 기업이 계약을 연장하는 비율은 93.3%에 이른다. 한 핀테크 서비스 기업은 DIO 플랫폼 출시 직후 파트타임 근로자 8명을 구한 뒤 1년째 쓰고 있다. 어떤 회사는 성인용 서비스를 만드는데 풀타임 근무자 채용이 쉽지 않아 고생하던 중 DIO를 통해 파트타임 개발자를 채용했다.”-그간의 성과는 어땠나.“처음 서비스를 출시했을 당시 구인기업은 30개사에 불과했는데, 지금은 3000개사로 늘어났다. 플랫폼에 등록된 구직자도 6000명에 달한다. 작년 2월 서비스 출시 후 지금까지 DIO를 통해 발생한 거래액(구인기업이 근로자에게 지급한 급여) 총액은 17억원에 달한다. 현재 매달 2억5000만원가량이 거래되고 있다. 수수료 매출은 월 20%씩 꾸준히 성장했고, 올해 4분기에 월 손익분기점을 돌파하는 것을 목표로 하고 있다. 사업 과정에 패스트벤처스와 퓨처벤처스로부터 투자를 유치하는 성과도 있었다.”-앞으로의 목표는“연결을 시켜준 이후 스타트업이 근로자를 체계적으로 관리할 수 있는 시스템을 만들어주는 게 목표다. 현재 DIO 시스템을 통해 현직자가 스스로 주간 업무계획을 확인하고, 기업이 현직자를 평가할 수 있는 서비스를 지원하고 있다. 근로자들은 적은 시간에만 부업을 할 수 있기 때문에 최대한 효율적으로 의사소통이 이뤄져야 한다. 시스템을 고도화해 체계적인 인력 관리가 가능한 서비스를 마련할 계획이다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고금리로 카뱅에 도전장</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002097754?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 2.3%금리 제공입출금통장 모임통장까지 확대그래픽디자인 : 이은경토스뱅크가 하루만 맡겨도 2.3%의 금리를 제공하는 입출금통장을 모임통장까지 확대하며 시장 공략에 나선다. 4년 전 모임통장을 출시해 안정적으로 저원가성 예금을 확보하고 있는 카카오뱅크의 벽을 넘을 수 있을지가 관건이 될 것으로 보인다.토스뱅크는 1일 ‘모임통장 온라인 기자간담회’를 열고 모임원 누구가 출금 및 카드 발급, 결제까지 가능한 ‘토스뱅크 모임통장’을 선보였다. ‘한 곳에 모아서, 쓸 때는 모두가’라는 슬로건을 내세우며 카카오뱅크에 정면 도전장을 낸 셈이다.▶ ‘하루만 맡겨도 연 2.3%’ 모임통장까지 확대=토스뱅크가 모임통장을 내놓은 것은 지난해 6월 홍민택 대표의 예고 이후 7개월여 만이다. 특히 이번에 내놓은 토스뱅크 모임통장의 가장 큰 메리트는 금리다. 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 수시입출금통장 성격을 유지하기 때문에 여타 파킹통장과 달리 별도의 공간으로 자금을 이동해 출금·결제가 안 되도록 묶어 놓을 필요 없이 편리하게 고금리 혜택을 받을 수 있다. 카카오뱅크의 경우 세이프박스와 연결할 시 2.6%의 이자를 받을 수 있지만 모임통장 자체의 이자가 연 0.1%라는 점을 감안하면, 편리성과 금리 우위를 가져가겠다는 전략으로 풀이된다.또 ‘공동모임장’이라는 개념을 새롭게 제시했다. 통장 최초 개설자인 모임장을 비롯해, ‘공동모임장’들도 본인 명의로 결제 및 출금을 할 수 있다. 모임장의 동의를 받고 실명확인 절차를 완료한 모임원은 공동모임장이 되며, 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다.여기에 공동모임장이라면 누구나 본인 명의의 모임카드를 발급 받을 수 있어 그 동안 계좌 하나당 카드 한 개만 발급돼 결제가 불편했던 점을 없앴다는 설명이다.토스뱅크 측은 “기존에 모임통장을 사용해온 고객이 모임장 한 명이 출금과 결제, 카드 발급 권한까지 독점하는 구조에 불편함을 느낀다는 점에 주목했다”고 설명했다.모임원 가입 인원 제한을 없앤 것도 차별화 지점이다. 모임통장에 속한 모든 모임원은 손쉽게 다른 모임원을 초대할 수 있어 모임장의 부담을 덜어주는 것은 물론 빠르게 모임원 초대 및 운영이 가능하다. 서너 명의 소모임에서부터 다양한 인원의 대형 모임까지 모임통장 하나로 운영할 수 있게 했다.여기에 자동화된 회비 관리기능까지 제공해 총무의 부담을 최소화했다. 모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며, 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 아울러 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달돼 투명한 회계까지 가능하다.▶초기 현금지원 팍팍...1인당 모임지원금 최대 1만원까지=토스뱅크는 시장을 선점한 카카오뱅크의 벽을 넘기 위해 출시 초기 ‘모임지원금’ 이벤트를 진행한다. 모임원 1인당 최대 1만원까지 모임지원금이 지원돼 모임 규모가 커질수록 받아갈 수 있는 혜택의 크기도 같이 커진다. 적립된 모임지원금은 모임통장으로 입금되며, 출금과 결제에 바로 사용할 수 있다.캐시백 혜택도 있다. 혜택을 제공하는 주요 3대 영역인 ▷회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) ▷놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▷장보기(이마트·농협하나로마트) 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있다.이 혜택은 모임통장 계좌별로 적용되며, 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산되어 적용된다. 모임카드는 에피소드 형태로 운영되며, 이번 혜택은 올해 6월 말까지 제공될 예정이다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CJ ENM 美스튜디오 ‘피프스시즌’, 해외시장 본격 확대…인재 대거 영입</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002142150?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>- 아마존, 디즈니, BBC 등 글로벌 미디어 기업 인재 적극 영입- 글로벌 유통 및 배급망 확충을 위한 사업 구조 개편 조 힙스 피프스시즌 TV 콘텐츠 개발 및 제작 담당 대표.[디지털데일리 강소현 기자] CJ ENM의 미국 스튜디오 피프스시즌(FIFTH SEASON·구 엔데버 콘텐트)이 최근 BBC, 아마존 스튜디오 등 글로벌 미디어 기업 출신 인재를 대거 영입한 것으로 알려졌다. 글로벌 유통 및 배급망 확충을 위한 사업 구조 개편으로 풀이된다.8일 방송업계에 따르면 피프스시즌은 최근 제니퍼 에벨(Jennifer Ebell)을 EMEA 세일즈 및 인수 담당 부사장으로 승진시키는 동시에, BBC 스튜디오에서 드라마 광고 사업을 담당했던 아바 무스토스(Ava Mustos)와 월트 디즈니·폭스 네트워크 그룹·소니 픽처스 텔레비전 등에서 콘텐츠 영업 파트를 이끌었던 마리아 그라지아 우르시노(Maria Grazia Ursino) 등을 영입했다.CJ ENM은 지난해 글로벌향 콘텐츠 제작 역량을 강화하고 멀티 스튜디오 체제를 구축하기 위해 피프스시즌을 인수했다. 글로벌 대형 스튜디오인 피프스시즌은 다수의 장편 영화와 프리미엄 TV 시리즈을 통해 대중성과 작품성을 인정받고 있다. 지난해 아카데미상 3개 부문 후보에 오른 영화 ‘로스트 도터(The Lost Daughter)’와 마이클 베이 감독의 영화 ‘앰뷸런스(Ambulance)’을 비롯해, 같은시기 에미상 2관왕을 차지한 TV 시리즈 ‘세브란스: 단절(Severance)’와 ‘도쿄 바이스(Tokyo Vice)’, ‘울프 라이크 미(Wolf Like Me)’등이 대표작품이다.피프스시즌 제작 TV 시리즈 '세브란스: 단절(Severance)'.피프스시즌은 지난해부터 콘텐츠 업계에서 유능한 인재들을 영입해 회사의 역량을 강화해왔다. 지난해 12월에는 아마존 스튜디오(Amazon Studios) 임원 출신 질 아서(Jill Arthur)가 TV 콘텐츠 개발 및 제작 총괄 부사장으로 피프스시즌에 합류, 질 아서는 9년 간 아마존 스튜디오에서 고위 임원으로서 ‘한나(Hanna)’ ‘더 파워(The power)’등 대형 프로젝트 시리즈 제작에 참여했다.같은해 10월 TV 개발 및 제작 담당 대표로 승진한 조 힙스(Joe Hipps)는 넷플릭스를 성장시키는데 크게 기여한 대표적인 정치 스릴러 드라마 ‘하우스 오브 카드(House of Cards)’ 제작자 출신이다. 조 힙스가 이끈 피프스 시즌 TV스튜디오 제작 부문은 지난 해 에미상에서 27개 후보에 올랐다.같은시기 유명 제작사 블룸하우스 텔레비전(Blumhouse Television) 출신 메리 리시오(Mary Lisio)는 다큐 제작을 총괄하는 ‘논 스크립트(Non-scripted)’ 개발 및 제작 부사장으로 영입됐다.이번 인사를 통해 피프스시즌은 유럽·중동·아프리카 지역의 미디어 유통망을 늘려 영업조직 간 시너지를 창출하는 동시에 ‘글로벌 콘텐츠 기업’으로 한단계 도약할 것으로 전망된다.CJ ENM 관계자는 "피프스시즌은 인재 영입 및 글로벌 거점 확대를 통해 초격차 역량을 보유한 K-콘텐츠 전진기지로서 발돋움하고 있다"며 "향후 지속적이고 자생적인 성장이 가능한 IP 파워하우스로 자리매김할 것"이라고 전했다.한편 피프스시즌은 현재 미국 LA 본사뿐 아니라 뉴욕, 영국 런던, 스웨덴 스톡홀롬, 홍콩, 중국 베이징, 콜롬비아 등에 글로벌 거점을 운영하고 있다. 그동안 탄탄한 유통 시스템을 통해 ‘킬링 이브(Killing Eve)’, ‘더 모닝 쇼(The Morning Show)’ 같은 히트 시리즈들의 글로벌 배급을 맡아왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>“만보 걷고 月 100만원 벌어요” 고물가에 MZ는 앱테크 열풍</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000875799?sid=102</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>고물가에 앱테크 열풍… 설문조사부터 만보기까지月 최대 100만원 이상 수입도… 쏠쏠한 부업‘시간낭비’ 회의적 시각도        직장인 박모(31)씨는 최근 퇴근할 때 지하철이나 버스를 타는 대신 걷는 일이 늘었다. 하루에 1만보를 걸으면 각종 앱에서 주어지는 포인트로 500원을 벌 수 있기 때문이다. 박씨는 때때로 할당량인 만보를 채우지 못한 날에는 휴대폰을 손에 쥐고 흔들어서라도 걸음 수를 채우고 있다.고물가·고금리에 따른 경기침체가 지속되자 MZ세대(밀레니얼+Z 세대·1981~2010년생)가 앱테크를 적극 활용하고 있다. 앱테크는 모바일 애플리케이션(앱)과 재테크의 합성어로 앱을 활용해 포인트나 우대금리 등을 적용받는 상품을 의미한다. 진입장벽이 낮고 여러 종류의 앱을 사용하면 한 달에 많게는 100만원이 넘는 수입을 올릴 수 있어 ‘쏠쏠한 부업’이라는 반응이다.토스 제공        8일 토스에 따르면 ‘토스 만보기’ 앱은 이미 작년 기준 누적 사용자수가 400만명을 돌파했다. 사용자 휴대폰에서 측정된 걸음수와 위치 정보에 따라 보상을 제공하는 식이다. 1000걸음, 5000걸음을 완료하면 각각 10원씩 얻을 수 있으며 1만보를 걸으면 20원을 받을 수 있다. 토스에서 지정해주는 장소에 가면 하루 최대 140원까지 모을 수 있다.걸음수에 따라 우대금리가 쌓이는 적금 상품도 나왔다. 우리은행은 지난 1월 12일 최고 연 11%의 ‘데일리워킹 적금 시즌2′를 내놨다. 설문조사를 통해 포인트를 얻는 앱은 만보기에 비해 보상폭이 크다. 설문조사 앱 ‘오베이’는 제휴사 설문조사에 응답하면 회당 30~1000포인트의 리워드를 지급한다. 이 리워드는 오베이 앱 내의 오베이샵에서 커피 등 기프티콘을 구매하는 데 사용할 수 있다. 1만원 이상 모이면 현금 출금도 가능하다.앱테크를 잘 활용하면 한 달에 수십만원에서 많게는 100만원 이상의 수익을 낼 수 있다는 인증글도 재테크 카페 등에 자주 올라온다. 이렇게 SNS 홍보를 겸하면 추가 포인트를 받을 수 있고, 꾸준히 출석체크와 이벤트 참여를 하면서 수십개의 앱을 동시에 활용하는 요령이 필요하다.지난해 11월 앱테크로 약 87만원의 수익을 올린 직장인 이모(33)씨는 “그냥 습관처럼 휴대폰을 켜놓고 이벤트와 출석체크를 반복하고, 블로그에 추천인 아이디를 홍보하는 걸 꾸준히 2~3년 하니까 한 달에 기본적으로 수십만원씩은 수익이 생긴다”면서 “따로 시간을 내지 않고, 어딜 가지 않아도 휴대폰만 있으면 되니까 부업으로 쏠쏠하다”고 말했다.참여 조건이 따로 없이 휴대폰만 있으면 되니 참여율도 매우 높다. HR테크 기업 인크루트가 지난해 ‘앱테크’ 참여도와 참여 이유를 알아보기 위해 성인남녀 1707명을 대상으로 설문 조사를 진행한 결과, 응답자의 75%가 현재 앱테크를 하고 있다고 답했다. 해본 경험이 없는 응답자는 25.0%였다. 성인남녀 4명중 3명은 앱테크를 해본 셈이다.다만 일각에서는 ‘시간낭비’라는 회의적인 반응도 나온다. 큰 수익을 올리는 것은 소수에 불과하고 대다수 사람들의 경우 들이는 시간 대비 수익이 크지 않아 효율이 떨어진다는 것이다. 직장인 성모(38)씨는 “요새 앱테크랍시고 휴대폰을 손에서 못떼는 사람들을 많이 봤는데 거기에 일일이 시간과 신경을 쏟을바엔 자기개발에 힘쓰는게 훨씬 생산적인 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스증권, 13일부터 미국주식 거래시간 대폭 확대</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003781661?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>토스증권은 주간에도 미국주식 거래를 할 수 잇도록 시간을 대폭 확대한다고 8일 밝혔다.     늘어나는 거래 시간은 한국시간 오전 10시부터 오후 5시 50분까지로 기존 거래시간과 더하면 총 21시간 50분, 하루 대부분의 시간에 미국주식 거래가 가능해진다. 토스증권은 13일부터 거래시간 확대가 시작된다고 설명했다.     거래 시간에 따라 프리마켓(18:00~23:30), 정규장(23:30~06:00), 애프터마켓(06:00~08:00), 데이마켓(10:00~17:50)으로 구분되고, 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.     거래 방법은 기존 투자 방식과 같다. 별도의 거래 방법을 익힐 필요없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다. 토스 앱 내 '주식' 탭을 통해 토스증권 MTS에서 원하는 미국주식을 거래하면 된다. 만약, 주문이 체결되지 않으면 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문은 유지된다. 애프터마켓까지 체결되지 않을 경우 주문은 자동 취소된다.     토스증권은 다양한 시간대에 고객의 원활한 미국 주식거래를 위해 유동성 공급자(Liquidity Provider, LP)를 확보하며 이번 서비스를 준비해왔다. 토스증권 관계자는 “투자 대상과 방법 만큼 투자가능 시간도 투자판단에 중요한 요소”라며 “우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것”이라 말했다.     한편, 토스증권 미국주식 서비스는 주말과 미국 휴장일에는 정규장이 열리지 않기 때문에 데이마켓 거래도 제공되지 않는다. 미국주식 수수료(0.1%)는 모든 거래 시간에 동일하게 적용되고, 소수점 주문은 정규시장에만 실시간 거래가 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.02.12.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>'모바일 고지서' 서비스 계속…법령 정비까지 기간 연장</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003736859?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>법령 정비 완료 때까지 , 유효기간 연장되는 첫 사례연합뉴스과학기술정보통신부는 규제 특례를 적용 중인 KT와 카카오페이의 '행정·공공기관 고지서 모바일 전자고지 서비스' 유효기간을 법령 정비가 완료될 때까지 연장하겠다고 12일 밝혔다. 조인스오토의 '모바일 기반 폐차 견적 비교 서비스'도 특례기간이 연장된다.과기정통부는 오는 13일 서면으로 열리는 제26차 정보통신기술(ICT) 규제 샌드박스 심의위원회에서 이러한 내용을 보고할 계획이다.과기정통부에 따르면 정보통신 진흥 및 융합 활성화 등에 관한 특별법에 따라 ICT 규제 샌드박스로 실증 특례 또는 임시허가를 받은 서비스는 관계부처가 법령 정비를 추진할 경우 정비 완료 시까지 특례기간이 연장된다. 이번에 유효기간이 연장되는 2건이 법령 정비 추진에 따라 규제 특례가 연장되는 첫 사례가 된다.모바일 전자고지는 행정·공공기관 등이 우편으로 발송하던 국민연금 가입, 부가세 신고, 재난지원금 안내 등의 고지를 문자메시지나 카카오톡 등으로 보내는 서비스다. KT와 카카오페이가 ICT 규제 유예를 통해 지난 2019년 임시 허가를 얻은 뒤 현재 네이버, 토스 등 8개 사업자가 참여 중이며, 지난해 12월까지 고지서 3억 건이 발송됐다.규제 담당부처인 방송통신위원회는 모바일 전자고지 서비스 제도화를 위한 본인확인 기관 지정 등에 관한 기준 개정안을 행정 예고하는 등 법령 정비를 추진하고 있다.모바일 기반 폐차 견적 비교는 온라인 플랫폼을 통해 폐차하려는 차주와 폐차업체를 중개·알선하는 서비스로 조인스오토가 2019년 서비스를 시작한 이래 누적 1400여 건의 거래가 이뤄졌다.이 업체는 규제 특례 만료 전 법령 정비를 요청했다. 이에 담당부처인 국토교통부는 제도화를 위한 법령 정비가 필요하다고 판단해 자동차관리법 개정 등 법령 정비에 착수할 계획이라고 과기정통부는 전했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>SK텔레콤의 재평가 가능성 I 길고 긴 하락 멈출까? I Analyst 직격 인터뷰 [넘버스]</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042383?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>블로터 &lt;넘버스팀&gt;이 알면 좋을 스타트업·혁신기업·IT기업 생태계 정보를 소개합니다.SK텔레콤은 지난 2021년 11월 인적분할했습니다. 인공지능(AI)과 디지털 인프라 서비스를 담당하는 SK텔레콤이 존속회사로 남고, 반도체와 ICT 투자를 전담할 SK스퀘어를 신설 출범했지요. 인적분할로 SK텔레콤은 주식시장에 변경 상장했고, SK스퀘어는 재상장했습니다.곧 발표될 2022년 연간 실적은 SK텔레콤의 분할 후 순수 통신회사로서 첫 성적표입니다. 통신사업과 비통신사업 분리 경영이 효율적이고, 주주가치를 높이는 데 기여했는가 평가받는 자리이죠. 이에 더해 SK텔레콤이 내걸고 있는 새로운 사업의 가능성을 가늠해볼 수 있을 것으로 기대됩니다.SK텔레콤 2022년 4분기 실적 프리뷰 보고서를 낸 김수진 미래에셋증권 리서치센터 선임 연구위원을 만나 자세히 이야기 나눴습니다.김수진 미래에셋증권 리서치 센터 선임 연구위원 / 촬영 : 강예지 기자Q. SK텔레콤 2022년 사업 성과, 전반적으로 어떻게 평가하시나요?A. SK텔레콤과 SK스퀘어, 사업 분할 후 첫 연간 실적인데요. 저는 긍정적으로 보고 있습니다. 2022년 매출은 1년 전보다 3% 증가했을 것으로 보고, 2023년에는 5% 성장을 전망하고 있습니다. 영업이익률은 2021년 8.3%에서 2022년 9.6%로 개선될 것으로 봅니다.과거 SK스퀘어 사업부가 포함되어 있을 때는 순수 텔레콤 회사로서 가치를 인정받기 어려웠는데요. 통신사업이 전체의 95% 이상 차지하는 가운데 마진이 개선된 점을 고려할 때  순수 통신사업자로서 기업가치를 평가 받기에 유리한 상황이 되었다고 생각합니다.Q. 이동통신사 메인 사업은 결국 가입자 수가 늘어야 승산이 있을 것 같은데요. 5G(5세대 이동 통신) 가입자 추이는 어떻게 보시나요?A. 5G 침투율은 약 60% 달성했습니다. 과거 통신사들 매출을 보면 3G, 4G, 5G와 같이 새로운 무선통신 기술이 등장했을 때 가입자가 급격히 늘었다가 변곡점에서 둔화되는 패턴을 보였습니다. 조금씩 성장세가 완만해질 수밖에 없는 것이죠.2018년 5G 도입 후 5년차에 접어들었는데요. 가입자가 늘어나야 하는 것은 맞지만 (시간이 갈수록) 성장률이 둔화될 수밖에 없습니다.Q. 이동통신 3사 중에 SK텔레콤 매출과 이익이 가장 안정적으로 늘 것으로 보셨는데요. 타사 대비 SK텔레콤이 낫다고 보시는 이유는 무엇인가요?A. 2023년 연초 MNO(Mobile Network Operator, 이동통신망) 사업에서 SK텔레콤의 시장 점유율이 둔화했다는 소식에 주가가 흔들린 바 있습니다. 하지만 인구가 감소하는 우리나라 시장에서는 더이상 모바일 가입자 수를 늘리는 데 한계가 있습니다.모바일 둔화는 어쩔 수 없지만 ARPU(Average Revenue Per User, 이용자 당 평균 매출)를 늘리고, B2B(기업간 거래)를 늘리는 데서 SK텔레콤이 승부수를 띄울 수 있다고 보고 있습니다.SK텔레콤 주가 추이 / 출처 : 네이버 증권Q. 고물가에 알뜰폰이 이통 3사 점유율을 위협한다는 소식이 올 들어 많이 나왔습니다. SK텔레콤의 점유율이 30%대로 내려온 것이 1994년 이후 처음이라고 하는데요. 알뜰폰 영향은 어떻게 보시나요?A. 토스 영향을 주시하고 있습니다. 토스가 알뜰폰 시장에 진입하기 전에는 알뜰폰도 통신 3사의 자회사 매출로 기여해왔습니다. ARPU가 떨어지는 효과는 있었지만 전반적으로 시장점유율을 빼앗길 걱정은 하지 않았거든요.Q. 최근 내신 보고서를 보면 데이터 센터(Internet Data Center, IDC)나 클라우드, 구독 서비스인 T우주 등 여러 사업에서 올해가 성장 분기점이 될 거라 보신 것 같은데요. 어떤 근거가 있나요?  A. 런칭한 지 이제 1년 정도 된 T우주는 본격적으로 수익을 볼 수 있는 구간에 진입했다고 판단했습니다. 메타버스 플랫폼 이프랜드는 현재 49개국에 런칭함으로써 글로벌 수익모델을 확보했고요.기존 데이터 센터에 더해 SK텔레콤이 짓고 있는 데이터 센터가 완공되면 추가 수익 창출이 가능하다고 봅니다.Q. 초거대 AI 사업이나 도심항공교통(UAM) 등을 보면 너무 공격적으로, 다방면으로 투자하는 게 아닌가 하는 우려가 있습니다. A. 앞서 말씀드렸듯이 AI 시대로 가는 과정에서 투자는 필수적인 것 같습니다. 정부 정책상 UAM도 상용화되는 날이 곧 올 것이기 때문에 이에 대한 투자도 긍정적으로 보고 있고요. 에이닷이라는 AI 서비스는 현재 가입자에 대한 부가 서비스로 제공되는데, 더 뛰어난 성능을 가질수록 고객을 유도할 수단이 될 수 있을 듯 합니다. 하지만 아직까지 그 정도 퍼포먼스를 낸다고 평가받지는 못하고 있고요. 에이닷이 GPT-2에서 GPT-3로 업그레이드됐는데, 기술력을 더 높인다고 하니 챗GPT(ChatGPT)에 세상이 놀랐듯 이용자 기대에 부응한다면 가입으로 이어질 것이라 생각합니다. 다만, 아직 수익화 방안에 대해서는 잘 드러나지 않은 것 같습니다.Q. SK텔레콤 또는 통신주 주가에 가장 영향을 미치는 요인은 무엇인가요? A. 앞서 언급했듯이 그동안은 장기적으로 3G, 4G 등 새 기술이 등장해 가입자 수가 늘 때 주가가 움직였습니다. 앞으로는 이처럼 통신 기술 발전에 따른 사이클에 매출이 연동되는 경향이 사라질 것이고, 그렇기에 이제는 신사업 성과가 중요하다고 생각합니다.Q. 8일 예정된 실적 발표에서 어떤 점을 주시해야 할까요?  A. 첫 번째로는 ARPU가 계속 상승하는 가운데 마케팅 비용이나 감가상각비 등 비용 효율화를 지속할 수 있을 것인가를 보고요. 신사업과 관련해서는 B2B 성과 추이를 봐야 합니다. 두 번째로는 배당 수익률입니다.SK텔레콤 주당 배당금(DPS) 추이와 전망 / 출처 : 미래에셋증권 마지막으로 이번 4분기 실적 발표에서 올해 사업에 대한 분위기를 알려줄 수 있으니 이 점을 염두해 보시면 좋겠습니다.분할한 지 1년이 지난 지금 SK텔레콤의 주가를 보면 2021년 10월 분할 당시 "시장에서 제대로 기업가치를 대접받겠다"던 포부, 참으로 ‘공허’하게만 들리네요. 하지만 지난 1년의 실적을 면밀히 뜯어보면 SK텔레콤이 시장에서 꼭 홀대를 받은 것은 아닙니다. 시장 밑바닥에서는 미묘한 변화의 흐름이 보입니다. SK텔레콤에 대한 더 많은 스토리를 블로터의 투자 리터러시 플랫폼 &lt;넘버스&gt;에서 확인하세요.당신에게 들려줄 이야기· 인적분할 1년 후 SK ’텔레콤’ 실적 전망· AI(인공지능) 사업 비롯 SK텔레콤 신사업 분석· 투자자가 주목해야 할 곧 나올 실적발표(2022년 연간 실적) 관전 포인트· 결론 : SK텔레콤 재평가 가능할까?</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스뱅크 '모임통장' 출시 … 年이자 2.3%</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005082370?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>총무 말고 다른 사람도 모임통장에서 돈을 꺼내 쓸 수 있다. 통장에 모인 회비에는 연 2.3% 금리가 적용된다.토스뱅크가 이 같은 기능을 갖춘 '토스뱅크 모임통장'을 출시했다고 1일 밝혔다. 토스뱅크는 한 명만 출금하고 결제할 수 있는 기존 모임통장과 달리 '공동모임장'을 선임할 수 있도록 했다. 모임장의 동의를 받고 실명 확인 절차를 완료한 모임원을 공동모임장으로 지정할 수 있다. 모임장과 기존 에 지정된 공동모임장의 동의를 얻어 공동모임장을 여러 명 세울 수도 있다. 모임장들은 모두 본인 명의 카드를 발급받아 결제·출금할 수 있다.토스뱅크 모임통장은 연 2.3%(세전) 금리 혜택이 적용된다. 토스뱅크는 모임통장 출시를 기념해 다음달 말까지 '모임지원금 이벤트'를 연다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원을 지원한다. 모임원 가입 인원에 제한이 없고, 모임원은 손쉽게 다른 모임원을 초대할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>“멋진 성공담은 그만”… ‘IT업계 현실’ 설명에 800명 몰려</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003476953?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>IT업계 개발자-디자이너 등 대상실질적인 성장-생존 전략 강연“회사 작아도 정답 찾는 과정 중요”지난달 28일 서울 강남구 코엑스에서 열린 개발자, 디자이너 행사 ‘DDC 2023’에 20, 30대 참석자 800여 명이 모여 발표를 듣고 있다. 지민구 기자 warum@donga.com“대단한 기술이나 성공의 이야기보다는 개발자, 디자이너가 단계적으로 성장해 온 이야기를 전하고 싶었습니다.” 최저기온이 영하 12도까지 내려간 지난달 28일 오전 서울 강남구 코엑스에서 열린 ‘DDC 2023’ 행사엔 20, 30대 방문객 800여 명이 모였다. 태블릿PC나 노트북을 손에 쥐고 행사장을 찾은 이들은 대부분 정보기술(IT) 기업과 스타트업에서 일하는 10년 차 안팎의 젊은 개발자, 디자이너였다. IT 교육 스타트업 ‘멋쟁이사자처럼’의 이두희 대표가 “각종 콘퍼런스에서 들은 멋진 기술 이야기와 현실 업무는 간격이 컸다”며 말을 이어가자 일부 참석자는 고개를 끄덕였다. 참석자들이  콘퍼런스에 나온 이유는 경기 침체로 이직·채용 시장이 얼어붙은 상황에서 업계 선후배가 전하는 현실적인 정보와 경험담을 전해 듣기 위해서다. 네이버, 카카오 등 이른바 ‘네카라쿠배’ 같은 대형 회사 직원들이 전하는 고액 연봉 성공담이 아닌 업계에서 현실적으로 살아남고 성장할 수 있는 전략에 귀를 기울인 것이다. 현장에서 만난 스타트업 직원 양진화 씨(29)는 “큰 기업에서 일궈낸 대단한 성공담이 아니라 어떻게 하면 이 업계에서 조금씩 성장하고 발전할 수 있는지 현실적인 이야기를 듣고 싶었다”고 말했다. 현장에서 발표를 맡은 이들은 스타트업에서 실무를 맡은 10년 차 안팎의 데이터 전문가나 개발자였다. 이원지 무신사 데이터프로덕트 리더는 “네카라쿠배 같이 큰 회사에 들어가면 정해진 일만 할 수도 있는데 규모가 작더라도 각자 기준에 잘 맞는 회사를 발견해 정답을 찾아가는 과정이 중요하다”고 강조했다. 이어 발표를 맡은 김난 뱅크샐러드 개발자가 “2년 전에도 일하다 막혀 답답한 마음에 친구에게 개발 업무를 그만둘 거라며 문자를 보내기도 했다”고 말하자 행사장 안에서 웃음이 터졌다. 그는 “큰 회사에서 일하는 ‘슈퍼스타’ 개발자보다도 조금이라도 팀에 이바지하고 함께 일하는 구성원이 되고 싶다는 마음에 일을 계속 하고 있다”고 강조했다. 업계에서 널리 알려진 유명 개발자나 디자이너 중심으로 행사를 구성한 게 아니었지만 이틀간 열린 콘퍼런스의 1인당 2만5000원 입장권 2000장은 매진됐다. 행사장 앞에 마련된 무신사, 토스(비바리퍼블리카) 등 상담관엔 쉬는 시간에도 수십 명씩 참석자가 몰려 조직문화나 업무 환경을 물으며 이직 가능성을 확인하기도 했다. 김지홍 멋쟁이사자처럼 디자인부문 헤드는 “앞으로도 개발자, 디자이너에게 실질적으로 도움이 될 수 있는 행사를 기획하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[실전재테크]월 이자 10만원 줄였다…금리인하요구권 신청해볼까</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005211789?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>#카카오뱅크 고객 A씨는 지난해 카뱅의 대출로 제2금융권에 있던 3000만원의 대출을 상환했다. 비은행권 대출이 감소하면서 A씨의 신용점수는 100점 넘게 뛰었다. 신용점수가 높아진 A씨는 신용점수 상승을 사유로 카뱅 모바일 앱을 통해 금리인하요구권을 신청했고, 대출 금리를 4%포인트 넘게 줄였다. A씨가 줄인 이자는 매달 10만원, 연 단위로 환산하면 120만원의 이자를 절감했다.인뱅 금리인하요구권 신청 봇물물가 상승, 대출 이자 부담 등으로 가계의 삶이 팍팍해지면서 금리인하요구권에 대한 관심도 늘고 있다. 금리인하요구권은 소득·재산 증가, 신용도 상승 등 차주의 재무 상태가 대출 당시보다 개선된 경우 은행에 금리를 낮춰달라고 요구할 수 있는 제도다. 최근에는 인터넷전문은행을 중심으로 금리인하요구권 덕을 본 사례가 심심치 않게 생겨나면서 금리인하요구권의 신청 건수도 급증하는 추세다.카카오뱅크에 따르면, 지난해 금리인하요구권 총 신청 건수는 102만6000건으로 전년(54만1000건)대비 약 2배 가까이 증가했다. 인터넷전문은행의 경우 특히 저축은행 등 2금융권에 있던 고객들이 대환하면서 신용도가 올라가기 때문에 금리인하요구권 덕을 보는 사례가 늘고 있다. 토스뱅크의 상황도 비슷하다. 지난해 토스뱅크의 전체 금리인하요구건수는 18만9000건으로 5대 시중은행이 고객들로부터 받은 평균 금리인하 신청건수(약 8만건)의 2.3배에 달했다. 토스뱅크에 따르면 금리인하 대상 고객들은 평균 0.8%포인트 금리 인하 효과를 누렸다. 케이뱅크의 경우에도 지난해 금리인하요구권 신청건수가 전년 대비 2배 가까이 늘었다.금리인하요구권 수용률 역시 아직 공시 전이지만 2021년보다 대폭 상승했다는 것이 인터넷전문은행 관계자들의 전언이다. 한 인터넷전문은행 관계자는 "고금리 시기였던 지난해 금리인하요구권 평가를 좀 더 세분화하면서 수용률도 대폭 늘었다"고 설명했다.금감원, 금리인하요구권 공시 개선 다만 시중은행과 고신용자 대상으로는 여전히 금리인하요구권 제도가 활성화되지 않았다는 지적도 나온다. 시중은행들의 소극적인 태도도 한 몫 한다. 은행들 입장에선 금리인하요구권은 수익 감소로 이어질 수 있기 때문에, 굳이 적극적으로 먼저 나설 요인이 크지 않다. 게다가 금리인하요구권은 신용도가 크게 올라야 수용될 확률이 높고, 승진하더라도 월급 인상률이 높지 않았다면 받아들여지지 않는 경우도 있다 보니 아직 일반 금융 소비자들에게 체감이 되지 않는 것이 현실이다.  시중은행 관계자는 "은행별로 내부 신용평가 모델이 다르고, 소득 외에도 차주의 재무 상태 전반을 따지기 때문에 정확한 기준이 없다"고 설명했다. 또 기존에 소득, 재산, 신용도가 높았던 고신용자의 경우엔 이미 최저 수준의 금리를 적용받았기 때문에 재무 상태가 개선됐다고 해도 추가 인하 여지가 적다.이에 금융감독원도 금리인하요구권 제도의 활성화에 나섰다. 금감원은 이르면 이달 은행들이 고객의 대출금리 인하 요구를 수용해 금리를 얼마나 내렸는지 공시한다. 제도의 실효성을 높이고, 은행들의 적극적인 참여를 유도하겠다는 취지다.금리인하요구권은 기존에도 공시가 됐지만, 신청 건수, 수용 건수, 이자 감면액, 수용률 정도만 공개됐다. 금감원은 비대면 신청률을 추가로 공시할 예정이다. 또 금리인하요구권 수용에 따른 평균 금리인하폭도 공시해 건수 위주로 된 공시를 보완한다는 계획이다. 가계와 기업으로 구분하고 신용, 담보, 주택담보대출로 수용률을 구분 공시해 정보 제공 범위도 확대한다.금융권 관계자는 "예금 금리도 낮아진 상황에서 이자를 줄이는 것이 큰 재테크라 여기는 분위기다 보니 금리인하요구권 신청도 활발해지고 있다"며 "공시가 개선되면 은행들도 (금리인하요구권 수용에) 좀 더 신경 쓸 수밖에 없을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>토스증권 "오전 10시부터 미국주식 거래"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001081652?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>토스증권은 오는 13일부터 미국주식 거래 시간을 대폭 확대한다고 8일 밝혔다.늘어나는 거래 시간은 한국시간 오전 10시부터 오후 5시 50분까지로 기존 거래시간과 더하면 총 21시간 50분, 하루 대부분의 시간에 미국주식 거래가 가능해진다.거래 시간에 따라 프리마켓(18:00~23:30), 정규장(23:30~06:00), 애프터마켓(06:00~08:00), 데이마켓(10:00~17:50)으로 구분되고 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.거래 방법은 기존 투자 방식과 동일하며, 별도의 거래 방법을 익힐 필요없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다. 토스 앱 내 '주식' 탭을 통해 토스증권 MTS에서 원하는 미국주식을 거래하면 된다.만약, 주문이 체결되지 않으면 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문은 유지된다. 애프터마켓까지 체결되지 않을 경우 주문은 자동 취소된다.토스증권은 다양한 시간대에 고객의 원활한 미국 주식거래를 위해 유동성 공급자(Liquidity Provider, LP)를 확보하며 이번 서비스를 준비해왔다.토스증권 관계자는 "투자 대상과 방법 만큼 투자가능 시간도 투자판단에 중요한 요소"라며 "우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것"이라고 말했다.한편 토스증권 미국주식 서비스는 주말과 미국 휴장일에는 정규장이 열리지 않기 때문에 데이마켓 거래는 제공되지 않는다. 미국주식 수수료(0.1%)는 모든 거래 시간에 동일하게 적용되고, 소수점 주문은 정규시장에만 실시간 거래가 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>임베디드, BNPL, 슈퍼앱.. '변화무쌍' 핀테크 산업</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002297220?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>삼정KPMG '핀테크 산업 투자 동향과 주요 10대 트렌드' 발간지난해 글로벌 핀테크 투자 건수 5498건·투자액 1499억 달러.. 금리인상 기조로 '약세'핀테크 산업 재편… 슈퍼앱,BNPL 등 "플랫폼 경쟁 본격화… 슈퍼앱·임베디드 금융 '성장' 전망" ◆…'핀테크 산업 투자 동향과 주요 10대 트렌드' 보고서 (사진 = 삼정KPMG 제공)     디지털 전환 가속화와 함께 핀테크 산업이 임베디드 금융(Embedded Finance), 선구매·후지불(BNPL, Buy Now Pay Later) 등 다양한 형태로 재편되고 있다.   삼정KPMG가 13일 발간한 보고서 '핀테크 산업 투자 동향과 주요 10대 트렌드'에 따르면, 코로나19 팬데믹으로 크게 위축된 글로벌 핀테크 산업 투자가 지난 2021년 8052건·2379억 달러로 회복됐지만, 작년 주요국 금리인상 기조 등으로 약세(5498건·1449억 달러, 작년 10월까지 누적 기준)를 보였다.   투자 지역별로는 북미, 유럽의 강세가 이어지는 가운데, 코로나19 이후 동남아시아 및 라틴아메리카에서 핀테크 역할이 확대되며 투자자들의 주목을 받았다. 특히 지난해에는 전반적 투자 약세 속 호주 등에서 대형 인수합병(M&amp;A)이 발생했다는 설명이다.   이어, 섹터별로는 지급결제 부문이 투자를 주도하는 한편, 핀테크 산업의 성숙화가 진행되며 블록체인 및 가상자산, 웰스테크, 자금조달 등 투자 섹터의 다양화·대형화 추세가 나타났다.   보고서는 지난 2021년 국내 핀테크 시장은 디지털 전환 가속화와 국내 핀테크 산업의 성장 등으로 투자가 활발히 이뤄졌다고 분석했다. 다만, 지난 2021년 5월 케이뱅크의 1조 2500억 원 유상증자, 2020~2021년 토스 계열사의 약 1조 4000억 원 투자 유치 등 대부분의 투자가 빅테크와 대형 핀테크 위주로 집중됐다고 전했다.   보고서는 기존 금융업의 비효율성을 줄이고 틈새시장 내 혁신 비즈니스를 창출하며 성장해온 핀테크 산업이 디지털 금융 인프라 발전과 함께 임베디드 금융, BNPL, 슈퍼앱 등 다양한 형태로 발전하는 것에 주목했다.   임베디드 금융은 비금융회사가 금융회사의 금융상품을 중개 및 재판매하는 것을 넘어, 자사 플랫폼에 핀테크 기능을 내재화하는 것을 뜻한다. 보고서는 결제와 보험 분야에서의 임베디드 금융 활용이 두드러질 것으로 전망했다.   최근 신용이력이 없는 MZ세대나 코로나19로 소득이 감소한 소비자를 중심으로 BNPL 서비스 수요도 급증했다.   스웨덴 클라르나, 미국 어펌, 호주 애프터페이 등이 대표적이며, 어펌은 2021년 1월 나스닥에 상장하며 가치를 입증했다. 뿐만 아니라 애플, 월마트 등도 BNPL 시장 진출 또는 진출을 예고해 경쟁이 심화되고 있다. 다만 최근 주요국 기준금리 인상, 경기 둔화 등과 맞물리며 BNPL 기업의 부실화 가능성이 대두되면서 금융당국의 규제 필요성이 논의되고 있다.   보고서에 따르면, 플랫폼 경쟁이 본격화되며 슈퍼앱도 부상하고 있다. 슈퍼앱은 쇼핑, 송금, 투자 등 여러 서비스를 한 플랫폼 내에 연결한 앱을 뜻한다. 특히 동남아시아, 중국 등지의 플랫폼은 일상생활과 금융을 모두 아우르는 '종합금융플랫폼'으로 확장하며 생활 속 핵심 인프라 역할을 수행하고 있다. 보고서는 아시아에서 주류를 이루고 있던 슈퍼앱 전략은 미국이나 유럽에서도 확장세가 두드러지고 있다고 전했다.   아울러 보고서는 핀테크 산업 내 플레이어들에게 "디지털 채널, 비현금 거래의 대중화가 지속되고 오픈뱅킹 시대가 본격화됨에 따라 금융 서비스 제공 기업의 비대면 플랫폼 채널 확보와 강화가 필수"라고 강조했다.   또, 데이터 개방 및 공유 전략을 모색해 디지털 금융 생태계를 선점하는 것이 중요하며, 금융 시스템, 금융 소비자 및 데이터 보호, 규제 샌드박스 고도화 등의 규제 재정비 상황을 모니터링할 필요도 있다고 조언했다.   삼정KPMG 핀테크산업리더 조재박 부대표는 "고객이 기꺼이 비용을 지불할 수 있는 금융 서비스를 제공하기 위해 자사만의 특화된 사업 전략, 또한 B2C 외에도 기존 금융업 연계 및 비금융 확대 측면에서 시너지 창출이 가능한 B2B 및 B2B2C 서비스 모델을 검토할 시점"이라며 "금융 소비자의 빠른 선호 변화 대응을 위해 자사 비즈니스를 기반으로 혁신적 고객 경험을 제공하기 위한 차별화 및 제휴 등을 적극적으로 고려해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>IPO 연기한 서호성 케이뱅크 행장, 향후 행보는?</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002282311?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>스톡옵션 90만주, IPO 성과급 가능성…카뱅·토뱅보다 월등히 높아인터넷전문은행 1호인 '케이뱅크'가 올해 강행하기로 한 상장을 연기하면서 서호성 은행장의 행보에 관심이 쏠리고 있다.10일 금융업계에 따르면 서호성 행장이 2021년 취임하면서 부여받은 스톡옵션이 사실상 기업 공개(IPO) 성과급인만큼, 상장 철회가 서 행장에게 여파를 미칠 것이란 분석이 지배적이다.서 행장은 스톡옵션으로 90만주를 받았다. 행사가격은 6천500원. 따라서 90만주를 모두 처분한다면 단순 계산으로 58억5천만원을 받을 수 있는 셈이다.이는 다른 인터넷전문은행 최고경영자(CEO)에 비해 매우 큰 금액이다. 카카오뱅크의 경우 윤호영 대표와 이용우 전 대표에게 각각 52만주(행사가 5천원)를 부여했다. 금액으로 환산 시 26억원이다. 윤 대표는 15만6천주를 행사해 36만4천주가 남아있는 상태다.(사진=케이뱅크)토스뱅크 홍민택 대표에게 부여된 스톡옵션은 6만주(행사가 5천원)로, 환산 시 3억원을 받을 수 있다.서호성 행장의 스톡옵션은 다른 인터넷은행장들에 비해 많은 편이다. 여기에다 케이뱅크가 경영 정상화 후 IPO를 계획하고 있다는 점을 감안하면 서 행장이 IPO 성공이란 임무를 부여받을 것이란 분석이 힘을 얻고 있다.케이뱅크가 카카오뱅크 공모가와 동일한 3만9천원에 상장할 경우, 서 행장은 90만주에 대해 292억5천만원을 취득하게 된다. 단순 계산하면 차익만 230억원에 달한다.서 행장이 스톡옵션 행사할 수 있는 기간은 오는 3월 31부터 2028년 4월 30일까지다.업계가 케이뱅크 최대주주인 BC카드와 BC카드 지배 주주인 KT의 인선 변화를 주목하고 있는 것은 이런 사정 때문이다.케이뱅크 관계자는 "6천500원에 90만주를 살 수 있는 스톡옵션을 부여한 것으로, 아직 상장이 되지 않고 행사를 하지 않았기 때문에 돈을 지급한 것은 아니다"라며 "재임 기간 중 스톡옵션을 행사하려면 경영 지표에 대한 조건을 만족해야 하고, 퇴임한다면 이런 조건은 없다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[금융 IS리포트] KB 이어 토스도 '알뜰폰' 출격…시작도, 전략도 다르다</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003254696?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>30일 토스모바일 '알뜰폰' 본격화요금제 KB리브엠 &lt; 토스모바일100GB서 리브엠 1만2500원 저렴토스 '이통 3사' 이용 고객 겨냥해알뜰폰 사업자와 출혈 경쟁 안해이통3사 알뜰폰 점유율 50% 이상리브엠, 중소 '상생' 위해 가격 의도리브엠, 국민은행 '주거래' 시 요금 할인국민카드 이용 실적 따라 혜택도토스, '알뜰폰 불편 개선' 초점 맞춰24시간 고객센터, 간편 가입 등데이터 안 쓰면 1만원 캐시백도KB국민은행만이 금융사 가운데 유일하게 도전했던 '알뜰폰' 서비스에 토스가 도전장을 내밀었다. 지난달 30일 알뜰폰 요금제를 공개하며 본격적으로 시장에 뛰어든 것이다. 서비스를 운영할 주체는 토스모바일로, 전체 이동통신 시장의 '메기'가 될 것이라는 목소리가 나온다. 기존 이통사 이용 고객은 물론, 알뜰폰 고객에게는 더 넓은 선택지를 주고, 경쟁을 통한 혜택이 확대될 것이라는 기대감이 나온다.  KB국민보다 비싼 토스 알뜰폰토스 알뜰폰은 출시 이전부터 '요금제 가격'에 대한 관심도가 높았다. 요금에 따라 알뜰폰이냐, 이통사냐 견제 대상이 갈리기 때문이다.31일 토스모바일에 따르면 월 데이터 기준으로 100·71·15·7GB 등 4종의 신규 알뜰폰 요금제를 출시했다. 제공된 요금제를 다 쓰면 속도가 제한된 범위 내에서 무제한 데이터를 제공한다. 다만 제공되는 데이터의 제한속도(QoS)는 요금제마다 각기 다를 전망이다. 100GB 요금제에서는 추가 데이터 속도로 5mbps를 보장하지만, 7GB 등 저가 요금제에서는 최대 1mbps로 제한된다.이미 앞서 진행한 사전신청에서 나흘간 17만명 이상의 신청자를 모았다. 이 중 기존 이통사 가입자가 73%에 달하는 것으로 집계됐으며, 20~30대가 68%로 대다수를 차지했고 40대도 22%가 신청한 것으로 나타났다.가장 관심이 높은 가격은 100GB 요금제가 월 5만9800원으로 책정됐다. 이어 71GB 5만4800원, 15GB 3만5800원, 7GB 2만4800원으로 구성됐다. 토스모바일은 초기 가입자에게 3개월 동안 요금을 매달 1만~2만원 깎아준다는 방침이다.토스모바일 관계자는 "다양한 요금제를 출시하기보다 사용자가 선호하는 요금제를 선보여 고객의 고민을 덜어주겠다는 계획에 따라 출시 시점에 4가지 요금제를 우선 내놨다"고 설명했다.KB국민은행의 '리브모바일(리브엠)' 요금제와 비교하니, 비슷한 월 데이터를 기준으로 했을 때 리브엠이 토스모바일보다 많게는 1만2500원까지 저렴했다.2019년 금융위원회가 알뜰폰을 혁신금융서비스로 지정하면서 서비스를 시작한 리브엠은 조건에 따라 다양한 요금제를 제공하고 있다. 통신망은 이통 3사를 모두 이용한다.토스모바일에서 서비스하는 4가지 요금제와 비슷한 리브엠 요금제로 'LTE무제한 100GB+'는 SKT망에서 월 4만7300원에 제공하고, KT망 5G 기준 요금제는 월 4만7500원에 제공하고 있다. 리브엠에는 70GB대를 제공하는 요금제는 없고, LGU+망에서 5G 속도로 30GB를 제공하는 요금이 4만4500원이다. 15GB 요금제는 KT, LGU+망에서 2만8500원, SKT에선 2만9700원이다. 7GB 요금제는 KT망에서 1만9500원, LGU+망에서 2만1900원, SKT망에서 2만2000원에 제공한다.토스모바일 요금제는 알뜰폰 이용자들이 많이 찾는 요금제와 비교해도 비싼 수준이다.알뜰폰 요금제 비교·검색 플랫폼 모요(모두의요금제)에 따르면, 지난해 12월 17일부터 지난달 17일까지 5G 알뜰폰 인기요금제 1위는 ‘데이터 150GB에 월 4만9000원 상품’이었고, LTE 알뜰폰 인기요금제 1위는 ‘데이터 11GB+일2GB에 월 3만9600원 상품’이었다.토스모바일 관계자는 "가격 경쟁이 아닌 통신 서비스 경험 혁신을 통해 가상 이동통신망 사업자(MVNO) 시장의 저변을 넓혀나가겠다"고 말했다. 토스모바일·리브엠, 다른 전략출시 이전부터 업계는 토스모바일의 요금제 가격 구성이 기존 알뜰폰 요금제 대비 비싸게 책정될 것이라는 관측이 나왔다. 그러면서 알뜰폰보다는 이통사와 겨루는 서비스가 될 것으로 분석했다.알뜰폰 업계 가격과 비슷하거나 저렴하다면 리브엠과 더불어 중소 알뜰폰 사업자들과의 출혈경쟁이 불가피해진다. 반면 알뜰폰보다 비싸고 이통 3사보다 싸면 기존 이통사의 고객을 데려오는 서비스가 될 것이라는 이유에서다. 애초 토스모바일은 2400만 토스 사용자를 집중 공략 대상으로 봤다. 토스모바일은 사용자 92%가 기존 이동통신망사업자(MNO) 가입자로 알뜰폰 가입자 비중은 8%에 그친다는 데 주목했다. 토스모바일이 이통 3사 데이터·통화 무제한 요금제에서 토스모바일 요금제로 변경할 경우 약 20% 이상의 통신비를 절감할 수 있다는 점을 강조하고 나선 이유도 여기에 있다.반면 리브엠의 출발은 이통사 시장에 이어 알뜰폰 시장으로 견고하게 이어진 이통 3사 알뜰폰 자회사의 과점 체제를 깨는 시도였다. 이런 점에서 알뜰폰 업계는 리브엠을 반겼고, 금융사가 진입하면서 시장 신뢰도를 높이고 경쟁을 촉발할 수 있을 것으로 봤다. 이에 따라 리브엠은 알뜰폰에 대한 고객 인식을 바꾸고 지난 12월 컨슈머인사이트가 실시한 이동통신 고객만족도 조사에서 78%로 알뜰폰 가운데 1위를 차지했다. 게다가 알뜰폰 가운데 처음으로 5G 서비스를 제공하며 이통 시장에 새 바람을 일으키기도 했다. 하지만 동시에 다른 중소 알뜰폰 사업자와의 출혈경쟁이 불가피해지면서, 알뜰폰 업계 내 반발도 불러 일으켰다.이에 국민은행 관계자는 "리브엠은 가격 포지셔닝을 점유율이 50% 이상인 기존 통신사의 알뜰폰 자회사보다는 낮고 중소업체보다는 비싸게 의도적으로 설정했다"며 "여기에 은행과 카드 이용에 따른 할인을 제공해 소비자가 혜택을 볼 수 있게 하고 있다"고 말했다. 리브엠 '금융 혜택', 토스 '불편 개선'국민은행은 'KB든든할인'이라는 혜택으로 상품에 따라 최대 월 3300원의 요금할인을 제공하고 있다. 국민은행이 주거래라면 1100원을 할인해주고, 국민은행으로 KB국민카드 결제 실적이 있어도 1100원이 할인된다. 국민은행 '스타클럽' 멤버십에 가입돼 있다면 등급에 따라 1100원부터 최대 4400원까지 할인해주고, 친구결합 이용 시 1명당 1100원의 할인혜택을 제공하는 등이다.리브엠은 또 국민카드와도 연계해 이용 실적에 따라 통신비를 할인하는 혜택을 제공하고 있다.이 밖에도 요금제에 따라 직업·연계 서비스 등을 통해 다양한 할인 혜택을 추가해 고객의 선택 폭을 넓혀놨다.국민은행 관계자는 "리브엠을 이용하는 고객이 국민은행과 국민카드를 이용할 시 요금을 할인받을 수 있도록 혜택을 주고 있다"고 말했다. 리브엠이 금융사와 연계해 각종 혜택을 제공하고 있다면, 토스모바일은 기존 이동통신 업계에서 시행하고 있지 않은 다양한 서비스로 승부수를 내걸었다.먼저 토스모바일은 미사용 데이터에 대해 최대 1만원의 캐시백 제공으로 차별화 포인트를 잡았다. 100GB 상품을 가입해놓고 월 사용량이 10GB 미만이라면 1만원을, 70GB 미만이라면 2000원을 가입자에게 돌려주는 식이다.캐시백으로 받은 포인트는 요기요, 무신사, 야놀자 등 7000여 곳의 토스페이 가맹점에서 사용할 수 있다. 포인트를 현금화하는 것도 가능하다. 또 토스페이 가맹점에서 결제한 금액의 10%(최대 5000원)를 캐시백으로 받을 수 있다. 캐시백으로 받은 포인트 역시 현금화할 수도 있다.알뜰폰 업계의 고질적인 문제로 꼽히던 고객센터도 24시간으로 확대해 불편을 해결한다는 방침이다.개통도 간소화했다. 토스 앱에서 신청하면 무료로 유심을 빠르게 고객에게 보내준다. 잔여 데이터 확인도 앱에서 가능하다. 일반적으로 잔여 데이터 등을 확인하기 위해서는 앱을 별도로 다운 받아야 하는데, 토스 앱에서 모든 서비스가 가능한 것이다.토스모바일 관계자는 "토스가 금융 플랫폼으로 간편 송금, 주식거래, 인터넷뱅킹 등 다양한 금융서비스에서 혁신을 이뤄온 것처럼 통신 서비스 영역에서도 소비자들이 불편함을 느꼈던 부분을 개선해 나갈 것"이라며 "편리하고 직관적인 통신 서비스를 기반으로 다양한 혜택을 더해 새로운 통신의 기준을 만들 것"이라고 말했다.업계는 토스가 리브엠처럼 금융과도 연계한 결합 혜택을 내놓을 것으로 내다본다. 업계 관계자는 "현재는 금융과 연계한 서비스를 제공하지 않아도, 결국에는 토스 이용자를 끌어오기 위한 연계 서비스를 내놓을 것으로 보고 있다"고 말했다.권지예 기자 kwonjiye@edaily.co.kr◇ 토스모바일과 리브엠 요금제 비교데이터             토스모바일                  리브엠100GB              5만9800                   4만7300(SKT, LTE) 4만7500(KT, 5G)71GB                5만4800                      -30GB                 -                            4만4500(LGU+, 5G)15GB                3만5800                   2만8500(KT·LGU+), 2만9700(SKT)7GB                  2만4800                   1만9500(KT), 2만1900(LGU+), 2만2000(SKT)◇ 알뜰폰 인기 요금제 순위구분      순위      월 제공 데이터     5G         1위         150GB            2위          110GB            3위          180GBLTE        1위          11+2GG             2위           7GB            3위           100GB*자료=모요 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>긱워커 중개 플랫폼 진화…AI·빅데이터로 최적 매칭</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003078704?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>@게티이미지뱅크긱워커를 중개하는 플랫폼이 진화하고 있다. AI와 빅데이터를 활용, 아르바이트 중개에서 전문 직업군 중개까지 최적화된 매칭을 제공한다.단기 아르바이트 중개 플랫폼은 기술을 접목해 기존 구인구직 편의성을 확대 중이다. 니더는 구직회원이 지원하는 업무, 추천서 발급 유무, 무단결근 데이터 등 구직자 활동 데이터를 수집한다. 자영업자(구인회원) 측에서는 주로 채용하는 성별, 연령대, 거리, 선호하는 경력 등을 수집한다. 양측 데이터를 바탕으로 서로에게 적합한 정밀 매칭을 지원한다.쑨(SOON)은 사장님의 근무 리뷰를 기반으로 적합한 일자리 찾아준다. 근무자의 경력, 보유 스킬, 근무 리뷰를 바탕으로 알바를 배정한다. 현재는 구직자 데이터를 모으고 분류하는 단계다. 올해 안에는 시범적으로 빅데이터를 활용해 AI 알바 배정 자동화를 계획이다.전문직 중개에도 AI 및 빅데이터 활용이 활성화되고 있다. 롸잇은 탑티어 마케터 시간제 고용 서비스 '원포인트'를 운영 중이다. 전문가 검증 고도화 기술과 최적 매칭 기술을 연구 개발 중이다. 머신러닝 기술을 활용해 지원자의 하드, 소프트 스킬 평가를 자동화한다. AI 알고리즘 기반 전문가 추천 시스템을 통해 최적 전문가를 신속 정확하게 추천한다.탤런트뱅크는 전문가센터와 비즈니스디렉터(BD) 그룹 이라는 2개 중요 조직을 통해 '인공지능(AI) 매칭'과 '휴먼 터치' 결합 매칭을 제공한다. 기업 고객 의뢰 내용과 전문가 데이터베이스(DB)에 따라 AI가 전문가를 1차로 선별한다. 선별된 전문가는 배정된 BD를 통해 알맞은 기업에 매칭된다.탤런트리가 운영하는 번지는 프로젝트 단위로 경력직 인재 채용을 지원하는 서비스다. 네이버, 카카오, 쿠팡, 토스, SK텔레콤 등 국내외 빅테크 기업의 인재가 프로젝트를 수행할 수 있도록 연결한다. 과제·인재 제안 시 AI와 빅데이터를 활용해 매칭 일치율은 약 80%를 상회한다. 고객사가 인재를 찾는 맥락과 이유, 전문가와 협업 가능한 실무자와 업무 환경을 정성적으로 분석한 데이터를 활용하기에 가능하다는 설명이다.긱 워커 매칭 플랫폼은 기술을 고도화하며 구직자와 고용자 편의를 제고하고 있다. 사람인과 잡코리아 등 레거시 구인구직 플랫폼이 긱 워커 시장으로까지 사업을 확장하며 이들과의 차별성을 확보하기 위함이다. 긱 워커의 경우 레퍼런스 데이터가 부족하다는 점도 플랫폼 기업이 데이터 기술 개발에 힘쓰는 요인이다.특히 '긱' 이라는 노동 특성상 즉각적으로 수요와 공급이 매칭돼야 한다. 이때 속도와 적합도를 높이기 위해선 기술 개발이 선행돼야 한다는 설명이다.서용구 숙명여대 교수는 “AI와 빅데이터를 활용하면 정확한 취향 반영이 가능해 매칭 정확도가 높아진다”며 “이력 관리 등을 통해 사후 관리까지도 가능하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>같은 대출인데 중개수수료 4배 차이 '들쭉날쭉', 왜?</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000322837?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[앵커] 올 초 일부 저축은행들이 카카오페이나 토스의 대출 비교 서비스 수수료가 너무 비싸다며 신규 대출 중단에 나섰습니다. 시중은행과 차이가 크다고 주장했는데요.그런데 문제는 같은 2금융 안에서도 수수료율 편차가 적지 않다는 겁니다. 왜 이런 건지, 오정인 기자가 취재했습니다. [기자] 대출 비교 서비스는 간단한 개인정보만 입력하면 시중은행부터 저축은행, 카드·캐피털, 보험사 대출 상품까지 한 번에 비교가 가능합니다. 대출금리와 한도를 조회해 적정 상품을 선택할 수 있습니다. 이때 카카오페이나 토스와 같은 일종의 중개 사업자는 각 금융사로부터 수수료를 받습니다. 앞서 저축은행업계에선 이 수수료율이 부담된다며 잇따라 서비스를 중단했습니다. 다른 2금융권 상황도 크게 다르지 않습니다. 자금 조달도 어려워진 데다 수수료율까지 부담이 적지 않기 때문입니다. 지난해 말 기준 토스는 저축은행과 카드·캐피털사에 수수료를 최대 1.87% 부과했습니다. 카카오페이와 네이버파이낸셜은 1.7%였습니다. 반면 보험사는 0.4%대로 1금융인 시중은행의 절반 수준이었습니다. 중개 사업자, 빅테크 측은 "개별 금융사와 제휴를 맺는 구조로 수수료율은 협의를 통해 차등 적용된다"며 "상품마다 또 금융사와의 제휴 범위에 따른 차이"라고 설명했습니다. 예를 들어 햇살론과 같은 정책금융상품에는 더 낮은 수수료율을 부과하고, 대출 이외에도 다른 부가서비스를 제휴하는 금융사라면 수수료를 우대해 주는 방식입니다. 하지만 문제는 그 차이가 너무 커 자칫 소비자들의 이자 부담 가중으로 이어질 수 있다는 겁니다. [최승재 / 국민의힘 의원: 결국에는 대출을 중개받는 최종 소비자들이 피해를 고스란히 부담할 수밖에 없는 요소가 있거든요. 금융당국에서도 살펴봐야 될 부분이 있다고 생각합니다.] 업권 간 논의를 통해 수수료율 상한선을 정하거나 명확한 기준을 마련하는 것이 필요하다는 지적이 나오는 이유입니다. SBS Biz 오정인입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>"임자 없는 노다지" 토큰증권 잽싸게 뛰어든 증권사</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004966916?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>금융위 발행·유통 허용… 'STO 시대' 개막조각투자 플랫폼 미래먹거리로 선점 나서 증권사별 토큰증권 투자 현황 /그래픽=정기현 기자 [파이낸셜뉴스] 증권사들이 토큰 증권(STO)에 몰리고 있다. 금융위원회가 자본시장법 안에서 토큰 증권의 발행과 유통을 허용하고 관련 규율 체계 정비를 추진한다고 발표하면서다. 토큰 증권이란 분산 원장 기술을 활용해 자본시장법상 증권을 디지털화한 것이다. 보유 주식이나 수익 증권을 토큰 형태로 증명한다. 실물 증권과 전자 증권에 이은 새로운 발행 형태로 증권성을 갖춰 가상자산과는 구분된다.   현재 금융당국은 토큰 증권을 사고 팔 수 있는 유통시장의 제도 기반을 마련하고 있다. 투자계약증권과 수익증권의 다자간 거래를 매매 체결할 수 있는 장외거래중개업 인가를 신설할 예정이다. 토큰 증권 발행·유통 규율체계 정비 방안 후속으로 디지털자산, 토큰 증권 관련 법령 개정 작업을 단계적으로 추진할 계획이다.     토큰 증권 시장 준비해온 증권사  9일 NH투자증권의 윤유동, 홍성욱 연구원은 전통 금융사 중에서 증권사들이 토큰 증권 시장의 수혜를 입을 것으로 보고 있다. 약 2년 전부터 가상자산 관련 부서 또는 TF(태스크포스)를 구성해 산업 리서치, 블록체인 업계 지분투자 또는 컨소시엄 형성 등 업무를 지속했다는 설명이다.   윤 연구원은 "현재까지 진행된 사항을 고려할 때 증권사는 토큰 증권 시장 내 토큰의 유통 및 계좌관리를 주로 담당할 예정"이라며 "MTS 내 상장 토큰 매매 시스템 구축, 고객 계좌개설, 예치금 보관 등이 주요 업무다. 이 과정에서 매매수수료 수익 정도를 기대할 수 있지만 사실상 큰 수익 창출 분야로 보기는 어렵다"고 봤다. 이어 "다만 증권사는 플랫폼 강화를 위해 토큰 증권 사업에 참여한다. 소수점 거래, 마이데이터 등 다방면으로 서비스를 제공하며 플랫폼 경쟁이 치열한데 토큰 증권 매매 기능을 추가하면 투자자들의 MTS 활용 범위가 넓어질 것"이라고 설명했다. 단기적인 수익은 크지 않지만 중장기적인 고객 확보 효과가 크기 때문이다.   홍 연구원은 "지난 2021년 이후 가상자산 앱의 MAU(월평균사용자수)는 증권사 MTS보다 더 높은 수준을 유지하고 있다. 포트폴리오 다양화에 관심있는 투자자의 일부만 증권사로 끌어와도 MAU 확대가 가능하다"며 "또 증권사 역량에 따른 고객 확보 차별화도 본격화 될 수 있다. 주식 종목은 모든 MTS에서 동일하게 거래가 가능하지만, 자체 발행한 토큰 증권은 해당 회사의 플랫폼에서만 거래하도록 제한할 수 있다"고 강조했다.   홍 연구원은 이어 "미술품, 음악 저작권 등을 대상으로 한 조각투자는 참신한 투자 아이디어로 시장에서 화두로 떠올랐지만 아직까지 투자자산으로서 큰 성과를 거뒀다고 보기는 힘들다"면서 "일부 업체는 증권성 논란 등 이슈에 휘말리기도 했다. 이러한 문제점들은 전통 금융기관인 증권사와 협업하면 해결이 가능하다"고 설명했다.     제2의 토스가 나오나.. 강력한 플랫폼 구축 가능  증권사들이 토큰 증권 시장에 공을 들이는 것은 강력한 플랫폼을 만들기 위해서다. 증권사 플랫폼에 방문이 늘어나면 날수록 주식매매 유도, 금융상품 판매, 마이데이터 연계 등 다방면으로 활용가치가 높기 때문이다.   윤 연구원은 "기존 일부 조각투자업체들의 수익이 저조하고 자본잠식 상태에 빠져도 마지막까지 매각이 아닌 사업체 유지를 택한 점도 같은 이유"라며 "국내 주식시장의 평균 매매수수료율은 8bp(1bp=0,01%)로 높지 않다. 토큰 증권 시장도 비슷한 수준에 머무를 것으로 추정한다. 증권사가 토큰 증권으로 얻을 수 있는 단기 수익성은 크지 않지만 중장기적인 수익성은 훨씬 클 전망"이라고 봤다.   홍 연구원은 "테크핀 업체인 토스의 MAU는 1512만명으로 KB금융의 1166만명보다 더 많아 플랫폼의 영향력은 전통 금융사를 위협한다"며 "토스의 업력을 고려하면 매우 빠른 성장이다. 최근 알뜰폰 시장 진출 등 사업 분야를 확장해가고 있다. 증권사도 장기적으로 토큰 증권 신사업을 통해 사업 역량 강화를 충분히 기대할 수 있다"고 말했다. #조각투자 #토큰증권 #장외거래중개업</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>미국 주식도 코인처럼 24시간 거래 가능해졌다</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004808244?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>NH투자증권, 국내 첫 서비스키움·토스·한투·메리츠도 가세이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.NH투자증권 등 국내 증권사들이 미국 주식 거래 시간을 경쟁적으로 늘리고 나섰다. 밤잠 설치지 않고 편리하게 ‘미장’에 투자하길 원하는 서학개미를 겨냥해서다.NH투자증권은 8일 국내 증권업계 최초로 24시간 미국 주식 매매 서비스를 선보였다. 한국시간 기준 오전 10시부터 오후 6시까지 미국 주식 주간거래를 운영한다. 기존 프리마켓(오후 6시~11시30분), 정규장(오후 11시30분~오전 6시), 애프터마켓(오전 6~10시)을 포함하면 하루 종일 미국 주식을 사고팔 수 있게 됐다.주간거래는 글로벌 시장조성자의 유동성 공급(LP)을 통해 실시간 매수·매도가 이뤄진다. 시세는 5호가로 제공하며 향후 10호가로 확대할 계획이다. 정중락 NH투자증권 플랫폼혁신본부 대표는 “원장 관리 시스템을 효율화해 정산 시간을 최소화하는 방식으로 국내 최장 거래 시간을 확보했다”고 말했다.키움증권도 이날 미국 주식 주간거래 서비스를 도입했다. 오전 10시부터 오후 5시30분까지다. 프리마켓, 정규장, 애프터마켓을 합치면 하루 매매 가능 시간이 21시간30분으로 늘어난다.토스증권은 오는 13일부터 미국 주식 거래 시간을 확대한다. 오전 10시부터 오후 5시50분까지 거래할 수 있도록 했다. 하루 중 21시간50분 동안 매매가 가능해진다. 한국투자증권과 메리츠증권, KB증권도 합류할 예정이다.미국 주식 주간거래는 지난해 2월 삼성증권이 가장 먼저 선보였다. 미국의 대체 거래소 블루오션과 손잡고 오전 10시부터 오후 5시30분까지 운영하고 있다. 삼성증권과 블루오션의 1년 독점 계약이 지난 7일 끝나 다른 증권사도 같은 서비스를 내놓을 수 있게 됐다. 미래에셋증권은 미국 현지법인이 블루오션과 계약하는 우회로를 통해 작년 9월 주간거래(오전 10시~오후 5시15분)를 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>애플페이, 온라인 결제시장 어떤 영향 미칠까? [넘버스]</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042330?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>블로터 &lt;넘버스팀&gt;이 알면 좋을 스타트업·혁신기업·IT기업 생태계 정보를 소개합니다.새해 들어 애플페이 국내 진출, ‘이번엔 진짜다, 본격 출시다’ 하는 이야기가 솔솔 나옵니다. 아이폰 유저들의 애타는 마음을 아는지 모르는지 아직 애플도, 제휴를 맺었다는 현대카드도 입을 닫고 있고, 정책과 심사를 하는 금융당국도 아직 이렇다 할 결론을 내리진 못한 걸로 보입니다.애플페이 도입의 핵심 쟁점 중 하나는 오프라인 가맹점에 결제가 가능한 단말기를 새로 설치해야 한다는 문제입니다. 반면 온라인 결제 시장에 관한 이야기는 찾기 어렵더라고요.그래서 알아봤습니다. 간편결제 시장의 외래종(?) 애플페이, 과연 온라인 결제시장에는 어떤 영향을 미칠까요?01.하루 평균 2300만 건 일어나는 간편결제간편결제란 사용자가 신용카드나 은행 계좌 정보를 스마트폰 등에 저장하고, 물건을 구매할 때는 지문이나 비밀번호 입력과 같이 간단한 인증방식을 거쳐 결제가 이뤄지는 것을 말해요. 실물카드를 사용하지 않고, 또는 로그인과 공인인증서 비밀번호 입력과 같은 번거로운 과정을 매번 거치지 않고 편리하게 결제할 수 있는 방식이지요.교통카드로 많이 사용되는 삼성페이는 익숙하시죠? 네이버페이, 카카오페이, 토스페이, 페이코 외에도 배달할 때 배민페이, 쿠팡에서 장볼 때 쿠페이, 중고거래 할 때 당근페이(!)까지. 일일이 나열하기 힘들 정도로 수많은 간편결제가 생겨났지요. 삼성페이로 결제하는 모습, CES 2019 삼성 부스 / 출처 : 삼성전자처음 등록할 땐 살짝 귀찮지만 한번 사용하면 그야말로 결제가 이렇게 간편할 수 없어요. 편리하다는 치명적인 매력에 지난해 상반기 간편결제는 하루 평균 2317만 건, 무려 7232억 원에 달합니다. 어마어마한 양이지요? 일평균 기준 간편결제 서비스 이용 현황 / 출처 : 한국은행 02.애플페이, 유독 대한민국에선 힘 못 쓰는 이유?간편결제 통계는 현재 한국은행에서 집계하고 있는데요. 간편결제가 어디서 주로 일어나는지, 온라인과 오프라인 각각의 내역까지는 나오지 않더라고요. 다만 스마트폰 제조사인 삼성전자와 LG전자의 경우엔 오프라인 비중이, 나머지는 온라인 비중이 더 높은 것으로 알려집니다.오프라인으로 간편결제를 이용하려면 물건과 서비스를 판매하는 가맹점에 필수적으로 단말기가 있어야 하지요. 삼성페이가 성공적으로 정착한 것도 단말기 덕분입니다. 페이가 도입되기 전에는 우리 모두 지갑에서 실물카드를 꺼내 단말기에 긁었잖아요(!). 삼성페이는 카드 마그네틱 선을 긋는 이 기존 결제 단말기에서 작동합니다. MST(Magnetic Secure Transmission)라는 기술이에요. 애플페이는 다릅니다. 근거리 무선통신, NFC(Near Field Communication) 들어보셨지요? 지하철이나 버스 탈 때 스마트폰을 대면 결제가 일어나는 그 기술입니다. 애플페이는 NFC 단말기에서 동작하는데, 문제는 우리나라 가맹점에서는 NFC 단말기 보급이 흔하지 않다는 거에요. 우리나라 가맹점 290만 개 중 NFC 단말기가 설치된 곳은 10%에 못 미치는 것으로 알려집니다. 이렇게 생긴 마크가 있어야 한다고 하네요. / 출처 : Apple03.플랫폼 등에 업은 네·쿠·카 ‘지지 않아’결제기술시장과 금융투자업계, 연구소 등을 두루 취재한 결과, 애플페이가 국내에 상륙하면 온라인 간편결제 시장의 경쟁이 심화될 것이란 전망에는 이견이 없었습니다. 다만 그 정도나 파장이 누구에게 미칠까에서 의견이 엇갈렸지요.당장 온라인에서 부딪힐 상대는 네이버와 카카오 등 토종 빅테크 회사들인데요. 애플이 이들을 뚫기가 생각보다 쉽지 않을 것이란 분석이 많았습니다. 독자적인 플랫폼을 기반으로 각자의 간편결제 서비스를 확장하고 있는 특성 때문이지요. 네이버는 네이버쇼핑, 카카오는 카카오톡에서 파생하는 선물하기, 쇼핑하기 등입니다. 생각해보니 저는 온라인에서는 네이버페이를 가장 많이 쓰고, 교통카드와 오프라인 결제로는 페이코를 쓰고 있네요. / 출처 : 네이버페이 캡처 류창원 하나금융연구소 연구위원은 “네이버페이는 소상공인을 비롯한 쇼핑몰, 카카오는 모빌리티와 웹툰 등을 중심으로 각각 다양한 사용처를 확대하면서 소비 중심으로 자사의 서비스를 쓰게 한다”며 “반면 애플은 대형 가맹점을 선별해 제한적으로 접근할 수밖에 없다. 이것이 선발주자와 후발주자의 차이”라고 밝혔습니다. 04.애플페이, 아직 드러나지 않은 변수이들 빅테크도 고성장 후 어느 순간 플랫폼 밖 외부 가맹점을 넓혀야 할텐데, 이때 애플페이가 빠르게 침투할 수 있을 것이란 분석이 있습니다. 디지털 결제가 확산되면서 이용자 저변, 특히 그동안 다소 간편결제가 불편했을 아이폰 사용자를 중심으로 확대할 수 있다는 점과 같은 맥락입니다. 특히 아이폰 마니아층이 두터운 젊은 연령층을 타깃한 온라인 대형 쇼핑몰들이 먼저 움직여줄 수 있죠. 약간 다른 구도도 살펴볼게요. 카카오페이의 경우, 결제 서비스 매출의 70% 이상이 온라인인 것으로 파악되는데요. 온라인을 기반으로 성장한 빅테크들 또한 오프라인 가맹점을 넓혀야 한다는 과제가 있습니다. (물론 단말기가 있어야 한다는 전제가 있지만) 네이버페이나 카카오페이 등이 과연 오프라인에서 애플페이를 앞설 수 있을까 하는 점도 주목할 포인트입니다. 오프라인 결제시장의 삼성-애플 싸움이 빅테크-애플 싸움으로 번질 수도 있다는 거죠.두 번째 변수가 잠재적으로 더 큰 위험요인인데요. 바로 애플의 프로모션성 정책입니다. 지금으로서는 완전히 베일에 가려져있는데, 해외에서 애플페이가 강력하게 성장한 배경 중 하나가 할인과 같은 프로모션 덕이었거든요.물론 애플페이 성공의 핵심은 아이폰 점유율을 확장하는 데 있습니다. 스마트폰 제조사로서 그안에 간편결제를 심은 것이니, 아이폰이 삼성폰보다 더 많이 팔려야 하고요. 당장 NFC 단말기도 더 설치해야겠지요. 05.애플페이 입장에서 상상해본(?) 시나리오세계 70여 개 나라에서 사용한다는 애플페이. 굳이(?) 우리나라에 들어와서 몇 년째 출시된다 아니다 소문만 무성한데, 무슨 생각일까요?애플페이 활성화를 기대하셨다면 조금 김빠지실 수 있겠습니다만, 시장 테스트 중이라는 분석이 지배적이었습니다. 애플은 애플페이를 두고 현대카드와 1년이라는 단기 계약을 맺은 것으로 알려지는데, 시장 진입을 위한 전략적 움직임일 뿐 이후에는 여러 파트너사와 제휴를 맺을 것이란 예상이고요.자신의 인스타그램 계정에 사과 사진을 올린 정태영 현대카드·커머셜 대표 부회장. 부회장님이 말씀하신거니 곧..출시? 아이폰 유저들의 하트가 쏟아졌습니다. / 출처 : 정태영  현대카드·커머셜 대표 부회장 SNS3~5년을 바라보는 중장기 시나리오이기는 합니다만, 네이버와 카카오 등 간편결제 서비스를 제공하는 플랫폼 기반 사업자, 은행 및 카드사, 앞서 IT 기업의 간편결제 출시로 이미 큰 타격을 입은 바 있는 PG(전자지급결제대행서비스)사에 이르기까지 시장 전반에 영향이 불가피해보입니다. 간편결제 시장의 외래종(?) 애플페이, 과연 온라인 결제시장에는 어떤 영향을 미칠까요? 애플페이와 간편결제 산업에 대한 더 많은 이야기를 블로터의 투자 리터러시 플랫폼 &lt;넘버스&gt;에서 만나보세요!당신에게 들려줄 이야기· 우리나라 간편결제 업체가 가져다 준 투자 수익률· 고성장하는 우리나라 간편결제 시장 현황· 천하의 애플페이가 국내에 쉽게 발 들이지 못하는 이유· 토종 빅테크의 간편결제 저력· 애플페이가 던질 변화구는?· 애플페이 도입시 예상 가능한 시나리오</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>토스뱅크, 모임통장 출시…“체크카드 여러 장 발급 가능”</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000873901?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>토스뱅크가 1일 가족, 친구, 동아리 등 각종 모임의 비용을 함께 관리할 수 있는 ‘토스뱅크 모임통장’을 출시했다. 출납 관리 권한을 갖는 모임장을 여러 명이 함께 맡을 수 있는 게 특징이다. 모임통장 계좌와 연결된 체크카드를 여러 명이 발급받아 쓸 수 있다. 금리는 연 2.3%다. 음식점, 주점, 볼링장·당구장·골프장·골프연습장 등 체육시설, 노래방, 이마트·농협하나로마트 등 대형마트 이용 시 캐시백 혜택도 제공한다.토스뱅크가 토스뱅크 모임통장을 선보인다. /토스뱅크 제공        토스뱅크는 1일 모임통장을 출시하고 온라인 기자간담회를 열었다. 기자간담회에서 홍민택 토스뱅크 대표는 “공동명의자 기능을 도입, 공동모임장(공동명의자)이 제각각 송금하고 카드 결제를 할 수 있도록 했다”고 말했다. 홍 대표는 “금융권 최초로 도입하는 기능이다 보니 소비자 보호나 서비스 안정성 확보를 위해 준비하는 데 시간이 걸렸다”고 덧붙였다. 토스뱅크는 지난해 6월 모임통장을 출시하겠다고 발표했는데, 실제 출시까지 8개월가량 시간이 걸렸다.공동모임장 기능은 모임통장 서비스를 2018년 도입한 선발 업체인 카카오뱅크와 비교해 가장 차별화된 점이다. 카카오뱅크의 모임통장은 자금 출납 권한은 한 명만 가진다.토스뱅크는 모임통장에 속해 있는 사용자가 모두 다른 사용자를 초대할 수 있도록 했다. 또 가입인원 제한도 없었다.여러 명이 자금 출납 권한을 쥐게 되면서 입출금 확인 및 내역 공유가 번거로워진다는 점을 의식, 사용자 환경(UX)에도 공을 들였다. “금융소비자들이 모두 편하게 쓸 수 있는 서비스”라고 홍 대표는 강조했다. 가령 모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달된다.1일 서울 역삼동 토스뱅크 본사에서 열린 기자간담회에서 '토스뱅크 모임통장' 서비스에 대해 설명하고 있다. /토스뱅크 제공        금리는 연 2.3%다. 연 1% 전후인 카카오뱅크를 의식해 금리를 높게 책정한 것이다. 모임통장과 연계된 체크카드에는 돈을 결제하자마자 캐시백 혜택을 제공하는 서비스도 탑재됐다. 음식점, 주점, 볼링장·당구장·골프장·골프연습장 등 체육시설, 노래방, 이마트·농협하나로마트 등 대형마트 등이 대상이다. 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원이다.한편 토스뱅크는 모임통장 출시를 기념해 다음달 말까지 모임지원금 이벤트도 진행한다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금이 지원된다. 적립된 모임지원금은 모임통장으로 입금되며, 출금과 결제에 바로 사용할 수 있다. 이밖에도 토스는 2월 모임통장을 개설하는 사용자들에게 각각 최대 1만원씩을 지급하는 이벤트를 실시한다.홍 대표는 “토스뱅크 고객 수는 570만명으로 지난해 6월 360만명에서 160% 늘어났다”며 “가입자 10명 가운데 8명이 꾸준히 토스뱅크를 사용하고 있다”고 말했다. 그는 “고객들이 불편함을 겪는 부분을 해결해주는 편리한 서비스를 꾸준히 도입하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>토스증권, 미국주식 거래 시간 대폭 확대</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000920094?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>사진|토스[스포츠서울 | 홍성효기자] 토스증권에서 미국주식 거래 시간이 대폭 확대된다.오는 13일부터 늘어나는 거래 시간은 한국시간 오전 10시부터 오후 5시 50분까지로 기존 거래시간과 더하면 총 21시간 50분, 하루 대부분의 시간에 미국주식 거래가 가능해진다. 거래 시간에 따라 프리마켓(오후 6시~11시 30분), 정규장(오후 11시 30분~오전 6시), 애프터마켓(오전 6시~8시), 데이마켓(오전 10시~오후 5시50분)으로 구분되고, 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.거래 방법은 기존 투자 방식과 같다. 별도의 거래 방법을 익힐 필요없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다. 토스 앱 내 ‘주식’ 탭을 통해 토스증권 MTS에서 원하는 미국주식을 거래하면 된다. 만약 주문이 체결되지 않으면 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문은 유지된다. 애프터마켓까지 체결되지 않을 경우 주문은 자동 취소된다.토스증권 관계자는 “투자 대상과 방법 만큼 투자가능 시간도 투자판단에 중요한 요소”라며 “우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것”이라 말했다.한편 토스증권 미국주식 서비스는 주말과 미국 휴장일에는 정규장이 열리지 않기 때문에 데이마켓 거래도 제공되지 않는다. 미국주식 수수료(0.1%)는 모든 거래 시간에 동일하게 적용되고 소수점 주문은 정규시장에만 실시간 거래가 가능하다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>시중은행들 '성과급 잔치'에 1조원 넘게 썼다</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013755078?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>배당은 7조원대…尹대통령까지 '돈잔치' 비판취약계층 지원·이자 경감 등 요구 커질 듯시중은행지난달 9일 서울 시내에 설치되어 있는 주요 은행들의 현금인출기. 2023.1.9 pdj6635@yna.co.kr(서울=연합뉴스) 심재훈 임수정 오주현 기자 = 시중은행들이 연간 1조원 이상의 성과급을 직원들에게 지급하고 7조원 넘는 자금을 배당금으로 주주들에게 지급한 것으로 나타났다.    이로 인해 금리상승기에 서민들의 경제적 고통 속에서 이자장사로 최대의 수익을 낸 은행들이 거액의 직원 성과급이나 희망 퇴직금을 지급하는 것에 대한 곱지 않은 시선은 더욱 확산될 전망이다.     최근 정치권에서 금융지주 최고경영자(CEO)들의 이른바 '셀프연임' 등 지배구조 개선에 대한 주문이 나온 데 이어 이어 은행들의 '돈 잔치'에 대한 지적까지 제기되면서 향후 은행들의 공공성과 사회적 책임에 대한 정치권과 금융당국의 압박은 더욱 커질 것으로 예상된다. 5대 시중은행 성과급 매년 1조원대 기록    14일 금융감독원이 국회 정무위원회 양정숙 의원에게 제출한 자료에 따르면 5대 시중은행의 성과급은 2021년 1조709억원을 기록한 데 이어 지난해에도 1조원을 훌쩍 넘어설 것으로 추산된다.    NH농협은행 상·하반기 성과급과 KB국민은행·하나은행의 하반기 성과급(미확정)을 제외하고도 지난해 성과급은 9천428억원을 기록했다.    작년 사상 최대 실적을 거둔 점을 고려해 2021년 성과급 수준(농협은행 1천518억원, 국민은행 3천988억원, 하나은행 65억원)으로 추산해보면 지난해 성과급은 1조3천억원에 육박한다.    5대 시중은행의 성과급은 2017년 1조78억원, 2018년 1조1천95억원, 2019년 1조755억원, 2020년 1조564억원으로 지난 5년간 매년 1조원을 넘어섰다.    인터넷 전문은행도 지난해 성과급 지급을 대폭 확대한 것으로 나타났다.    카카오뱅크는 전년보다 139% 많은 258억원, 케이뱅크는 105% 증가한 138억원, 토스뱅크는 78% 증가한 34억원을 지난해 성과급으로 지급했다. "최근 5년간 배당금 29조원 육박…국민 이자 부담 경감 필요"    배당액도 늘어나는 추세다    지난 2021년 기준 국내 은행 17곳의 배당(현금배당·주식배당) 합계는 7조2천412억원으로 집계됐다.    배당액 규모는 2017년 4조96억원, 2018년 5조4천848억원, 2019년 6조5천446억원, 2020년 5조6천707억원 수준이었다.    양정숙 의원은 "2021년에는 7조2천억원이 넘는 배당금을 60~70%의 외국인을 포함한 주주들에게 나눠주었고, 최근 5년간(2017~2021년) 현금지급기처럼 뿌린 배당금만도 29조원에 육박한다"고 지적했다.    지난해 역대급 실적을 올린 은행권이 상생 금융과 충당금 확충 등으로 사회적 역할을 더 강화해야 한다는 목소리도 커지고 있다.    은행이 과점적 지위를 이용해 수익 챙기기만 몰두하고 사회적 역할을 소홀히 할 경우 장기적으로 국민과 시장으로부터 외면받을 수 있다는 지적도 나온다.    앞서 이복현 금감원장은 "이렇게 어려운 시기에 일부 고위 임원 성과급이 최소 수억 원 이상 된다는 것은 국민적 공감대를 얻기 어려울 것"이라며 "지난해 유동성 악화 시기에 당국과 타 금융권이 도와준 측면이 있는데 이를 오롯이 해당 회사와 임원의 공로로만 돌리기에 앞서 그런 구조적인 측면을 고려해야 한다"고 말했다.    금융당국은 배당 규모 확대 추세와 관련해서는 충분한 손실 흡수 능력을 먼저 갖춘 뒤 자율적인 배당에 나서야 한다는 입장이다.    이에 금융당국은 은행의 예상되는 손실에 비해 흡수 능력이 부족하다고 판단될 경우 '특별대손준비금' 적립을 요구할 수 있는 권한을 상반기에 새롭게 도입하기로 했다.    특별대손준비금은 자본으로 인정은 되지만 배당은 불가능하기 때문에 배당 규모와 손실 흡수 능력을 간접적으로 관리할 수 있는 효과를 지닌다.윤석열 대통령[연합뉴스 자료사진]    전날 윤석열 대통령까지 나서 금융당국에 '은행의 돈 잔치'에 대한 대책 마련을 주문한 만큼 금융당국은 금리인하요구권 활성화나 서민금융 공급 확대 등 민생금융 대책을 더 강화할 전망이다.    은행권에 취약차주 지원과 시장 안정 대책 협조 등을 통한 사회적 공헌에 더 적극적으로 나서달란 주문도 이어질 것으로 보인다.    은행권이 3년간 수익의 일부로 5천억원의 재원을 모아 취약계층을 지원하겠다고 발표하기도 했지만, 은행이 거둬들인 수익에 비해 '부족하다'는 평가도 나올 수 있다.    금융당국 관계자는 "금융위의 대통령 업무보고 시기에 은행들이 5천억원 규모의 사회 공헌 기금을 내기로 했는데 불충분하다는 인식이 있었을 수 있다"며 "그 부분도 들여다봐야 할 것 같다"고 말했다.    양 의원은 "은행이 거둔 이익을 임직원 성과급과 배당금 지급에만 모두 소진할 것이 아니라, 자본금 확충을 통한 IB(투자은행) 활성화와 국민들 이자 부담 경감을 위해 사용해야 할 것"이라고 덧붙였다.[표]  2021∼2022년 5대 시중은행 성과급 지급 현황 (단위:억원)[표] 2017~2021년 국내은행별 현금배당·주식배당 합계   (※ 출처: 양정숙 의원실, 금융감독원)    president21@yna.co.kr, sj9974@yna.co.kr, viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장 출시…카뱅과 뭐가 다를까?</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000013472?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장…금리 2.3% 파킹통장 기능 공동모임장 개념 도입…카드발급·출금 가능토스뱅크가 하루만 맡겨도 2.3%의 이자를 제공하는 '모임 통장'을 출시했다. 2018년 카카오뱅크가 관련 상품을 출시해 성공을 거둔 뒤 인터넷전문은행중 두번째로 나선 것이다. 이미 모임통장으로 성공 가도를 달리고 있는 카카오뱅크의 벽을 넘어설 수 있을지 주목된다.토스·카카오뱅크 모임통장비교/그래픽=비즈니스워치토스뱅크는 1일 '모임통장 온라인 기자간담회'를 열고 모임원 누구나 출금 및 카드 발급, 결제까지 가능한 '토스뱅크 모임통장'을 선보였다. 토스뱅크는 '한곳에 모아서, 쓸 때는 모두가'를 슬로건으로 내세웠다.토스뱅크 모임통장 출시는 지난해 6월 예고이후 약 8개월 만이다. 홍민택 토스뱅크 대표는 "(이 상품을 내놓기까지) 수많은 공동명의자가 송금, 카드 결제를 할 수 있도록 서비스를 구현하는 데 난이도가 있었고 이 과정에서 금융 소비자 보호, 서비스 안정성 등 챙길 게 많았다"며 "금융당국과 긴밀한 소통을 통해 상품을 출시할 수 있었다"고 설명했다.모임통장은 일종의 공동계좌 개념이다. 동호회, 친목 모임 등에서 회비를 모은 계좌의 사용 내역 등을 구성원들과 공유할 수 있는 서비스다.모임통장은 시중은행들이 인터넷전문은행들에 앞서 출시했지만, 편의성 측면에서 뒤처지면서 하나둘 모임 통장 상품을 접었다. 우리은행의 경우 2011년 출시한 '우리U모임통장'의 판매를 종료했고, 하나은행도 '모임 통장'의 신규 가입을 중단했다.반면 카카오뱅크의 모임 통장 이용자는 최근 1400만명(중복 기준)을 돌파하면서 카카오뱅크의 가입자를 늘리는 효자 역할을 톡톡히 하고 있다. 토스뱅크도 이러한 행보에 동참한 것이다. 토스뱅크의 모임 통장이 기존 카카오뱅크의 모임통장과 다른 것은 최초 통장 개설자인 모임장 외에 '공동모임장' 개념을 도입했다는 것이다. 카카오뱅크는 모임장 한 명이 출금과 결제, 카드 발급을 관리하는 방식이지만 토스뱅크는 공동모임장을 지정해 출금과 모임카드 발급, 이체가 가능하도록 했다. 공동모임장은 모임원 모두의 동의가 있어야 지정이 가능하다.또 기존 카카오뱅크의 모임통장의 경우 초대 가능 인원이 100명으로 제한이 있었지만 토스뱅크는 인원 제한을 없앴다. 토스뱅크 관계자는 "모임장 한 명이 출금, 결제, 카드 발급 권한까지 독점하는 구조에 불편함을 느낀다는 점에 주목했다"며 "모임장 혼자 회계를 책임져야 해 부담감이 컸고, 카드가 한 장만 있다 보니 편의성이 떨어진다는 점을 개선했다"고 말했다.아울러 연 0.1% 금리로 요구불 통장 기능을 하는 카카오뱅크의 모임통장과 달리 토스뱅크의 모임통장은 연 2.3%(세전) 금리를 제공하는 파킹통장이다. 카카오뱅크 모임통장의 경우 연 0.1%가 기본으로 제공되고, '세이프박스'와 연결했을 때 연 2.6% 금리를 받을 수 있다. 홍 대표는 "현재 은행권 전반적으로 수신금리가 높은 환경이기 때문에 연 2.3%는 토스뱅크에서 충분히 제공할 수 있는 금리 수준"이라며 "고이율 결정은 규모의 경제를 키우기 위한 전략적 결정"이라고 설명했다모임장의 '횡령'을 막기 위한 회비 관리기능 있다. 모임원의 회비 납부 현황을 확인할 수 있으며 회비를 내지 않은 모임원에게는 푸시 알림이 간다. 회비를 쓸 때마다 모임원 모두 사용처와 금액을 기재한 알림 메시지를 받을 수 있다.토스뱅크 관계자는 "공동모임장 권한 획득시 실명인증을 통해서만 모임장이 될 수 있고 기존 모임장이 있다면 (공동모임장 추가할 때) 다른 모임장들의 동의가 필요하다"며 "이체 한도 또한 보수적으로 운영되기 때문에 횡령 등의 문제에는 리스크 관리가 가능하다"고 설명했다.한편 토스뱅크는 모임통장 출시를 기념해 다음달 말까지 모임지원금 이벤트도 진행한다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금이 지원된다.적립된 모임지원금은 모임통장으로 입금되며, 출금과 결제에 바로 사용할 수 있다. 모임지원금은 다음달 31일까지 진행 예정이지만 사정에 따라 조기 종영될 수도 있다. 이밖에도 2월 모임통장을 개설하는 사용자들에게 각각 최대 1만원씩을 지급하는 이벤트를 실시한다.홍 대표는 "토스뱅크 고객수는 570만명으로 지난해 6월 360만명에서 160% 늘어났다"며 "가입자 10명 가운데 8명이 꾸준히 토스뱅크를 사용하고 있다"고 말했다. 그는 "고객들이 불편함을 겪는 부분을 해결해주는 편리한 서비스를 꾸준히 도입하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>엄동설한에 따릉이·도보족… 고물가, 청춘을 할퀴다</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002555755?sid=102</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>■ 리턴 + 캥거루 ‘리터루족’ 속출“난방 못틀고 밥 먹기도 겁나요”지출 최소화에 ‘無지출족’까지지난달 따릉이 이용 10.7% ↑1만보 걸으면 추가이자 적금도‘고물가 직격탄’은 가뜩이나 경제적 기반이 약한 MZ세대(1980년대 초∼2000년대 초 출생)를 더욱 잔인하게 할퀴고 있다. 공인 영어시험 응시료마저 줄줄이 오르는 등 고물가를 견디다 못해 자취족들은 본가로 되돌아가는 ‘리터루족’(리턴+캥거루족)이 되고, ‘캥거루족’들은 수년간 준비한 부모와 ‘헤어질 결심’이 한없이 약해지고 있다. 엄동설한에 교통비라도 아껴보겠다며 공유 자전거를 타거나 걷기를 택하는 ‘걷기족’도 속출하고 있다. 지출이라도 최소화하겠다며 단체 카톡방에서 자신의 하루 지출을 낱낱이 공유하는 ‘무(無)지출족’도 많다.9일 만난 MZ 리터루족은 살인적인 고물가에 두 손 두 발 다 들었다고 토로했다. 취업 준비생 김진희(여·27) 씨는 최근 학교 근처인 서울 서대문구 창천동 자취집을 정리하고 경기 용인시에 있는 본가로 돌아갔다. 김 씨는 “2015년 대학 입학 당시 50만 원이었던 월 임차료가 65만 원까지 오른 데다가 외식비, 생필품 가격까지 모두 오르면서 도저히 감당할 재간이 없었다”고 했다. 서울 마포구 서교동에서 자취하는 직장인 김슬아(여·28) 씨도 임대 계약이 만료되는 5월까지만 자취하고 경기 안양시에 있는 본가로 돌아갈 예정이다. 김 씨는 “당분간 다시 독립할 생각은 못 할 것 같다”고 못 박았다.독립을 준비하던 캥거루족들은 서슬이 퍼런 고물가에 염치 불고하고 부모의 품으로 다시 파고들었다. 직장인 고인혜(여·30) 씨는 지난해 말 취업에 성공한 뒤로 회사 근방의 원룸 매물을 꾸준히 물색했지만, 최근 아예 독립을 단념했다. 고 씨는 “아직 독립하지 않았는데도 교통비, 외식비 등 물가가 오르면서 한 달 생활비가 전보다 20만 원 정도 더 늘었다”며 “지금 같은 고물가 상황에서 독립은 꿈같은 이야기”라고 터놨다.이 와중에 취업·이직 등에 필수적인 공인 인증 영어시험 응시료는 줄줄이 오르고 있다. 오픽(OPIc) 응시료는 지난달 3일 기존 7만8100원에서 7.5% 오른 8만4000원이 됐다. 토익 스피킹(토스) 응시료는 지난해 7월 7만7000원에서 8만4000원으로 인상됐다.잘 나가는 따릉이 연초부터 택시비 등 대중교통 요금이 상승한 가운데 한 시민이 8일 공유 자전거를 타고 서울 종로구 돈의문박물관마을 인근으로 출근하고 있다.  윤성호 기자한겨울임에도 대중교통 대신 공유 자전거를 타거나 걷기를 택하는 알뜰족도 늘었다. 서울시에 따르면, 지난 1년간(2022년 2월∼2023년 1월) 따릉이 이용 건수는 지난해 12월을 제외하곤 전년 대비 모두 증가했다. 특히 지난달은 최강 한파에도 불구, 이용자 수가 전년 대비 10.7% 증가한 157만1452건을 기록했다. 매일 1만 보 이상 걸으면 최고 금리가 연 10%에 달하는 적금에 가입했다는 30대 김모 씨는 “오는 4월부터 대중교통 요금이 오른다길래 가까운 거리는 걷는 습관을 들이고 있다”고 말했다. 일부 MZ 무지출족은 ‘무지출 인증’ 카카오톡 단체방을 만들어 ‘허리띠 졸라매기’에 몰두하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>시중은행·핀테크 이어 상호금융까지 '알뜰폰'</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004963204?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>신협 '7GB+무제한' 1만7600원반값 수준 LTE 요금제 6종 내놔금융서비스 연계 혜택 차별화  알뜰폰 사업에 시중은행, 핀테크에 이어 상호금융까지 뛰어들었다.   1일 금융권에 따르면 신협중앙회는 이날 한국케이블텔레콤(KCT)과 제휴해 알뜰폰 요금제를 출시했다. 월 1만7600원의 요금에 7GB의 기본데이터와 무제한 데이터(1Mbps)·통화·문자가 제공되는 '신협 완전 마음껏 7GB' 등 총 6종의 LTE(4G) 요금제를 마련했다.   알뜰폰은 도입 10여년 만에 이동통신시장의 주축으로 자리 잡았다. 지난해 9월 가입자 수는 1200만명을 넘겼다. 시장점유율도 도입 첫해인 2011년에 0.76%에서 지난해 16.4%까지 늘었다.   이에 금융권은 선제적으로 시장에 진출해 고객 선점에 나선다는 전략이다. 이동통신 3사 대비 반값 수준의 요금제는 물론 자사의 금융서비스와 연계한 각종 혜택으로 기존 알뜰폰 업체와 차별화된 영업을 펼치고 있다.   KB국민은행은 금융권에서 가장 먼저 알뜰폰 사업에 뛰어들었다. 국민은행의 알뜰폰 브랜드 'KB리브엠'은 지난 2019년 금융위원회로부터 '1호 혁신금융서비스'로 인정받았다. 기존 국민은행의 금융상품을 이용하는 고객들이 KB리브엠을 사용하면 월별 통신 할인을 받을 수 있게 하는 등 연계 혜택을 무기로 사업 확장에 나서고 있다.   핀테크업체도 가세했다. 지난달 30일 토스는 자회사 토스모바일을 통해 사전신청자를 대상으로 알뜰폰 서비스를 오픈했다. 서울·경기 지역을 시작으로 서비스 지역을 순차적으로 넓혀 이달 중 대고객 서비스를 오픈한다는 계획이다.   토스는 가격보다 기존 토스가 운영하는 플랫폼과의 시너지에 초점을 뒀다. 현재 토스모바일은 100GB, 71GB 상품에는 미사용 잔여 데이터에 따라 최대 1만원 토스포인트 캐시백을 제공하고 있다. 토스페이로 결제 시 토스포인트 5000원을 돌려주는 혜택도 추가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>“알뜰폰까지 털렸다”…LG유플러스 29만명 정보 유출</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001585381?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>LG유플러스 고객 정보 유출. 오른쪽 사진은 해커로 의심되는 자가 LG유플러스 사용자 정보라며 지난달 인터넷에 공개한 목록. KBS 보도화면 캡처LG유플러스 사용자 29만명의 개인정보가 유출된 사실이 뒤늦게 알려졌다. 통신망을 빌려 쓰는 알뜰폰 가입자도 피해를 입었다.총 29만명에 달하는 LG유플러스 고객정보가 지난달 유출돼 인터넷에 공개됐다고 7일 KBS가 보도했다. LG유플러스 측은 가입 중인 고객과 이미 해지한 고객의 정보가 포함된 것이라고 전했다. 이와 더불어 알뜰폰 이용자의 정보도 유출된 것으로 확인됐다.보도에 따르면 이통3사 망을 모두 임차해 쓰는 리브모바일 알뜰폰의 경우 2300명이 넘는 가입자 정보가 털렸고, 최근 알뜰폰 사업을 시작한 핀테크 업체 토스모바일도 이전 업체가 갖고 있던 500여명의 정보가 LG유플러스를 통해 빠져나갔다.LG유플러스 고객 정보 유출. KBS 보도화면 캡처알뜰폰 사업자가 이통3사 회선망을 빌릴 때 고객정보를 공유하다 보니 정보가 함께 유출된 것이다. 알뜰폰 관계자는 “통신망을 임차해 쓰기 때문에 고객정보는 양사(알뜰폰 사업자와 통신사)가 공동 보관하는 것으로 보안관리 약정이 체결돼 있다”고 매체에 설명했다.정보 유출 고객 29만명 가운데 알뜰폰 업체 30여곳, 1만9000명이 넘는 고객정보가 포함된 것으로 파악됐다. 허술한 보안으로 인한 피해가 내부 고객에만 그치지 않은 것이다. 연결 정보를 통해 유출된 사례에 대해서도 책임감 있는 원인 규명이 필요하다는 지적이 나온다.LG유플러스는 “알뜰폰 사업자와 협력을 통해 법령에 따라 개별적으로, 혹은 홈페이지 공지를 통해 해킹 사실을 안내했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>“수도권은 경쟁 치열”… 부·울·경으로 눈 돌리는 창업기업</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000874486?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>부산·울산·경남 창업기업 수 2개월 연속 증가기술창업도 ‘쑥’… “산·학·연 협력 가능해 주목”        경쟁이 치열한 수도권을 피해 지방에서 기회를 찾는 창업기업이 늘고 있다. 특히 대학이 몰려있어 산·학·연 협력사업 활발히 진행되는 부산·울산·경남지역으로 몰리고 있다.3일 중소벤처기업부 ‘창업기업 동향’에 따르면 작년 10월부터 11월까지 부산과 울산, 경남의 창업기업 수는 전월대비 2개월 연속 증가한 것으로 나타났다. 전국 17개 시도 중 창업기업 수가 2개월 연속 증가한 곳은 부·울·경을 제외하면 제주도뿐이다.지방의 한 도시에서 청년 창업 로컬크리에이터 교육이 진행되고 있다./뉴스1        창업 기업이 가장 많이 늘어난 곳은 울산이다. 울산의 창업 기업 수는 10월 18.2% 증가하며 큰 폭으로 늘었고, 11월에도 5.4% 증가했다. 경남(10월 5.6%, 11월 2.5%)과 부산(10월 2.4%, 11월 1.6%)도 2개월 연속 증가했다. 특히 고용 창출 효과가 큰 기술기반 업종의 창업이 크게 증가한 것으로 나타났다. 기술기반 업종은 ▲정보통신 ▲전문·과학·기술 ▲사업지원 서비스 ▲보건·사회복지 등 지식 기반 서비스업과 제조업을 뜻한다.부산의 경우 11월 기술기반 창업기업 수가 전월 대비 15.2% 증가했다. 10월에 2.3% 감소했지만, 11월에 크게 증가하면서 이를 만회했다. 울산도 11월 12.9% 증가하며 10월(-4.2%)의 감소 폭을 상쇄했다. 경남은 10월(5.2%)과 11월(4.0%) 모두 증가했다.수도권의 창업기업 수는 등락을 보이고 있다. 서울의 경우 10월 전체 창업기업 수가 5.3% 감소하며 전국 17개 시·도 중 강원(-7.0%) 다음으로 감소 폭이 컸다. 11월에 1.0% 증가하면서 그나마 소폭 늘었다. 인천과 경기지역도 등락을 거듭했다.울산과학기술원 캠퍼스 전경.        업계에서는 정책 혜택을 얻기 어려운 수도권을 피해 지방으로 창업 수요가 몰리는 것이라는 분석이 나온다. 우리나라 인구 절반이 쏠린 수도권에서는 창업 기업도 많은 탓에 한정된 정책자금을 둘러싼 경쟁이 치열하다. 반면 지방에서는 인구가 적어 상대적으로 경쟁률이 낮다.예를 들어 중소벤처기업진흥공단(중진공)이 운영하고 있는 청년창업사관학교의 경우 수도권의 입교 경쟁이 치열하다. 청년사관학교는 입교자를 대상으로 최대 1억원의 창업 사업화 지원금과 사무공간, 시제품 제작 관련 등을 지원한다. 토스·직방과 같은 유니콘 기업을 배출하면서 ‘청년창업가들의 요람’으로 불리고 있다.청년창업사관학교는 전국 총 18개소에서 운영되고 있다. 2019년의 경우 수도권의 입교 경쟁률은 8대 1 수준으로, 전국 평균(4.9대 1)의 1.6배였다. 2020년부터는 지역별 경쟁률이 공개되지 않아 비교가 어렵지만, 수도권 지역의 입교 경쟁률이 전국 평균을 상회한다는 게 업계 관계자의 설명이다.부·울·경 지역은 대학이 많아 산·학·연 연계 사업이 가능하다. 부산에는 부산대학교와 부경대학교, 한국해양대학교 등 21개 학교가 있고, 울산광역시와 경남지역은 울산과학기술원(UNIST)을 기반으로 다양한 연구활동이 이뤄지고 있다. 기술기반 창업이 가능한 여건이 조성된 것이다.최근에는 부·울·경 지역에 투자하는 액셀러레이터도 늘어나고 있다. 2017년 설립된 ‘시리즈 벤처스’는 부산과 울산, 경남지역을 중심으로 창업기업에 투자하고 있다. 현재까지 총 30여개의 기업에 투자했다. 글로벌 액셀러레이터 스파크랩도 구글과 손잡고 부·울·경 지역의 그린테크 분야 스타트업을 발굴하고 있다.한 정책지원기관 관계자는 “창업 초기 기업의 자본력 확보에 큰 도움이 되는 정부 지원금을 비교적 쉽게 받을 수 있다는 점에서 경쟁률이 낮은 지방 창업이 유리한 측면이 있다”면서 “특히 대학교를 기반으로 좋은 인력을 수급할 수 있는 부산과 울산, 경남은 기술 창업을 노리는 사업가들에게 좋은 기회가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>보험 비교 플랫폼, 출범 전부터 수수료 갈등</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005086310?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 서비스이번엔 자동차보험 두고 논란손보 "수수료로 보험료 올라결국 소비자에게 전가될 것"플랫폼 "소비자 편의 강화전체 보험시장 확대 효과""여러 보험사 보험료를 네이버 같은 플랫폼에서 한눈에 비교해보고 가장 저렴한 상품을 선택할 수 있다면 훨씬 편리해질 겁니다."(A플랫폼 관계자)"플랫폼 비교 서비스를 허용해주면 네이버·카카오·토스에 주는 수수료가 다이렉트 채널 가입자에게 전가됩니다. 배달 애플리케이션(앱)에서 주문해 먹는 고객과 매장에 가서 포장해오는 고객이 같은 금액을 내야 하는 셈인데, 이를 막을 장치를 만들 수 있게 해달라는 겁니다."(B손해보험사 관계자)보험상품을 비교할 수 있는 '온라인 플랫폼 보험 비교·추천 서비스'가 도입되기 전부터 논란이다. 금융위원회는 이를 규제 샌드박스 혁신 서비스로 지정해 이른 시일 안에 시행한다는 방침인데, 양측의 의견 차이가 좁혀지지 않아 몇 달째 마무리 짓지 못하고 있다.작년까지는 비교·추천 대상에 어떤 상품을 넣을 것인지에 대해 양측이 첨예하게 대립했다면, 이달 들어선 자동차보험이 핵심 쟁점으로 떠올랐다. 손해보험업계는 지난 7일 차보험 비교·추천 서비스 관련 건의 사항을 당국에 전달했고, 9일 당국 관계자와 만난 것으로 알려졌다.손보업계는 플랫폼 기업들이 보험 판매 채널에 진출하면 기존 시장이 크게 흔들릴 수 있다고 우려한다. 특히 '플랫폼에 지불하는 수수료'를 보험료에 어떻게 반영할 것인지가 쟁점이다. 현재 차보험료는 판매 채널에 따라 다르다. 설계사를 직접 만나 가입하는 경우(대면), 전화마케팅으로 가입하는 경우(TM), 소비자가 직접 회사 홈페이지에서 가입하는 경우(CM)에 따라 보험료가 모두 다르다. 당연히 CM 채널에서 가입하는 것이 가장 저렴하다. 그런데 플랫폼 보험 비교·추천 서비스가 이와 같은 CM 채널로 분류되면서 별도로 수수료를 내야 한다는 점이 문제라고 보험업계는 주장한다.한 손보사 관계자는 "여러 보험사 상품을 모아서 보여주면서 각 회사 홈페이지 링크를 걸어주는 것인데, 보험사가 수수료를 지불해야 한다"며 "이를 감안해 다이렉트 사이트(CM) 보험료와 플랫폼 서비스용 보험료를 다르게 책정할 수 있게 해달라고 당국에 요청하고 있다"고 말했다. 같은 CM 채널용 보험료를 적용하면 CM 채널로 가입한 소비자도 플랫폼 수수료를 부담하는 부당한 사례가 생긴다는 것이 보험업계의 주장이다. 수수료를 얼마로 정할지, 어떤 경우에 지급할 것인지도 넘어야 할 산이다. 업계는 '쇼핑 비교' 서비스로 접근해 보험료의 2% 내외를 수수료로 정해야 한다는 입장이지만, 플랫폼들은 이보다 높은 수수료를 요구하고 있다. 손보업계 관계자는 "다른 판매 채널은 보험 중개의 전 과정인 5단계를 수행하지만, 플랫폼은 첫 단계인 '권유'만 한다"며 "수수료는 계약이 체결되는 경우에 한해 지급하고, 갱신 계약은 제외하는 등 합리적인 수준의 규제가 반드시 필요하다"고 주장했다.플랫폼업계는 "광고비 절감 효과를 고려하면 수수료 때문에 보험료가 오르는 것은 아니다. 아직 수수료율이나 취급 상품 등의 윤곽이 나오지 않은 상황에서 뭐라고 말하기 어렵다. 향후 있을 당국과의 간담회에서 의견 차이를 조율하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>코인 시장 살아나자 국내 거래소도 반색</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005211786?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>업비트 거래량 5.27배 급증…빗썸도 1.81배 ↑거래소 쏠림 현상은 더욱 심해져 최근 가상자산 시장이 살아나면서 원화마켓을 운영하는 국내 주요 거래소 거래량도 큰 폭 늘어난 것으로 확인됐다. 지난해 비트코인을 비롯한 주요 코인 가격이 약세를 이어가는 이른바 '크립토 윈터'로 실적 악화를 겪던 거래소들은 거래량 증가로 한시름 덜 수 있게 됐다.가상자산 시황 중계 사이트 코인게코에 따르면 국내 코인 거래 점유율 1위를 차지하는 업비트의 31일 오후 1시30분 기준 하루 평균 거래량은 23억5004만달러(약 2조8920억원)로 집계됐다. 이는 이달 1일 같은 시간 거래량인 4억4556만달러와 비교하면 5.27배로 급증한 수치다.다른 거래소도 같은 기간 거래량 증가를 경험했다. 빗썸은 1억6285만달러에서 2억9483만달러로 늘어 1.81배로 증가했다. 코인원도 3049만달러에서 6792만달러로 2.23배, 코빗은 114만달러에서 678만달러로 5.95배로 급증했다. 고팍스 역시 약 2배로 거래량이 늘었다.이처럼 국내 주요 거래소의 거래량이 증가세를 나타낸 것은 미 연방준비제도(Fed)의 기준금리 인상 속도 조절 기대로 가상자산 가격이 상승했기 때문으로 풀이된다. 이날 비트코인 가격은 이달 1일과 비교하면 37% 넘게 오른 2만2800달러대에서 거래됐다. 아울러 이더리움도 약 31% 상승했다. 비트코인과 이더리움 등 유명 코인은 물론 국내 투자자에게 인기를 얻는 리플, 앱토스 등 알트코인 거래량이 큰 폭 늘어난 것도 거래량 증가에 영향을 미친 것으로 보인다. 앱토스의 경우 지난 26일 하루 거래량 중 절반가량이 국내 거래소 업비트에서 발생했다는 보도가 나오기도 했다.거래량이 늘면서 지난해 가상자산 시장 약세로 매출 감소에 허덕이던 거래소들의 숨통이 트일 전망이다. 앞서 업비트 운영사인 두나무의 지난해 3분기 매출액은 2719억666만원으로 전년 동기 대비 66.29% 감소한 것으로 나타났다. 영업이익은 1687억7926만원으로 76.65%, 당기순이익은 1599억8582만원으로 72.68% 급감했다. 빗썸도 3분기 매출액이 690억원으로 52.4% 줄었다. 영업이익은 287억4870만원, 당기순이익은 326억원을 기록해 각각 72.7%, 73% 감소했다.다만 거래소의 거래량 증가에도 압도적 점유율을 자랑하는 업비트로의 쏠림 현상은 더욱 가속화된 것으로 나타났다. 이달 1일 기준 업비트는 빗썸보다 하루 거래량이 2.74배 많은 것으로 나타났는데, 이날에는 7.97배로 격차가 벌어졌다. 업비트와 코인원을 비교하면 거래량은 14.61배 차이에서 34.60배로 늘었다.전문가들은 이러한 거래량 쏠림 현상이 독점과 같은 문제점만을 내포하고 있는 것은 아니라고 설명한다. 홍기훈 홍익대 경영학과 교수는 "투자자 입장에선 이용자와 유동성이 많은 거래소에서 거래하는 이용하는 것이 유리하다"라면서 "유동성이 높은 곳이 왜곡 없이 가격이 가장 투명하고 경쟁적으로 유지되기 때문"이라고 설명했다. 이어 "다만 거래소 간 경쟁이 일어나지 않는다는 문제가 발생할 수 있는데 이는 증권사 등 경쟁력을 갖춘 플레이어들을 코인 시장에 진출할 수 있도록 해 해소가 가능할 것으로 보고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>은행 '과점체제' 어떻게 깰까…"장벽 낮추고 인뱅·핀테크 육성"</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006633168?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>尹 "은행, 정부에 의해 과점형태 유지…경쟁 촉진 방안 수립하라" 지시금융당국, 2월 중 관련 TF 구축…핀테크 혁신 사업자 진입 촉진윤석열 대통령이 15일 용산 대통령실 청사에서 열린 제13차 비상경제민생회의에서 모두발언을 하고 있다. (대통령실 제공) 2023.2.15/뉴스1 ⓒ News1 오대일 기자(서울=뉴스1) 서상혁 기자 = 윤석열 대통령이 은행권 돈잔치에 이어 '과점 체제' 해소를 지적하면서 금융당국도 5대 은행 중심의 은행시장 개편 작업에 착수한다. 금융당국은 대출·예금 플랫폼을 통해 은행간 경쟁을 촉진하는 방법을 비롯해 핀테크 플레이어를 시장에 적극적으로 진입시키는 방안을 검토 중이다. 윤석열 대통령은 15일 오전 용산 대통령실에서 주재한 제13차 비상경제민생회의에서 "금융·통신은 민간 부문에서 서비스를 공급하고 있으나 서비스의 공공재적 성격이 강하고, 정부의 특허에 의해 과점 형태가 유지되고 있다"며 경쟁을 촉진할 방안을 수립하라고 지시했다.은행권이 5대 은행(KB국민·신한·하나·우리·NH농협)을 중심으로 과점 체제가 형성되면서 효율적인 경쟁이 이뤄지지 않는다는 지적이다. 지난해 말 5대 은행의 여수신 시장 점유율은 각각 74.2%·63.4%에 달한다. 이같은 과점 지위를 활용해 손쉽게 사상 최대 수익을 시현했으면서도 취약차주 지원에는 인색하다는 게 대통령실과 금융당국의 공통적인 인식이다.이복현 금융감독원장도 전날 임원회의에서 "5대 은행의 과점 체제를 해소할 방안을 마련해달라"고 주문한 바 있다.이에 따라 금융당국은 '은행권 경영·영업 관행·제도개선 태스크포스(TF)'를 이달 중 구축해 상반기 중 제도개선 방안을 내놓겠다는 계획이다. TF엔 금융당국 관계자를 포함해 은행권·학계·법조계·소비자 전문가 등이 참여한다.당국은 TF에서 핀테크 혁신 사업자 등 신규 플레이어가 시장에 진입할 수 있도록 유도하는 방안을 검토할 예정이다. 금융과 IT 업계 간 영업 장벽을 낮춰 경쟁을 촉진하는 방안도 검토 대상이다. 인가 단위를 작게 쪼갠 '스몰 라이선스' 역시 유력한 방안으로 꼽힌다.인터넷전문은행의 업무 범위를 기업대출 부문으로 확장하는 방안도 테이블에 오를 전망이다. 카카오뱅크·토스뱅크·케이뱅크 외에 네 번째 인터넷전문은행이나, 신규 외국계 은행 유치 방안도 거론된다.이밖에 예대 금리차 공시 강화, 대환대출·예금비교 플랫폼 활성화를 통해 은행간 경쟁을 활성화하겠다는 계획이다. 금융당국은 2분기 중 온라인 대환대출 플랫폼과 예금상품 비교·중개 플랫폼 시범 운영을 시작할 예정이다.금융당국 관계자는 "현재 은행 산업이 5대 금융지주, 좁게는 4대 지주를 중심으로 돌아가면서 과점 체제가 형성됐다는 게 당국의 인식"이라며 "은행의 경쟁을 촉진하기 위해 경쟁 요소를 추가하는 방안 등을 검토할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스증권, 13일부터 미국주식 거래시간 확대</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000727192?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>오전 10시부터 다음 날 오전 8시까지 미국주식 거래 가능토스증권은 오는 13일부터 미국주식 거래 시간을 대폭 확대한다고 8일 밝혔다. 늘어나는 거래 시간은 한국시간 오전 10시부터 오후 5시 50분까지로 기존 거래시간과 더하면 총 21시간 50분 동안 미국주식 거래가 가능해진다.토스증권이 오는 13일부터 미국주식 거래 시간을 대폭 확대한다. [사진=토스증권]거래 시간에 따라 프리마켓(오후 6시~11시30분), 정규장(오후 11시30분~다음날 오전 6시), 애프터마켓(오전 6시~8시), 데이마켓(오전 10시~오후 5시50분)으로 구분된다. 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.거래 방법은 기존 투자 방식과 같다. 별도의 거래 방법을 익힐 필요없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다. 토스 앱 내 '주식' 탭을 통해 토스증권 모바일 트레이딩시스템(MTS)에서 원하는 미국주식을 거래하면 된다. 만약, 주문이 체결되지 않으면 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문은 유지된다. 애프터마켓까지 체결되지 않을 경우 주문은 자동 취소된다.토스증권은 다양한 시간대에 고객의 원활한 미국 주식거래를 위해 유동성 공급자(Liquidity Provider, LP)를 확보하며 이번 서비스를 준비해왔다. 토스증권 관계자는 "투자 대상과 방법 만큼 투자가능 시간도 투자판단에 중요한 요소"라며 "우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것"이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>위키 닮은 '토스뱅크 모임통장'…모임장 권한독점 깼다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042324?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>(사진 왼쪽부터)이지홍 토스뱅크 커뮤니케이션팀 리더, 홍민택 토스뱅크 대표, 김서연 모임통장 PO(프로덕트 오너), 심종경 모임카드 PO가 1일 오전 서울 강남구 역삼동 토스뱅크 사옥에서 '토스뱅크 모임통장' 출시 기자간담회를 진행하고 있다.(사진=토스뱅크)토스뱅크가 새롭게 선보인 '토스뱅크 모임통장'은 편집 권한이 모든 참여자에게 있는 위키와 비슷하다. 부부, 친구, 동아리 등 모임의 비용을 한 곳에 모아서 모임원 누구나 출금 및 카드 발급, 결제까지 가능하다. 토스뱅크는 1일 '모임통장 온라인 기자간담회'를 열고 모임통장 상품의 주요 혜택과 특징점에 대해 소개했다. '한 곳에 모아서, 쓸 때는 모두가'를 슬로건으로 내세운 토스뱅크는 모임 구성원 모두가 '돈 쓸 권리'를 갖는 것을 핵심 가치로 삼았다.기존 출시된 시중의 모임통장은 명의자인 '모임장'이 독점적으로 출금과 결제 권한을 가진다. 토스뱅크는 모임장 한 명이 권한을 독점하면서 결제 편의성이 떨어지고 회계에 대한 부담감이 커지는 문제가 있다고 봤다. 이에 토스뱅크는 '공동모임장'이라는 개념을 도입했다.토스뱅크 모임통장은 통장 최초 개설자인 모임장을 비롯해, '공동모임장'들도 본인 명의의 모임카드 발급은 물론, 결제 및 출금도 할 수 있다. 모임장의 동의를 받고, 실명확인 절차를 완료한 모임원은 공동모임장이 되며, 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다.이외에도 다양한 특장점이 있다. 토스뱅크 모임통장은 수시입출금통장이면서 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 국내 최초로 가입 가능한 모임원 인원 제한을 없앴다. 자동화된 회비 관리기능까지 제공해 총무의 부담을 최소화했다. 모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 다음달 말까지 모임원 1인당 최대 1만원을 주는 '모임지원금 이벤트'도 진행한다.기존 출시된 모임통장과 구별되는 또 다른 포인트가 있다면 '모임카드'다. 계좌 하나당 카드 한 개만 발급됐던 기존 상품과 달리, 토스뱅크 모임통장은 공동모임장이라면 누구나 본인 명의의 모임카드를 발급받을 수 있다.'토스뱅크 모임카드'는 △회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) △놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) △장보기(이마트·농협하나로마트) 주요 3대 영역에서 혜택을 제공한다. 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시캐시백 혜택이 적용된다.모임 전용 카드인 만큼 토스뱅크 모임카드 플레이트 뒷면에는 모임명을 새겨서 발급받을 수 있다. 모임장 혹은 공동모임장이 본인의 모임카드로 결제 시 체크카드 연말정산 혜택도 본인 명의로 귀속돼 모임 회비 결제로 발생하는 절세 혜택이 평등하고 투명하게 처리되는 장점도 있다.모임통장 출시 안내 이미지.(사진=토스뱅크)다만 구성원들의 '평등 민감도'가 높은 경우에는 카드 혜택 분배에도 신경써야 할 것으로 보인다. 캐시백 혜택은 모임기준으로 적용된다. 3대 영역 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있다. 이 혜택은 모임통장 계좌별로 적용되며, 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산돼 적용된다. 한 계좌에 참여하는 구성원이 늘어날수록 캐시백 혜택은 더 희소하게 분배되는 셈이다.모임장들의 결제 수요가 많아질 경우 목돈을 모으기 위한 모임통장의 본 목적이 퇴색할 수 있다는 우려도 있다. 이에 대해 김서연 모임통장 PO(프로덕트 오너)는 "(하루에 결제 및 출금할 수 있는)이체 한도를 조금 보수적으로 운영하기 때문에 해당 문제들을 관리할 수 있을 것"이라고 설명했다.토스뱅크 관계자는 "토스뱅크의 모든 혁신은 고객이 느끼는 불편함과 요구에서 출발하며 모임통장 또한 그러한 관점에서 '돈 쓸 권리'를 모임 구성원 모두에게 돌려드리려 한다"며 "토스뱅크만의 차별화된 모임통장과 모임카드를 통해 그동안 없던 모임뱅킹 플랫폼을 완성한 만큼 모든 모임에 최고의 혜택과 편리함을 드릴 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>이자장사로 1조 넘는 성과급 잔치..정부, 은행 보수체계 등 다 들여다본다</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004969312?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>14일 서울 시내 은행들의 현금인출. 서민을 힘들게 하는 고금리 수익으로 은행권이 퇴직금·성과급 등 '돈잔치'를 하는 것에 고통분담을 요구하는 목소리가 커지고 있다. 이날 금감원은 은행의 사회적 역할을 강조하며 성과보수 체계를 점검하겠다고 밝혔다. 연합뉴스 [파이낸셜뉴스] 은행에 대한 정부와 여론의 '이자 장사', '돈 잔치' 비난이 커지는 가운데, 지난해 5대 은행 임직원에 지급된 성과급만 모두 1조3000억원이 넘는 것으로 확인됐다. 한 명당 많게는 수억원, 적게는 수천만원에 이른다.   금융 당국은 이런 보수 산정에 합리적 근거가 있는지 은행의 지배구조 등을 들여다보기로 했다. 일각에서는 "민간기업의 임금 산정에 정부가 개입하는 것은 어불성설", "지나친 관치 금융"이라는 반론도 만만치 않지만, 대통령까지 나서 "은행은 공공재"라고 여러 차례 강조한 만큼 당분간 은행 등 금융기관에 대한 현 정부의 공익성, 사회적 책임 압박은 갈수록 커질 전망이다.   지난 14일 국회에서는 은행 임직원의 전체, 평균 성과급 규모가 잇따라 공개되며 '돈 잔치' 논란의 불씨를 이어갔다.   금융감독원이 정무위원회 황운하 의원(더불어민주당)에게 제출한 자료에 따르면, 지난해 5대 시중은행의 성과급은 모두 1조3823억원으로 파악됐다. 전년도 2021년 성과급 총액(1조19억원)보다 약 35%나 늘었다.   개별은행 임원 1명의 평균 성과급을 따져보면, KB국민은행이 2억1600만원으로 가장 많았고 이어 하나은행(1억6300만원), 신한은행(1억7200만원), 우리은행(1억400만원), NH농협은행(4800만원) 순이었다.   직원 1명의 평균 성과급의 경우 NH농협은행(3900만원)이 1위를 차지했다. 하나은행(1300만원)·신한은행(1300만원)·KB국민은행(1100만원)·우리은행(1000만원)도 모두 평균 성과급이 1000만원을 넘었다.   금감원이 양정숙 의원(무소속)에게 낸 자료에서는 2021년 5대 시중은행의 성과급이 1조709억원으로 집계됐다.   5대 시중은행의 성과급은 지난 5년간 줄곧 1조원을 넘어섰고, 2022년 성과급은 2021년 당시 최대 실적을 바탕으로 더 늘었다. 지난해 인터넷은행 카카오뱅크와 케이뱅크, 토스뱅크도 전년보다 각 139%, 105%, 78% 많은 258억원, 138억원, 34억원을 성과급으로 지급했다.   성과급뿐 아니라 주요 은행들의 주주 배당도 계속 불어나는 추세다. 양 의원실 자료에 따르면 2021년 기준 국내 17개 은행의 배당(현금·주식배당) 합계는 7조2412억원으로, 2020년(5조6707억원)보다 28%나 많았다.   은행이 성과급과 배당을 지나치게 늘리는 데 대한 여론의 비난은 해마다 반복되는 일이지만, 최근에는 정부가 공개 석상에서 끊임없이 직접 문제를 제기하고 개선을 목적으로 실제 행동에 나섰다는 점에서 큰 차이가 있다.   이복현 금융감독원장은 이날 내부 임원 회의에서 "고금리와 경기둔화 등으로 국민의 어려움이 가중되고 있는 상황에서 은행권이 사상 최대 이자 이익을 바탕으로 거액의 성과급 등을 지급하면서도 국민과 함께 상생하는 노력은 부족하다는 비판이 수그러들지 않고 있다"고 지적했다.   아울러 "은행권의 (공익적 금융) 지원 내역을 면밀히 파악해 실효성 있는 지원이 이뤄지는지 점검해 적극적으로 감독하라"고 주문하며 "성과보수 체계가 금융회사의 지배구조에 관한 법률의 취지와 원칙에 부합하게 운영되고 있는지에 대해 점검하겠다"고도 했다.   윤석열 대통령이 앞서 13일 수석비서관회의에서 "은행은 공공재적 성격이 있다. 수익을 어려운 국민, 자영업자, 소상공인 등에게 이른바 상생 금융 혜택으로 돌아갈 수 있도록 배려하고 향후 금융시장 불안정성에 대비해 충당금을 튼튼하게 쌓는 데에 쓰는 것이 적합하다"며 "은행의 '돈 잔치'로 국민들의 위화감이 생기지 않도록 금융위는 관련 대책을 마련하라"고 지시한 것과 같은 맥락이다.   금감원은 카카오뱅크를 시작으로 국민·신한·하나·우리·농협 등 5대 시중은행과 지방은행 등 10개 은행에 대한 결산 현장검사에 돌입했다.   결산 검사는 매년 초 주요 은행의 자본건전성을 들여다보는 정기적 성격의 검사인데, 특히 이번 결산 검사에서는 은행권의 대손충당금 적립 수준과 대출채권의 자산 건전성 분류 적절성 등을 예년보다 면밀히 점검할 것이라는 전망이 나온다.   하지만 정부가 지나치게 금리, 급여체계, 인사 등 금융의 모든 본질적 요소에 개입해 좌지우지하는 것은 시장 원리에 맞지 않고 효율성도 떨어진다는 불만의 목소리도 커지고 있다.   시중은행 관계자는 "정부가 지나치게 예금·대출 금리 조정에 간섭하면, 예금 금리와 시장금리, 대출 금리가 자연스럽게 연동되는 금리 체계가 망가져 오히려 소비자들이 혼란스러울 수도 있다"며 "더구나 사기업 은행에 공익 지출만 강조하는 것도, 금융위기가 닥쳤을 때 최후의 완충장치로서 충격을 흡수해야 하는 은행의 체력을 떨어뜨리는 일"이라고 주장했다. #금감원 #은행성과급</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.02.12.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>'모바일 고지서' 서비스 계속된다…법령 정비로 유효기간 연장</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013751785?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>서울시 과태료 모바일 전자고지 서비스[서울시 제공]    (서울=연합뉴스) 조성미 기자 = 과학기술정보통신부는 규제 특례를 적용 중인 KT와 카카오페이의 '행정·공공기관 고지서 모바일 전자고지 서비스' 유효기간을 법령 정비 완료 시까지로 연장한다고 12일 밝혔다.    이와 함께 조인스오토의 '모바일 기반 폐차 견적 비교 서비스'도 특례기간이 연장된다.    과기정통부는 13일 서면으로 열리는 제26차 정보통신기술(ICT) 규제 샌드박스 심의위원회에서 이러한 내용을 보고할 예정이다.    과기정통부에 따르면 정보통신 진흥 및 융합 활성화 등에 관한 특별법에 따라 ICT 규제 샌드박스로 실증 특례 또는 임시허가를 받은 서비스는 관계부처가 법령 정비를 추진할 경우 정비 완료 시까지 특례기간이 연장된다.    이번에 유효기간이 연장되는 2건이 법령 정비 추진에 따라 규제 특례가 연장되는 첫 사례라고 과기정통부는 설명했다.    모바일 전자고지는 행정·공공기관 등이 우편으로 발송하던 국민연금 가입, 부가세 신고, 재난지원금 안내 등의 고지를 문자메시지나 카카오톡 등으로 보내는 서비스다.    KT와 카카오페이가 ICT 규제 유예를 통해 2019년 임시 허가를 얻은 뒤 현재 네이버, 토스 등 8개 사업자가 참여 중이며, 지난해 12월까지 고지서 3억 건이 발송됐다.    규제 담당부처인 방송통신위원회는 모바일 전자고지 서비스 제도화를 위한 본인확인 기관 지정 등에 관한 기준 개정안을 행정 예고하는 등 법령 정비를 추진하고 있다.    모바일 기반 폐차 견적 비교는 온라인 플랫폼을 통해 폐차하려는 차주와 폐차업체를 중개·알선하는 서비스로 조인스오토가 2019년 서비스를 시작한 이래 누적 1천400여 건의 거래가 이뤄졌다.    이 업체는 규제 특례 만료 전 법령 정비를 요청했고, 담당부처인 국토교통부는 제도화를 위한 법령 정비가 필요하다고 판단, 자동차관리법 개정 등 법령 정비에 착수할 계획이라고 과기정통부는 전했다.    csm@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"야, 너도 총무할수 있어" 모임통장 독박총무 사라질까</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004963324?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>토스 “누구나 공동명의” 모임통장 공식 출시-3900만명 카톡 가입자 무기 '카뱅'에 도전장 인터넷전문은행 모임통장 비교 /그래픽=정기현 기자 [파이낸셜뉴스] 카카오뱅크에 이어 토스뱅크가 모임통장을 출시하면서 인터넷전문은행 내 모임통장 경쟁이 심화되고 있다. 카카오톡과의 연계로 1300만명이 넘는 모임통장 가입자수를 보유한 카카오뱅크의 아성에 토스뱅크는 누구나 모임장이 될 수 있는 '공동모임장'개념을 도입해 맞선다는 계획이다.    1일 토스뱅크 모임통장 온라인 기자간담회에서 홍민택 토스뱅크 대표(왼쪽 두 번째)가 발언하고 있다.(사진=토스뱅크 제공) 사진=뉴시스  토스 "누구나 결제 가능해 기존 모임통장 불편 해결"  토스뱅크는 지난 1일 온라인 기자간담회를 열고 모임통장 출시를 공식화했다. 지난해 6월 모임통장 출시를 예고한 지 약 8개월 만이다.   토스뱅크 모임통장의 핵심은 구성원 모두가 '공동모임장'이 될 수 있다는 것이다. 기존 타행 모임통장은 모임장 1명이 독점적으로 출금, 결제 권한을 가졌다. 토스뱅크는 이같은 '1인 모임장' 시스템이 모임 결제의 편의성을 떨어트리는 요소라고 보고 명의자가 동의하면 모임원 중 누구든 공동명의자가 될 수 있게 했다.   김서연 토스뱅크 모임통장 프로덕트 오너는 "모임장의 동의를 받고, 실명확인 절차를 완료한 모임원은 공동모임장이 되고 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다"고 설명했다.   또 기존에 출시된 모임통장들과 달리 인원 제한도 두지 않고 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 가는 등 회비 납부 현황을 직관적으로 확인할 수 있게 했다. 하루만 맡겨도 모인 회비에 연 2.3% 금리가 적용되는 것도 특징이다.   '먹기·놀기·장보기' 등 모임활동이 많은 영역을 대상으로 캐시백도 제공한다. △회식(음식점·주점에서 19시~24시까지 결제 시) △놀이(노래방·볼링장·당구장·골프장·골프연습장 업종) △장보기(이마트·농협하나로마트) 등으로 구분돼 1만 원 이상 결제 시 건당 500원, 1만 원 미만 결제 시에는 건당 100원의 캐시백 혜택이 적용된다.     카뱅 "카카오톡 연계에 생활비 관리까지"  인터넷은행 중 모임통장을 지금까지 가장 잘 활용한 곳은 카카오뱅크다. 지난 2018년 카카오뱅크는 모임통장을 출시한 뒤 4년 만에 고객 수 1356만명, 가입 계좌수 406만좌를 달성했다.   수신 중 모임통장 비중도 지난해 3·4분기 14.1%로, 전년 동기 대비 1.9%포인트 증가했다. 모임통장의 인기에 힘입어 카카오뱅크의 고객 수는 설립 7년 만인 지난해 12월 2042만명을 돌파했다.   카카오뱅크의 가장 큰 무기는 모기업 카카오가 보유한 약 3900만 명의 가입자다. 카카오뱅크의 모임통장을 이용하는 고객은 통장을 개설한 뒤 카카오톡을 통해 모임에 초대할 사람들을 손쉽게 불러모을 수 있다. 세이프박스 개설 시 연 2.60% 금리를 제공하는 것도 특징이다.   카카오뱅크는 지난달 27일 모임통장에 가정에서 활용할 수 있는 생활비 관리 기능을 신설했다. 목표 생활비를 설정하거나 예산 대비 지출 현황 비교 분석 서비스를 제공하는 방식이다.   회비 관리 기능도 추가해 회비 금액과 날짜 등 회비 규칙을 미리 설정하면 모임 회원들에게 알림을 보낸다. 미입금 버튼도 추가해 입금하지 않은 회원들에게만 따로 메시지를 보낼 수도 있다.   업계는 토스뱅크의 모임통장 출시로 인터넷은행의 고객 유치 경쟁이 더욱 심해질 것으로 내다보고 있다.   인터넷은행 관계자는 "실물자산이 없고 플랫폼이 전부인 인터넷 은행 특성상 고객을 많이 확보하는 것이 무엇보다 중요하다"면서 "기존 토스를 이용하던 고객을 끌어오긴 위한 토스뱅크의 모임통장 출시에 카카오뱅크가 적극 대응할 것으로 보여 앞으로 공격적인 마케팅이 이어질 것"이라고 말했다. #카카오뱅크 #토스뱅크 #모임통장 #공동모임장</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>"블록체인 기업도 상장한다"...블록오디세이, 1호 상장사 도전</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004967050?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>블록오디세이 제공 [파이낸셜뉴스] 블록체인 기업도 국내 증시에 상장할 수 있을까. 블록체인 기술 신생기업 블록오디세이가 코스닥 시장에 도전장을 내밀었다. 9일 블록체인업계에 따르면 블록오디세이는 코스닥 상장 대표주관사로 신한투자증권과 KB증권을 선정했다. 상장에 성공하면 블록체인 기업으로 국내 증시에 입성한 첫 사례가 될 수 있다.   지난 2018년 설립한블록오디세이는 기업건거래(B2B) 블록체인 전문 솔루션 기업이다. 완성형 블록체인 솔루션을 제공하는 이 기업은 △유통 이력 관리·정품 인증 △대체불가토큰(NFT) 발행·관리 △NFT 티켓 △동산 금융 △암호화폐 거래 시뮬레이션 등의 솔루션을 기업에 제공하고 있다.   블록오디세이는 프라이빗 블록체인(private blockchain)과 이더리움(Ethereum), 폴리곤(Polygon), 앱토스(Aptos) 등 다양한 블록체인을 지원한다. 프라이빗 블록체인은 누구나 참여할 수 있는 퍼블릭 블록체인(public blockchain)과 달리 블록체인 소유자의 허가를 받은 사람만 읽고 쓰는 권한을 갖는다.   블록오디세이 관계자는 "국내 주요 대기업 및 공공기관 대상 개별 니즈에 맞춘 맞춤형 시스템을 구축하고 있다"며 "이번 대표주관 계약 체결을 시작으로 국내 블록체인 1호 상장사라는 목표를 향해 노력하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.02.05.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>통장 만드는 데 1분…총무 없이도 체크카드 결제</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004152634?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>'카뱅에 도전장' 토스뱅크 모임통장 써보니월별 회비 낸사람 한눈에 정리공동모임장도 출금·결제 권한영업점 없어 자금 인출은 불편[서울경제] 카카오뱅크가 선보여 인기를 끌던 ‘모임통장’에 인터넷전문은행 후발 주자인 토스뱅크가 도전장을 내밀었다.5일 서울경제가 토스뱅크 모임통장을 개설해 직접 사용해 본 결과 모임 구성원의 숫자만큼 체크카드를 발급해 필요할 때 필요한 만큼 직접 돈을 꺼내 쓸 수 있다는 점에서 만족도가 높았다. 하지만 오프라인 영업점이 없는 인터넷전문은행의 한계 탓에 불편한 점 역시 적지 않았다.우선 기존 토스 애플리케이션이 자신의 스마트폰에 설치돼 있고 토스뱅크 통장을 보유한 사용자는 모임통장 만드는 일이 수월한 편이었다. 토스 앱 특유의 빠른 구동 속도와 직관적인 사용자 경험(UX) 덕에 1분 남짓이면 충분했다. 수시 입출금 통장의 일종이어서 제대로 기능을 활용하려면 한도 제한은 풀어야 했다. 만약 최근 타행의 보통예금에 가입한 적 있다면 가입일로부터 20영업일이 지난 뒤에야 만들 수 있다. 모임통장 개설 직후 계좌와 연동된 모임카드도 발급할 수 있었다. 원하는 모임명까지 카드플레이트에 새길 수 있어 애착이 더 가는 것도 장점이었다.구성원 초대도 어렵지 않았다. 토스뱅크 모임통장은 모임 참여 인원을 △모임장 △공동 모임장 △모임원 등 세 단계로 구분한다. 모임장은 모임통장을 개설한 총무 격이다. 모임장은 모임 초대장을 보낼 수 있고 기존 모임원을 내보낼 수도 있다. 모임장은 바꿀 수 없다. 모임장이 모임에서 빠진다면 기존 통장을 해지하고 새로운 모임통장을 만들어야 한다.모임원은 모임통장의 거래내역·잔액 등의 정보 조회가 가능한 모임 구성원이다. 모임원은 무한대로 영입할 수 있다. 공동 모임장은 여기에 이체 및 출금 거래, 개인 명의 모임카드 발급 권한이 추가된 이용자다. 모임원은 토스뱅크에 가입만 해도 되지만 공동 모임장이 되려면 토스뱅크 계좌를 반드시 보유해야 한다. 모임장은 출금·결제 등 모임 경비 운영에 필요한 핵심 권한을 가진 공동 모임장을 클릭 한두 번으로 새로 임명할 수 있지만 기존 공동 모임장 전원의 동의를 구해야 한다. 공동 모임장이 많으면 오히려 일처리가 더딜 수 있으니 신중한 판단이 필요해 보였다. 100만 원 초과 거래는 공동 모임장 전원의 동의가 필요하기 때문이다. 한 명이라도 거부하거나 결정을 늦추면 자금이 집행되지 않는다. 일일 거래 한도가 1000만 원에 불과한 점도 고민거리였다. 매달 회비로 걷는 금액을 설정하고 이를 낸 사람과 안 낸 사람을 일목요연하게 정리해 볼 수 있는 부분은 편리했다. 하지만 통장에 모인 자금을 급히 인출해야 할 경우가 있는 모임일 때는 오프라인 지점이 없는 한계 역시 뚜렷하게 다가올 것으로 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>아임웹, 고객사 누적 거래액 3조원 돌파</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005084676?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2022년 한 해 거래액만 1조원 육박… 전년 대비 50% 성장100% 노코딩으로 쉽고 빠른 웹사이트 구축 가능, 결제 물류 챗봇 등 이커머스 관련 기능도 간편하게 추가 가능해“다양한 마케팅 요소를 전방위적으로 지원해 사업자가 성장할 수 있는 환경 가꿔나갈 것” &lt;이미지: 아임웹 고객사의 누적 거래액이 3조원을 돌파했다.&gt;노코드 이커머스 솔루션 ㈜아임웹(대표 이수모)은 고객사의 누적 거래액이 2023년 2월 기준 3조원을 돌파했다고 7일 밝혔다.아임웹은 지난해 말 누적 개설 웹사이트 쇼핑몰 수 50만개를 돌파한 데 이어 올 2월에는 고객사 누적 거래액 3조원을 돌파하며 가파른 성장세를 이어가고 있다.아임웹 고객사의 누적 거래액은 2020년 9월 1조원을 돌파했고, 2022년 1월 2조원을 돌파했다. 2016년 본격적인 서비스를 개시한 후 4년 만에 1조원을 넘어섰고, 그 후 16개월 만에 2조원을 돌파했으며, 약 1년간의 짧은 기간 뒤 3조원을 돌파했다.2022년 아임웹의 고객사 거래액 규모는 약 9,625억원으로 1조원에 육박했다. 이는 2021년 약 6,397억원 규모였던 것에서 1.5배가량 성장한 수치다. 2022년 한 해 고객사의 주문 건수 또한 1,000만건을 넘기며(약 1,170만건) 2021년(약 938만건) 대비 약 25% 성장한 모습을 보였다.거래액과 주문 건수의 빠른 증가는 신규 고객 유입률과 고객사별 거래액의 폭발적인 성장에 기반한다. 지난해 아임웹을 통해 한 달 평균 1만1,000여 개 신규 사이트가 개설되면서 신규 쇼핑몰 수가 크게 늘었고, 고객사들은 IT 개발이나 디자인에 시간을 투자하는 대신 마케팅에 더욱 집중해 매출도 큰 폭으로 성장할 수 있었다.아임웹은 100% 노코드 기반의 편리한 웹사이트 구축 및 이커머스 운영 솔루션을 제공한다. 마우스 클릭과 드래그 앤 드롭 만으로도 심미성 높은 웹사이트를 만들 수 있고, △네이버페이 △카카오페이 △토스페이 등 다양한 간편결제 서비스 연동으로 수만명의 이커머스 사업자가 아임웹을 선택하고 있다. 아임웹은 여러 기업과 파트너십을 맺고 △패션 플랫폼에 상품 목록 연동 △물류 대행 서비스 연동 △챗봇 서비스 연동 등 쇼핑몰 운영을 더욱 편리하게 해주는 여러 가지 기능도 제공하고 있다.올 한 해 아임웹은 새롭게 이커머스 사업을 시작하거나 기존 사업을 확장하려는 고객들을 지원하기 위해 마케팅 도구를 대폭 개선하고 확장할 계획이다. 여기에는 △기존 기능 업데이트 △새로운 기능 추가 개발 △신규 기업과의 연계를 통한 앱(연동) 서비스 확대 등이 포함된다. 기능 고도화를 통해 신규 고객 유치에 힘쓰고, 궁극적으로는 고객들이 편리하게 이커머스 사업을 영위할 수 있도록 ‘판매자를 위한 생태계’를 조성할 계획이다.아임웹 이수모 대표는 “꾸준히 새로운 고객이 유입되고 거래액 규모도 가파른 상승세를 보이고 있다”며 “아임웹은 사업자가 사업 아이템에만 온전히 집중할 수 있는 이커머스 환경을 지원한다는 목표로 판매자에게 도움을 줄 수 있는 마케팅 요소들을 전방위적으로 지원할 계획이다. 좋은 사업 아이템만 있다면 아임웹이 제공하는 다양한 마케팅 도구들을 활용해 기업 규모를 키우고 지속적으로 성장할 수 있도록 도울 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>"韓 플랫폼 산업, 혁신 생태계 구축·정부 규제 방향 명확해야"</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002282100?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>인기협 ‘더 좋은 플랫폼 생태계: 플랫폼 생태계 국내외 현황과 전략 모색’ 포럼 개최‘네카쿠배당토(네이버·카카오·쿠팡·배달의민족·당근마켓·토스)’ 등 플랫폼 산업이 성장하려면 혁신 생태계를 만들어가는 동시에, 정부 규제 방향이 명확해야 한다고 전문가들은 입을 모았다.8일 서울 전경련회관 루비홀에선 한국인터넷기업협회 디지털경제연구원 주최로 ‘더 좋은 플랫폼 생태계: 플랫폼 생태계 국내외 현황과 전략 모색’ 포럼이 열렸다. 먼저 발제자로 나선 정연승 단국대학교 경영학부 교수는 미국 실리콘밸리 사례를 중심으로, 현 국내 플랫폼 산업을 진단했다.정연승 교수는 우수한 인적 자원과 풍부한 자본을 토대로, 도전할 수 있는 환경이 조성된 점을 실리콘밸리 성공 요인으로 꼽았다. 정 교수는 “실리콘밸리와 같은 혁신 인프라를 갖추려면 기업간 기술 인력 이동에 따른 연계와 자금 흐름, 그리고 정부 지원 등이 원활하게 작동하는 질적 상호작용이 중요하다”고 말했다.8일 한국인터넷기업협회 디지털경제연구원 주최로 서울 전경련회관 루비홀에서 열린 ‘더 좋은 플랫폼 생태계: 플랫폼 생태계 국내외 현황과 전략 모색’ 포럼.기업끼리 단순 물리적인 결집에서 벗어나, ‘혁신클러스터’를 통해 플랫폼 생태계 경쟁력을 제고해야 한다는 얘기다. 혁신클러스트란 기업과 관련한 기관이나 대학 등이 한데 모여 네트워크를 이뤄 경쟁 우위를 확보한 지역을 뜻한다. 정 교수는 “정부에서도 혁신클러스터 시작과 발전에 있어 역할 해야 한다”며 불필요한 정책을 지양해야 한다고 강조했다.한국은 정보기술(IT) 공룡들이 득세하는 글로벌 시장에서 자국 토종 플랫폼을 구축한 몇 안 되는 국가로, 이 영향력을 활용해야 한다는 견해도 나왔다. 강형구 한양대 경제학부 교수는 빅테크를 ‘플랫폼의 플랫폼’으로 규정하며, 우리도 모호한 규제 기준을 타파해 빅테크 출연을 도모해야 한다고 역설했다.강형구 교수는 “플랫폼은 조직도, 시장도 아닌 하이브리드로 매력적인 규제 타깃이 될 수 있다”면서 기술·경제적 특성 기반의 시장 전략과 여러 이해관계자를 아우르는 비시장 전략을 모두 강구해야 한다고 목소리를 높였다.플랫폼을 겨냥한 정부 규제 움직임 역시 목적이 분명해야 한다는 의견도 있었다. 계인국 고려대 행정전문대학원 교수는 윤석열 정부 자율규제 기조를 놓고 “정부에서 미리 틀을 만들어놓고, 기업엔 자생력을 갖춰야 한다는 방향으로 해석된다”며 “플랫폼 독점이나 경쟁 왜곡 등을 뒷받침할 만한 지표도 마련되지 않았다”고 지적했다.자율규제 체계를 중심으로, 해결되지 않은 문제에 제재를 가하는 등 규제 목적이 명확해야 한다는 게 계인국 교수 시각이다. 유정민 과학기술정책연구원 박사 역시 “(플랫폼 규제에) 정부가 신중하게 접근해야 한다”면서 “부작용에만 초점을 둘 게 아니라, 플랫폼 산업 가치와 사회적 효용 증감 등을 따져봐야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>5대 시중은행 과점체제 손본다</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002104368?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>‘스몰 라이센스’ 도입 경쟁체제 확대영국 ‘챌린저뱅크’ 모델 도입 검토금융감독원이 단일 체제였던 은행업 라이센스를 기능별로 세분화하는 ‘스몰 라이센스’를 도입한다. 인터넷전문은행 및 핀테크의 금융업 진출 등을 확대해 사실상 5대 시중은행 중심의 은행업 과점체제를 손보겠다는 것이다. 은행들이 역대급 ‘이자장사’로 성과급 잔치 등을 벌이는 행태를 깨기 위한 방안 중 하나로 은행업무의 경쟁체제 확대라는 카드를 꺼낸 셈이다.이복현 금융감독원장은 지난 14일 임원회의에서 “여수신 등 은행업무의 시장 경쟁을 촉진해 효율적인 시장가격으로 은행서비스가 금융소비자에게 제공될 수 있도록 하는 다양한 제도·방안에 대해 심도있게 검토해달라”고 주문했다. 5대 시중은행을 중심으로 한 과점적 체제가 이어지다보니 은행들이 사회적 책임을 도외시하고 제살 불리기에만 열중하고 있다는 지적에 따른 조치다.우선 금감원은 라이센스 세분화, 인터넷전문은행 확대, 핀테크의 금융업 진출 도입 등을 다각도로 살펴보고 있다. 특히 기능별로 은행 라이센스를 쪼개는 일종의 ‘스몰라이센스’ 도입은 경쟁체제를 깰 수 있는 가장 효율적인 수단으로 꼽힌다.은행업의 경우 단일 인가로 되어있으나, 인가 단위를 나눠 특정 분야에 경쟁력 있는 특화은행을 활성화한다면 전 분야에서 우월적 지위를 차지하는 과점 체제를 깰 수 있다는 판단이다. 이미 금투업은 자본시장법에 따라 금융투자업자 인가체계를 금융기관별에서 금융기능별 인가로 바뀐 바 있다.은행업의 스몰라이센스 도입이 활성화된다면 지주 산하가 아닌, 독립계 은행 등이 시장에 다양하게 등장할 것으로 보인다. 예컨데 중소기업 전문은행, 소매 전문 은행 등이 나올 수 있다는 얘기다.그 일환으로 영국에서 시작된 ‘챌린저뱅크’ 모델 도입 가능성을 살펴보고 있다. 챌린저뱅크는 기존 대형은행의 지배적인 시장 영향력에 도전하는 소규모 특화은행을 말한다. 전통 은행과 달리 기능별 업무가 뚜렷하고 투명한 수수료 정책 등을 펼친다는게 강점이다. 중소기업을 위한 각종 여수신 상품을 취급하는 영국 아톰뱅크가 대표적인 예다.금감원 관계자는 “영국의 경우 챌린저뱅크 유닛을 만들어 특화된 부문에서 은행업을 영위할 수 있도록 지원하는 제도가 있다”며 “경쟁을 확대하는 방향에 대해 고민해 은행업무에 어떻게 더 많은 참가자들이 뛰어들 수 있게 할 수 있을까 고민하는 중”이라고 말했다. 여기에 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행을 더욱 활성화해 경쟁을 추가로 유도하겠다는 구상이다.이처럼 금감원이 은행의 ‘판 흔들기’에 나선건 역대급 실적에 따른 성과급 잔치 논란 등에서 비롯된다. 금융권에 따르면 4대 금융지주(KB국민·우리·신한·하나)의 지난해 이자수익은 39조6735억원으로 1년전에 비해 20%가 뛰었다. 기준금리 인상으로 인해 이자수익이 고성장한 덕이다.사상 최대실적을 토대로 은행들은 내부 임직원들에게 역대 최대 성과급 및 퇴직금을 지급한 상태다. 이미 5대 시중은행은 기본급의 300~400% 수준의 성과급을 지급했고, 은행들이 퇴직자에게 지급한 희망퇴직금과 법정퇴직금을 합하면 1인당 6억∼7억원 수준에 이른다. 금리인상으로 서민들의 부담이 과중되는 상황에서 이자장사로 돈을 벌어놓고, 성과급이나 퇴직금으로 지급하는 것이 맞냐는 지적이 나오는 이유도 여기서 비롯된다.서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>‘암탉이 울면 집안이 망한다’를 영어로 옮기는 번역자의 자세 [플랫]</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003202616?sid=103</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>“수탉은 조용하고, 암탉이 우는 집엔 평화가 없다”. 영문학자이자 번역가, 문학평론가인 김욱동(서강대 영문학부 명예교수)이 &lt;번역가의 길&gt;(연암서가)에서 소개한 이탈리아 속담이다. 다른 유럽 국가에도 비슷한 내용의 속담이 전한다.김욱동은 서양에서는 “암탉이 운다”는 말을 여성의 사회 참여를 가리키는 은유적 표현으로 자주 사용해 왔다고 말한다. 미국 여성사 학자 실비아 D 호퍼트가 1995년 출간한 책 제목이 &lt;암탉이 울 때(When Hens Crow)&gt;다. 부제는 ‘남북전쟁 이전 여권 운동’. 1852년 ‘뉴욕 데일리 헤럴드’가 이 무렵 여성 운동을 이끄는 지도자들을 “우는 암탉”으로 묘사한 걸 제목으로 삼았다.이미지컷“암탉이 울면 집안이 망한다”. 김욱동은 “예로부터 남성이 여성을 지배와 종속의 대상으로 삼으려는 태도를 엿볼 수 있는 속담”이라고 말한다. &lt;서경&gt; 목서편의 ‘빈계지신(牝鷄之晨)’에서 유래한 말이다. 한·중·일이 두루 쓴다. 일본 속담은 “암탉이 노래하면 집안이 망한다”이다. 유럽 등 다른 지역보다 강도가 세다. 페르시아 속담도 유럽과 비슷하게 성차별적인데, “수탉이라면 소리 내어 울고, 암탉이라면 알을 낳아라”는 정도다. 동아시아 3국 ‘암탉’ 속담은 “남성보다 여성이 군림하면 아예 집안이 멸망한다”고 경고한다.김욱동은 “민중의 지혜가 담긴 속담이나 격언에는 알게 모르게 가부장적인 남성중심주의와 그에 따른 성차별이 숨겨져 있다”며 이 속담을 주요 사례로 ‘젠더와 번역 문제’를 다룬다. 우선 자국화·이국화 번역 방법을 소개한다. 자국화(自國化)는 “목표 독자가 이해하기 쉽게 자국 언어와 문화에 걸맞게 번역하는 방식”이고, 이국화(異國化)는 “원천 텍스트가 자국 독자에게 낯설면 낯선 대로 그대로 번역하는 방식”이다.실비아 D 호퍼트의 &lt;암탉이 울 때(When Hens Crow)&gt; 표지.이국화를 주장하는 번역가라면 “암탉이 울면 집안이 망한다”를 “When the hen crows, the house goes to ruin”으로 번역할 수 있다. “영어권 독자들에게는 조금 낯설게 느껴질지라도 한국어의 표현에는 충실한” 번역이다. 자국화를 주장하는 번역자 중에서도 비유법을 무시한 채 의미만 전달하려는 사람의 번역은 다음과 같다. “It is shameful for the wife and not the man to rule the house(남편이 아니라 아내가 다스리는 집안은 수치스러운 곳이다)”.김욱동은 이어 젠더에 무게를 싣는 외국 페미니즘 번역가들의 방법론을 끌어온다. 먼저 “It is a sad house when the hen, like the cock, crows(암탉이 수탉처럼 울면 집안엔 망조가 든다. 김욱동의 ‘sad house’의 ‘sad’는 ‘받아들일 수 없는’ 또는 ‘형편없는’의 뜻으로 ‘망조가 든 집안’이 적당하다고 했다)”로 번역할 수 있다. 이 번역은 “원천 텍스트(암탉이 울면 집안이 망한다)에 없는 ‘수탉처럼(like the cock)’을 명시적으로 삽입해 가부장적 남성 질서를 폭로한다”고 했다. 두 번째 방법은 “수탉처럼” 자리에 “수탉이 아니라(not the cock)”를 넣는 것이다. 첫 번째 번역과 비슷한 효과를 낸다. 세 번째 방식은 “It is a sad house when the hen crows”로 쓰면서 ‘hen’의 ‘he’를 이탤릭체 ‘he’로 표기하는 것이다. “남성(he)이 집안에서 얼마나 황제처럼 군림해 왔는지”를 넌지시 드러내는 번역이 된다. 네 번째는 ‘hen’을 ‘she+hen’의 s(hen)으로 써 ‘암탉의 여성성’을 전경화(全景化)하는 것이다. “억압받아 온 여성성을 가시적으로 드러내는” 번역 방식이다.김욱동은 수잔 로트비니에르-하우드가 리즈 고뱅의 &lt;타자가 보낸 편지&gt;(1984)를 영어로 번역할 때 ‘Human Rights(인권)’의 소문자 ‘m’을 대문자 ‘M’으로 써 “HuMan Rights”로 표기하면서 암묵적인 남성의 성차별을 폭로한 것과 같은 방식의 번역이라고 했다.김욱동은 “언뜻 보면 긍정적인 것 같지만 좀 더 꼼꼼히 따져보면 여성을 비하하거나 폄하하는 부정적 의미”가 든 단어도 적시한다. ‘sweetie’는 여성을 음식물로 간주하는 태도를 보여주는 말이다. ‘baby’는 “여성을 성인이 아닌 갓난아이로 보려는 이데올로기를 내포”한다. ‘doll’에는 “남성이 여성을 단순히 장난감으로 간주하려는 태도”가 깃들어 있다.책은 성경 번역 문제도 다룬다. 성경 번역 때도 자국화와 이국화 전략이 엇갈린다. 한글 성경은 헬라어 ‘아르토스(artos)’와 영어 ‘bread’를 떡이나 밥, 빵으로 번역해왔다. 한 예로 ‘요한복음’ 6장 48절은 “내가 곧 생명의 떡이니라” 등으로 옮겼다. 처음 한글 성경을 만들 때 ‘빵’은 한국인들에게 익숙지 않아 ‘떡’으로 번역했다. 자국화 방식을 택한 것이다. 오병이어(五餠二魚)의 병은 떡을 뜻하는 말이지만, ‘빵 다섯 개’로 관용적으로 풀이한다. 빵이 한국인에게 익숙해지면서 ‘빵’으로 번역하는 일도 늘었다.‘요한복음’ 1장 29절의 “하느님의 어린 양”이라는 표현은 희생 제물로 쓰인 새끼 양을 뜻하는 히브리어 ‘시 하엘로힘(Seh Ha-Elohim)’을 번역한 것이다. 외국인 선교사를 비롯한 초기 번역자들은 한국에서 보기 힘든 양으로 할지 익숙한 염소로 할지를 놓고 토론하다 결국 양으로 결정했다. 이국화 방식을 택한 것이다. 아프리카로 간 유럽 선교사들은 “하느님의 염소”로 번역했다. 아프리카인들은 양을 미련하고 쓸모없는 동물로, 염소는 유용한 동물로 여겼기 때문이다. 김욱동은 2012년 캐나다 성서공회가 성경을 이누이트 말로 번역하면서 고심 끝에 “하느님의 어린 물개”로 번역한 일도 소개한다.반 얀 에이크의 켄트 제단화 중 ‘어린양에 대한 경배’어떤 방식을 택해야 할까. 김욱동은 “원천 문화에 좀 더 무게를 싣는 세계문학 시대에 이르러서는 자국화 번역보다는 오히려 이국화 번역이 더 관심을 받는다. ‘내가 곧 생명의 떡이니라’라고 옮기는 쪽보다는 ‘내가 곧 생명의 빵이니라’ 또는 ‘내가 곧 생명의 음식이니라’로 옮기는 쪽이 더 설득력이 있다”고 했다.“To be, or not to be: that is the question”은 세상에서 가장 유명한 독백이다. 영화나 연극 &lt;햄릿&gt;의 하이라이트도 이 독백이다. 사진은 영화, 연극, 라이브공연의 독백 장면이다. 왼쪽 위부터 시계방향으로 로렌스 올리비에(1948), 멜 깁슨(1990), 주디 덴치(2020), 베네딕트 컴버배치(2015) 독백 장면.“To be, or not to be: that is the question”은 세상에서 가장 유명한 독백이다. 영화나 연극 &lt;햄릿&gt;의 하이라이트도 이 독백이다. 사진은 영화, 연극, 라이브공연의 독백 장면이다. 왼쪽 위부터 시계방향으로 로렌스 올리비에(1948), 멜 깁슨(1990), 주디 덴치(2020), 베네딕트 컴버배치(2015) 독백 장면.책은 셰익스피어의 &lt;햄릿&gt;에서 “To be, or not to be: that is the question”을 두고 국내 번역가들이 그동안 어떻게 번역해 왔는지도 살핀다. “인류가 가장 많이 암송하고 가장 자주 인용하는 구절”인 이 독백을 두고 김욱동의 표현을 빌리면 ‘백가쟁명’을 떠올릴 만큼 많은 번역가가 서로 다른 방식으로 옮겼다.셰익스피어의 ‘햄릿’ 한 장면이 들어간 우표. “To be, or not to be: that is the question”은 세상에서 가장 유명한 독백이다.이 독백의 한국어 번역 시초는 일본 유학생들 잡지 &lt;학지광&gt;에서 확인할 수 있다. 설산 장덕수가 1915년 ‘의지의 약동’에서 “살까 죽을까 하는 것이 문제로다”라고 번역했다. 그 뒤로 “죽음인가 삶인가, 이것이 의문이다” “죽느냐 사느냐. 그것이 문제로구나” 같은 번역이 이어졌다. 이 과정에서 원문 어순을 바꾸어 ‘삶’을 뒤로 돌리고 ‘죽음’을 앞에 내세우는 번역이 나왔다. 김욱동은 “생사가 바뀌는 것처럼 엄청난 변화다. 한국어 연어(連語)법에는 전자보다는 후자가 훨씬 더 자연스럽다. 한국어에서는 ‘죽기 아니면 살기’라는 표현은 사용하여도 ‘살기 아니면 죽기’라는 표현은 좀처럼 사용하지 않는다”고 했다. 이후에도 삶을 앞세운 “살 것이냐 아니면 죽을 것이냐, 그것이 문제로다”가 나오기도 했다.1980~90년대 최종철이 “있음이냐 없음이냐, 그것이 문제로다”로 파격적 번역을 하면서 논쟁이 촉발됐다고 김욱동은 전한다. 최종철 스승인 이상섭은 ‘있음’과 ‘없음’을 한자어로 바꾸어 “존재냐, 비존재냐 — 그것이 문제다”로 옮겼다. ‘be’를 각각 명사형 ‘있음’과 ‘존재’로 옮긴 것이다. ‘be’를 동사 ‘~이다’로 해석하는 게 관례라며 “내가 덴마크의 왕자인지 아닌지, 그것이 문제로다”로 번역하는 것이 더 적절하다는 의견도 나왔다.김욱동은 영국 케임브리지대학교 출판사에서 출간한 ‘뉴 케임브리지 셰익스피어’ 시리즈 &lt;햄릿&gt;(1985, 2003) 편집자 필립 에드워즈가 “햄릿은 지금 스스로 목숨을 끊어야 할지 말아야 할지를 두고 고민하고 있다”고 밝힌 점, 비교적 최근인 2015년 나온 ‘펭귄 클래식’ &lt;햄릿&gt; 편집자도 “계속 살아야 할 것인가, 아니면 자살할 것인가를 두고 실존적 선택의 갈림길에 놓여 있다”고 지적한 점 등을 들며 ‘삶(사느냐)’과 ‘죽음(죽느냐)’으로 해석한 데 의문이 없다고 전한다. 2016년 셰익스피어 서거 400주기 때 나온 &lt;햄릿&gt;에선 “이대로냐, 아니냐, 그것이 문제다”로 번역됐다.김욱동은 “이렇게 정신이 어지러울 정도로 온갖 번역이 난무하는 것은 좀 더 좋은 번역을 얻기 위한 시도로 볼 수 있다”고 말한다.김욱동은 이번 책은 &lt;번역인가 반역인가&gt;(2007), &lt;번역과 한국의 근대&gt;(2010), &lt;근대의 세 번역가; 서재필·최남선·김억&gt;(2010）, &lt;번역의 미로&gt;(2011), &lt;오역의 문화&gt;(2014)에 이어 다섯 번째 낸 번역 관련 책이다.&lt;번역가의 길&gt;은 이전 책보다 읽기 쉽다. 김욱동은 e메일로 주고받은 문답에서 “그동안 이론과 실천의 두 분야에서 번역에 종사하면서 느낀 소감을 후배 번역가들이나 번역가 지망생에게 주는 충고나 안내서로 이 책을 썼다. 그래서 현학적인 문체와 형식을 버리고 가능한 한 커피를 마시며 담소를 나누듯 평이하게 집필했다”고 말했다.책은 애인(愛人)이 일본에서는 떳떳지 못한 관계를 맺은 이성 즉 정부(情夫, 情婦)를 완곡하게 가리킬 때 쓰고, 중국에서는 부부 사이 ‘여보’나 ‘당신’을 뜻하는 말로 사용하는 일 등 ‘번역’에 뜻을 두지 않은 일반 독자도 흥미롭게 읽을 이야기도 많이 담았다. 일본에서 한국 ‘애인’에 해당하는 말은 고이비토(愛人)다. 중국 칭부(情婦)는 불륜 관계를 가리키지 않는다. 한국 애인 뜻과 같다.남성 원로 학자가 ‘젠더와 번역’을 다룬 점도 평가할 수 있다. 책에서 “남성이 그동안 여성을 지배와 종속의 대상으로 삼았듯이 이성애자들은 동성애를 ‘타자’로 간주하여 무시하거나 금기시하였다”며 동성애 차별도 번역의 중요 의제로 삼아야 한다고 했다. 그는 “번역가의 능동적 역할이 더욱 중요하다”고 했다.번역 기본 철학에 관해서는 보수적이다. 그는 후배 번역가들이 독창성을 지나치게 내세우려다 오류를 범하게 된다고 본다. 책에선 프랜시스 스콧 피츠제럴드의 &lt;위대한 개츠비&gt; 번역 등 몇 가지 사례를 지적한다. 그는 “번역가에게 무엇보다도 소중한 미덕은 창작가의 독창성이 아니라 원작자의 의도를 충실히 살리려는 번역가의 성실성이라는 사실을 잊지 말아야 한다”고 했다.▼ 김종목 기자 jomo@khan.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.02.05.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>‘페이왕국’ 대한민국… 간편결제 서비스, 미국·중국·일본보다 많아</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000874835?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>최근 몇 년 간 국내 모바일 간편결제 서비스가 우후죽순 생겨나면서 현재 50개에 가까운 숫자로 늘었다. 각 서비스 간 경쟁이 치열해지면서 포인트 적립, 페이백 이벤트 등 소비자들이 얻는 혜택도 증가했지만, 일각에선 간편결제 서비스가 미국·중국·일본 등 주요 국가에 비해 지나치게 많아 이용자들의 혼란을 부추긴다는 지적도 나온다.SSG페이(쓱페이)와 스마일페이 이미지. /신세계, G마켓 제공        5일 금융감독원에 따르면 지난해 기준으로 국내에서 서비스 중인 간편결제 서비스는 46개다. 포털·핀테크사(29개), 금융사(15개), 스마트폰 제조사(2개) 등 다양한 업종에서 간편결제 서비스를 개발해 제공하고 있다.주요 모바일 간편결제 서비스로는 삼성페이·신한플레이·KB페이·NH페이·오픈페이·네이버페이·카카오페이·페이코·쿠팡페이·스마일페이·배민페이·토스페이·SK페이·쓱페이·엘페이 등이 있다.LG처럼 같은 회사 또는 계열사에서 각 다른 간편결제(LG페이, 페이나우) 서비스를 내놓기도 했다. 현대카드도 자사 간편결제 핀페이와 별도로 애플페이 출시를 준비하고 있다. 곧 등장할 서비스까지 포함하면 올해 국내 간편결제 서비스는 50개에 이를 전망이다.이는 인구 14억명인 중국의 간편결제서비스가 3개(알리페이·위챗페이·화웨이페이), 인구 3억5000만명인 미국이 4개(페이팔·애플페이·구글페이·월마트페이)인 것을 감안하면 압도적으로 많은 숫자다.일본이 10개(라인페이, 야후페이, 메루페이, 라쿠텐페이, 오리가미페이, 페이디페이, 스퀘어페이, 코이니페이, 미즈호페이, 캐시페이)로 중국과 미국보다는 많지만, 한국과 비교하면 간편결제 서비스 수가 훨씬 적다.국내 페이 서비스가 우후죽순 늘어난 것은 간편결제 시장이 폭발적으로 성장했기 때문이다. 한국은행 통계에 따르면 국내 간편결제 시장의 결제액은 2021년 기준 221조원으로 5년간 연평균 57% 늘어나면서 국내 민간 결제액(1000조원)의 약 20%를 차지하고 있다.지난해 상반기 간편결제 서비스의 하루 평균 이용 금액은 7231억7000만원으로 집계됐다. 2021년 하반기와 비교하면 10.7% 증가한 규모다.그래픽=편집부        그러나 각 간편결제마다 제휴처가 한정되어있는 등 범용성이 확보되지 않은 서비스가 난립하면서 이용자 혼란을 부추기고 피로감을 느끼게 한다는 지적도 여러 차례 제기돼 옸다.경기도 고양시에 거주하는 직장인 안모씨(32세)는 “현재 선불금을 충전한 페이 서비스만 12개나 되는데 정작 주로 사용하는 것은 2~3개 수준”이라며 “선불 충전금이 나눠져 있다보니 어디에 얼마를 충전했는지 알기도 어렵다”고 불편함을 말했다.또 국내 결제 시장 규모는 미국·중국·일본 등에 비해 작은데 수십개의 페이 서비스가 난립하다 보니 업체들 간 ‘포인트 퍼주기’ 등 출혈 경쟁도 발생하고 있다. 이용자들 입장에서는 여러 간편결제 서비스를 통해 다양한 혜택을 누릴 수 있지만, 만약 서비스 중단 사태 등이 발생할 경우 금전적 피해를 입을 수도 있다.금감원에 따르면 2021년 기준으로 간편결제 서비스 상위 10개 업체의 부채비율은 평균 460%였다. 쿠팡페이의 경우 부채비율이 2967.5%에 달했다.만약 특정 간편결제 서비스 업체가 중단되면 소비자들의 선불 충전금도 함께 사라질 가능성이 크다. 선불 충전금은 금융기관 예금과 달리 예금자보호법의 대상이 아니기 때문이다. 2021년 기준 국내 간편결제 서비스의 선불 충전금 규모는 2조9934억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장, 출시 일주일 만에 7만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003782112?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>토스뱅크는 지난 1일 출시한 ‘토스뱅크 모임통장’이 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다고 9일 밝혔다.     모임통장을 신규 개설하거나 모임원으로 참여한 고객은 20대가 28.34%로 가장 높았으며, 30대(25.28%), 40대(20.32%), 50대(11.53%) 등 순이었다. 10대도 11.13%를 차지해 연령대별로 고른 인기를 얻고 있다고 토스뱅크 측은 전했다.       현재까지 개설된 모임통장 6개 중 1개(약 16%)는 구성원 모두 공동모임장이 돼 출금과 카드 발급 및 결제 권한을 공유하고 있는 것으로 나타났다. 출시 초기인 점을 고려하면 공동모임장으로 자금을 관리하는 모임통장의 수는 더욱 늘어날 것으로 업체는 전망했다.     ‘토스뱅크 모임통장’은 모임원이라면 누구나 출금 및 카드 발급, 결제까지 가능하게 한 ‘공동모임장’ 기능을 도입한 것이 특징이다. 혼자서 모든 자금을 관리하는 모임장의 부담을 덜고 회비 관리 편의성과 투명성을 높이기 위해 설계됐다.연 2.3%(세전)의 금리를 제공하며, 공동모임장은 캐시백 혜택을 담은 모임카드를 발급받을 수 있게 했다.   토스뱅크 관계자는 “출시 초기부터 저희 모임통장에 뜨거운 관심과 애정을 보여주시는 고객님들께 진심으로 감사드린다”며 “모임의 규모나 성격에 상관 없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀기울이며 기능과 혜택을 강화해 나갈 것”이라고 말했다.     한편 모임통장 출시를 기념해 진행하는 ‘모임지원금 이벤트’도 다음 달 말까지 계속된다. 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금이 지원된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CJ ENM 미국 스튜디오, 아마존·디즈니 인사 영입…글로벌 사업 박차</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002101192?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>‘피프스시즌’ 글로벌 사업 확대 총력유명 미디어 기업 인재들 속속 합류피프스시즌의 TV콘텐츠 개발 및 제작 담당 대표 조 힙스(Joe Hipps). [CJ ENM 제공][헤럴드경제=김현일 기자] CJ ENM의 미국 스튜디오 피프스시즌(FIFTH SEASON)이 최근 영국 공영방송 BBC와 아마존 스튜디오 등 글로벌 미디어 기업 인재를 대거 영입하며 몸집 불리기에 나섰다. 글로벌 유통 및 배급망 확충을 위해 사업구조 개편에 착수한 것으로 알려졌다.8일 업계에 따르면 최근 피프스시즌은 제니퍼 에벨(Jennifer Ebell)을 EMEA(유럽·중동·아프리카) 세일즈 및 인수 담당 부사장으로 승진시키고, 해당 지역에서의 사업 강화에 본격 드라이브를 걸었다. 이밖에 BBC 스튜디오에서 드라마 광고 사업을 담당했던 아바 무스토스(Ava Mustos), 월트 디즈니와 폭스 네트워크 그룹, 소니 픽처스 텔레비전 등에서 콘텐츠 영업 파트를 이끌었던 마리아 그라지아 우르시노(Maria Grazia Ursino) 등도 피프스시즌에 합류했다.피프스시즌은 이번 인사로 유럽, 중동, 아프리카 지역의 미디어 유통망 확대와 영업 조직의 시너지 극대화를 기대하고 있다. 현재 미국 LA에 본사를 두고 있는 피프스시즌은 뉴욕, 영국 런던, 스웨덴 스톡홀롬, 홍콩, 중국 베이징, 콜롬비아 등에 글로벌 거점을 운영하고 있다.지난해 12월에는 아마존 스튜디오 임원 출신 질 아서(Jill Arthur)가 TV 콘텐츠 개발 및 제작 총괄 부사장으로 피프스시즌에 합류했다. 9년간 아마존 스튜디오에서 고위 임원으로 재직한 질 아서는 '한나(Hanna)', '더 파워(The power)' 등 대형 프로젝트 시리즈 제작에 참여한 바 있다. 지난해 10월에는 정치 스릴러 드라마 ‘하우스 오브 카드(House of Cards)’ 제작자 출신 조 힙스(Joe Hipps)가 TV 개발 및 제작 담당 대표로 승진하기도 했다. 그가 이끈 피프스 시즌 TV스튜디오 제작 부문은 지난해 에미상에서 27개 후보에 올라 그 성과를 인정받았다. 피프스시즌이 제작한 TV 시리즈 '세브란스: 단절(Severance)'. [CJ ENM 제공]CJ ENM은 지난해 인수한 피프스시즌을 통해 글로벌 콘텐츠 스튜디오로의 도약을 꿈꾸고 있다. 피프스시즌은 지난해 아카데미상 3개 부문 후보에 오른 영화 '로스트 도터(The Lost Daughter)'를 비롯해 마이클 베이 감독의 영화 '앰뷸런스(Ambulance)' 등을 제작했다.지난해 에미상 2관왕을 차지한 TV 시리즈 '세브란스: 단절(Severance)'과 '도쿄 바이스(Tokyo Vice)', '울프 라이크 미(Wolf Like Me)' 등도 피프스시즌이 제작한 작품이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.02.11.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>승진한 김 부장, 은행부터 달려갔다…"금리 깎아주세요" 왜 [근면한 월급]</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004155182?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>신용·소득 개선 증명하면 금리인하 요구 가능대출에 따라 적용 여부 달라···수용률 높은 은행은[서울경제] ?내 대출 금리 깎을 수 있다고? 금리인하요구권 총정리 (feat. 고금리시대 꿀팁)어이없는 대출금리에 허덕이고 계신가요? 금리를 조금이라도 낮출 방법이 있을지도 모릅니다. 왜냐면 우리에게는 ‘금리인하요구권’이 있거든요. 말 그대로 대출해 준 금융사에 금리를 깎아달라고 조를 수 있는 권리입니다. 은행법으로 보장돼 있구요. 어떻게 하면 되는지 자세히 짚어드리겠습니다.━신용이나 돈벌이 나아졌다면…금인권을 써보자안녕하세요 &lt;어썸머니&gt; 구독자 여러분, 재테크 뉴스레터 &lt;코주부&gt; 에디터 생강입니다. 금리인하요구권은 아는 사람은 다 아는, 수 년에 걸쳐 대출을 갚아나가는 상황에서 아주 유용하게 쓰일 수 있는 우리 모두의 권리입니다. 이 권리를 쓸 수 있는 대상은 시중은행, 저축은행, 보험사, 카드사, 캐피탈사 등이구요. 당연히 아무나 되는 건 아니고 조건이 있습니다. 관건은 대출을 신청할 당시보다 신용이나 소득이 개선됐다는 사실을 증명할 수 있는지입니다.예를 들어 신용등급이 높아졌다거나, 그동안 취직이나 이직이나 승진을 했다거나 해서 돈을 더 벌게 됐다거나, 아니면 변호사·의사 같은 전문 자격증을 취득했거나 국가고시에 합격한 경우 금리인하요구권을 쓸 수 있습니다. 참고로 일반 개인뿐만 아니라 개인사업자, 기업도 금리인하요구권을 쓸 수 있습니다.백수였다가 취직을 했다든가 세무사시험 합격했다든가 중소기업에서 대기업으로 이직했다, 이 정도로 큰 신상의 변화가 있으면 수용률(금융사에서 금리인하요구를 받아들이는 비율)이 높다고 합니다.금인권 신청은 은행 홈페이지, 앱, 고객센터 전화나 오프라인 영업점에서 다 가능합니다. 신청하면 은행은 10영업일 이내에 해줄건지 말건지 통지해주도록 돼 있습니다. 안된다면 이유가 뭔지도 알려줍니다. 금리인하요구권은 한 번만 쓸 수 있는 게 아니라 신용이나 소득에 변동이 있을 때마다 써먹을 수 있으니 꼭 기억하시길 바랍니다.━전세 대출은 되고 주담대는 안 된다?다만 아무 대출이나 금인권이 적용되는 건 아닙니다. 예를 들어 카드대출, 신용대출, 중고차 담보대출, 전세대출은 가능합니다.하지만 보험계약대출, 자동차대출, 집단대출은 해당되지 않습니다. 이런 대출들은 차주(대출받은 사람)의 신용상태가 금리에 영향을 주지 않는 대출이기 때문입니다.그럼 주담대(주택담보대출)은 되냐고요? 신청은 할 수 있는데 수용되는 경우가 드물고, 된다 하더라도 0.01%포인트 깎아주는 식으로 미미하다고 합니다. 사실 주담대 같은 게 대출액이 크니까 관련해서 문제제기가 이뤄지고 있긴 합니다. 김희곤 국민의힘 의원실이 KB국민·신한·우리·하나은행 자료를 분석했더니 지난해 상반기에 금리인하 요구권이 적용되지 않는 대출상품은 전체의 38%나 됐다고 합니다. 그래서 이를 보완할 법을 발의하기도 했구요.안타깝게도 전체 수용률이 높지는 않습니다. 지난해 상반기 은행권만 떼어서 보면 신청 건수는 88만8619건, 근데 이 중에 수용된 경우는 24.8%였습니다. 그나마 다행히 어느 은행이 수용률이 높은지도 공개됩니다.수용률이 높은 은행은 NH농협은행 57.9%, SC은행 48.8%, 우리은행 46.1% 순이었습니다. 토스뱅크, 카카오뱅크, 케이뱅크 같은 인터넷 은행이 제일 낮았는데 “비대면으로 중복 신청하는 경우가 많아서 그렇다”는 설명입니다. 대출을 받을 때 금리는 다 비슷하다 싶으면 금리인하수용률 높은 금융사로 간다,는 식으로 활용해 보시길 권합니다.더 자세한 이야기는 영상에서 보실 수 있습니다. 이야기 맘에 드시면 좋아요 구독 눌러주시고, 알찬 재테크 팁을 담은 뉴스레터 &lt;코주부&gt; 구독 링크도 더보기에 올려둘테니까 많은 관심 부탁드립니다. 다음 시간에 또 뵙겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>제4이통사에 진심인 정부… 네이버·카카오·쿠팡 후보군 부상</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000874096?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>과기정통부, 제4이통사 7전8기 도전IT 등 국내 기업 2~3곳 접촉... 시너지 검토금산분리 완화에 금융권도 물망28㎓ 사업화 어려워, 초기 비용 ‘부담’실현 가능성 ‘글쎄’…컨소시엄도 가능쿠팡, 네이버, 카카오 로고 /조선DB        정부의 연내 ‘제4 이동통신사’ 선정 공식화로 사업 참여 가능성이 있는 기업에 대한 관심이 커지고 있다. 포털과 콘텐츠, 메신저 등의 경쟁력을 갖춘 네이버와 카카오를 비롯해 오픈마켓과 온라인 동영상 서비스(OTT) 사업을 펼치고 있는 쿠팡 등이 거론된다. 또 KB금융이나 토스, 신한, NH농협 등 알뜰폰 사업에 진출해 있거나 관심을 두고 있는 금융권도 주요 후보군으로 꼽힌다.일각에서는 지난해 11월 윤석열 대통령이 일론 머스크와 화상 면담을 통해 스타링크를 언급하고, 통신망 협력을 제안한 만큼 미국의 스페이스엑스 등 외국 기업의 참여도 배제할 수 없다는 분위기다. 특히 이번 제4 이통사 추진과 관련해 과학기술정보통신부 차원이 아닌, ‘통신시장 경쟁촉진’이라는 대통령실의 의지가 있었던 것으로 전해진다. 제4이통사 관련 2~3개 기업 접촉        2일 정보통신기술(ICT)업계에 따르면, 국내 2~3개 기업이 이번 28㎓ 신규 사업자 신청과 관련해 과학기술정보통신부에 문의를 해온 것으로 확인됐다. 과기정통부 관계자는 “현재 IT 분야 등 2~3개 기업의 문의가 왔고 아직 초기 단계라 구체적인 기업명이나 업종을 밝힐 수 없다”라며 “28㎓는 물론 저대역 전국망 사업자까지 문이 열려 있고 추가적인 정책적 지원도 협의를 통해 충분히 가능하다”라고 했다.과기정통부는 신규 사업자 진출로 기존 이동통신사로부터 회수한 5세대 이동통신(5G) 28㎓ 대역을 신규 사업자에 최소 3년간 독점 제공해 경쟁자 없이 시장 점유율을 확대할 시간을 벌어주겠다고 밝혔다. 또 초기 투자 부담을 낮추기 위해 망 구축 대가 후정산, 기존 통신사 설비 활용, 통신사에 지불할 상호접속료 저감 등 지원책을 총동원했다. 여기에 산업은행 등을 통한 4000억원 규모의 정책자금도 지원하기로 하면서 기업의 관심이 커졌다.다만, 통신업 특성상 전국망을 위해서는 막대한 비용이 투입되는 만큼 실제 사업 참여로 이어질지는 미지수다. 이명박, 박근혜 정부 등 총 7차례에 걸쳐 제4이통사 선정을 추진했지만 매번 자본력 부족으로 사업자 유치에 실패했기 때문이다.네이버 신사옥 1784 /네이버 제공        업계에서는 사업 참여 가능 기업으로 네이버·카카오·쿠팡을 꼽고 있다. 네이버는 현재 28㎓ 특화망 이음 사업자다. 신사옥인 1784는 5G와 인공지능(AI), 빅데이터, 로봇 등을 연결한 스마트오피스로 설계됐다. 또 포털, 음악·영상·웹툰 등 콘텐츠와 커뮤니티, 클라우드 등 현재 사업과 통신업이 시너지를 낼 수 있다.다만, 단말기조차 없는 상황에서 28㎓ 주파수를 활용하는 콘텐츠 생태계가 없다는 점이 문제다. 정부는 특정 스팟(지점)에서 300개의 28㎓ 기지국을 세울 경우, 3000억원이면 사업을 시작할 수 있다는 입장이지만, 정작 사업화할 수 있는 수요가 부족하다는 것이다. 네이버가 일반 통신 사업자처럼 전국망 서비스를 하기 위해서는 수조원의 투자가 필요하거나 기존 통신사 망을 빌려 쓸 경우, 알뜰폰과 큰 차이점 없이 통신사에 의존할 수밖에 없는 구조다.카카오의 상황도 비슷하다. 카카오의 모바일 메신저 카카오톡과 각종 콘텐츠, 카카오페이 등과 사업 연계가 가능하다. 예를 들어, 카카오 통신사 가입자가 카카오페이로 휴대전화 요금을 납부할 경우, 요금을 할인해줄 수 있고 카카오의 유료 서비스 등을 더한 요금제, 멤버십 설계도 가능하다.일각에서는 초기 투자비가 높은 만큼, 네이버와 카카오 혹은 네이버 연합군, 카카오 연합군 등의 컨소시엄을 구축해 사업에 참여하는 것도 방법이 될 수 있다는 분석이 나온다. 컨소시엄을 통해 투자금의 부담은 낮추면서 IT에 특화된 통신사를 만들 수 있는 것이다. 2011년 현대그룹이 컨소시엄을 구축한 인터넷스페이스타임(IST)이 제4이통사에 도전한 사례도 있다.쿠팡 물류센터 내 자동화 로봇기술의 모습. /쿠팡 제공        쿠팡플레이라는 OTT를 서비스하고 있는 쿠팡도 주요 후보군으로 꼽힌다. 쿠팡은 현재 전국 30개 지역에 축구장 500개 규모의 물류·신선센터·배송캠프를 가지고 있다. 물류센터는 특정 지역에 국한되기 때문에 28㎓ 주파수를 활용해 로봇, 물류시스템 등을 묶는 스마트 물류센터를 구축할 수 있다.5G 이음 사업자와 관련해 쿠팡이 후보군으로 항상 거론되는 것도 이러한 배경 때문이다. 특히 쿠팡은 현재 자급제 단말기 유통망 1위 기업이기도 하다. 예컨대 쿠팡이 단말기를 판매하면서 쿠팡모바일에 가입할 경우 할인해주는 상품을 구성할 수 있다는 의미다.다만, 네이버, 카카오, 쿠팡 측은 입을 모아 “제4이통사와 관련해 검토하는 내용이 없다”는 입장을 밝히고 있다. 업계 관계자는 “28㎓ 사업이 잘됐다면 통신사들이 사업을 안 했을 리가 없다”라며 “일부 기존 사업과 통신업의 시너지가 있을 수 있지만 현재 통신사조차 5G 품질 이슈가 터지는 상황에서 네카쿠 등이 제4이통사 사업에 참여하기에는 깊은 고민이 필요할 것 같다”고 했다. 금산분리 논의에 금융권도 후보        최근 알뜰폰 사업에 잇따라 진출하고 있는 금융권도 제4이통사의 주요 후보군으로 꼽힌다. 금융위원회가 금산분리 규제 완화를 예고한 가운데 금융사가 알뜰폰 시장을 넘어 통신업으로 진출할 기회가 커지고 있기 때문이다. 금융사가 통신시장에 본격 진입하면 금융·통신이 결합된 다양한 요금제를 구성할 수 있다. 이는 결국 소비자의 이익으로 돌아갈 수 있다는 것이다.대표적인 사례가 국민은행에서 만든 알뜰폰 서비스 KB리브엠이다. 국민은행은 금산분리 규제를 받고 있어 규제샌드박스를 통해 알뜰폰 시장에 진출했다. 경쟁사 대비 파격적인 요금제로 이목을 끌며 서비스 출시 3년여 만에 가입자 35만명을 돌파했다. 알뜰폰 점유율이 17%까지 올라서는 데 큰 공을 세웠다.토스의 통신 자회사 ‘토스모바일’이 지난 31일 사전신청자를 대상으로 알뜰폰 서비스를 시작했다. /토스        지난달 30일 인터넷전문은행 겸 모바일 금융 플랫폼 기업 토스가 남는 데이터를 포인트로 지급하는 ‘캐시백 개념’을 앞세워 알뜰폰 사업에 본격 진출했다. 신한은행과 NH농협도 알뜰폰 사업 진출에 관심을 두고 있는 것으로 알려졌다.또 스페이스엑스 같은 해외 기업도 거론된다. 해외 기업이 직접 주파수를 할당받고 진출하긴 어렵지만, 컨소시엄을 구축해 투자 형태로 참여할 가능성이 있다.다만, 업계에서는 정부의 공격적인 유인책에도 신규 사업자가 나타날 수 있을지 회의적인 시각이 많다. 시민단체와 정치권의 통신비 압박과 정부의 가계통신비 정책이 지속되며 통신 사업만으론 성장하기가 어려워졌다. 또 알뜰폰을 제외하면 20년째 유지돼온 5대3대2 구조를 신규 사업자가 깨기는 쉽지 않다.통신업계 관계자는 “국내에선 28㎓ 대역 단말기가 없을 정도로 활용성이 떨어지는데 신규 사업자가 관심을 보일지 의문이다”라며 “특히 올해 인플레이션, 금리 인상, 소비 둔화를 이유로 투자 축소 움직임까지 있는 상황에서 신규 사업자의 투자가 이어지긴 어려워 보인다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>이번엔 스테이블코인 규제...코인 시가총액 1조달러 위협 [코인브리핑]</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004968774?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>자오창펑 바이낸스 대표(CEO)가 지난해 11월 그리스 아테네에서 '바이낸스 밋업' 관련 연설을 하고 있다. 뉴스1 제공 [파이낸셜뉴스] 비트코인이 2만1000달러대를 유지하는 가운데 또 다른 악재가 터졌다. 미국 뉴욕금융감독국(NYDFS) 제재로 스테이블 코인인 바이낸스USD(BUSD) 발행이 중단됐다. 가상자산에 대한 리스크가 커지며 전체 가상자산 시가총액도 1조 달러가 붕괴되기도 했다. 가상자산 시총이 1조 달러를 하회한 것은 지난해 9월 이후 처음이다.     '스테이블 코인' 발행·유통사까지 규제  미국 증권거래위원회(SEC)가 세계 최대 코인거래소 바이낸스의 스테이블코인(가치 안정 가상자산)인 바이낸스USD(BUSD)를 '미등록 증권'으로 분류하며 발행사인 팍소스(Paxos)에 발행 중단을 명령했다고 전해졌다. 팍소스는 바이낸스의 스테이블코인을 대리로 발행 중인 업체다.   미국 뉴욕주 금융서비스국(NYSDFS)도 같은 날 팍소스에 바이낸스의 스테이블코인 발행 정지를 지시했다. 뉴욕 금융서비스국은 "팍소스와 바이낸스의 관계를 조사하고 있다"며 "해결되지 않은 일이 있어 발행 중단 명령을 했다"고 발표했다.   스테이블코인은 법정화폐, 특정자산과 1대1로 가치가 고정돼, 가격 변동성을 최소화하도록 설계된 코인이다. 변동성이 낮아 가상자산 거래나 탈중앙화 금융인 '디파이(DeFi)' 등에서 금융 상품에 이용된다. 테더(USDT) 코인이 대표적인 스테이블 코인이며, '루나 사태'의 핵심이었던 루나 클래식(LUNC)도 스테이블코인 프로젝트의 일환으로 개발됐다.    가상자산 거래소 바이낸스와 달러가 연동되는 스테이블코인 바이낸스코인(BUSD) 관련 이미지. 바이낸스 제공 미국 증권거래위원회와 뉴욕주 금융서비스국은 ‘미등록 증권’과 ‘준비금 검증’의 사유로 바이낸스 스테이블코인 발행을 중단하라고 압박한 것으로 보인다.   팍소스는 “21일부터 금융당국의 지시에 따라 새로운 바이낸스 스테이블코인 발행을 중단한다”며 “스테이블코인 발행을 위한 바이낸스와의 관계는 끝나게 될 것이다”고 말했다.   이 때문에 관련 코인들은 대규모 출금과 가격 하락에 직면했다. 블록체인 정보업체 난센에 따르면 바이낸스에서 지난 24시간 동안 8억3100만달러가 출금됐다. BUSD는 스테이블코인 시가총액 3위로 바이낸스 거래량의 35%를 차지한다.   바이낸스의 기축통화 역할을 하는 바이낸스코인(BNB)은 국내 가상화폐 거래소인 코빗에서 24시간 전 대비 6.43% 하락한 37만6600원에 거래되고 있다.     코인 시총 1조 달러 깨지기도  가상자산에 대한 리스크가 커지면서 가상자산 시가총액은 지난 13일 저녁에는 1조 달러가 붕괴되기도 했다. 가상자산 시총이 1조 달러를 하회한 것은 지난해 9월 이후 처음이다.   글로벌 가상자산 시황 중계 사이트 코인마켓캡에 따르면 이날 오전 10시 기준 1조54억960만6429달러를 기록하고 있다.   비트코인 가격은 24시간 전보다 0.09% 내린 2만1769.45달러에 거래되는 중이다. 같은 시간 국내 가상자산 거래소 업비트에서 비트코인은 전일보다 0.17% 떨어진 2826만1000원에 거래됐다.   알트코인(얼터너티브 코인·비트코인을 제외한 나머지 대체 가상자산) 대장 이더리움 역시 약보합세다. 코인마켓캡에서 이더리움은 24시간 전보다 0.84% 하락한 1502.85달러를 기록 중이다. 업비트에서 전일보다 0.41% 떨어진 194만9500원에 거래된다.    뉴스1 제공 한편 업비트 거래소의 종합시장지수 업비트 마켓 인덱스(UBMI)는 이날 오전 9시 기준 5032.29포인트로 전날보다 0.14% 하락했다.   비트코인의 지배적인 영향력을 제외한 시장의 흐름을 확인할 수 있는 UBAI 지수도 0.54% 하락했다.   업비트 기준 디지털 자산 원화마켓 총 거래대금은 2조원으로 전일보다 22.17% 증가했으며, 알트코인들의 총 거래대금은 1조원으로 전일보다 21.1% 늘어났다.   총 거래대금 중 비트코인의 거래대금 비중은 7.33%이다.   가격이 가장 많이 상승한 종목은 에이브(AAVE) 종목으로, 이날 오전 9시 기준 10만원으로 전날보다 6.93% 상승했고, 이에 따라 거래대금은 이전 30일 평균 거래대금에 비해 332.31% 상승하여 449억원을 기록했다.   그리고 거래대금이 2140억원으로 가장 많았던 앱토스(APT) 종목의 경우 14일 오전 9시 기준 1만원으로 전날보다 4.94% 상승했다.   테마별로 보면 대부분의 테마 디지털 자산이 소폭 하락한 가운데 게임시장 관련 디지털 자산들의 하락 폭이 4.35%로 가장 컸다. 그러나 컨텐츠 생산 및 중개 관련 디지털 자산들은 하락장 속에서도 소폭 상승했다.   업비트 공포지수는 전날과 같은 54포인트에서 보합했다. 이 수치는 현재 시장이 중립 상태에 있음을 의미한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>한국일보, 모바일 금융앱 '토스'의 제휴광고 담당한다</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000721146?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>'행운퀴즈' '머니알림' 등 1일부터 토스 광고상품 중개한국일보가 모바일 금융서비스 '토스'의 운영사 비바리퍼블리카와 전략적 광고 파트너십을 체결했다. 한국일보는 1일부터 토스의 광고 대행 업무를 맡는다.한국일보사가 모바일 금융 서비스 '토스'의 제휴광고 업무를 담당한다. 광고주들은 1일부터 한국일보를 통해 토스 애플리케이션(앱)에 광고를 실을 수 있다. 앞서 한국일보와 토스 운영사 비바리퍼블리카는 이 같은 내용의 전략적 광고 파트너십 계약을 체결했다.토스는 △광고주가 낸 퀴즈 정답을 맞히는 사용자에게 토스포인트를 제공하는 '행운퀴즈' △광고주의 이벤트 알림을 받는 사용자에게 토스포인트를 주는 '머니알림' 등 소비자 참여도가 높은 '앱테크'를 활용한 다양한 광고상품을 운영하고 있다. 월간 활성 이용자가 1,400만 명을 웃돌아 이용자의 소비 유형을 기반으로 하는 타깃 광고가 가능해 광고주들에게 각광받는 광고 제휴처다. 한국일보는 모바일 광고 중개라는 새 분야에 도전한다. 핀테크 기업과 정통 언론사의 전략적 협업을 통해 광고 마케팅시장에 새로운 장이 열릴 것으로 기대하고 있다. 이번 계약 건과 관련 토스 광고주에게는 효과적인, 이용자에게는 유익하고 편리한 콘텐츠 제공에 최선을 다할 방침이다.토스는 간편송금 서비스로 이름을 알린 뒤 현재는 금융 현황 조회, 대출 비교, 간편 결제 등 종합 금융 서비스를 제공하고 있다. 운영사 비바리퍼블리카는 기업가치 100억 달러 이상의 비상장 기업인 '데카콘' 진입을 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[페이전쟁]④애플페이, 후불결제도 함께 상륙할까…"사업성 낮다" VS "충분히 가능"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005217683?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>BNPL '애플페이 레이터' 두고 의견 분분국내 출시, 이론적으로는 가능"사업성 떨어져" VS "생태계 지배력↑" 애플페이의 국내 상륙이 결정된 이후 애플이 미국에서 준비 중인 후불결제 금융서비스 '애플페이 레이터'도 함께 출시될지 주목된다. 국내 법상으로도 진출 가능한 영역이지만 정작 사업성은 떨어질 것이라는 전망이 나온다. 반면 장기적으로는 MZ세대(밀레니얼+Z세대) 충성도를 더욱 높일 수 있는 수단으로 충분히 기능할 수 있다는 시선도 있다.14일 블룸버그 등 주요 외신에 따르면, 애플은 매장 직원 수천명을 대상으로 '애플페이 레이터' 서비스를 내부적으로 시험하고 있다. 수수료나 이자 없이 6주 동안 4차례 걸쳐 결제액을 나눠 내는 일종의 후불결제(BNPL) 서비스다. 지난해 6월 공개된 이후 꾸준히 기대감을 키워왔다.가시권 진입 애플페이, BNPL도 가능?국내에 애플페이 출시가 가시화되면서 애플페이 레이터 출시에 대한 관심도 커지고 있다. 일단 국내 금융당국은 적법한 절차를 따른다면 문제없다는 입장이다. 국내 BNPL 서비스는 통상 세가지 형태다. 우선 여신전문금융사가 할부금융업을 하는 경우다. 이미 현대카드는 패션플랫폼 무신사에 BNPL서비스를 제공한 바 있다. 애플페이가 현대카드를 통해 출시되는 만큼 애플페이 레이터 출시 역시 가능성이 있다.금융위원회의 혁신금융서비스 제도를 통한 방법도 있다. 네이버파이낸셜(네이버페이)과 카카오페이, 비바리퍼블리카(토스)가 대표적이다. 쿠팡이 택한 방식도 가능하다. 쿠팡은 직접 BNPL 사업자가 된 네이버파이낸셜과 카카오페이 등과 달리 직매입한 물건에 한해 '외상' 개념으로 BNPL서비스 '나중결제'를 운영 중이다. 직접 사들인 물건을 팔기 때문에 외상으로 인한 손해를 모두 부담한다. 금융업으로 분류되지 않는 이유다. 금융위 관계자는 "금융사와 손 잡고 출시하든 혁신금융서비스를 출시하든, 적법하게 진행하면 애플페이 레이터도 출시 자체에는 문제는 없다"며 "어떤 방식으로 내놓을지는 사업자가 판단할 영역"이라고 설명했다.'가능'과 '성공'은 달라…"사업성 글쎄"다만 가능하다고 모든 사업이 추진되는 것은 아니다. 충분한 수익이 예상돼야 한다. 애플페이 자체의 성공 가능성에 대한 의견도 갈리는 가운데 '애플페이 레이터'의 승패는 더욱 오리무중일 수 있다. 업계의 시각 역시 다소 엇갈린다. 우선 '가성비(가격대비 성능)'가 안나온다는 의견이다.현대카드와 손 잡는 방식이 큰 효용이 없을 것이라는 지적이 있다. 실제로 지난해 9월 현대카드는 무신사와 손잡고 국내 카드사 최초로 내놓은 BNPL 서비스를 출시 두 달 만에 중단했다. 무신사가 운영중인 한정판거래 서비스 '솔드아웃'에서 카드 없이 분할결제를 할 수 있는 BNPL을 내놓았지만 현재까지 무기한 중단된 상태다. 현대카드 측은 시스템 고도화를 위해서라고 설명했지만 업계에서는 다른 이유로 보고 있다. BNPL의 문제점으로 거론된 연체율 관리가 부담으로 작용했다는 지적에도 현대카드 측은 연체 0건이라며 연체율은 문제가 아니라고 일축한 바 있다. 결국 사업성이 떨어졌기 때문에 내린 판단이라는 해석이 힘을 얻고 있다.한 카드사 관계자는 "연체율보다는 사업성 자체가 떨어진다고 판단을 내린 것으로 보인다"라며 "네이버나 카카오의 BNPL서비스와 달리 카드사의 BNPL은 금융업으로 분류되기 때문에 금융정보가 공유돼 연체할 경우 신용점수가 떨어진다"라며 "막상 시작하니 카드 할부와 크게 다른 이점이 없어보이고 각종 품만 많이 들기 때문에 사업성이 떨어진다고 판단한 것으로 보인다"라고 했다.그렇다고 국내에서 혁신금융서비스 지정을 받기 위해서는 당국과의 대화도 꾸준히 이어가야 하고 서비스 설계도 새로 해야 한다. 매년 혁신금융서비스 지정 연장도 받아야 한다. 쿠팡처럼 직매입 상품의 경우도 '직매입'의 조건을 맞추기 위한 노력이 필요하다. 애플 입장에선 '가성비'가 떨어질 수 있다는 지적이 나오는 이유다.MZ세대 충성도 높이기엔 주효…"장기적으로 이득"그럼에도 이같은 부담을 감수할 만하다는 시선도 있다. 아이폰 등 애플 제품에 대한 MZ세대 충성도가 높은 만큼 각종 애플 주변기기까지 애플페이로 구매하게 만들며 생태계에 종속시킬 수 있다는 분석이다. 한국갤럽이 지난해 7월 진행한 조사에서 1020세대의 52%가 아이폰을 사용한다고 답했다. 구매력이 없을 때엔 '애플페이 레이터'로 비교적 저가 상품을 구매하고, 구매력이 생기는 3040세대가 되면 '애플페이'를 사용하게 만드는 구상이 가능하다는 설명이다.서지용 한국카드학회 회장(상명대 경영학부 교수)는 "애플페이 출시에도 오랜 시간이 걸렷듯이 애플페이 레이터를 출시한다고 해도 각종 품이 들고 시간도 걸리겠지만 장기적으로 봤을 땐 사업성은 충분하다"라며 "오히려 초창기에 생태계 지배력을 강화시킨다는 점에서 비용을 무릅쓰고 추진하면 나중에 승자가 될 수 있다는 판단도 가능할 것"이라고 설명했다.애플페이 (출처-TUAW)</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>페이사들 작년 흑자 내자 다시 불붙은 수수료 논쟁</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004156384?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>중소사업자에 우대수수료율 적용민주당, 전금법 일부 개정안 발의사진 제공=이미지투데이[서울경제] 네이버파이낸셜·쿠팡·카카오페이 등 ‘○○페이’를 운영하는 전자금융업자의 온라인 간편결제 서비스 수수료율의 의무 공시를 앞둔 가운데 페이사들도 신용카드사처럼 영세·중소사업자에 우대 수수료율을 의무 적용해야 한다는 법안이 발의됐다. 주요 빅테크사의 지난해 실적이 대폭 개선된 가운데 페이사에 대한 수수료 인하 압박이 거세질 것으로 전망된다.14일 금융권에 따르면 국회 정무위원회 소속 황운하 더불어민주당 의원은 8일 전자금융거래법 일부개정안을 발의했다. 온라인 가맹점 결제 수수료율 등을 정할 때 ‘○○페이’ 또는 ‘○○머니’를 운영하는 전자금융업자들도 신용카드사에 부과된 의무 조항을 적용받아야 한다는 것이 골자다.여신전문금융업법에 따르면 신용카드사들은 가맹점 연 매출 규모에 따라 우대 수수료율을 달리 적용해 연 매출이 낮을수록 수수료율도 낮춰 받도록 돼 있다. 반면 현행 전금법에는 이 같은 내용이 없다. 그렇다 보니 연 매출 3억 원 이하인 온라인 쇼핑몰에서 똑같이 구매하더라도 A카드로 결제하면 가맹점주의 부담 수수료율은 법적 우대를 받아 1% 미만에 불과하지만 B페이로 결제할 경우 신용카드사들이 연 매출 30억 원 초과 가맹점주에 부과하는 수수료율과 동일한 2~3%대 요율을 부담해야 하는 경우가 발생할 수 있다.실제로 2021년 기준 간편결제 거래 규모가 네이버파이낸셜에 이어 두 번째로 컸던 쿠팡페이의 경우 현재 사업장 연 매출 규모에 따른 우대 수수료율을 적용하고 있지 않다. 황 의원은 “일부 전자금융업자들이 다른 결제 수단과 결제 구조가 다른데도 다른 결제 수단에 준해 높은 수수료를 가맹점으로부터 수취하고 있다는 지적이 제기되고 있다”고 개정안 발의 의도를 설명했다.전금업자의 온라인 간편결제 서비스 수수료율 의무 공시도 수수료 인하 압박 요인으로 작용할 수 있다. 금융감독원의 ‘전자금융업자 수수료 구분관리 및 공시 가이드라인’에 따라 간편결제 거래액이 월평균 1000억 원 이상인 페이사들은 3월부터 결제 수수료율 등을 공개해야 한다.다만 이미 매출 규모별로 수수료율을 다르게 적용 중인 페이사들은 법안이 통과되더라도 큰 변화가 없을 것이라는 입장이다. 네이버파이낸셜과 카카오페이는 지난해 1월부터 여전업법상 우대수수료율 부과 원칙을 차용해 결제 수수료율을 연 매출 규모별로 차등 적용하고 있다. 토스페이 운영사 토스의 경우 이달 1일부터 연 매출 3억 원 이하 가맹점엔 1.6%, 3억 원 초과 30억 원 이하 가맹점에는 1.9~2.4%, 30억 원 이상 가맹점에는 3% 수수료율을 차등 부과하기 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.02.06.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"대출이자 낮춰주세요"…연 120만원 절약 기회? [손에 잡히는 재테크]</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000321526?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>■ 재테크 노하우 100분 머니쇼 '손에 잡히는 재테크' - 이성민 경제 인플루언서Q. 금리인하요구권이라고 하셨는데, 처음 들어보시는 분들도 계실 것 같거든요. 어떤 건지 설명부터 해주시죠? 금리인하요구권은 "소득·재산 증가, 신용도 상승 등 차주의 재무 상태가 대출 당시보다 개선된 경우 은행에 금리를 낮춰달라고 요구할 수 있는 제도"라고 보시면 되는데요.최근 대출금리가 작년에 비해 조금은 하락했다고 하지만 그래도 아직 상당히 부담스러운 게 사실입니다.제 주위에서도 그래서 조금이라도 금리를 낮출 수 있는 방법이 없을지가 최대 관심사인데요.사실 많은 분들이 이미 받은 대출의 금리는 변하지 않는다고 생각하고 계실 겁니다.변동 금리 대출을 받은 경우에만 약속한 주기에 맞춰서 금리가 변한다는 정도로 알고 계시죠.그런데 고정금리도 대출을 받을 때 근거로 삼았던 고객의 소득, 재산, 신용도가 개선됐다면 대출 금리를 낮춰달라고 은행에 요구할 수 있습니다.다시 말해 대출을 상환할 능력이 좋아졌다는 걸 증빙하고 이자를 깎아달라고 하는 거라고 생각하시면 될 것 같습니다.이건 그냥 떼를 쓰는 게 아니고, 금리 인하 요구권이라고 부르는 실제 권리로 시행이 되고 있습니다.Q. 금리인하요구권 같은 좋은 제도가 있는데, 왜 이렇게 홍보가 안 되는 겁니까? 일부 은행에서만 안내를 해주고 있다던데요?대부분의 은행들은 금리인하요구권에 대해 소극적으로 홍보를 하고 있습니다.금리인하요구권 제도는 2019년 6월부터 시행됐습니다.하지만 은행은 금리인하요구권에 대해 적극적으로 홍보하지 않았습니다. 은행에 손해가 되기 때문인데요. 대출 이자는 은행의 주 수입원입니다.그런데 대출 금리가 낮아진다면 은행이 버는 돈이 줄어듭니다.고객에게 적극적으로 금리인하요구권을 홍보하여 대출 금리를 낮춰줄수록 은행에는 손해가 되는 것이죠.따라서 불이익을 받지 않을 정도만 안내하는 것을 선택하는 은행들이 많았던 것입니다. 이에 금융 당국은 의무적으로 금리인하요구권에 대해 안내하도록 했는데요.2022년부터 금융사들은 대출자들을 상대로 연 2회는 반드시 금리인하요구권에 대해 안내해야 합니다. 이에 대부분의 은행들은 당국의 지침대로 연 2회 정기 안내만 하고 있습니다.그나마 신한은행만 안내 횟수가 많은데요.신한은행은 작년 5월부터 금리 인하 요구 안내 문자를 월 1회 발송하고 있습니다.Q. 금리인하요구를 어디에 많이 할까 봤더니, 인터넷 전문은행들을 중심으로 신청이 늘었다고 하더라고요. 이것도 홍보 영향이 큰 건가요?앞서 말씀드린 신한은행의 금리인하요구 신청건수는 10만2924건으로 가장 적은 농협은행의 8439건 보다 12배 이상 많았는데요.이 수치만 보셔도 홍보 효과를 느끼실 수 있을 것입니다.인터넷 은행의 경우 금리인하요구권에 대해 신한은행보다 더 적극적으로 홍보를 하고 있습니다.토스뱅크의 경우 고객이 취업이나 승진, 이직, 성실 상환 등으로 신용점수가 상승하면 금리 인하 요구를 할 수 있다고 안내하고 있습니다.그리고 카카오뱅크의 경우 고객의 신용도 변화 수치를 반영해 분기별로 알람 서비스를 보내고 있습니다.앞서 설명드린 은행들과 비교하면 금리인하요구권에 대해 적극적으로 홍보를 하고 있는 것입니다.그 결과 작년 상반기 기준 금리인하요구 신청건수는 토스뱅크 6만1095건, 카카오뱅크 45만8890건에 달했고요.카카오뱅크의 경우 신청 건수가 전년 동기 대비 2배나 증가했다고 합니다.Q. 그런데 금리인하요구권을 신청하면 은행이 무조건 다 받아 주는 건 아니죠? 수용되는 건수는 얼마나 되는지도 궁금한데요?신청을 한다고 해서 모두 금리를 낮춰주는 것은 아닙니다.은행은 금리인하요구를 신청한 고객의 소득, 재산, 신용도가 일정 기준 이상 개선되어야 승인을 해주기 때문입니다.평균적으로 10건 중 4건 정도만 수용된다고 생각하시면 됩니다. 작년 상반기 기준으로 금리인하요구가 가장 많이 수용된 은행은 카카오뱅크인데요.총 8만7006건이 수용됐습니다. 뒤를 이어 신한은행 3만2218건, 케이뱅크 2만7661건을 기록했는데요.적게 수용된 은행은 하나은행과 NH농협은행으로 각각 3861건, 4883건밖에 수용되지 않았습니다. 관련 데이터를 보실 때 수용 건수뿐만 아니라 수용률도 함께 보셔야 하는데요.수용률은 금리인하요구를 신청한 대상자 중 얼마나 수용이 됐는지를 나타내는 수치입니다.앞서 말씀드린 카카오뱅크의 수용률은 19%, 하나은행의 수용률은 32.3%로 나타났는데요.카카오뱅크의 수용 건수가 많았지만 신청 건수가 압도적으로 많았기 때문에 수용률은 낮게 나타났습니다. 수용건수가 2번째로 적었던 NH농협은행은 수용률이 57.9%로 가장 높게 나타났습니다.따라서 수용률이 높더라도 신청 건수 자체가 적은 경우가 있어 두 가지 데이터를 함께 살펴보셔야 할 것 같습니다.Q. 가장 중요한 부분이 그래서 얼마나 낮춰주는지 거든요. 금리인하를 요구하면 어느 정도까지 금리가 낮아질 수 있는 건가요?  많은 분들이 금리인하요구권을 사용하면 얼마나 이자를 아낄 수 있는지를 가장 궁금해하실 것 같아요. 토스뱅크의 발표에 따르면 최대 7.3%까지 대출금리를 낮춘 사례가 있다고 합니다.그리고 평균적으로 0.8%p 금리 인하 효과를 누렸다고 하는데요.1억5000만 원의 대출이 있으신 분들이라면 연 이자가 120만원 정도 줄어드는 효과를 누리실 수 있습니다.대출금액이 많을수록 금리 인하 효과는 더 커지기 때문에 절약하는 돈은 더 많아지실 것 같습니다. 2월부터는 은행별로 평균 인하 금리도 공개한다고 하니 관련 데이터를 참고하시면 좋을 것 같습니다.대출받은 금액에 인하된 금리를 곱해보시면 1년간 절약할 수 있는 이자 금액을 계산하실 수 있습니다.그리고 최근 대출을 갚는 분들이 많이 계시는데요.금리가 높은 제2금융권 대출부터 갚는 분들이 많이 계실 것 같습니다.제2금융권 대출을 상환하시면 신용도가 올라갈 가능성이 높습니다.높아진 신용 점수를 근거로 금리 인하요구권을 사용해 보시면 이자 비용을 줄이는 데 도움이 되실 것 같습니다.(자세한 내용은 동영상을 시청하시기 바랍니다.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>'이곳' 통해 쇼핑몰 만든 53만곳, 누적 거래액 3조 넘었다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004848427?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>노코드 기반 웹사이트 구축 및 이커머스 솔루션 '아임웹'을 통해 쇼핑몰을 만든 고객사 53만곳의 누적 거래액이 3조원을 돌파한 것으로 나타났다. 7일 아임웹에 따르면 고객사의 누적 거래액은 2020년 9월 1조원을 기록한데 이어 지난해 1월 2조원을 넘어섰다. 약 1년여가 지난 이달에는 3조원을 돌파했다. 지난해 고객사의 주문 건수도 1170만건으로 전년 938만건 대비 약 25% 늘었다. 아임웹 관계자는 "지난해 한 달 평균 1만1000여개 신규 사이트가 개설되면서 신규 쇼핑몰 수가 크게 늘었다. 고객사들은 IT 개발이나 디자인에 시간을 투자하는 대신 마케팅에 더욱 집중해 매출도 큰 폭으로 성장할 수 있었다"고 분석했다. 아임웹은 마우스 클릭과 드래그 앤 드롭 만으로도 완성도 높은 웹사이트를 만들 수 있고 △네이버페이 △카카오페이 △토스페이 등 다양한 간편결제 서비스와 연동 가능하다. 아울러 여러 기업과 파트너십을 맺고 △패션 플랫폼 상품 목록 △물류 대행 △챗봇 서비스 등 다양한 연동을 통해 쇼핑몰 운영을 더욱 편리하게 해주는 다양한 기능도 제공하고 있다.아임웹은 올해 고객들을 지원하는 마케팅 도구를 대폭 개선하고 확장할 계획이다. 기능 고도화를 통해 신규 고객 유치에 힘쓰고 궁극적으로는 고객들이 편리하게 이커머스 사업을 영위할 수 있도록 '판매자를 위한 생태계'를 조성할 계획이다.이수모 아임웹 대표는 "사업자가 사업 아이템에만 온전히 집중할 수 있는 이커머스 환경을 지원하는 것이 목표"라며 "좋은 사업 아이템만 있다면 다양한 마케팅 도구들을 활용해 기업 규모를 키우고 지속적으로 성장할 수 있도록 도울 것"이라고 했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>대학예산 2조+α, 2025년부터 지자체로 토스</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002781763?sid=102</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>지방대 30곳 재정 특례지원도윤석열 대통령이 1일 경상북도 구미시 금오공과대학교에서 열린 제1차 인재양성전략회의에 참석에 앞서 구미국가산업단지 스마트팩토리 모니터링시스템을 살펴보고 있다. 연합뉴스    교육부가 대학 재정지원 사업 예산 2조원 이상의 집행 권한을 2025년부터 지방자치단체로 넘긴다.지금은 교육부가 사업별 특성에 맞는 대학을 선정해 재정을 지원했으나 앞으로는 지자체가 직접 육성할 지역 대학을 선택하고 해당 대학을 대대적으로 지원하는 방식으로 대학 재정지원 사업의 패러다임이 전환된다. 특화 분야에서 세계 수준에 도달할 수 있는 지역 대학 30곳을 2027년까지 선정해 재정·규제 특례 지원에도 나선다.교육부는 1일 경북 구미 금오공과대에서 제1회 인재양성 전략회의를 열고 이러한 내용을 담은 '지역혁신중심 대학지원체계'(라이즈·Regional Innovation System &amp; Education) 구축 계획을 윤석열 대통령에게 보고했다고 밝혔다. 라이즈의 핵심은 오랜 기간 중앙부처 주도로 이뤄지던 대학 지원 방식을 지역 주도 방식으로 새롭게 전환하는 데 있다.지금은 교육부를 비롯해 중앙부처에 1000개 이상의 대학 지원사업이 뿔뿔이 흩어져 있고, 대학은 각 사업에 개별적으로 신청해 선정될 경우 지원을 받고 있다.그러나 현행 지원방식으로는 학령인구 감소로 지역과 지역 대학이 공동으로 직면한 위기를 돌파해나갈 수 없다는 목소리가 컸다. 이에 따라 교육부는 현재 쥐고 있는 대학 지원사업 예산 가운데 50% 이상인 지역대학 관련 예산 집행 권한을 2025년부터 17개 지자체에 넘긴다. 권한을 넘겨받은 지자체가 선택과 집중을 통해 경쟁력 있는 지역 대학을 골라 육성할 수 있도록 하겠다는 것이다.올해 기준으로 교육부의 대학 지원사업 예산은 4조4000억원이다. 구체적으로 교육부는 각 지자체가 지역발전 계획, 대학 특성화 분야 등을 고려해 지역대학 지원계획(라이즈 계획)을 수립해오면 해당 지자체와 협약을 맺고 협약에 근거해 통합된 예산을 지원할 계획이다.대학은 교육부 예산을 따오기 위해 사업별 신청 계획서 작성에 매달릴 요인이 줄어든다. 대신 지역 일자리 창출, 지역 산업 발전 등 지자체와 손잡고 지역 사회 난제에 해결책을 제시할 경우 지자체에서 한 번에 더 큰 예산을 지원받을 수 있게 된다.궁극적으로 지자체 지원을 받은 대학이 지역 발전의 허브 역할을 하고, 지역 인재 양성이 지역 내 취·창업으로 이어지는 지역 발전 선순환 생태계를 구축한다는 게 교육부의 청사진이다.글로컬 대학은 지역 발전을 선도하고 지역 내 다른 대학의 성장을 이끌 수 있는 세계적 수준의 특화 분야를 지닌 대학을 의미한다.교육부는 올해 10개 내외를 시작으로 2027년까지 비수도권 모든 지역에 총 30개 내외의 글로컬 대학을 선정해 지원한다는 방침이다. 글로컬 대학이 되면 중앙부처와 지자체를 통해 1개교당 5년간 1000억원을 지원받는다. 각종 규제 특례 혜택도 받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.02.12.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>KT와 카카오, ‘모바일 고지서’ 서비스 계속된다…유효기간 연장</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001197601?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>과학기술정통부 로고.과학기술정보통신부는 규제 특례를 적용 중인 KT와 카카오페이의 ‘행정·공공기관 고지서 모바일 전자고지 서비스’ 유효기간을 법령 정비 완료 시까지로 연장한다고 12일 밝혔다.이와 함께 조인스오토의 ‘모바일 기반 폐차 견적 비교 서비스’도 특례기간이 연장된다.과기정통부는 13일 서면으로 열리는 제26차 정보통신기술(ICT) 규제 샌드박스 심의위원회에서 이러한 내용을 보고할 예정이다.과기정통부에 따르면 정보통신 진흥·융합 활성화 등에 관한 특별법에 따라 ICT 규제 샌드박스로 실증 특례 또는 임시허가를 받은 서비스는 관계부처가 법령 정비를 추진할 경우 정비 완료 시까지 특례기간이 연장된다.이번에 유효기간이 연장되는 2건이 법령 정비 추진에 따라 규제 특례가 연장되는 첫 사례다.모바일 전자고지는 행정·공공기관 등이 우편으로 발송하던 국민연금 가입, 부가세 신고, 재난지원금 안내 등의 고지를 문자메시지나 카카오톡 등으로 보내는 서비스다.KT와 카카오페이가 ICT 규제 유예를 통해 2019년 임시 허가를 얻은 뒤 현재 네이버, 토스 등 8개 사업자가 참여 중이며, 지난해 12월까지 고지서 3억 건이 발송됐다.규제 담당부처인 방송통신위원회는 모바일 전자고지 서비스 제도화를 위한 본인확인 기관 지정 등에 관한 기준 개정안을 행정 예고하는 등 법령 정비를 추진하고 있다.모바일 기반 폐차 견적 비교는 온라인 플랫폼을 통해 폐차하려는 차주와 폐차업체를 중개·알선하는 서비스로 조인스오토가 2019년 서비스를 시작한 이래 누적 1400여 건의 거래가 이뤄졌다.이 업체는 규제 특례 만료 전 법령 정비를 요청했고, 담당부처인 국토교통부는 제도화를 위한 법령 정비가 필요하다고 판단, 자동차관리법 개정 등 법령 정비에 착수할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장 출시…하루만 맡겨도 금리 2.3%</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002679737?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>모임원 누구나 카드 발급·결제인원당 지원금·캐시백 혜택토스뱅크가 1일 출시한 '토스뱅크 모임통장' 소개 이미지. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크가 고금리 이자를 주는 '토스뱅크 모임통장'를 출시한다. 누구나 출금 및 카드 발급, 결제까지 가능하게 한 기능으로 편의성은 물론, 모임 지원금에 캐시백까지 혜택도 준비했다.토스뱅크는 1일 온라인 기자간담회를 열고 모임통장을 출시한다고 밝혔다. '한 곳에 모아서, 쓸 때는 모두가'를 슬로건으로 내세운 토스뱅크는 모임 구성원 모두가 '돈 쓸 권리'를 갖는 것을 핵심 가치로 삼았다.우선, 토스뱅크 모임통장은 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 또, 수시입출금통장으로 여타 파킹통장과 달리 별도의 공간으로 자금을 이동해 출금, 결제가 안 되도록 묶어 놓을 필요 없이 편리하게 고금리 혜택을 받을 수 있다.모임통장에 속한 모든 모임원은 손쉽게 다른 모임원을 초대할 수 있어서, 모임장의 부담을 덜어주는 것은 물론 빠르게 모임원 초대 및 운영이 가능하다. 또 국내 최초로 가입 가능한 모임원 인원 제한을 없앴다는 설명이다.토스뱅크는 기존에 모임통장을 사용해온 고객들이 모임장 한 명이 출금과 결제, 카드 발급 권한까지 독점하는 구조를 개선했다. 통장 최초 개설자인 모임장을 비롯해, '공동모임장'들도 본인 명의의 모임카드 발급은 물론, 결제 및 출금도 할 수 있게 했다.모임장의 동의를 받고, 실명확인 절차를 완료한 모임원은 공동모임장이 되며, 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다.여기에 자동화된 회비 관리기능까지 제공해 총무의 부담을 최소화했다. 모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 아울러 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달돼 투명한 회계가 가능하다.내달 말까지 모임지원금 이벤트도 진행한다. 모임통장을 최초 개설하는 모임장을 포함하여, 모임원 1인당 최대 1만원까지 모임지원금이 지원되어 모임 규모가 커질수록 받아갈 수 있는 혜택의 크기도 같이 커진다. 적립된 모임지원금은 모임통장으로 입금되며, 출금과 결제에 바로 사용할 수 있다.아울러 또 다른 차별점은 '모임카드'다. 공동모임장이라면 누구나 본인 명의의 모임카드를 발급 받을 수 있어, 그 동안 계좌 하나당 카드 한 개만 발급돼 결제가 불편했던 점을 없앴다.'토스뱅크 모임카드'는 모임의 주요 활동인 먹고 놀고 장보는 순간에 캐시백 혜택을 받을 수 있도록 했다. 혜택을 제공하는 주요 3대 영역으로는 ▲회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▲장보기(이마트·농협하나로마트) 등으로 구분되며, 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시 캐시백 혜택이 적용된다.3대 영역 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있다. 이 혜택은 모임통장 계좌별로 적용되며, 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산되어 적용된다. 모임카드는 에피소드 형태로 운영되며, 이번 혜택은 올해 6월 말까지 제공될 예정이다.토스뱅크 관계자는 "토스뱅크의 모든 혁신은 고객이 느끼는 불편함과 요구에서 출발하며, 모임통장 또한 그러한 관점에서 '돈 쓸 권리'를 모임 구성원 모두에게 돌려드리려 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>케이뱅크, ‘플러스박스’ 금리 3.0→2.7%로 ‘뚝’</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000039537?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>적금도 4%대에서 3%대로 인뱅 파킹통장 금리 떨어질까…카뱅‧토뱅 “금리 검토 중”[케이뱅크 홈페이지 ‘플러스박스’상품 설명 페이지 캡처][이코노미스트 김윤주 기자] 케이뱅크가 3.0% 금리로 고객들의 관심을 끌었던 파킹통장의 금리를 인하했다. 이에 따라 인터넷전문은행의 파킹통장‧수시입출금통장의 금리 인하 바람이 거세질지 관심이 높아진다.7일 금융권에 따르면 케이뱅크는 이날부터 파킹통장인 ‘플러스박스’의 금리를 3.0%에서 2.7%로 0.3%포인트 인하했다.파킹통장이란 일시적으로 돈을 넣어 두는 상품을 뜻한다. 주차장에 잠시 주차를 하는 것과 같이 하루만 맡기더라도 이자를 받을 수 있고 자유롭게 입출금을 할 수 있다.파킹통장은 지금처럼 변동성이 심한 시기에 투자처를 찾지 못하고 오갈 데를 잃은 자금들을 잠시 맡겨두기 편한 상품으로 꼽힌다. 케이뱅크는 이날 ‘코드K 정기예금’의 금리도 최대 0.3%포인트 인하했다. 1년 만기 기준 해당 상품의 금리는 기존 4.10%​에서 3.80%​로 낮아졌다. 최근 은행권의 예금 상품은 대부분 3%대로 주저 앉았다. 이 가운데 케이뱅크의 파킹통장과 예금 상품은 상대적으로 높은 금리를 유지해 경쟁력이 높다는 평가를 받아왔다.케이뱅크 관계자는 “시장금리가 안정화됨에 따라 수신상품의 금리를 인하하게 됐다”고 설명했다. 파킹통장과 수시입출금 통장은 인터넷전문은행의 효자 상품으로 꼽힌다. 인터넷전문은행은 높은 금리의 파킹통장과 수시입출금통장으로 고객을 끌어모은 만큼, 쉽사리 해당 상품의 금리를 낮추지 않을 것으로 전망됐다. 다만 이번 케이뱅크의 금리 인하로, 인터넷전문은행의 파킹통장‧수시입출금 통장 금리 인하 움직임이 현실화 될지 이목이 집중된다.현재 카카오뱅크의 파킹통장인 ‘세이프박스’는 1억원 한도 내에서 연 2.6%의 금리를 제공한다. 카카오뱅크 관계자는 “수신 상품의 금리 인하는 검토 중인 상태”라면서 “금리 유지나 인하 계획 관련해서는 확정된 바 없다”고 설명했다. 토스뱅크의 수시입출금식 통장인 ‘토스뱅크 통장’은 5000만원 초과 금액에 대해 연 4% 금리를 적용한다. 다만 5000만원 이하 금액은 연 2.3% 금리를 제공한다. 수시입출금통장은 파킹통장처럼 별도의 공간으로 자금을 이동하지 않고, 고금리 혜택을 받을 수 있다는 게 토스뱅크 측의 설명이다.토스뱅크 관계자는 “상품 금리 관련해서는 시장상황을 보면서 계속 검토 중”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'5대 은행만의 리그' 흔들리나…금융권 초대형 태풍 예고</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013758764?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>'돈 잔치' 논란 확대에 은행 과점 완화 논의 재점화특화은행 '메기효과' 기대 속 은행 사회적 책임 요구도5대 시중은행 로고5대 시중은행 본점의 로고, 위에서부터 국민은행, 신한은행, KEB하나은행, 우리은행, 농협은행 [촬영 이세원]    (서울=연합뉴스) 심재훈 임수정 기자 = 최근 은행의 역대급 실적에 따른 '돈 잔치' 논란을 계기로 금융감독원이 5대 시중은행의 과점 체제에 메스를 들이대는 방안을 검토하고 있어 금융권에 '초대형 태풍'이 예상된다.    5대 은행을 초대형 은행으로 몸집을 키워 글로벌 경쟁력을 높이려는 '메가뱅크'가 아닌 다양한 형태의 특수 목적 은행 등을 만들어 금융소비자들이 낮은 가격 부담으로 은행을 이용할 수 있게 하자는 복안이기 때문이다.    하지만 과거 카카오뱅크 설립처럼 시장의 판도는 흔들지는 못하고 중금리 대출 등 한정된 분야만 경쟁할 수밖에 없어 '5대 은행만의 리그'를 깰 수 있을지 의문이라는 시각도 있다.  은행 '돈 잔치' 논란에 5대은행 과점 완화 논의 점화    15일 금융권 등에 따르면 우리은행, 신한은행, 하나은행, KB국민은행, NH농협은행 등 5대 은행의 예금, 대출 시장 독식 문제는 예전부터 끊임없이 지적돼왔다.    이들 5대 은행의 국내 예금, 대출 시장의 점유율이 60~70%에 달하기 때문이다.     2008년 리먼 사태 이후 은행 등 국내 금융회사의 해외 진출 중요성 등이 거론되면서 우리나라에서도 '메가뱅크' 조성이 필요하다는 의견이 제기됐다.     이런 가운데 2015년 9월 하나은행이 외환은행을 통합하며 '메가뱅크'가 현실화했고 이후 5대 은행은 저마다 '세계 일류 금융 그룹으로 도약하겠다'며 몸집 불리기에 노력해왔다.    하지만 이런 5대 은행 체제는 금융소비자에 대한 배려보다는 수익 극대화에 치중하는 게 아니냐는 우려가 제기되면서 그 대안으로 인터넷 전문은행이 떠올랐다.    2015년 인터넷 전문은행인 카카오뱅크가 영업을 개시했고 케이뱅크도 추가 인가를 받으면서 인터넷 은행을 중심으로 소비자금융시장 재편이 주목받았다.카카오뱅크 오피스[카카오뱅크 제공]    카카오뱅크가 출범 초창기 간편 송금 등 혁신적인 서비스를 내놓으며 돌풍을 일으키자 5대 은행들도 따라가면서 일종의 '메기 효과'를 냈다.    하지만 5대 은행은 카카오뱅크의 저금리 대출 등의 방식을 받아들이면서 다시 시장 점유율을 높여 인터넷 은행이 5대 은행 과점의 판도를 바꾸지는 못했다.    최근엔 고금리와 경기 침체로 서민의 어려움이 가중되는 가운데 최근 5대 은행이 역대급 실적으로 고액의 성과급을 지급한다는 사실이 알려지면서 윤석열 대통령까지 은행의 '돈 잔치'를 경고해 5대 은행 중심의 과점을 바꿔야 한다는 분위기가 조성되기 시작했다.    윤 대통령은 15일 비상경제민생회의에서 "통신·금융 분야는 공공재적 성격이 강하고 과점 형태를 유지하는 정부의 특허 사업"이라고 공개적으로 과점을 언급해 금융당국도 5대 은행의 과점 체제 완화를 본격적으로 검토하는 상황이 됐다. 특화은행 등 시장 경쟁 유도…5대은행 '사회적 역할' 고민 커져    금감원은 5대 은행 중심의 과점 체제를 경쟁 체제를 바꾸는 게 국민의 편익에 근거해 도움이 될 수 있다고 판단하고 가능한 방안을 모색 중이다.    가장 현실적인 방안은 은행의 인가를 용도나 목적에 따라 세분하는 것이다.     현재 은행업의 경우 단일 인가 형태지만 인가 단위를 다양하게 할 경우 소상공인 전문은행이나 중소기업 전문은행이 나와 이들에게 특화된 대출 상품 등을 판매할 수 있을 것으로 보인다.    아니면 초창기에 '메기 효과'를 불러일으켰던 인터넷 전문은행을 추가로 허용할 수도 있다.윤 대통령, 은행 돈잔치 대책마련 지시(서울=연합뉴스) 안정원 기자 = 이도운 대통령실 대변인이 13일 서울 용산 대통령실 청사에서 열린 브리핑에서 "윤석열 대통령이 은행에 대해 이른바 돈잔치라는 국민들의 위화감이 생기지 않도록 금융위원회에 대책을 마련하라고 지시했다"고 밝히고 있다. 2023.2.13 jeong@yna.co.kr    현재 카카오뱅크와 케이뱅크, 토스뱅크가 대출 틈새시장을 공략하고 있지만 중금리 대출 등에 특화된 부분도 있어 인터넷 전문은행들이 추가로 진입할 경우 5대 은행을 긴장시킬 수도 있다.    아울러 금융위원회 등 금융당국이 혁신 금융정책으로 추진 중인 핀테크 업체의 금융업 진출 확대 등도 고려될 수 있다.    금융권 관계자는 "5대 은행의 과점 체제를 깨뜨리려면 새롭게 인가받은 특화은행들이 많이 나와서 경쟁을 통해 시장 마진을 최대한 낮추도록 해야 한다"고 말했다.    난감한 상황에 부닥친 은행권은 사회적 책임을 이행한다며 3년간 10조원 이상의 사회공헌 프로젝트를 추진한다며 뒤늦게 진화 작업에 나섰으나 정부와 여론의 분위기가 냉랭하다는데 고민이 커지고 있다.     5대 은행은 수익의 일부를 사회 공헌에 배정하며 나름대로 성의를 보였다고 생각했는데 성과급 논란에 이어 과점 체제를 깰 수 있다는 금융당국의 압력까지 들어오자 내심 당혹한 분위기다.    이들 은행은 당분간 저소득·저신용자 등 취약계층에 대한 금융 지원, 취약한 중소기업의 특례 보증 지원, 서민금융상품 공급 확대 등을 통해 사회적 책임을 다하는 금융회사라는 점을 보여주는데 주력할 것으로 예상된다.    한 시중은행 관계자는 "대형은행이 5곳이나 치열한 경쟁을 하는데 과연 지금 은행 시장을 과점이라고 말하면 좀 억울한 면이 있다"면서 "하지만 은행의 사회적 역할이 강조되는 만큼 다양한 사회적 공헌을 강화하자는 은행권이 뜻을 같이하고 있다"고 말했다.    president21@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>5대 시중은행 모두 이체수수료 면제… 하나‧우리은행도 동참</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003257441?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>하나은행과 우리은행이 모바일‧인터넷뱅킹 타행 이체 수수료를 전액 면제하기로 했다. 앞서 신한은행을 시작으로 KB국민은행과 NH농협은행도 관련 수수료를 받지 않기로 했다. 이에 5대 시중은행을 이용하는 고객들은 모바일‧인터넷뱅킹 타행 이체 수수료를 내지 않게 됐다.      우리은행은 모바일·인터넷뱅킹 타행이체 수수료를 오는 8일부터 전액 면제키로 했다고 3일 밝혔다.     모바일뱅킹 이미지. 셔터스톡           개인 및 개인사업자 고객들이 ‘우리WON뱅킹’을 비롯한 우리은행 모바일·인터넷뱅킹을 통해 다른 은행으로 이체할 경우, 타행 이체 수수료 및 타행 자동이체 수수료가 전액 면제된다. 우리은행은 “코로나19 일상회복 단계에서 금융 취약계층의 고통 분담에 동참하고자 수수료 면제 방안을 마련했다”고 밝혔다.하나은행도 자사 모바일 애플리케이션(앱) ‘하나원큐’ 및 인터넷뱅킹에서 타행 이체 수수료를 전액 면제한다고 이날 밝혔다. 하나은행은 지난 2020년 8월부터 하나원큐 앱 이용 시 타행 이체 수수료를 면제해왔는데, 이번에 인터넷뱅킹까지 그 범위를 확대했다.      이승열 하나은행장은 “어려운 시기에 가계와 소상공인의 금융 부담 완화에 도움을 드리고자 모바일과 인터넷뱅킹 이체 수수료 면제를 시행하기로 결정했다”고 말했다.      모바일‧인터넷뱅킹 이체 수수료 면제는 신한은행이 먼저 물꼬를 텄다. 한용구 신한은행장은 지난해 12월 30일 취임 기자간담회에서 “이익을 사회에 환원하는 차원에서 이체 수수료 면제를 시행하겠다”며 “모든 은행이 동참했으면 한다”고 말했다. 그러면서 신한은행이 올해 1월 1일부터 모바일과 인터넷에서 타행 이체 수수료를 영구 면제하기로 했다.      이후 KB국민은행이 지난달 19일부터 ‘KB스타뱅킹’ 등 인터넷뱅킹 타행 이체와 자동이체 수수료를 모두 면제했다. 또 NH농협은행은 오는 3월부터 ‘NH올원뱅크’ 전자금융 이체 수수료를 전액 면제하기로 했다. 그리고 이날 우리‧하나은행도 수수료 면제 조치를 시행키로 하면서 5대 시중은행 모두 타행 이체 수수료를 받지 않게 된 것이다.      시중은행들의 이런 조치는 금리 상승에 편승해 손쉬운 ‘이자 장사’를 하고 있다는 비판이 빗발친 데 따른 대응으로 풀이된다. 앞서 이복현 금융감독원장은 지난달 16일 “은행은 대다수의 국민이 이용하는 서비스인데, 이익의 3분의 2를 주주 환원과 성과급에 사용한다면 3분의 1 정도는 국민 몫으로 고민해야 하는 것이 아닌가”라고 말했다. 이에 수수료 면제 조치는 전 은행권으로 확산될 전망이다. 앞서 카카오뱅크ㆍ케이뱅크ㆍ토스뱅크 등 인터넷 은행들은 시중은행보다 먼저 수수료 면제 정책을 시행해 왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>은행업 라이선스 기능별로 쪼개…한국판 '아톰뱅크' 키운다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004156859?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[5대銀 과점체제 메스]■ 금융시장 초대형 태풍 예고5대銀 예금·대출 점유율 80~90%경쟁 촉진 효율적 시장가격 유도상반기까지 제도개선 방안 도출스몰라이선스로 특화은행 활성화인터넷은행 등 추가인가 검토도최상목 경제수석이 15일 오전 서울 용산 대통령실 청사에서 열린 브리핑에서 윤석열 대통령이 제13차 비상경제민생회의에서 과점 체제인 은행과 통신사의 실질적인 경쟁 시스템 보고 등을 지시했다고 밝히고 있다. 연합뉴스[서울경제] 최근 은행권을 향해 ‘고금리 이자 장사’ ‘성과급 돈 잔치’ 등의 비판이 연일 쏟아지는 가운데 윤석열 대통령이 “과점 폐해가 큰 은행 산업의 경쟁 시스템 강화 방안을 마련하라”고 주문하면서 5대 은행에 대한 과점 체제 완화 논의가 본격화할 것으로 전망된다. 국내 예금 및 대출 시장의 80~90%를 점유하고 있는 5대 은행의 시장 과점 체제의 판을 흔들기 위해 제4의 인터넷전문은행 출범 등 경쟁을 유도하는 방안이 거론되고 있다. 금융위원회와 금융감독원은 당장 이달 중 은행권·학계·법조계와 ‘은행권 경영·영업 관행 제도 개선 태스크포스(TF)’를 발족해 은행 간 자율 경쟁을 통해 금융소비자가 체감할 수 있는 혁신 서비스나 방안을 도출할 계획이다.최상목 경제수석은 이날 서울 용산 대통령실에서 진행된 ‘비상경제민생회의 관련 브리핑’에서 “예대금리차 공시 및 대환대출 플랫폼, 예금 비교 추천 플랫폼 등을 통해 기존 금융사 간 경쟁 강화 방안과 금융과 정보기술(IT) 간 영업 장벽을 낮춰 유효 경쟁을 촉진하는 방안이 검토 과제로 포함될 수 있을 것”이라고 설명했다. 금융권에서는 ‘메기’ 역할을 담당할 제4의 인터넷전문은행 출범과 추가적인 예대금리차 축소 방안 마련, 은행 인가 방식을 기능별로 세분화한 스몰 라이선스 도입 등이 유력하게 검토된다.금융통계정보시스템에 따르면 지난해 말 기준 KB국민·신한·우리·하나·NH농협 등 5대 은행의 원화 예수금 시장점유율은 91.3%에 달한다. 2020년(91.7%), 2021년(91.2%)과 비교하면 소폭 떨어졌지만 여전히 90% 이상의 높은 점유율을 보이고 있다. 최근 3년간 원화 대출금 시장점유율도 84% 이상을 나타내고 있다. 국내 금융시장이 5대 시중은행의 과점 체제로 이뤄지다 보니 사실상 금리 인하 경쟁 효과는 제한적이라는 것이 당국의 판단이다.실제로 당국은 고금리가 본격화하면서 소비자에게 가장 민감한 부분인 ‘금리’ 불만을 잠재우기 위해 지난해 7월부터 19개 은행의 월별 예대금리차 공시를 도입하는 등 은행 간 자율 경쟁 촉진을 유도해왔다. 하지만 이를 통한 금리 인하 효과보다는 매달 ‘은행 줄세우기’에 그친다는 비판이 나오자 아예 현 과점 체제의 틀을 바꾸는 방향을 택한 것으로 보인다.현재 유력하게 거론되는 방안은 케이뱅크와 카카오뱅크·토스뱅크에 이은 제4의 인터넷은행 출범이다. 최 수석은 브리핑에서 “금융과 IT 간 영업 장벽을 낮춰 유효 경쟁을 촉진하는 방안이 검토 과제로 포함될 수 있을 것”이라고 밝혔다. 앞서 당국은 인터넷전문은행 인허가 시 주요 과제로 중금리대출 보급 활성화를 주문했다. 인터넷전문은행 출범을 통해 1금융권에서 대출받기 어려운 중·저신용자에 대한 대출 활성화뿐 아니라 여수신 금리 경쟁까지 추가로 가능하다는 점을 고려했다는 평가다. 하지만 앞서 출범한 인터넷은행들의 파급력이 예상보다 크지 않았다는 점에서 실효성에 의문을 제기하는 목소리도 나온다. 지난해 말 기준 인터넷전문은행 3개사의 중·저신용자 대상 대출 비중은 약 25%대로 30%에도 못 미친다.금융 전문가들 사이에서는 은행 라이선스 세분화도 현실적인 대안으로 거론된다. 단일 인가로 돼 있는 은행업의 인가 단위를 나눠 특정 분야에 경쟁력 있는 특화은행이 많아지면 자연스럽게 과점 체제가 깨질 수 있다는 취지다. 중소기업을 위한 각종 여수신 상품을 취급하는 영국 최초의 인터넷전문은행 '아톰뱅크'와 같은 방식이다. 김광수 은행연합회장은 이날 기자들과 만나 “리테일 쪽은 조금 더 경쟁적일 필요가 있고 기업금융 쪽은 조금 더 전문적일 필요가 있다는 생각”이라면서 “다만 진입·퇴출 등의 문제이기 때문에 그 부분은 정책 당국에서 고민할 문제”라고 말했다.김우진 한국금융연구원 선임연구위원은 “금융 당국 등이 시그널을 던지는 것보다 시장 경쟁을 촉진시켜 소비자에게 혜택을 돌려주는 것이 정공법일 것”이라며 “은행업 진입 기준 자체를 다양하게 만들어 여러 형태의 전문화된 은행, 분화된 은행이 출연하는 것도 한 가지 방법”이라고 말했다. 이어 “프라이빗뱅커(PB)전문은행, 기업금융전문은행 등 좀 더 분화되고 전문적인 은행이 출연할 수 있도록 라이선스를 다양하게 해주는 방안을 고민해볼 필요가 있다고 본다”고 덧붙였다.다만 5대 은행의 과점 체제를 깨는 데 집중하기보다는 과점 체제로 발생한 부작용을 해소해 금융소비자가 체감할 수 있는 서비스나 혜택을 확대해 실질적인 효과를 낼 수 있는 대안 마련이 우선돼야 한다는 목소리도 있다. 서지용 상명대 경영학과 교수는 “새로운 금융산업의 문턱을 낮춰줬을 때 우후죽순 은행들이 생기면 경쟁에서 도태되는 은행을 이용한 금융소비자들의 피해가 생길 수 있는 만큼 신규 은행업을 출연시키기보다는 인터넷은행·제2금융권 등의 겸업화를 촉진함으로써 업권 간 경쟁을 강화하고 시중은행의 과점 현상을 해소하는 방향이 바람직할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>5대은행 작년 성과급만 1조3천억…당국, 보수체계도 수술하나(종합)</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013756267?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1인당 임원 5천만∼2억2천만, 직원 1천만∼3천900만…배당은 7.2조원당국 "은행 금융지원·보수체계·지배구조 다 들여다보겠다""은행은 주주 있는 엄연한 민간기업…지나친 관치" 반발도시중은행지난달 9일 서울 시내에 설치되어 있는 주요 은행들의 현금인출기. 2023.1.9 pdj6635@yna.co.kr(서울=연합뉴스) 금융팀 = 은행에 대한 정부와 여론의 '이자 장사', '돈 잔치' 비난이 커지는 가운데, 지난해 5대 은행 임직원에 지급된 성과급만 모두 1조3천억원이 넘는 것으로 확인됐다.     한 명당 많게는 수억 원, 적게는 수천만 원에 이르는데, 결국 금융 당국이 이런 보수 산정에 합리적 근거가 있는지 들여다보기로 했다.     "민간기업의 임금 산정에 정부가 개입하는 것은 어불성설", "지나친 관치 금융"이라는 반론도 만만치 않지만, 대통령까지 나서 "은행은 공공재"라고 여러 차례 강조한 만큼 당분간 은행 등 금융기관에 대한 현 정부의 공익성, 사회적 책임 압박은 갈수록 커질 전망이다.  작년 5대 시중은행 성과급 1.3조원…35% 급증    14일 국회에서는 은행 임직원의 전체, 평균 성과급 규모가 잇따라 공개돼 '돈 잔치' 논란의 불씨를 이어갔다.    금융감독원이 정무위원회 황운하 의원(더불어민주당)에게 제출한 자료에 따르면, 지난해 5대 시중은행의 성과급은 모두 1조3천823억원으로 파악됐다. 2021년 성과급 총액(1조19억원)보다 약 35%나 늘었다.    개별은행 임원 1명의 평균 성과급을 따져보면, KB국민은행이 2억1천600만원으로 가장 많았고 이어 하나은행(1억6천300만원), 신한은행(1억7천200만원), 우리은행(1억400만원), NH농협은행(4천800만원) 순이었다.    직원 1명의 평균 성과급의 경우 NH농협은행(3천900만원)이 1위를 차지했다. 하나은행(1천300만원)·신한은행(1천300만원)·KB국민은행(1천100만원)·우리은행(1천만원)도 모두 1천만원을 넘었다.    NH농협은행은 이에 대해 "기본급을 제외한 정기 상여금 등이 포함된 수치"라며 "은행별 급여체계 차이에 따라 상여금이 많은 것으로 집계됐을 뿐, 총급여 수준은 다른 은행들보다 낮다"고 설명했다.    금감원이 양정숙 의원(무소속)에게 낸 자료에서는 2021년 5대 시중은행의 성과급이 1조709억원으로 집계됐다.    5대 시중은행의 성과급은 ▲ 2017년 1조78억원 ▲ 2018년 1조1천95억원 ▲ 2019년 1조755억원 ▲ 2020년 1조564억원 ▲ 2021년 1조709억원으로 5년간 줄곧 1조원을 넘어섰고, 2022년 성과급은 2021년 당시 최대 실적을 바탕으로 더 늘었다.       지난해 인터넷은행 카카오뱅크와 케이뱅크, 토스뱅크도 전년보다 각 139%, 105%, 78% 많은 258억원, 138억원, 34억원을 성과급으로 지급했다. 은행 배당도 급증…최근 5년간 배당금 29조원 육박    성과급뿐 아니라 주요 은행들의 주주 배당도 계속 불어나는 추세다.    양 의원실 자료에 따르면 2021년 기준 국내 17개 은행의 배당(현금·주식배당) 합계는 7조2천412억원으로, 2020년(5조6천707억원)보다 28%나 많았다.     배당 규모는 ▲ 2017년 4조96억원 ▲ 2018년 5조4천848억원 ▲ 2019년 6조5천446억원 ▲ 2020년 5조6천707억원으로, 코로나19가 터진 2020년을 제외하면 해마다 급증하고 있다.     양 의원은 "2021년에는 7조2천억원이 넘는 배당금을 60∼70%의 외국인을 포함한 주주들에게 나눠줬고, 최근 5년간(2017∼2021년) 현금지급기처럼 뿌린 배당금만 29조원에 육박한다"고 지적했다. 당국 "은행 금융지원·보수체계·지배구조 다 들여다보겠다"    은행이 성과급과 배당을 지나치게 늘리는 데 대한 여론의 비난은 해마다 반복되는 일이지만, 최근에는 정부가 공개 석상에서 끊임없이 직접 문제를 제기하고 개선을 목적으로 실제 행동에 나섰다는 점에서 큰 차이가 있다.    신종 코로나바이러스 감염증(코로나19)을 계기로 급증한 대출과 최근 기준금리 상승으로 손쉽게 돈을 벌면서, 늘어난 이익을 공익에 환원하기보다는 내부 임직원들의 상여금이나 퇴직금을 늘리고 주주 배당 확대에만 몰두하는데 심각한 문제의식을 느끼고 있다는 얘기다.     이복현 금융감독원장은 이날 내부 임원 회의에서 "고금리와 경기둔화 등으로 국민의 어려움이 가중되고 있는 상황에서 은행권이 사상 최대 이자 이익을 바탕으로 거액의 성과급 등을 지급하면서도 국민과 함께 상생하는 노력은 부족하다는 비판이 수그러들지 않고 있다"고 지적했다.    아울러 "은행권의 (공익적 금융) 지원 내역을 면밀히 파악해 실효성 있는 지원이 이뤄지는지 점검해 적극적으로 감독하라"고 주문하며 "성과보수 체계가 금융회사의 지배구조에 관한 법률의 취지와 원칙에 부합하게 운영되고 있는지에 대해 점검하겠다"고도 했다.     윤석열 대통령이 앞서 13일 수석비서관회의에서 "은행은 공공재적 성격이 있다. 수익을 어려운 국민, 자영업자, 소상공인 등에게 이른바 상생 금융 혜택으로 돌아갈 수 있도록 배려하고 향후 금융시장 불안정성에 대비해 충당금을 튼튼하게 쌓는 데에 쓰는 것이 적합하다"며 "은행의 '돈 잔치'로 국민들의 위화감이 생기지 않도록 금융위는 관련 대책을 마련하라"고 지시한 것과 같은 맥락이다.    보수 체계 수술뿐 아니라 금융지주 회장들의 '셀프 연임' 시도 등을 원천 차단하기 위한 금융그룹 지배구조 개선 작업도 본격적으로 시작될 분위기다.    김주현 금융위원장은 이날 금융발전심의회 전체 회의에서 "금융회사 내부통제 강화와 지배구조 개선에 대해 조속히 세부 방안을 마련하겠다"며 다음 달 초 '기업지배구조 개선 태스크포스(TF)' 출범을 예고했다. "은행은 주주 있는 엄연한 민간기업…지나친 관치" 반발도    금리 상승과 함께 은행의 이자 이익이 크게 늘어난 만큼, 다양한 감면과 인하를 통해 취약계층의 이자 부담을 줄여주는 것은 공익적 측면뿐 아니라 은행의 건전성 관리 측면에서도 필요하다는 데는 은행들도 공감하고 있다.    이에 따라 은행권은 현재 다양한 취약계층 금융 지원책도 실제로 실행하고 있다.    하지만 정부가 지나치게 금리, 급여체계, 인사 등 금융의 모든 본질적 요소에 개입해 좌지우지하는 것은 시장 원리에 맞지 않고 효율성도 떨어진다는 불만의 목소리도 점차 커지고 있다.    한 시중은행 관계자는 "금융지주와 은행은 공공재가 아니다. 주주가 있는 엄연한 민간기업일 뿐"이라며 "사기업으로서 적정한 급여로 인력 수급을 관리해야 하고 이익으로 충당금을 많이 쌓아 대출 위험 관리도 해야 한다"고 반박했다.    또 다른 시중은행 관계자도 "정부가 지나치게 예금·대출 금리 조정에 간섭하면, 예금 금리와 시장금리, 대출 금리가 자연스럽게 연동되는 금리 체계가 망가져 오히려 소비자들이 혼란스러울 수도 있다"며 "더구나 사기업 은행에 공익 지출만 강조하는 것도, 금융위기가 닥쳤을 때 최후의 완충장치로서 충격을 흡수해야 하는 은행의 체력을 떨어뜨리는 일"이라고 주장했다.[표] 2017~2021년 국내은행별 현금배당·주식배당 합계       (※ 출처: 양정숙 의원실, 금융감독원)    (심재훈 신호경 임수정 민선희 오주현 기자)    president21@yna.co.kr, sj9974@yna.co.kr, viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>저금리 대환 모든 자영업자로 확대…만기도 10년으로 연장</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003256884?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>정부가 자영업자 저금리 대환(기존 대출을 새로운 대출을 받아 갚는 것) 대출 대상을 전체 개인사업자와 소기업으로 확대한다. 원래는 신종 코로나바이러스 감염증(코로나19)으로 피해를 본 사업자만 가능했다. 만기도 10년으로 연장해 월 상환액 부담을 확 낮춘다.     ━   코로나 피해 없어도 대출 갈아탈 수 있어      김주현 금융위원장이 지난 27일 오전 서울 종로구 정부서울청사 브리핑실에서 업무보고 사전브리핑을 하고 있다. 금융위원회           1일 금융위원회는 이런 내용의 자영업자·소상공인 저금리 대환 프로그램 개편안을 발표했다. 저금리 대환을 확대하겠다는 방침은 지난달 금융위 업무보고 때 발표한 내용이다. 이번에는 세부 시행안이 나왔다.      정부는 자영업자·소상공인 금리 부담을 덜어주고자 지난해 9월부터 저금리 대환 프로그램을 실시했다. 금리 7% 이상 사업자 대출을 받은 코로나19 피해 자영업자에게 일정 한도(개인 5000만원, 법인 1억원) 내에서 비교적 저렴한 금리의 대출로 갈아탈 수 있게 했다. 금리는 1~2년 차에는 최대 5.5%, 3년 차에는 은행채 1년물 금리에 2.0%포인트 가산해 적용한다. 기존 자영업자 대출금리가 평균 12% 수준이다.      이번 개편안에서 정부는 대환 대출 대상을 전체 개인사업자와 법인 소기업으로 확대했다. 최근 고금리·고물가 피해가 코로나19를 넘어 모든 자영업자에게 영향을 끼친다는 판단 때문이다. 김주현 금융위원장은 “(원래는) 코로나19 피해로 대면 영업이 안 되니까 어려운 분들을 도와주자는 생각인데, 지금은 전혀 다른 위험의 어려움이 나왔기 때문에 부실화되기 전에 미리 도와주자 이런 차원”이라고 했다.      실제 지난달 19일 금융감독원은 지난해 11월 말 기준 국내 은행 원화 대출 연체율이 전달보다 0.02%포인트 상승했다고 밝혔다. 아직은 낮은 수준이지만, 연체율이 통상 1~2년의 시차를 두고 올라간다는 점을 고려하면 자영업자 등 취약계층을 중심으로 부채 부실 문제가 언제든 불거질 수 있다.      다만 이번에 발표한 대환 가능한 대출은 지난해 5월 이전에 취급한 사업자 대출(지난해 6월 이후 갱신 대출도 포함)에 한정한다. 사업자 대출이 아닌 일부 가계대출도 대환 프로그램에 포함할 계획이지만 구체적 범위와 방식은 올 하반기에 다시 발표하기로 했다. 또 도박·사행성 관련 업종, 부동산 임대·매매, 금융, 법무 등 소상공인 정책자금 제외 업종은 지원대상에서 뺀다.     ━   만기 5→10년, 1억 상환액 월 159만원 줄어      그래픽=김주원 기자 zoom@joongang.co.kr           지원 대상뿐 아니라 만기도 이전 대환 대출보다 늘린다. 기존 자영업자 대환 대출은 5년 만기에 2년 거치, 3년 분할 상환하는 방식이었다. 하지만 개편한 대환 대출을 받으면 10년 만기에 3년 거치, 7년 분할 상환이 가능하다.      상환 기간에 2배 이상 늘면서 월 상환액 부담도 크게 줄었다. 예를 들어 원금 1억원을 기존 대환 대출 방식으로 3년간 분할 상환하면 한 달 상환액에 약 278만원(이자 제외)이다. 하지만 상환 기간을 7년으로 늘리면 월 119만원으로 상환액이 159만원 감소한다. 특히 정부의 대환 대출은 중도상환수수료가 없어 언제든 조기 상환할 수 있다.     ━   한도 2배 증액, 보증료도 할인      대출 한도도 기존보다 2배 증가해 개인은 1억원, 법인은 2억원으로 늘어난다. 이미 앞서 저금리 대환 대출을 받았던 자영업자도 늘어난 한도만큼 추가로 대출을 더 받을 수 있다.      보증료 부담도 낮췄다. 자영업자 저금리 대출은 금리를 낮추기 위해 추가 신용 보증이 들어가는데, 이 때문에 1년에 약 1% 수준의 보증료를 대출을 받은 사람이 납부해야 했다. 하지만 이번에 개편한 대환 대출은 3년간 보증료율이 0.7%로 0.3%포인트 싸게 낼 수 있다. 또 보증료를 대출 시점에 일시 납부하지 않고 매년 나눠낼 수 있게 분납시스템을 전 은행으로 확대한다. 만약 최초 대환 시점에서 보증료를 전액 일시 납부하면, 보증료 납부총액의 15%를 더 할인해 주기로 했다.      원래 대환 대출 신청은 올해 말까지였지만, 대환 규모가 커진 만큼 내년 말까지 신청을 받을 수 있게 기간을 1년 더 늘린다. 개편 대환 대출은 오는 3월 초 시행한다. 14개 시중은행과 토스뱅크·신용보증기금에서 신청·접수할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"대기오염 물질, 10대 청소년 혈압에도 부정적 영향"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013748285?sid=104</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>英 연구팀 "NO₂ 노출시 혈압↓…PM2.5 노출시 혈압↑"(서울=연합뉴스) 이주영 기자 = 대기 오염 물질인 이산화질소(NO₂)와 초미세먼지(PM2.5)가 10대 청소년 혈압에도 부정적 영향을 미친다는 연구 결과가 나왔다고 미국 CNN 방송이 8일(현지시간) 보도했다.런던 중심부 도로에서 배기가스 내뿜는 자동차[EPA 연합뉴스 자료사진. 재판매 및 DB 금지]    영국 킹스칼리지 런던(KCL) 시로마니 하딩 교수팀은 이날 과학저널 '플로스 원'(PLOS ONE)에서 런던에 사는 11~16세 청소년 3천284명을 대상으로 대기오염물질과 혈압의 관계를 분석한 결과, NO₂와 PM2.5가 혈압을 낮추거나 높이는 것으로 나타났다고 밝혔다.     연구팀은 높은 수준의 NO₂에 노출되면 혈압이 낮아지고 PM2.5에 노출되면 혈압이 승하는 것으로 나타났다며 "그 영향이 상당히 큰 것으로 확인됐다"고 말했다.    오염 노출과 혈압 간의 이런 연관성은 청소년의 신체 크기나 사회경제적 지위, 인종 등과 관계없이 일관성 있게 나타났다.     CNN은 그동안 대기오염과 혈압의 연관성 연구는 대부분 성인에 집중돼왔고 어린이에게도 부정적 영향이 있다는 일부 연구 결과도 있었으나 10대 청소년에 미치는 영향에 대한 연구는 거의 없었다고 전했다.     저혈압은 일반적으로 혼란, 피로, 시야 흐림, 현기증 같은 즉각적인 문제를 일으키고, 청소년기 고혈압은 뇌졸중이나 심장마비 위험을 증가시키는 등 평생 건강 문제로 이어질 수 있으며 조기 사망의 주요 위험 요소이기도 하다.     이산화질소는 주로 내연기관 차량에서 연소 부산물로 생기며, 사람의 호흡 능력을 훼손할 수 있고 기도에도 손상을 유발할 수 있는 것으로 알려져 있다.     크기가 머리카락 두께의 20분의 1 정도인 초미세먼지는 산불이나 장작 난로, 발전소 등은 물론 교통·건설 현장 등에서도 발생하며, 폐나 혈액 속으로 침투해 자극과 염증을 유발하는 등 건강 문제를 일으키는 것으로 알려져 있다.     이번 분석에서는 오염물질 노출과 청소년 혈압 변화 간 연관성은 남성보다 여성에서 더 크게 나타나는 것으로 밝혀졌다.     연구팀은 성별 차이가 나타나는 이유는 명확하지 않지만 여성 청소년 30%는 운동량이 매우 적었다며 운동량이 혈압에 영향을 미쳤을 수 있다고 말했다.     연구팀은 그러나 이 연구 결과로는 오염물질 노출이 어떤 메커니즘으로 혈압 변화를 일으키는지는 알 수 없다고 밝혔다.    다만 대기오염 노출이 중추신경계에 영향을 미쳐 염증과 세포 손상을 일으킬 수 있다는 이전 연구 결과가 있으며, PM2.5 노출이 생체주기에 미치는 영향이 혈압 변화로 이어졌을 가능성이 있다고 연구팀은 설명했다.    하딩 교수는 "대기오염도가 높은 런던에 사는 18세 이하 청소년이 100만 명이 넘는 점을 고려할 때 오염물질이 청소년에게 미치는 영향에 대한 추가 심층 연구가 시급하다"고 말했다.    이 연구에 참여하지 않은 파나기스 갈리아차토스 존스홉킨스의대 교수는 "이런 연구는 오염물질이 미치는 영향에 대한 가설을 세우는 데 중요하다"며 "오염물질들이 심혈관계에 상당한 영향을 미치는 것이 분명해 보인다"고 말했다.    scitech@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>'새 소식부터 돈 고민까지'…토스뱅크 앱 내 '토스뱅크 소식' 운영</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000321340?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[토스뱅크가 '토스뱅크 소식' 서비스를 운영 중이다. (자료=토스뱅크)]토스뱅크는 앱 내 금융 콘텐츠를 정기적으로 발행하는 '토스뱅크 소식' 서비스를 운영하고 있다고 오늘(3일) 밝혔습니다.'토스뱅크 소식'은 토스뱅크의 주요 상품과 서비스와 관련한 유익한 정보를 제공하는 것 뿐만 아니라 급변하는 시장 환경에서 고객 개개인이 맞닥뜨리는 금융 생활 관련 고민을 함께 소통하자는 취지에서 만들어졌다는 설명입니다.토스뱅크 소식에서는 '머니상담소', '토스뱅크 사용팁', '새로운 은행 이야기' 등 콘텐츠를 만나볼 수 있습니다. ▲모으기 ▲쓰기 ▲빌리기 ▲불리기 등의 크게 4가지 주제로 구성되어 있으며, 3개의 시리즈로 운영됩니다.특히 '머니상담소'에서는 100만 유튜버로 유명한 ‘부읽남(부동산 읽어주는 남자)’과 재테크 분야 베스트셀러 작가이자 경제 칼럼니스트인 김경필 작가 등이 고정 필진으로 참여하고 있습니다.고객들이 겪고있는 일상 속의 금융 고민과 불편함에 착안한 콘텐츠를 운영 중으로, 현재 약 100여개의 콘텐츠가 발행됐습니다.토스뱅크 관계자는 "돈에 대한 고민이나 어려움을 조금이나마 해소할 수 있는 소통의 장을 마련하기 위해 콘텐츠 서비스를 론칭하게 됐다"며 "토스뱅크를 보다 잘 활용할 수 있는 팁과 시중의 어려운 금융 개념을 이해하기 쉽게 풀어주는 콘텐츠, 토스뱅크를 잘 활용하는 고객 사례 등 고객의 슬기로운 금융생활에 보탬이 될 수 있는 다양한 콘텐츠를 지속 발굴해 나갈 것"이라고 말했습니다.토스뱅크 앱에서 '상품 보기'→'유용한 정보(토스뱅크 소식)'에서 은행의 가장 핵심적인 서비스이자 금융생활의 가장 기본적인 활동에 기반한 콘텐츠들을 만나볼 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 이자장사 의존도 줄였지만 '역부족'①</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000918476?sid=103</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>케이뱅크, 카카오뱅크, 토스뱅크.  사진|각 사[스포츠서울 | 홍성효기자] 최근 은행권은 비이자이익 비중 확대 및 영업 다각화에 힘쓰고 있다. 예대마진으로 얻는 수익에는 한계가 있기 때문이다. 인터넷은행 역시 비이자수익을 늘리기 위해 안간힘을 쓰고 있지만 아직 역부족이란 평가가 나온다.  지난달 31일 금융권에 따르면 인터넷은행 3사 중 비이자수익이 가장 높은 곳은 카카오뱅크로 나타났다. 카카오뱅크는 지난해 3분기 영업수익 4118억 원 중 이자수익 3372억 원 외에도 750억 원의 플랫폼, 수수료, 기타수익 등을 거뒀다. 같은 기간 △케이뱅크는 영업수익 3715억 원 중 이자수익 3467억 원, 비이자수익 248억 원을 △토스뱅크는 영업수익 4702억 원 중 이자수익 4554억 원, 비이자수익 148억 원을 각각 기록했다. 은행의 영업수익은 이자수익과 비이자수익을 합산해 산출한다. 이자수익은 대출자산을 기초로 고객들로부터 받는 이자를 통해 만들어진다. 비이자수익은 대출상품 외 다양한 상품 판매 및 중계 과정에서 거둔 수수료이익 등을 기초로 한다.인터넷은행들은 다양한 업체들과의 제휴를 통해 비이자수익을 벌어들이고 있다. 그 중 카카오뱅크는 제휴를 비롯해 다양한 신규플랫폼을 계속 시도해 비이자수익이 가장 높았다. 카카오뱅크의 신규 플랫폼 사례로는 인증사업, 개인사업자 뱅킹, MTS 탑재 등이다. 카카오뱅크는 올해 상반기 중 펀드매매 서비스도 론칭할 예정이다. 이를 통해 비이자수익을 계속 강화해나간다는 계획이다.케이뱅크는 당근마켓, 번개장터, 롯데카드, 삼성카드, 오아시스마켓 등과 제휴를 통해 공동 금융서비스 및 제휴 신용카드 출시 등으로 비이자수익을 창출했다. 지난해 상반기(41억 원)보다는 많은 비이자수익을 냈지만 아직 카카오뱅크만큼 눈에 띄는 성적은 거두지 못했다. 토스뱅크의 비이자수익은 3사 중 가장 적었다. 토스뱅크는 주로 광고제휴를 통해 비이자수익을 만들었다. 외부 제휴사와의 광고 제휴로 고객에게 정보를 제공하고 이를 수익화 하는 식이다. 토스뱅크가 출범한지 얼마 안됐지만 인터넷은행 중 이자수익은 가장 높은 반면, 비이자수익은 가장 적다는 점은 아쉬운 대목이다. 토스뱅크는 비이자 수익원 확보를 위해 다양한 계획을 수립 중인 것으로 알려졌다.여전히 인터넷은행의 수익 포트폴리오에서 이자이익이 차지하는 파이는 절대적인 수준이다. 이같은 수익 구조는 경기대응력에 취약할 수밖에 없다. 경기가 좋을 때는 이자수익을 많이 거둘 수 있지만, 경기가 나빠지고 과잉경쟁과 저금리 상황이 겹치면 대응력이 떨어진다.기존 은행과 차별화를 선언하며 출범한 인터넷은행의 수익 구조가 이자이익에만 매몰된다면 인터넷은행은 전혀 새로울 것이 없다. 인터넷은행들이 ‘이자 장사’ 이미지에서 벗어나기 위해선 보다 차별화되고 구체적인 계획과 실행이 필요해 보인다. shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>플랫폼 수익 36% 떨어진 카카오뱅크…올해 '엔터업'서 활로 찾을까</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042406?sid=105</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>카카오뱅크 오피스 내부.(사진=카카오뱅크)인터넷전문은행 카카오뱅크가 2022년 역대 최대 성적을 시현했지만 시중은행과의 차별화 지점인 플랫폼 수익(비이자 수익) 측면에서는 역으로 고전하는 모습이다. 이에 카카오뱅크는 2023년부터 엔터테인먼트 부문에서 플랫폼 수익을 거양할 계획이다. 모회사인 카카오가 SM엔터테인먼트의 2대 주주로 올라서는 점도 호재다.8일 카카오뱅크는 실적 발표를 통해 2022년 연간 영업수익이 전년 대비 50.8% 성장한 1조6058억원을 기록했다고 밝혔다. 영업이익은 전년 동기 대비 37.5% 증가한 3532억원, 당기순이익은 28.9% 증가한 2631억원으로 집계됐다. 기준금리 상승으로 인한 이자 이익 확대, 주택담보대출 등 신상품의 시장 안착 등에 힘입어 연간 최대 실적을 달성했다. 지난해 말 기준 순이자마진(NIM)은 2.48%, 연체율의 경우 0.49%로 집계됐다.그런데 카카오뱅크의 2022년 4분기 플랫폼 수익은 150억원으로 전년 동기에 비해 36.2% 감소했다. 26주 파트너 적금을 비롯해 제휴 증권사 계좌 개설 및 카드사 신용카드 발급, 타 금융사 연계대출 등에서 발생하는 비이자 수익을 플랫폼 수익으로 분류하고 있다. 카카오뱅크 측은 "불확실성과 변동성 높은 외부 환경 속에서 플랫폼 비즈니스가 정체했다"고 설명했다.카카오뱅크는 올해 4월 '팬덤 기반'의 수신 상품을 출시할 계획이다. 카카오뱅크 측은 "지난달 말 기준 모임원 수 1400만명의 모임통장과 누적 1662만좌가 개설된 26주적금의 계보를 잇는 카카오뱅크만의 새로운 수신 상품을 선보임으로써 금융과 생활을 연결하는 새로운 경험을 제공할 예정"이라고 밝혔다. 이는 최근 토스뱅크의 모임통장 상품 출시에 대응하는 동시에 플랫폼 수익까지 쌍끌이하겠다는 전략으로 풀이된다.또한 은행업과 팬덤 비즈니스의 궁합을 긍정적으로 보는 것으로 풀이된다. 카카오뱅크는 지난해 메인스폰서로 참여한 '멜론뮤직어워드 2022'에서 특별상인 '카카오뱅크 모두의 스타상'을 주관해 가수 임영웅 씨를 후보자로 선정했다. 해당 상의 투표에 참여하기 위해 '영웅시대' 팬들이 카카오뱅크 계좌를 적극 신설하는 움직임이 나타났다(블로터, '시니어층 모시려는 카카오뱅크, 답은 '임영웅'에 있다?' 기사 참조).이는 또 대출의 원천이 되는 수신액 증가에도 효과를 낼 것으로 보인다. 카카오뱅크는 고객이 일상생활 속에서 카카오뱅크를 더 자주 찾을 수 있도록 소셜 기능과 금융을 결합한 수신 상품을 선보일 예정으로, 저원가성 예금을 기반으로 한 수신 확대를 지속한다.카카오뱅크 2022년 연간 실적 인포그래픽.(자료=카카오뱅크)카카오뱅크의 수신 잔액은 2021년 말 30조원에서 2022년 말 기준 33조1000억원으로 늘었으며, 저원가성 예금이 61.3%의 비중을 차지했다. 여신 잔액은 같은 기간 25조9000억원에서 27조9000억원으로 성장했다. 중저신용자 대출과 전월세보증금·주택담보대출이 성장을 견인했다. 주담대의 경우 주택 거래 시장 위축에도 불구하고 출시 10개월 만에 잔액 1조원을 달성했다.지난해 말 기준 카카오뱅크 고객수는 2042만명으로, 2021년 말 1799만명에서 1년 만에 243만 명 증가했다. 경제활동인구 대비 침투율은 처음으로 70%를 넘어섰다. 월간활성이용자수(MAU, Monthly Active User)는 역대 최다인 1644만명을 기록했다(닐슨미디어 디지털 데이터 기준). 4분기에 개인사업자 뱅킹, 가상자산거래소 연계, 국내주식 투자 서비스 등 신규 상품·제휴 서비스를 연이어 선보인 결과 처음으로 1600만명을 돌파했다.고객 연령별 비중은 △10대 8% △20대 24% △30대 25% △40대 23% △50대 이상 20%로 나타났다. 고객 수 160만명을 넘어선 청소년 전용 금융 서비스 미니(mini) 대상 고객의 연령대(현재 만 14~18세 대상)를 낮춰 저연령 고객 비중을 확대할 계획이다.여신 부문에서는 주택담보대출과 개인사업자대출 등에서 신규 상품을 추가해 상품 라인업을 지속 강화하고, 대출이동제를 비롯한 환경 변화를 적극 활용함으로써 성장을 이어간다는 방침이다. 향후 라이선스 취득 일정에 맞춰서 펀드 판매 서비스를 론칭하고, 투자 플랫폼으로서 영향력을 강화하기 위해 주식 외 유형·무형의 다양한 투자 상품을 추가한다.다만 카카오뱅크가 코스트인컴(CI, 이익 대비 비용)을 개선하기 위해 채용 규모를 대폭 축소하는 점은 신규 서비스 확장 역량을 다소 낮출 것으로 보인다. 2022년 말 카카오뱅크의 인원수는 1395명으로 전년 말 대비 약 35% 증가했다.김석 카카오뱅크 최고운영책임자(COO)는 "지난해는 기존에 없었던 신규 서비스와 상품을 론칭하기 위해 채용이 이뤄진 '기획안 개발' 단계였다"며 "이런 기획안이 구체적으로 설계된 만큼 2023년에는 채용 규모가 약 3분의 1에서 40% 정도 대폭 감소할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.02.11.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>일반은행과 특수은행 차이를 아시나요?[30초 쉽금융]</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005422873?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>퀴즈로 풀어보는 간단 금융상식정답은 5번 ‘수협은행’입니다.은행에서도 일반은행과 특수은행이 나뉜다는 걸 알고 계셨나요. 일반은행은 시중은행, 지방은행, 외국은행 국내지점과 인터넷전문은행이 있습니다.시중은행은 전국 어디에서나 영업이 가능한 은행으로, 국내은행 4개사인 국민은행, 신한은행, 하나은행, 우리은행과 외국계 은행인 SC제일은행, 한국씨티은행이 있습니다. 시중은행에는 오프라인 지점을 두지 않고 인터넷에서만 영업을 하는 인터넷전문은행도 있죠. 카카오뱅크, 케이뱅크, 토스뱅크 3개사가 있습니다.특수은행은 개별법에 의해 고유의 목적을 수행하도록 설립된 은행입니다. KDB산업은행, 한국수출입은행, 기업은행, 농협은행, 수협은행이 이에 해당합니다. 산업은행은 상업은행과 투자은행의 업무를 모두 수행한다고 볼 수 있습니다. 수출입은행은 기획재정부 산하 공공기관입니다. 기업은행의 주요업무는 중소기업자에 대한 자금의 대출과 어음의 할인, 정부·한국은행 및 그 밖의 금융기관으로부터 자금 차입, 정부 및 공공단체의 위탁 업무 등이 있습니다. 농협은행은 농업계 특수은행으로 농업자금 지원 업무를 수행합니다. 수협은행은 1962년 수협중앙회로 시작해 2016부터 수협은행으로 분리돼 예금, 대출, 신용카드, 외환, 보험 등의 모든 은행업무를 취급하고 있습니다. 특수은행 역시 시중은행이 하고 있는 대다수 은행업무를 취급합니다.일반은행과 특수은행 이외에도 예금을 취급하는 비은행예금취급기관으로 상호저축은행, 신용협동기구, 우체국예금이 있습니다. 상호저축은행은 상호저축은행법에 의해 설립된 은행으로 초기에는 상호신용금고로 출발했습니다. 특정 지역의 서민과 소규모 기업을 대상으로 예금과 대출 업무를 전문으로 하고 있으며 저축은행으로 불리는 제2금융권입니다. 신용협동기구는 조합원을 대상으로 저축과 대출을 통한 공동의 이익을 추구하기 위한 비은행예금기구로 신용협동조합, 새마을금고, 농업협동조합, 수산업협동조합, 산립조합의 상호금융이 포함됩니다. 우체국예금은 전국의 우체국과 그 지점을 금융창구로 이용하는 국영금융으로 예금이 예금자보호법에 의해 보호되지 않으나 우정사업본부의 별도 보장에 따라 보호됩니다. 예금자보호법에 따라 현재 1인당 보호 한도 금액은 5000만원까지지만, 우체국예금은 우체국예금보험에 관한 법률에 따라 국가가 원금과 이자를 전액 보장합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>"24시간 투자로 삼성에 맞불" NH·키움·토스, 미국주식 주간거래 참전</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000893857?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>국내 증권사들이 미국주식 주간 거래 서비스를 잇달아 내놓았다./사진=이미지투데이 국내 증권사들이 미국주식 주간 거래 서비스를 잇달아 내놓으면서 삼성증권의 독점시대가 막을 내렸다. 이들 증권사들은 후발주자로서 주간거래 원조 격인 삼성증권에 도전장을 내밀었다.9일 금융투자업계에 따르면 최근 NH투자증권, 키움증권, 토스증권 등은 미국주식 주간거래 서비스를 선보였다. 기존에는 삼성증권이 미국 대체거래소(ATS) 블루오션과 독점 계약을 맺으면서 시장을 독점하고 있었으나 계약이 만료되면서 타 증권사들도 주간거래 시장에 뛰어들 수 있게 됐다. 삼성증권은 지난해 국내 최초로 미국 주식 주간 거래 서비스를 도입한 바 있다.먼저 NH투자증권은 전날부터 24시간 미국주식 매매 서비스를 시작했다. 24시간 해외주식 거래 서비스를 제공하는 건 NH투자증권이 처음이다.NH투자증권은 주간거래(오전 10시부터 오후 6시) 서비스를 시작으로 프리마켓(오후 6시~밤 11시30분), 정규장(밤 11시30분~다음날 오전 6시), 애프터마켓(오전 6시부터 오전 10시)으로 나눠 운영한다.주간거래 매매 체결 방식은 글로벌 시장조성자 유동성 공급(LP)으로 실시간 매수, 매도가 가능하다. 주간거래는 현재 5호가로 개설하고 추후 10호가로 시세 제공을 확대할 예정이다.정중락 NH투자증권 플랫폼혁신본부 대표는 "미국주식에 대한 투자 수요와 유연한 투자 기회 제공을 위해 서비스를 마련했다"며 "앞으로도 해외주식 플랫폼 경쟁력 제고를 위해 최선을 다하겠다"고 말했다.키움증권 역시 미국주식 주간거래 서비스를 시작했다. 기존에는 서머타임 미적용 기준 프리마켓(오후 6시~11시 30분)과 정규시장(오후 11시 30분~다음날 오전 6시)과 애프터마켓(오전 6시~7시) 시간에 미국주식 거래가 가능했다.여기에 주간거래 시간대가 추가됐다. 오전 10시부터 오후 6시까지이며 서머타임 적용시 오전 9시부터 오후 5시까지 추가로 거래할 수 있게 됐다.토스증권은 오는 13일부터 미국주식 거래 시간을 확대한다. 한국시간 오전 10시부터 오후 5시 50분까지로 기존 거래시간과 더하면 총 21시간 50분동안 거래할 수 있게 된 셈이다.거래 시간에 따라 프리마켓(오후 6시~11시 30분), 정규장(오후 11시 30분~다음날 오전 6시), 애프터마켓(오전 6시~8시), 데이마켓(오전 10시~오후 5시 50분)으로 구분된다. 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.증권업계 한 관계자는 "삼성증권이 처음 도입한 해외주식 주간거래 서비스가 해외주식 투자자들에게 좋은 호응을 얻으면서 올해는 타 증권사들도 서비스를 시작하거나 오픈을 앞두고 있다"며 "앞으로 해외주식 투자자 유치에 있어 각 증권사들의 경쟁이 더욱 치열해 질 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>미국 주식 24시간 거래 가능해졌다</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004808166?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>NH투자증권, 업계 최초 서비스키움·토스증권도 주간매매 확대이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.사진=게티이미지뱅크증권사들이 미국 주식 거래 시간을 경쟁적으로 늘리고 있다. 밤잠 설치지 않고 편리하게 '미장'에 투자하길 원하는 서학개미를 겨냥했다.NH투자증권은 8일 국내 증권업계 최초로 24시간 미국 주식 매매 서비스를 선보였다. NH투자증권은 한국시간 기준 오전 10시부터 오후 6시까지 미국 주식 주간거래를 운영한다. 프리마켓(오후 6시~11시30분), 정규장(오후 11시30분~오전 6시), 애프터마켓(오전 6~10시)을 포함하면 하루 종일 미국 주식을 사고팔 수 있게 됐다.주간거래는 글로벌 시장조성자의 유동성 공급(LP)을 통해 실시간 매수·매도가 이뤄진다. 시세는 5호가로 제공하며 향후 10호가로 확대한다는 계획이다. 정중락 NH투자증권 플랫폼혁신본부 대표는 "원장 관리 시스템을 효율화해 정산 시간을 최소화하는 방식으로 국내 최장 거래 시간을 확보했다"고 말했다.키움증권도 이날 미국 주식 주간거래 서비스를 도입했다. 오전 10시부터 오후 5시30분까지다. 프리마켓, 정규장, 애프터마켓을 합치면 일일 매매 가능 시간이 21시간30분으로 늘어났다.토스증권은 오는 13일부터 미국 주식 거래 시간을 확대한다. 오전 10시부터 오후 5시50분까지 주간거래를 추가해 하루 중 21시간50분 동안 매매가 가능해진다. 한국투자증권과 메리츠증권도 이달 중 합류할 예정이다.미국 주식 주간거래는 지난해 2월 삼성증권이 가장 먼저 선보였다. 미국의 대체 거래소 블루오션과 손잡고 오전 10시부터 오후 5시30분까지 운영하고 있다. 삼성증권과 블루오션의 1년 독점 계약이 지난 7일 끝나 다른 증권사도 같은 서비스를 내놓을 수 있게 됐다. 미래에셋증권은 미국 현지법인이 블루오션과 계약하는 우회로를 통해 작년 9월 주간거래(오전 10시~오후 5시15분)를 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>투자 빙하기 녹인 ‘핫’ 스타트업</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000079955?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2022년은 스타트업에 악몽 같은 한 해였다. 하반기 경기 침체 우려가 커지면서 ‘미래 가치’에 투자하는 스타트업 시장은 투자자 관심에서 멀어졌다. 여기에 금리 인상과 레고랜드 사태 등으로 투자 심리가 크게 위축되면서 스타트업은 그야말로 혹한기를 넘어 ‘빙하기’를 마주하게 됐다.얼어붙은 시장은 수치로도 증명된다. 스타트업 민관협력 네트워크 ‘스타트업얼라이언스’에 따르면 2022년 하반기(7~12월) 스타트업 시장에 몰린 돈은 3조7751억원. 전년 같은 기간(7조2184억원)과 비교하면 47.7% 감소했다.2023년 초반 분위기도 다르지 않다. 투자를 받지 못해 자금난을 겪는 스타트업 곡소리가 계속 들려오는 상황이다. 제값을 받지 못하고 기업을 매각하는 불황형 M&amp;A와 인력 구조조정 뉴스가 하루가 멀다 하고 들려온다. 창업자 스스로도 비관적이다. 스타트업얼라이언스에 따르면 스타트업 창업자 전체 77.5%가 ‘1년 뒤에도 현재 수준의 불황이 지속·악화될 것’으로 내다봤다.하지만 역대급 투자 기근에도 불구하고 투자금을 따낼 곳은 기어이 따내고야 만다. 유망한 스타트업은 불황과 무관하게 투자자 선택을 받기 마련이다. 투자 시장 위축이 본격화된 지난해 하반기부터 올해 초까지, 투자 유치에 성공한 스타트업 공통점을 살펴보면 최근 각광받고 있는 업종과 분야를 알 수 있다. 스트라드비젼 전방 카메라 기능 이미지. (스트라드비젼 제공)새로운 BM 아닌 ‘시너지’가 대세콜드체인·AI·반도체…기반 기술 ‘주목’지난해 6월부터 12월까지 투자 유치에 성공한 스타트업 중 투자액 기준 상위 20개 업체 면면을 살펴보면 한 가지 키워드를 도출해낼 수 있다. 바로 ‘시너지’다. 기존 산업이 필요로 하는 기술을 연구·개발한 스타트업이 투자 유치 규모 상위권을 차지했다. 콜드체인 스타트업 ‘팀프레시’, 자율주행 스타트업 ‘스트라드비젼’, 인공지능(AI) 반도체 스타트업 ‘리벨리온’ 등이 대표적이다.‘팀프레시’는 지난해 6월 1600억원 규모 시리즈D 투자 유치에 성공했다. ‘컬리’ 출신 이성일 대표가 독립해 2018년 설립한 팀프레시는 콜드체인 전문 물류 스타트업이다. 초기에는 새벽배송 대행 사업으로 이름을 알렸다. 최근에는 냉장 화물차량 주선 서비스까지 유통 전반으로 몸집을 키우고 있다. 존재감이 커지자 대기업까지 눈독을 들이고 있다. 최근 디지털 물류 사업 본격화를 외친 KT는 팀프레시 시리즈D에 553억원을 투자했다. 팀프레시 2대 주주로 올라선 KT의 지분율은 11.4%다. 카이스트 출신 천영석 대표가 설립한 자율주행 로봇 스타트업 ‘트위니’도 물류 인프라로 각광받는다. 물류 로봇 라인업을 확대하고 자율주행 소프트웨어 경쟁력 강화에 집중하고 있는 기업이다. 2021년 시리즈B로 170억원을 받았고 올해 500억원 규모의 시리즈C 투자 유치에 돌입했다.올라웍스 창업자 김준환 대표는 2012년 회사를 인텔에 매각하고 2014년 또 한 번의 도전에 나섰다. 그렇게 탄생한 기업이 자율주행 소프트웨어 스타트업 ‘스트라드비젼’이다.스트라드비젼은 지난해 8월 1076억원 시리즈C 투자를 받았다. 스트라드비젼이 보유한 인공지능 딥러닝 기반 자율주행 소프트웨어 ‘SVNet’의 기술력을 전장업계가 인정한 덕분이다. 현대차와 함께 합작법인 모셔널을 운영하는 미국 전장 업체 ‘앱티브’도 이번 시리즈C 투자에 참여, 스트라드비젼에 힘을 실어줬다.2020년 설립된 ‘리벨리온’은 지난해 6월 시리즈A로 920억원 투자를 받았다. 리벨리온은 팹리스 반도체 스타트업으로 반도체 설계에 특화된 기업이다. 맞춤형 반도체(ASIC)와 함께 AI 연산에 최적화된 반도체 NPU도 설계한다. 현재 시장이 주목하는 건 리벨리온이 설계한 서버용 AI 반도체 ‘아톰(ATOM)’이다. 리벨리온은 아톰 양산을 위해 삼성전자 파운드리와 협업하고 있다. 삼성전자가 먼저 협업을 제안했다는 후문이다. 리벨리온은 삼성전자 극자외선(EUV) 기반 5나노 공정을 활용해 반도체 칩을 양산하겠다는 계획이다. 양산 시점은 2024년 정도다.벤처캐피털(VC)업계는 지금 같은 경기 침체 국면에서는 ‘기존 산업’과 시너지를 낼 수 있는 기술력이 각광받을 수밖에 없다고 평가한다. 엑시트(Exit·자금 회수)에 대한 불확실성이 줄어들기 때문이다. 몇 년 전까지만 해도 스타트업 투자 시장에서 눈길을 끈 업체들은 ‘새로운 비즈니스 모델(BM)’을 제시한 업체들이다. 스타트업 타이틀에 딱 맞는 ‘신선함’이 곧 경쟁력이었다. 새벽배송 시장을 연 컬리, 공유 차량 시대를 연 쏘카, 간편 송금을 일상화한 토스 등이 대표적이다. 하지만 최근 대규모 투자 때는 모험보다는 안정적인 엑시트 가능성이 우선된다는 게 VC 관계자 중론이다.익명을 요구한 VC 책임심사역은 “최근 스타트업업계가 가장 고민하는 부분이 투자 유치와 엑시트 측면인데, 기존 산업과 밀접한 관계를 가진 업체는 엑시트 측면에서도 한발 앞서 있다”며 “현대차그룹이 지난해 8월 4200억원을 주고 인수한 자율주행 스타트업 포티투닷이 대표적인 사례”라고 소개했다. 폐기물 수집 운반 토털 서비스 ‘업박스’. (리코 제공)몸집 키워가는 ‘콘텐츠 시장’웹툰·홈트·K팝…83곳 투자 유치스타트업 투자 시장이 얼어붙었지만 예외도 있다.‘콘텐츠’ 부문 투자 열기는 그 어느 때보다 뜨거웠다. 스타트업얼라이언스에 따르면 지난해 하반기 ‘콘텐츠&amp;소셜’ 분야 기업들의 투자 유치 건수는 83건. 모든 업종 중 1위다. 2위 헬스케어(73건) 분야보다도 10건 많다. 웹툰 플랫폼 ‘오늘의웹툰’, K팝 콘텐츠 플랫폼 ‘케이팝맵’, 홈트레이닝 콘텐츠 플랫폼 ‘엔라이즈’ 등 각광받는 콘텐츠 종류도 다양하다.지난해 하반기 투자 유치 규모 상위 20위권에도 여러 콘텐츠 스타트업이 포진했다. 최진희 전 스튜디오드래곤 대표가 설립한 콘텐츠 제작사 ‘이매지너스’는 지난해 500억원을 투자 유치했다. 2020년 12월 설립된 콘텐츠 지식재산권(IP) 기반 애그리게이터 ‘콘텐츠테크놀로지스’ 역시 지난해 11월 485억원 규모 시리즈A 투자 유치를 마쳤다. 종합 콘텐츠 기업 ‘바이포엠스튜디오’도 550억원을 투자받았다.올해 1월에도 콘텐츠 스타트업 투자는 계속되는 중이다. ‘외모지상주의’ ‘싸움독학’ 등 인기 웹툰을 만든 ‘더그림엔터테인먼트’가 140억원 시리즈A 투자를 받았고 ‘연모’ ‘카지노’ 등을 제작한 아크미디어도 투자 유치에 성공했다.콘텐츠를 만드는 데 도움을 주는 기술 인프라를 갖춘 스타트업도 각광받는다. AI 기반 동영상 자막 제작과 번역 기능을 제공하는 기술 스타트업 ‘보이스루’는 카카오 글로벌 웹툰 자회사 ‘카카오픽코마’가 올해 1월 200억원에 인수했다. 하이브는 마찬가지로 올해 1월, AI 음성 합성 솔루션 기업 ‘수퍼톤’에 450억원을 투자해 총 56.1%의 지분을 확보했다. 수퍼톤은 공중파 방송에서 가수 김광석 목소리를 그대로 재현해내며 관심을 모았던 AI 오디오 기술 전문기업이다. 최근 인기 드라마 ‘카지노’에서는 수퍼톤이 세계 최초로 개발한 ‘AI 보이스 디에이징’ 기술을 적용해 배우 최민식의 30대 시절 목소리를 재현해내며 화제몰이를 하기도 했다.이 밖에 크리에이터를 위한 콘텐츠 공간 예약과 커뮤니티를 운영하는 ‘빌리오’, 블록체인 기반 웹 3.0 게임 플랫폼 ‘인텔라’, K팝 아티스트 음반·영상을 담은 앨범 키트를 만드는 ‘미니레코드’ 역시 올해 1월 시리즈A 투자 유치에 성공한 스타트업이다.콘텐츠 기반 스타트업이 불황에도 주목받는 이유는 풍부한 ‘글로벌 수요’가 높은 평가를 받은 덕분이다. K-콘텐츠는 한류 열풍을 등에 업고 2023년에도 고공비행 중이다. 글로벌 온라인 동영상 서비스(OTT) 넷플릭스는 올해 역대 최다인 34편의 한국 콘텐츠를 플랫폼에 올릴 예정이다. 지난해 넷플릭스 전체 사용자 60%가 한국 콘텐츠를 시청했을 정도로 좋은 반응을 얻자 지난해(25편)보다 방영 계획을 크게 늘렸다. 2021년에는 15편이었다. 강동한 넷플릭스 한국 콘텐츠 총괄 부대표(VP)는 “지난해 한국 콘텐츠는 90개국 이상에서 정기적으로 글로벌 톱10에 오를 정도로 인기가 많았다. 넷플릭스에서 가장 많이 본 프로그램 중 3개가 한국에서 제작됐을 정도”라고 말했다.최근 카카오엔터테인먼트가 유치한 1조2000억원 규모 해외 투자도 달라진 K-콘텐츠 위상을 보여준다. VC업계 관계자는 “사우디아라비아 국부펀드 퍼블릭인베스트먼트(PIF)와 싱가포르 피랩인베스트먼트가 참여한 이번 투자는 한국 콘텐츠 시장이 글로벌에서 돈이 된다는 걸 입증한 사례”라며 “콘텐츠 기반 스타트업에 동기 부여가 됐을 것”이라고 설명했다. 자료:스타트업얼라이언스,더브이씨2023년 1월 투자 유치 성공한 곳은팬데믹 여파…헬스케어·친환경 ‘각광’2023년 새해에는 어떤 스타트업이 투자 유치에 성공했을까. 스타트업 투자 DB 기업 ‘더브이씨(THEVC)’ 자료를 분석한 결과 올해 1월 1일부터 1월 31일까지 투자 유치에 성공한 기업은 83곳이다. 투자 금액을 밝히지 않은 곳은 31곳. 투자 금액이 공개된 57곳의 평균 투자 유치 금액은 약 410억원이다. 단, 1조2000억원에 달하는 초대형 투자를 받은 카카오엔터테인먼트를 제외하고 계산하면 평균 투자액은 195억원 수준으로 확 떨어진다. M&amp;A와 상장(IPO)을 제외한 순수 투자에 국한하면 107억원 정도다.올해 1월 투자 유치에 성공한 곳 중 가장 눈에 띄는 분야는 ‘헬스케어·의료’다. 투자받은 기업 중 10곳이 헬스케어 업체다. 코로나 팬데믹 이후 건강에 대한 관심이 꾸준히 증가하고 있다는 해석이 가능하다. *자료:더브이씨기업 면면을 살펴보면 같은 헬스케어 서비스지만 세부 분야가 다양하다. 한의학 전문가 커뮤니티 ‘메디스트림’을 운영하는 ‘인티그레이션(시리즈B, 100억원)’, 심리 상담·마음 치유 플랫폼 ‘마인드카페’를 서비스하는 ‘아토머스(시리즈B, 60억원)’, 환자·병원·약국을 연결하는 비대면 진료 서비스 ‘메듭’을 운영하는 ‘메디르(프리A, 45억원)’, 당뇨병 진단·모니터링 전문기업 ‘오렌지바이오메드(프리A, 10억원)’ 등이 대표적이다. 이 밖에 AI 기반 항체 치료제를 개발하는 ‘에이인비’, 수면 유도 앱 ‘미라클나잇’을 운영하는 ‘무니스’, 바이오 빅데이터 전문기업 ‘쓰리빅스’ 역시 올해 투자 유치에 성공한 헬스케어 기업이다.‘친환경’ 관련 제품이나 서비스를 제공하는 스타트업 약진도 두드러진다. 팬데믹 이후 폐기물이 급증했고 각국 정부가 저마다 탄소 배출 최소화 정책을 적극 펼친 결과로 해석된다.폐기물 서비스 ‘업박스’ 운영사 ‘리코’는 최근 시리즈B 145억원 투자 유치에 성공했다. 업박스는 폐기물 배출 환경 조성부터 운반, 데이터 관리까지 폐기물 관리 전반을 담당하는 기업형 폐기물 수집 운반 토털 서비스다.배터리 관련 투자도 활발하게 이뤄졌다. 바나듐 소재 이차전지 전문기업 ‘에이치투’는 최근 230억원 시리즈C 투자를 마무리했다. 누적 투자 유치액은 562억원으로 이차전지 스타트업 중에서는 액수가 가장 크다. 바나듐 이차전지는 바나듐 수용액을 전해액으로 사용하는 덕분에 기존 리튬 이온 전지 대비 화재 위험성이 낮고 수명이 길다는 장점이 있다.이차전지 리사이클링 전문 업체인 ‘타운마이닝캄파니(TMC)’는 최근 아이에스동서가 완전 인수를 결정하며 주목받았다. 지난 1월 4일 아이에스동서는 TMC 지분 100%를 2275억원에 인수하기로 결정했다. 아이에스동서는 최근 폐배터리 활용 사업에 특히 힘을 주는 모습이다. 2019년 국내 건설 폐기물 처리 시장 1위 업체 인선이엔티와 그 자회사인 폐자동차 처리업계 1위 인선모터스를 인수한 데 이어 올해 1월에는 이차전지 원재료 추출 기술을 보유한 배터리 리사이클 업체 리시온 지분을 확보해 국내 독점 사업권을 따내기도 했다.헬스케어와 친환경 관련 스타트업 외에도 올해 200억원 이상 투자 유치에 성공한 스타트업이 6개나 된다. 액수로 따지면 핀테크 소프트웨어 개발사 ‘아데나소프트웨어’가 최고다. 국내 사모펀드 E&amp;F프라이빗에쿼티로부터 300억원 자금 조달에 성공하며 기업가치는 5000억원 이상을 인정받았다. 2016년 정승우 대표가 설립한 스타트업으로 해외 외환과 지급 결제 관련 기업이 필요로 하는 웹 사이트 제작부터 고객 관리(CRM), 외환 거래, 위험 관리 솔루션까지 개발한다.이 밖에 온라인 투자 연계 금융 업체 ‘피플펀드(시리즈G, 247억원)’, 에너지 효율화 건축 플랫폼 ‘에너지엑스(시리즈B, 203억원)’도 200억원 이상 투자를 받은 스타트업이다. 산업용 자율주행 물류 운송 로봇을 만드는 ‘시스콘(시리즈A)’, 국내 최초 민간 과학 로켓 ‘블루웨일’을 개발하는 ‘페리지에어로스페이스(프리IPO)’ 역시 나란히 200억원 투자 유치에 성공했다.[본 기사는 매경이코노미 제2195호 (2023.02.08~2023.02.14일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>‘토스뱅크 모임통장’ 돌풍…출시 일주일만에 7만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005421441?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>9초에 하나씩 신규 계좌…‘공동모임장’ 기능 통했네[이데일리 정두리 기자] 토스뱅크는 지난 1일 출시한 ‘토스뱅크 모임통장’이 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다고 9일 밝혔다. 이는 9초에 하나씩 신규 계좌가 개설된 것으로, ‘토스뱅크 모임통장’은 전례 없는 성장 속도를 보여주며 출시 초반부터 흥행을 이어가고 있다. ‘토스뱅크 모임통장’은 모임원이라면 누구나 출금 및 카드 발급, 결제까지 가능하게 한 ‘공동모임장’ 기능을 최초로 도입해 그 동안 혼자서 모든 자금을 관리하던 모임장의 부담을 덜고 모임 회비 관리 편의성과 투명성을 한 차원 높였다. ‘토스뱅크 모임통장’을 신규 개설하거나 모임원으로 참여한 고객의 연령대 분포를 보면 △10대 (11.13%) △20대(28.34%) △30대(25.28%) △40대(20.32%) △50대(11.53%)로 2040 세대에서의 고른 인기를 중심으로 10대와 50대까지 높은 비중으로 유입되고 있는 것으로 확인됐다. 출시 일주일만에 구성원이 50명이 넘는 대규모 모임통장도 개설됐다.아울러 ‘토스뱅크 모임통장’은 ‘공동모임장’ 기능과 더불어 하루만 맡겨도 연 2.3%(세전)의 높은 금리를 제공한다. 또한 모임활동에 특화된 캐시백 혜택을 담은 모임카드를 공동모임장이라면 누구나 발급받을 수 있게 했다. 현재까지 개설된 모임통장 6개 중 1개(약 16%) 꼴로 모임통장에 참여한 구성원 모두 ‘공동모임장’이 돼 출금과 카드 발급 및 결제 권한을 공유하고 있다. 구성원 모두가 공동모임장으로서 자신의 명의로 모임카드를 발급 받아 사용하고 체크카드 연말 정산 혜택도 각자가 투명하고 평등하게 받을 수 있다. 이러한 차별화된 기능은 연말 정산이 중요한 맞벌이 부부의 생활비 통장이나 가족 모임통장에서부터 운영진이 다수인 대규모 모임통장까지 유용하게 활용될 수 있다. 토스뱅크 관계자는 “출시 초기부터 저희 모임통장에 뜨거운 관심과 애정을 보여주시는 고객님들께 진심으로 감사드린다”며 “모임의 규모나 성격에 상관 없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀기울이며 기능과 혜택을 강화해 나갈 것”이라고 밝혔다.모임통장 출시를 기념해 진행하는 ‘모임지원금 이벤트’도 다음 달 말까지 계속된다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금이 지원돼 모임 규모가 커질수록 받아갈 수 있는 혜택의 크기도 같이 커진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>정희수 생명보험협회장 “노후 대비 국민연금으론 한계… 사적연금 활성화해야”</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000877030?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>생명보험협회, 2023년 신년 기자간담회 개최 “연금소득 분리과세 2400만원으로 상향해야”  “올해 생보사 요양·상조업 서비즈 진출도 지원”생명보험협회가 13일 서울 광화문센터포인트빌딩에서 기자간담회를 진행하고 있는 모습. /생명보험협회 제공        ”가장 보편적이고 1차적인 노후 대비 수단인 국민연금은 소득대체율 저하와 재정고갈 위기로 개혁이 불가피합니다. 초고령화 사회에서 더는 공적연금 영역에만 의존할 수 없는 상황입니다.”정희수 생명보험협회장은 13일 신년 기자간담회에서 “생보 산업은 사적연금 영역에서 국민의 노후를 책임져 온 사회안전망으로 국가적 위기에 맞서 역할을 재정비하겠다”면서 이렇게 말했다. 사적연금이란 개인이 스스로 노후를 준비하기 위해 가입하는 개인연금이나 기업이 직원의 연금 납입을 지원하는 기업연금 등을 말한다.최근 정부는 국민연금 기금 고갈에 대비해 제도 개혁을 추진하고 있다. 정부의 개혁 방향은 보험료율 인상과 연금수급개시 연령 연장과 같은 모수개혁 방식이다. 즉 ‘더 내고, 늦게 받자’는 방식으로, 결국 국민의 안전한 노후 대비를 위해선 사적연금의 역할을 빠르게 강화해야 한다는 것이다.전국에 한파특보가 내려지는 등 매우 추운 날씨가 이어진 지난달 25일 서울 종로구  한 무료급식소에 앞에서 어르신들이 배식을 기다리고 있다. /뉴스1        하지만 사적연금 활성화를 위한 정부의 지원책인 세제혜택도 크지 않으며, 가입 및 연금화를 유도하는 기능도 미미하다는 지적이 나온다. 정 회장은 “사적연금 활성화를 위해 장기연금 수령에 대한 조세 지원을 강화하겠다”며 “구체적으로 퇴직급여의 10년 초과 및 종신연금수령시 소득세 감면율을 확대, 연금계좌 저율 분리과세 한도 확대를 추진하겠다”고 밝혔다.이미 김희곤 국민의힘 의원이 생보협회 등 관련 이해관계자와의 논의를 통해 연금소득 분리과세 한도를 연 1200만원에서 2400만원으로 상향하는 법안을 지난 1일 제출했다. 이 법안에는 퇴직연금에 대한 원천징수 세율을 낮춰 수령 연차가 10년을 초과하면 세율을 100분의 60에서 100분의 50으로 인하하고, 퇴직연금을 사망할 때까지 종신계약을 통해 수령하면 원천징수 세율을 100분의 30으로 인하하는 내용도 담겼다.정 회장은 “퇴직연금 시장 활성화는 생보사를 넘어 증권사, 은행 등 모든 업권이 관심을 가지고 추진해야 하는 상품이다”라며 “국회 소관위인 기획재정위원회를 상대로 해당 법안이 통과될 수 있도록 설득하겠다”고 강조했다.왼쪽부터 삼성생명, 한화생명, 교보생명 사옥 전경. /각 사 제공        또 생보협회는 올해 보험사들의 고령층 서비스 확대 차원에서 생보사의 요양·상조업 진출을 지원하겠다고 밝혔다. 정 회장은 “생보사의 요양사업 진출 활성화를 위해 요양시설 설치 시 민간 소유지 건물 임차 허용 등을 정책당국과 협의하겠다”고 말했다.현재 민간 요양사업을 위해서는 공공부지를 임차하거나 토지 소유권을 가져야 하는데, 부동산에 드는 초기 비용 때문에 생보사들의 진출이 더디다는 게 협회 측 설명이다.정 회장은 생보사들의 상조업 진출을 위해선 기존 사업자들과 공생 방안을 마련하겠다는 방침이다. 그는 “보험사들이 상조 시장에 진출하면 기존 상조 기업의 반발이 클 수 있다”며 “생보사들이 새로운 상조회사를 자회사로 설립하는 것보다는 재정 상황이 어려운 기존 상조회사들을 인수하는 것을 지원하고자 한다”고 말했다.정 회장은 금융당국의 규제 완화로 네이버, 카카오, 토스 등 빅테크 기업이 추진하는 온라인플랫폼 보험 상품 비교·추천 서비스 출범에 대해서도 우려를 나타냈다. 금융위원회는 이달 중 보험 비교·추천 서비스와 관련된 구체적인 가이드라인을 마련하고, 이르면 4월에는 서비스를 시작할 수 있도록 할 계획이다. 그러나 수수료 상한이나 자동차보험 포함 여부 등을 놓고 보험업계와 빅테크 간 입장 차이가 팽팽하다. 정 회장은 “생보업계의 기본적인 입장은 빅테크 기업들이 서비스 편의를 명분으로 비용을 생보사와 소비자에게 전가해서는 안 된다는 것”이라고 말했다.또 그는 최근 화제를 모으고 있는 인공지능(AI) 챗봇 ‘챗GPT’에 대해 “GPT가 보험금 지급심사나, 소비자 상담 부분 등에서 활용할 수 있을 것으로 전망한다”면서 “다만 일자리 유지에 충격을 줄 수 있고 보험 범죄에도 활용될 수 있어 염려되는 부분도 크다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스모바일 선전포고에 이통사 "글쎄" 알뜰폰 "자본력 횡포"</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003254693?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>이통사 "이름값 있는 알뜰폰에 그칠수도"가격 경쟁력 기대에 부응하지 못해알뜰폰업계 "불공정 행위" 반발알뜰폰을 홍보하고 있는 휴대폰 판매점. 연합뉴스금융사인 KB국민은행에 이어 토스까지 알뜰폰 시장에 출사표를 던지자 이동통신업계의 표정이 탐탁지 않다. 경쟁 대상으로 지목된 이통사는 흥행 가능성에 물음표를 던지며 시큰둥한 모습이다. 알뜰폰업계는 금융사의 자본력 횡포라며 강하게 반발하고 나섰다.31일 이통업계 관계자는 "메기효과와 같은 큰 충격을 줄지는 지켜봐야 알 것으로 보인다"며 "킬러 서비스를 내놓지 않는 이상 이름값이 있는 알뜰폰에 그칠 수 있다"고 했다.앞서 토스는 이통사 대비 요금이 20%가량 저렴한 것을 강점으로 내세웠다. 경쟁 대상이 알뜰폰이 아닌 이통 3사라는 점을 시사한 것이다. 이를 바라본 이통사는 출시 초기 토스의 행보를 예의주시하면서도 당장의 위협이 될지는 미지수라는 입장이다.또 다른 이통업계 관계자는 "조금만 보태면 이통사 무제한 요금제에 가입할 수 있는데 가격 경쟁력이 있는지 의구심이 든다"며 "3개월 할인 프로모션이 지난 뒤의 성과를 살펴봐야 할 것으로 보인다"고 했다.이런 분위기와 달리 알뜰폰업계는 금융사가 중소 사업자들의 입지를 흔들고 있다며 불편한 심기를 숨기지 않았다. 특히 정부의 점유율 규제 도입 가능성에 촉각을 곤두세우고 있는 이통사 알뜰폰 자회사들은 아무 제한 없이 금융사가 시장에 진출하는 상황에 강한 불만을 표출했다. 알뜰폰업계 관계자는 "토스처럼 영향력 있는 사업자가 들어오면서 알뜰폰이 더 확산할 것으로 기대되기는 한다"면서도 "막대한 자본력을 바탕으로 무분별한 경쟁 심화가 우려된다"고 말했다.경기 침체 장기화에 가계 통신비를 줄이려는 시도가 맞물려 알뜰폰은 본격적인 개화기를 맞았다. 과학기술정보통신부의 2022년 11월 무선통신서비스 가입 현황을 보면 알뜰폰 가입자는 1263만8794명으로 전체의 16.44%를 차지했다. 과거의 '아재폰' 이미지를 벗고 불필요한 약정과 혜택을 뺀 합리적 요금제로 인기를 얻고 있다.그런데 공격적인 프로모션으로 신규 가입자 유치에 나선 이통 3사의 자회사(5개사) 점유율이 절반을 넘어서자 규제 도입의 필요성이 제기됐다.공정거래위원회의 독과점 시장 분석 결과를 보면 SK텔레콤(SK텔링크)과 KT(KT엠모바일·KT스카이라이프), LG유플러스(LG헬로비전·미디어로그) 자회사의 점유율은 2020년 42.4%에서 2021년 50.8%로 8.4%포인트 늘었다. 대부분의 고객이 이미 친숙한 브랜드의 알뜰폰 상품을 선택했기 때문으로 풀이된다.정부는 2014년 이통사 자회사의 합산 점유율이 50%를 넘으면 영업을 제한하는 등록 조건을 걸었지만 가입이 폭증한 사물인터넷(IoT) 회선으로 인해 통계가 왜곡되면서 사실상 효력을 잃었다. 이에 양정숙 의원은 제대로 교통정리를 해 규제가 제대로 작동할 수 있는 발판을 마련해야 한다고 수년 전부터 외치고 있다.하지만 금융사 알뜰폰을 향한 지적은 찾아볼 수 없다. 이통사 자회사들이 억울한 이유다. 그 사이 KB국민은행의 알뜰폰 서비스 리브모바일은 누적 가입자 40만명을 바라보며 순항하고 있다.이와 관련해 중소 사업자를 포함한 알뜰통신사업자협회는 지난달 11일 성명에서 "거대 금융기관의 시장 파괴적인 요금 할인이나 사은품의 재원이 혁신으로 창출한 것이 아니라 서민들로부터 거둬들인 막대한 이자 수익에서 나온다"며 "자본력을 경쟁의 수단으로 활용해 가입자를 빼가는 불공정한 행위를 막을 수 있는 제도적 장치를 마련해줄 것을 촉구한다"고 했다.정길준 기자 kjkj@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.02.06.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>"해외 결제에 딱 맞췄다"…내게 맞는 카드는? [송영찬의 핀테크 짠테크]</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004807288?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>코로나19 팬데믹(대유행)으로 굳게 닫혀있던 세계 각국의 국경이 활짝 열리면서 겨울 휴가로 해외를 찾는 사람들이 늘고 있습니다. 해외여행을 계획하는 많은 분들은 높은 해외 결제 수수료가 걱정돼 카드보다는 고액의 현금을 환전해가는 걸 선호합니다. 하지만 자신에게 잘 맞는 해외 결제 특화 카드를 사용하면 현금을 환전해 들고 다니는 것보다 안전하고, 무엇보다 환차손도 더 줄일 수 있습니다. 카드는 '해외 결제 수수료' 면제가 핵심  지난달 19일 설 연휴를 이틀 앞둔 인천공항 출국장./ 김병언 기자최근 많은 금융회사들은 해외 결제에 특화된 카드들을 내놓고 있습니다. 해외에서 카드로 결제할 때 드는 각종 수수료를 면제해주고, 결제시 환율도 크게 우대해주는 방식입니다. 먼저 하나카드의 ‘비바 X 체크카드’는 해외 서비스 이용 수수료와 국제 카드 브랜드 수수료를 모두 면제해줍니다. 국내 신용카드나 체크카드로 해외에서 결제하면 일반적으로 결제액의 1% 안팎의 카드 브랜드(비자·마스터카드·아멕스 등) 수수료와 건당 0.5달러 내외(하나은행 기준)의 해외 이용 수수료가 부과됩니다. 비바 X 체크카드는 일반 국내 체크카드지만 해외에서 결제할 때 이같은 수수료 면제를 핵심 혜택으로 내세우는 상품입니다. 해외에서 결제하면 수수료 없이 결제할 당시의 환율이 적용돼 연결된 원화 계좌에서 빠져나가는 방식이죠.이처럼 결제할 당시 환율이 적용돼 원화계좌에서 빠져나가는 상품은 비교적 환율이 낮을 때나 환율이 떨어지고 있을 때 유리합니다. 이럴 땐 굳이 현금을 환전해서 가져가는 것보다 오히려 환차손을 크게 줄일 수 있습니다.지난 2일 오후 서울 명동 하나은행 위변조대응센터에서 직원이 업무를 보고 있다. / 최혁 기자반대로 환율이 크게 오르는 시기나 불안정한 시기에 유리한 종류의 카드도 있습니다. 바로 외화 충전식 카드입니다. 국내 스타트업 트래블월렛이 내놓은 ‘트래블페이 카드’가 대표적인 외화 충전식 카드입니다. 결제할 때마다 당시의 환율이 적용돼 계좌에서 빠져나가는 방식이 아니라 미리 환전해서 가상계좌에 충전해 놓은 돈에서 결제액이 빠져나가는 방식입니다. 환율이 낮을 때 미리 충전해 놓을 수 있기 때문에 현금을 환전해가는 것의 장점과 카드 결제의 장점을 동시에 갖고 있습니다.트래블월렛의 경우 달러·엔·유로 등 주요통화는 100% 환율우대를 적용해줍니다. 이밖에도 기타 28개 통화를 지원하는데 이들 통화에 대해서는 0.5~2.5%의 환전 수수료를 부과합니다. 충전된 금액에서 결제액만큼 빠져나가는 방식이기 때문에 여행 경비를 정해놓고 아껴서 쓰실 분들이라면 총 얼마를 환전해서 얼마를 썼는지 파악하기에 좋다는 장점이 있습니다. 현지의 비자 로고가 붙어있는 자동화입출금기(ATM)에서 출금할 때도 1회 400달러, 월 500달러 이하에 한해 출금 수수료를 면제해주는데요. 다만 현지 ATM에 따라 인출 수수료 폭탄이 발생할 수 있기 때문에 출금 전 반드시 미리 확인해보셔야 합니다. 하나카드에서도 '트래블로그'라는 외화 충전식 카드 상품을 갖고 있습니다. 사실상 하나카드에서 트래블월렛을 겨냥해 내놓은 상품인 만큼 방식도 혜택도 큰 차이가 없습니다. 해외 이용 수수료와 국제브랜드 수수료, 해외 ATM 인출 수수료도 면제해줍니다. 다만 트래블월렛과 달리 트래블로그는 8개 통화만 지원해줍니다. 지원하는 통화의 수는 적지만 트래블로그의 경우 오는 8월 말까지 중국, 싱가포르, 캐나다, 호주에 대해 100% 환율우대 이벤트를 진행중이기 때문에 이 세 국가를 갈 경우엔 환전 수수료가 부과되는 트래블월렛에 비해선 트래블로그가 더 유리합니다. 해외에서 결제할 때 막강한 캐시백 혜택을 앞세운 카드도 있습니다. 바로 토스뱅크 체크카드입니다. 토스뱅크 카드는 해외에서 결제할 때마다 결제액의 3%를 캐시백해줍니다. 결제할 때마다 돈을 돌려주니 굳이 현금을 쓰는 것보단 유리해 보입니다.단, 해외 캐시백엔 함정이 있습니다. 토스뱅크 카드의 경우 결제 건당 3%의 캐시백을 제공하는 대신 앞서 설명드린 상품들이 면제해주는 1%의 국제브랜드 수수료와 건당 0.5달러의 해외서비스 수수료는 부과합니다. 다시 말해, 해외 결제 수수료 총액보다 캐시백해주는 금액이 더 클 때만 효용이 있습니다. 미국에서 20달러를 토스뱅크카드로 결제한다고 가정해보겠습니다. 20달러를 결제하면, 국제브랜드 수수료 0.2달러와 건당 해외서비스수수료 0.5달러가 붙겠죠? 그러면 총 20.7달러가 결제되고, 20달러의 3%인 0.6달러가 캐시백 됩니다. 3%의 수수료가 붙는다고 해도 실제로는 0.1달러의 수수료가 더 나간다는 걸 알 수 있습니다.그렇다면 50달러를 결제하면 어떨까요? 50달러를 결제하면 국제브랜드 수수료 0.5달러와 건당 해외서비스 수수료 0.5달러로 총 1달러가 수수료로 나가는 대신, 캐시백으로 50달러의 3%인 1.5달러가 캐시백되니 0.5달러가 돌아온다는 걸 알 수 있습니다. 대략 미화 30달러 이상일 경우엔 토스뱅크 카드로 결제하면 이득입니다. 서랍 속 외화가 많아도 카드 결제에 활용할 수 있어먼저 해외 결제 특화 카드를 발급받기에 앞서서 방문하는 국가의 통화를 기존에 얼마나 갖고 있는지를 확인하는 게 좋습니다. 예전에 여행·출장 등에서 사용하고 남은 외화가 서랍 속에 있다면 해당 외화도 카드 결제에 활용할 수 잇기 때문입니다.‘현금은 현금이고 카드는 카드지, 무슨 현금을 카드 결제에 활용하느냐’고 하시는 분들도 계실텐데요. 쉽게 말해 외화 체크카드를 활용하는 방식입니다. 신한카드의 ‘체인지업 카드’는 해외에서 결제할 경우 신한은행의 외화 계좌에서 돈이 빠져나갑니다. 하나 비바X 체크카드의 경우 신한 체인지업 카드와 마찬가지로 체크카드였지만 결제액이 원화로 환산돼 원화 계좌에서 빠져나갔지만, 이 상품은 애당초 외화 계좌에서 돈이 빠져나가는 겁니다. 이 때문에 기존에 갖고 있던 달러가 있다면 가까운 신한은행 영업점에 방문해 외화계좌에 달러를 입금한 다음, 해외에서 이 카드로 결제하면 해당 외화를 직접 들고 가지 않아도 사용할 수 있습니다. 달러를 사용하는 곳에서 가장 효율이 좋습니다.국내 소비자금융 철수 관계로 신규 발급은 중단됐지만 사실 한국씨티은행의 ‘글로벌월렛 카드’가 대표적인 외화 체크카드입니다. 글로벌월렛의 경우 달러 뿐 아니라 총 6개의 외화통화를 선택해 각각의 외화 계좌를 만들고 해당 통화를 사용하는 국가에서 결제하면 이 계좌에서 돈이 직접 빠져나가기 때문에 범용성이 더욱 넓습니다. 국제브랜드 수수료, 해외 이용 수수료 모두 면제되고 한국에서 체크카드 쓰듯이 결제액만큼이 깔끔하게 외화 계좌에서 빠져나갑니다.특히 해외에서 체크카드로 결제할 경우엔 승인시점에 돈이 빠져나가지 않고 카드사가 해당 건을 매입하는 매입시점에 돈이 빠져나가는 경우가 많습니다. 그런데 해외결제의 경우 승인시점과 매입시점 간의 시간차가 크게 벌어지는 경우가 종종 있습니다. 원화 계좌에서 돈이 빠져나가는 방식의 체크카드는 최근처럼 환율이 짧은 시간 동안 요동칠 땐 내가 예상한 결제액과 실제로 결제된 금액 간의 차이가 큰 경우가 많습니다. 외화 계좌에서 빠져나가는 경우엔 환율의 영향을 받지 않기 때문에 이런 점에서 유리합니다.특히 미국 등 팁 문화가 있는 국가를 갈 경우엔 승인시점과 매입시점 간 차이가 더 벌어지기도 합니다. 식당에서 식사를 하고 카드로 결제할 경우 먹은 밥값에 대해 결제한 뒤 영수증에 팁을 적어내면, 먼저 식사 금액에 대해서만 결제가 된 뒤 식사 금액과 팁을 포함한 금액이 '무승인 매입'이라는 방식으로 결제가 되는 경우가 있기 때문입니다. 이 경우 팁을 포함한 '무승인 매입' 건이 승인되는 순간 밥값만 있던 앞의 결제가 취소되는 방식입니다. 무승인 매입건 승인이 늦어지는 사이 환율이 크게 올랐다면 원화로 환산돼 결제되는 카드라면 환차손이 발생합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.02.04.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>"멸종 '도도새' 되살린다"...美 스타트업, 하루만에 1800억 뭉칫돈</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004847283?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[편집자주] '글로벌 스타트업씬'은 한주간 발생한 주요 글로벌 벤처캐피탈(VC) 및 스타트업 소식을 전달하는 코너입니다. 이에 더해 국내 스타트업 시장에 미칠 영향과 전망까지 짚어드립니다.[[글로벌 스타트업씬] 2월 1주차 핫뉴스]인간의 탐욕으로 멸종된 '도도새'가 부활할 수 있을까. 인도양 모리셔스에서 서식했던 도도새는 1505년 포르투갈인에게 처음 발견된 후, 무분별한 포획이 이뤄지면서 약 100년 만에 사라진 생물이다. 미국의 한 생명과학 스타트업이 도도새를 부활시키겠다고 나서자 하루만에 1800억원이 넘는 투자자금이 몰렸다.한편, 글로벌 스타트업씬을 뜨겁게 다룬 또다른 키워드는 '챗GPT'다. 지난해 오픈AI가 선보인 인공지능(AI) 챗봇 '챗GPT'가 사람에 버금가는 압도적인 기술력을 자랑하면서 AI 투자 열기가 달아오르고 있다. '챗GPT' 열풍이 거세게 불자 많은 스타트업이 'AI'를 내세워 홍보에 나서고 있다. 니코 보나토스(Niko Bonatsos) 제너럴 캐피탈리스트 심사역은 "AI는 오늘날 중력이 적용되지 않는 유일한 곳"이라며 AI 기업의 주가 고공행진을 빗대어 표현했다.━멸종 도도새 부활 프로젝트에 하루만에 1800억 몰려 ━콜로설 바이오사이언스 창업자 벤 램(Ben Lamm, 좌), 조지 처치(George Church)/사진=콜로설 바이오사이언스미국의 생명과학 스타트업 '콜로설 바이오사이언스'(Colossal Biosciences, 이하 콜로설)가 멸종된 도도새를 복원하겠다고 나섰다. 콜로설은 1984년 세계 최초로 인간 유전자의 염기서열을 결정하는 방법을 개발한 조지 처치(George Church) 하버드대 의대 유전학과 교수가 벤 램(Ben Lamm) 하이퍼자이언트 전 대표(CEO)와 함께 설립한 회사다.블룸버그통신, CNN 등 외신에 따르면 콜로설 과학자는 유전자(DNA) 기반 도도새 프로젝트를 진행 중이다. 연구진은 덴마크 자연사박물관에 있는 도도새 표본에서 추출한 DNA로 도도새의 유전정보 서열을 분석하는 데 성공했다. 멸종된 도도새의 복원 가능성에 대한 기대감이 높아지면서 지난달 31일(현지시각) 하루에만 투자금 1억5000만 달러(약 1847억원)가 몰렸다. 앞서, 2021년 9월 처치 교수는 매머드 복원 프로젝트를 진행하며 1500만 달러(약 176억원)의 투자금을 유치한 바 있다. 당시, 처치 교수 연구진은 코끼리 조작 유전자 코드를 완성한 후, 인공자궁이나 살아 있는 코끼리 등을 통해 코끼리-매머드 배아를 만들어 낼 계획이라고 밝혔다. 회사는 매머드 송아지를 2028년까지 생산할 계획이라고 밝혔다. ━'챗GPT 열풍'에 너도나도 'AI' 끼워넣는 美 스타트업━/사진=APF사람처럼 소설도 쓰고 시도 쓰는 '챗GPT'가 전세계적인 주목을 받자 미국 스타트업들의 홍보전략에도 변화가 감지된다. AI와 전혀 관계없는 기업들이 AI를 키워드를 끼워넣어 반사효과를 노리는 것으로 풀이된다. 블룸버그통신에 따르면 최근 파워포인트 제작도구 개발 스타트업은 사용자가 AI를 활용해 파워포인트를 자동으로 작성할 수 있는 서비스를 출시했다고 밝혔다. 블룸버그통신은 올해 초 배포한 보도자료에서는 AI에 대한 언급이 없었다고 꼬집었다. 심지어는 신발을 홍보하는 보도자료에서도 AI 키워드가 등장하기도 했다. 이러한 홍보 효과가 빛을 발하는 경우도 있다. 미국 온라인 매체 버즈피드가 대표적이다. 버즈피드는 맞춤형 콘텐츠와 퀴즈 제작에 챗GPT를 활용한다고 발표하자, 지난주 주가가 300% 이상 급등했다.일부 투자자들은 무분별하게 AI회사로 탈바꿈하려는 스타트업에게 경고의 메시지를 보내기도 했다. 웨슬리 찬(Wesley Chan) FPV벤처스 공동 설립자는 "투자유치를 받는 보험 스타트업이 뜬금없이 AI 키워드를 넣어 소개했다"며 "이는 AI를 단순 유행어로 활용하고 있는 현상의 대표적 사례이며, 이 기업은 투자유치에 성공하지 못했다"고 말했다. ━유럽 VC 투자 5건 중 1건은 CVC, 역대 최대 비율 기록━지난해 유럽지역의 벤처캐피탈(VC) 투자 5건 중 1건은 기업형 벤처캐피탈(CVC) 투자 건수로 집계됐다. CVC는 비금융권 일반기업이 설립한 벤처캐피탈을 말한다. 스타트업에 투자해 재무적 이익을 얻는 VC와 달리, CVC는 재무적 목적 외에도 모기업의 사업 확장, 기술이나 인력 확보, 신시장 개척 등 전략적 목적으로 투자를 단행한다. 글로벌 시장조사업체 피치북(PitchBook) 데이터에 따르면 글로벌 CVC들은 지난해 2375건의 투자 라운드에 463억 달러(약 57조 184억원)를 투자했다. CVC들이 유럽 스타트업에 투자한 건수는 2021년(2661건)보다 소폭 감소했지만 유럽의 VC 투자 중 CVC 투자 비율은 21.7%로 역대 최대 기록을 달성했다. 유럽지역에 투자한 글로벌 CVC들은 후기 라운드에 집중한 것으로 나타났다. 유럽에 투자한 CVC의 37.3%가 후기 라운드 투자로 집계됐다. 독일 자동차기업 포르쉐의 CVC 포르쉐 벤처스는 테슬라 라이벌로 유명한 '리막'의 시리드D 투자에 5억 유로(약 6691억원)를 투자했다. 포르쉐벤처스 외에도 소프트뱅크 비전펀드, 골드만삭스, 폭스바겐 등이 투자했다.경기침체로 스타트업의 기업가치가 대폭 깎이자 스타트업 투자를 통해 신성장 동력을 찾는 기업의 전략과 맞물린 결과로 풀이된다. 피치북은 "CVC의 투자는 경기침체기에 더욱 활발해질 수 있다"며 "재무적 이익 뿐만 아니라 신기술에 접근하거나 새로운 시장에 진출하며 사업을 확장할 기회"라고 말했다. 스타트업에게도 CVC의 투자는 긍정적일 수 있다. 피치북은 "스타트업은 경기침체에 대응하기 위해 CVC의 사업적 네트워크가 매력적으로 다가올 것"이라며 "전략적 투자유치를 통해 잠재적 고객에게 보다 수월하게 다가갈 수 있다"고 말했다. ━ 美 핀테크 '마케타', 신용카드 관리 플랫폼 인수━미국의 핀테크 기업인 마케타(Marqeta)가 2010년 설립 후 처음으로 인수합병(M&amp;A)에 나섰다. 인수 대상은 2021년에 설립한 핀테크 스타트업 '파워 파이낸스(Power Finance)다. 마케타는 최근 파워 파이낸스를 2억7500만달러(약 3380억원)에 인수한다고 밝혔다. 2021년 상장한 마케타의 시가총액은 37억 달러(약 4조5473억원)에 달한다. 법인에게 맞춤형으로 카드를 발급해주는 핀테크 플랫폼을 운영하고 있다. 구글, 우버, 골드만삭스 등을 고객으로 두고 있다. 신용카드나 직불카드부터 모바일 카드, 암호화폐 지갑카드까지 다양한 형태의 카드를 발급하고 있다. 파워 파이낸스는 신규 신용카드를 출시하는 기업 대상으로 신용카드 관리 서비스를 제공하는 스타트업이다. 파워 파이낸스는 추가적인 앱 설치 없이 기존 모바일 앱에서 카드를 신청하고 관리할 수 있도록 플랫폼을 제공하고 있다. 파워 파이낸스의 발급 플랫폼을 통해 기업들은 소비자 맞춤형 신용카드를 출시할 수 있으며, 맞춤형 프로모션과 보상까지도 기획할 수 있다. 파워 파이낸스 랜디 페르난도(Randy Fernando) CEO는 M&amp;A 이후 마케타 신용카드 플랫폼의 제품 관리 사업 영역을 맡을 예정이다. 이번 인수합병을 통해 마케타는 자사의 카드 발급 플랫폼에 파워 파이낸스의 신용카드 관리 기능을 추가할 계획이다. 마케타는 "이번 인수합병으로 매년 4조 달러 이상의 카드지출이 발생하는 미국의 결제시장에 대응할 수 있게 됐다"며 "경쟁 우위를 점하고 고객에게 종합적인 신용카드 관리 솔루션을 제공할 것"이라고 말했다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.02.11.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>걸으면 머니줍줍, 응답하면 커피줍줍…이렇게 돈 버네!</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000322407?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[설문조사 답하면 커피 쿠폰 주는 앱 '오베이'(왼쪽), 걸으면 돈처럼 쓰는 포인트 주는 증권 앱 토스의 '만보기'(오른쪽) (사진=각 어플 캡쳐)]걸으면서 돈을 모으고 설문조사를 하면서 커피 쿠폰을 받고, 고물가에 티끌을 모으고 필수 지출을 줄이며 생활을 하는 사람들이 늘고 있습니다.돈을 안 쓰는 '짜다'와 '재테크'의 합성어, 이른바 ‘짠테크’가 성행하고 있는 건데요.금융 플랫폼 토스는 지난 2019년 ‘만보기’라는 서비스를 내놓았는데, 이용자가 하루에 걷는 걸음 수만큼 토스 포인트를 지급해 현금처럼 사용할 수 있도록 했습니다.토스가 정한 특정 장소에 방문할 경우에 추가 포인트를 지급하는데, 이 만보기 서비스를 이용하면 하루에 최대 140원까지 벌 수 있습니다.지난 10일 토스에 따르면, 올해 1월 만보기 누적 사용자는 지난해 5월 대비 250만 명이 늘었습니다.또, 간단히 설문조사에 응답하면 포인트가 쌓이는 ‘오베이’라는 앱도 있습니다.이 앱에서 주어진 설문조사에 참여하면 최소 30에서 최대 1000포인트까지 지급하는데, 이때 포인트가 쌓이면 프랜차이즈 커피나 디저트 등을 사 먹을 수 있는 쿠폰으로 교환이 가능합니다.일명 '디지털 폐지줍기'로 불리는 앱을 이용한 짠테크는 참여 조건이 없고 휴대폰만 있으면 가능해 성인남녀 4명 중 3명이 사용해 본 경험이 있을 정도로 2030세대 사이에서 특히 확산하고 있습니다. 구정우 성균관대 사회학과 교수는 짠테크가 성행하는 분위기에 대해 "불황기를 맞아서 소소하지만 확실한 행복을 추구하는 경향이 짙어지고 있다“며, ”여기에 아껴 쓰고 투자하는 금융 관념이 더해져서 '짠테크'라고 하는 새로운 라이프 스타일이 확산하고 있는 것으로 보인다“고 말했습니다. 이렇게 앱을 이용한 짠테크를 하는 사람들은 평균적으로 하루에 312원을 버는 것으로 나타났습니다. HR테크 기업 인크루트가 성인남녀 1707명을 대상으로 조사한 결과, 한 달 기준으로 수익 범위를 보면, 3천원 미만을 버는 사람이 가장 많았고, 5천원에서 1만원 미만이 그다음으로 많았습니다. 한편, 줄이고 줄이다가 생활에 필수적인 비용도 줄이는 사람들도 많이 늘었습니다.직접 정가를 내고 음식을 사 먹는 대신, 기프티콘 등 e쿠폰을 이용하는 건데요.G마켓, 11번가 등 오픈마켓에서 프랜차이즈 쿠폰을 실제 가격보다 조금 저렴하게 판매하는 경우가 많습니다.그래서 이 쿠폰을 사서 식당이나 카페에서 카드로 결제하는 대신 해당 쿠폰으로 먼저 구입해 사용하는 것입니다.즉, 먹고 싶은 것은 먹되, 몇백, 몇천원이라도 지출을 줄이려는 노력인 겁니다.지난 10일 G마켓에 따르면, 지난달 외식 관련 e쿠폰 판매량이 전년보다 4배 넘게 늘었습니다.그중에서도 피자나 치킨, 레스토랑이나 뷔페, 베이커리나 도넛 쿠폰이 지난해보다 특히 잘 나갔습니다.또, 이마트24에 따르면, 편의점 마감 임박한 음식을 좀 싸게 판매하는 '라스트오더 서비스'가 지난 1월에 전달보다 이용자가 45% 증가했고, 편의점에서 판매하는 도시락을 구독해서 저렴하게 먹는 쿠폰도 20%가량 늘었습니다.필수 지출 비용인 통신비를 아끼려는 분위기도 확산하고 있습니다.60대 이상 어르신들이 많이 써서 '효도폰'으로 불렸던 알뜰폰이 이제는 짠테크를 하는 2030세대 사이에서 굉장히 인기입니다.KB알뜰폰 ‘리브모바일’에 따르면, 가입자의 60%가 2030세대일 정도로 젊은 세대의 가입이 크게 늘고 있습니다.간단히 편의점에서 유심칩을 구입하고 전화나 홈페이지를 통해 가입하면 통신비를 반값 넘게 줄일 수 있어, 기존 통신 3사 가입을 해지하고 알뜰폰을 신규 가입하는 사람들이 늘고 있습니다.지난해 11월 기준 1년 사이 알뜰폰을 신규 등록한 수는 약 200만 개였는데, 이 수치가 동일한 기간 동안의 통신 3사 증가분을 합친 수보다 30만 개가량 많았습니다.[이마트24 마감 할인 '라스트오더' (사진=이마트24)]</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>타다-아이엠택시 합병 추진…카카오모빌리티 대항마 만든다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004805934?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카 타다 인수 1년만에 아이엠택시와 합병 추진합병 후 4000억 기업가치...삼정KPGM 합병 실무 맡아이 기사는 02월 01일 10:08 마켓인사이트에 게재된 기사입니다.택시 중개 플랫폼 타다와 아이엠(IM)택시가 합병을 추진한다. 성사시 국내 1위 모빌리티 플랫폼 카카오모빌리티의 대항마로 부상할 전망이다.1일 투자은행(IB) 업계에 따르면 타다 운영사 VCNC의 최대주주인 비바리퍼블리카(토스 운영사)와 아이엠택시 운영사 진모빌리티는 합병을 위한 실사를 진행하고 있다. 합병 비율 등 구체적인 세부 사항은 아직 미정이다. 실무작업은 삼정KPMG가 맡았다.합병 후 기업가치는 4000억원 안팎 수준으로 파악된다. 진모빌리티는 지난해 초 800억원 규모 시리즈A 투자 유치 당시 기업가치 2300억원의 기업가치를 인정받았다. VCNC는 2020년 비바리퍼블리카가 지분 60%를 600억원에 인수한 점을 고려하면 100% 기준 1000억원 수준이다.이번 논의는 비바리퍼블리카가 타다를 인수한 지 1년여 만에 이뤄지고 있다. 비바리퍼블리카는 타다의 이용 승객 데이터를 금융서비스와 결합하는 방안을 구상했지만, 기대만큼 시너지가 나지 않자 결단을 내린 것으로 분석된다.합병이 성사되면 양사는 상당한 시너지를 낼 수 있을 것으로 예상된다. 두 플랫폼 모두 대형택시를 주력으로 하고 있다. 대형택시는 중형택시와 모범택시의 중간모델로, 가격은 다소 비싼 편이지만 차별화된 서비스를 제공한다. 타다는 2020년 이른바 '타다금지법'이 통과되면서 새로운 돌파구로 대형택시 브랜드 '타다 넥스트' 사업을 확대해왔다. 원래부터 대형택시 사업 모델로 사업을 시작한 진모빌리티는 지난해에만 택시 면허를 보유한 삼광교통, 경안운수, 대한상운을 잇따라 인수하면서 외형 확장을 꾀하고 있다. 운행 차량 대수만 이미 1200대가 넘는다. 타다와 합병하게 되면 차량을 추가로 증차할 수 있게 된다. 아울러 타다의 정보통신(IT) 기술 등에 대한 노하우도 공유할 수 있을 것으로 예상된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>KB국민은행, 민간은행 중 작년 사회공헌 관심도 1위…신한·우리 순</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002297312?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>◆…자료=데이터앤리서치 제공지난해 시중 민간은행 중 사회공헌 관심도(정보량=포스팅 수)가 가장 높았던 은행은 KB국민은행인 것으로 조사됐다.   이어 신한은행, 우리은행, 하나은행 등 시중 4대은행이 사회공헌 관심도 빅4에 랭크됐다.   14일 여론조사기관인 데이터앤리서치는 지난해 1월부터 12월까지 뉴스·커뮤니티·블로그·카페·유튜브·트위터·인스타그램·페이스북·카카오스토리·지식인·기업/조직·정부/공공 등 12개 채널 23만개 사이트를 대상으로 인터넷뱅크 포함, 국내에서 영업활동을 하고 있는 9개 시중 민간은행의 사회공헌 포스팅 수를 조사했다고 밝혔다.   조사 때 은행 이름과 기부, 봉사 등 9개 사회공헌 키워드 들간에 한글 기준 15자 이내인 경우만 결과값으로 도출했기 때문에 실제 정보량은 달라질수도 있다. 자발적인 민간 사회공헌 정보량만을 집계하기위해 NH농협은행, IBK기업은행, Sh수협은행, KDB산업은행, 한국수출입은행 등 특수은행은 집계하지 않았으며 외국계 은행은 두 곳을 포함했다.   분석 결과 KB국민은행의 지난해 사회공헌 정보량이 1만5754건으로 가장 많았다.   지난해 하반기 포스팅만 살펴보더라도 같은해 12월 장유넷에선 KB국민은행이 금리 상승기 금융소비자의 이자 부담을 완화하기 위해 전세자금대출 금리를 최대 0.75%포인트 내리면서 금융취약계층에 대한 우대금리도 연장 운영하기로 결정했다는 내용이 게시됐다.   KB국민은행은 지난해 7월에도 기초생활수급자, 만 65세 이상 차상위 계층, 장애인 고객 등의 우대금리를 0.3%포인트 확대 시행한 바 있다. 금통위는 계속 해서 기준금리를 올렸지만 KB국민은행은 역으로 여러 금리를 내린 사실에 주목한 것이다.   같은달 마이민트엔 KB국민은행이 고양시와 함께 취약계층 청소년 가정의 노후 가스레인지를 교체해준 사실이 포스팅 됐다.   브런치 사이트에서는 ‘우리들의 나눔이야기’라는 타이틀로 어느해 겨울 초입, 서울 노원구 달동네서 바람과 함께 눈이 펄펄 오는 날 국민은행 직원들과 적십자 봉사원들이 좁은 골목길에 길게 줄서서 ‘손에서 손으로’ 연탄을 배달하는 모습을 사진과 함께 올리며 회고하는 문학 향기가 진한 글이 올라 눈길을 끌었다.   지난해 11월 트위터에는 국민은행 휘경동지점이 동문장애인복지관과 함께 시각장애인 20명과 지역주민 20명이 함께하는 장애인식개선 여행을 실시, 강화도 일원의 자연 및 문화유산을 탐방한 내용이 전해졌으며 같은 달 서울 은평구와 중랑구에서 시니어고객들이 ‘KB 시니어 라운지’를 이용하고 있는 모습이 트윗됐다.   이같은 봉사들로 인해 한 트위터리안은 “국민은행 정말 좋다. 여기부터 저기 끝까지 통장 싹 다 개설해주세요 해버리고 싶을 정도”라는 글을 11월 22일 올리기도 했다.   지난해 10월 인스타그램에는 국민은행 신내동지점과 취약계층 장애인의 따뜻한 겨울나기를 위한 기부금 전달식이 진행되는 장면이 사진과 함께 게시됐으며 같은 달 트위터에는 ‘케냐어린이들을위한 컴패션워크'에서 국민은행에서 기부하니 인증샷을 올린다는 글이 눈에 띄었다.   이밖에 ‘결식아동 지원을 위한 기부캠페인’과 ‘종이통장 줄이기 기부캠페인’, ‘힌남노 태풍 피해주민을 위한 10억원 기부 및 대출이자 감면 등 다양한 조치 시행’, ‘국민은행·신한은행 합작 공동 점포 설립을 통한 디지털 취약계층 고객 배려’ 등 다양한 사회공헌 활동이 수십개의 트위터 계정은 물, 38커뮤니케이션, 네이버 블로그, 네이버 포스트 등에 게재됐다.   신한은행이 1만3386건으로 뒤를 이었다.   지난해 12월 여러 언론과 커뮤니티 채널 38커뮤니케이션에는 신한은행이 올 1월부터 신용등급 하위 30% 저신용 고객 중도상환수수료를 면제한다는 글들이 잇따라 게재됐다.   신한은행은 KB국민은행과 마찬가지로 지난 7월부터 취약계층을 위해 각종 금리 인하 조치를 시행하고 있다. 연 5% 초과 주택담보대출 이용 고객의 금리를 연 5%로 일괄 감면했고 주택담보대출 1억원 이상 보유 고객 중 지난해 말 대비 0.5%포인트 이상 금리가 오른 고객은 이자를 유예해 줬다.   같은달 트위터 다수 네이버포스트 뉴스메카 등에선 신한은행이 앞으로 3년 간 해마다 1억원씩을 지원해 연간 50명의 여성 한부모의 취업역량을 강화함으로써 이들 여성 한부모의 경제적 자립과 자녀 양육을 돕기로 했다는 소식이 전해졌다.   신한은행은 또 서울시 영등포구에 위치한 굿네이버스 본사에서 금융감독원, KB국민은행과 함께 소상공인 및 장애아동가정을 위한 후원금 1억1000만원을 전달하는 아름다운 모습을 연출한 내용이 여러 사이트에 게시됐다.   11월에는 당시 신한은행 진옥동 행장이 학대피해아동을 위해 기부금을 전달하는 모습이 트위터에서 집중 조명되기도 했다.   네이버블로그와 트위터 수십개의 아이디는 신한은행이 청각장애인 일자리 지원을 위해 ‘카페스윗 쏠’ 명동점을 오픈했다는 내용을 잇따라 게시했으며 지난해 10월에는 진옥동 행장 등 신한은행 임원 플로깅 자원봉사에 나선 모습이 포착되기도 했다. 9월에는 신한은행과 서울대 치과병원 3년만에 우즈베키스탄 의료봉사 재개한 모습이 잡혔다.   9월에는 ‘신한은행 쏠 앱에서 응원버튼 클릭하면 신한은행이 대신 1000원 기부한다고 한다’는 글이 네이버 블로그 등에서 조명됐다.   우리은행이 1만205건으로 3위를 차지했다.   지난해 12월 네이버블로그와 티스토리 등에선 우리은행도 출연한 우리금융그룹 우리다문화장학재단이 다문화 및 취약계층 아동·청소년 대상으로 학습용 가구를 지원한 내용이 알려졌다.   같은 달 우리은행이 성북구 돈암동 고령층에 특화한 ‘동소문 시니어플러스 영업점’을 오픈, 어르신들의 편의를 높이는 한편 어르신들의 만남과 교육의 장으로 이용할 수 있는 복합공간(사랑채)을 제공해 유저의 주목을 받았다. 비용 절감을 위해 점포수가 줄어가는 와중에서 우리은행은 오히려 비용을 증가시키는 점포이지만 어르신들을 위한 공간을 마련한 점에 주목을 받은 것이다.   같은달 커뮤니티 FC2LIVE와 딜라이트닷넷, 네이버포스트 등에선 우리은행이 노년층을 위한 IT 배움터를 연 사실이 전해졌으며 트위터와 뉴스픽에는 우리은행이 환경부와 손잡고 취약계층의 한파대비 지원을 실시한 내용이 잇따라 게재됐다.   인스타그램에는 같은 달 우리은행 태릉역지점에서 자원봉사 및 후원금 전달식을 진행하기 위해 다운복지관에 직접 방문, 후원금 전달과 자원봉사활동을 진행해 것에 대해 감사를 전하는 글도 게재됐으며 11월에는 트위터 38커뮤니케이션 네이버블로그 등에 우리은행이 서울역쪽방촌 주거 취약계층을 위해 방한물품을 지원한 사실이 일제히 올려졌다.   이밖에 주거 취약계층의 주거 상향을 지원하기 위한 5억원 기부, 금융권 최초로다문화장학재단 ‘우리다문화장학재단’을 설립, 다문화 가정을 위한 인재양성사업, 교육지원사업, 복지지원사업 등을 통한 각종 지원, 취약계층을 위한 23조원 규모의 금융 지원, 동대문구 취약계층을 위한 라면 기탁 등 사회공헌 소식들이 페이스북 카카오스토리 네이버 블로그 등에 잇따라 게재됐다.   하나은행이 7805건으로 4위를 기록했다.   지난해 12월 하나은행 3개 영업점이 연말을 맞아 사랑의 기부금을 전달한 내용이 온라인을 달궜다.   하나금융그룹은 지속적으로 기부금 제도를 운영하고 있는데 이번 기부금 전달은 ‘2022 모두하나데이 캠페인’ 행사와 관련해 각 영업점 단위에서 지역사회 소외계층지원 및 상생문화 확산을 위한 ‘하나지역행복 나눔활동’의 일환으로 진행됐다.   같은달에는 하나은행과 함께한 사랑의 이불 나누기 봉사 모습이 게재됐다. 이불 후원은 행복샘터와 우석어린이집, 순천 농아인협회, 동부권발달장애인 평생교육지원센터 등 다수의 사회봉사기관에 전달됐다.   11월에는 하나은행 영남지역그룹이 대한적십자사 부산지사와 함께 김장나눔 활동을 한 사실이 주목을 받았다.   함영주 하나금융그룹 회장은 “취약계층 지원을 위한 다양한 프로그램과 활동들이 긍정의 나비효과를 일으키길 바란다”는 소망을 전했다.   지난 10월 네이버 블로그에는 하나은행이 NH농협은행 아산시지부와 함께 지역사회 취약계층 지원을 위해 2000만원을 전달하는 내용이 실렸으며 취약계층을 위한 추석맞이 ‘사랑의 송편 나눔 봉사활동’도 눈길을 끌었다.   8월 네이버블로그에는 하나은행 등 하나금융그룹이 하나원큐 앱을 통한 의류 기부 캠페인 ‘쿨쿨옷장’을 시행한 모습이 조명을 받았으며 7월엔 하나은행은 취약계층 대출금리 부담 완화 등을 위해 개인사업자와 서민금융 대출금리 최대 1%포인트 내려 금융 취약계층 이자 부담을 낮춰줌으로써 고금리 수혜를 나누는데도 앞장선 모습이 트위터 등에서 리트윗되기도 했다.   카카오뱅크가 3955건으로 인터넷뱅크 중에선 사회공헌 관심도가 가장 높았다.   이어 케이뱅크 1857건, 토스뱅크 1144건, 한국씨티은행 842건, SC제일은행 446건 순으로 나타나 외국계 은행 두 곳의 사회공헌 관심도가 가장 낮게 나타났다.   데이터앤리서치 관계자는 “KB국민은행 등 일부 시중은행의 사회공헌 관심도는 재계 10대그룹과 비교할때 삼성그룹 등 일부 그룹을 제외하곤 나머지 그룹들의 전체 계열사를 포함한 사회공헌 정보량과 비슷하거나 혹은 웃돌고 있는 것으로 나타나고 있다”고 말했다.   이어 “지난해 하반기엔 특히 4대 시중은행 모두 고금리로 고통받는 디지털 취약계층을 위한 이자 감면 금리 인하 등을 적극적으로 실시하고 있는 것으로 조사됐다”고 부연했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.02.04.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>'카뱅vs토뱅' 경쟁 막 올라…어디가 좋을까</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011674596?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>기사내용 요약토뱅, 모임통장 출시… '공동모임장' 도입으로 차별화카뱅, 카카오톡 연계 편리성…4년만에 이용자 1300만지인 통해 신규 모객…고객 연령대 다양화 효과도[서울=뉴시스]이주혜 기자 = 카카오뱅크에 이어 토스뱅크가 '모임통장'을 출시하면서 인터넷전문은행의 모임통장 상품 경쟁이 본격적으로 시작됐다. 편의성을 내세운 카카오뱅크가 4년간 1300만명 이상의 이용자 수를 확보한 가운데 토스뱅크가 '공동모임장' 개념을 도입하며 차별화에 나섰다.모임통장이란 부부나 친구, 동아리, 동호회 등 각종 모임의 회비를 모으고 비용을 관리할 수 있는 통장이다. 모임주 또는 모임장뿐만 아니라 모임 구성원들도 회비 내역을 조회할 수 있다.4일 금융권에 따르면 토스뱅크는 최근 '토스뱅크 모임통장'을 출시했다. 인터넷은행 중 카카오뱅크에 이어 두 번째다.토스뱅크 모임통장은 구성원 누구나 '공동모임장'이 될 수 있다는 것을 차별점으로 내세웠다. 기존 모임통장은 모임장 1명만 출금, 결제 권한을 가졌으나 토스뱅크 모임통장은 공동모임장도 본인 명의의 모임카드 발급과 결제 및 출금이 가능하다. 모임장의 동의를 받고 실명확인 절차를 완료한 모임원은 공동모임장이 될 수 있다.토스뱅크 모임통장은 수시입출금통장으로 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 김서연 토스뱅크 모임통장 프로덕트 오너(PO)는 1일 온라인 기자간담회에서 "지금 이자 받기와 같은 서비스도 내부적으로 검토를 진행하고 있다"며 "출시 이후 고객들의 이용을 지켜보고 기능이 추가될 예정"이라고 말했다.모임원 인원 제한이 없다는 점도 특징이다. 회식·놀이·장보기 등 모임의 주요 활동 3대 영역에서 캐시백 혜택도 받을 수 있다.자동화된 회비 관리기능도 제공한다. ▲모임원의 회비 납부 현황 확인 ▲회비 미납 모임원 푸시 알림 ▲회비 사용시 모임원 모두에게 알림 메시지 전달 등이다.카카오뱅크는 2018년 12월 모임통장을 출시한 바 있다. 카카오톡 이용자라면 카카오뱅크 계좌가 없어도 누구나 모임원이 될 수 있다는 편리성을 내세웠다. 카카오뱅크 계좌가 없는 사람도 모임통장 초대장을 받을 수 있으며 초대받은 사람은 카카오뱅크 앱에서 회원가입을 하면 된다.모임주는 1명이며 1개의 모임통장에는 최대 100명까지 참여가 가능하다. 모임주뿐만 아니라 모든 회원이 회비 현황을 조회할 수 있다.지난달에는 모임통장에 '회비 관리 기능'과 '생활비 관리 기능'을 더했다. 한 달 목표 생활비를 설정하면 예산 대비 지출 현황을 실시간으로 제공하는 기능과 회비규칙을 설정해 모임원들에게 알림을 보내는 기능이다. 카카오뱅크 모임통장의 금리는 연 0.1%이나 파킹통장인 '세이프박스'에 연결하면 연 2.6% 금리를 받을 수 있다. 인터넷은행들은 모임통장을 통해 고객 확대를 꾀하고 있다. 모임통장 이용자는 매년 증가하는 추세다. 지난해 말 기준 카카오뱅크 모임통장 이용자는 1356만명이다. 이용자 수는 2019년 499만명, 2020년 769만명, 2021년 996만명 등으로 늘어나고 있다. 카카오뱅크의 수신 잔액 중 모임통장 비중은 지난해 3분기 기준 14.1%로 전년 동기보다 1.9%포인트 증가했다.홍민택 토스뱅크 대표는 온라인 기자간담회에서 "토스뱅크는 맹렬하게 규모의 경제를 키우고 있는 성장의 단계"라며 "모임통장에 연 2.3%의 고금리를 제공하는 것은 규모의 경제를 키우기 위한 전략적 결정"이라고 말했다.인터넷은행 관계자는 "모임통장이라는 말 그대로 사람들이 모이면서 지인을 통해 해당 은행을 쓰지 않는 새로운 고객을 유치할 수 있는 효과가 있다 보니 인터넷은행들의 관심이 커지는 것 같다"며 "고객의 심리적인 허들이 낮아지고 모임을 하는 중장년 고객을 확대할 수 있다는 장점도 있다"고 설명했다.두 인터넷은행은 모임통장 이용자 유치를 위한 이벤트도 실시 중이다. 카카오뱅크는 14일까지 신규 모임통장을 개설하는 고객에게 추첨을 통해 최대 100만원을 지급한다. 지원금은 총 4000만원 규모로 각각 10개 모임에 100만원, 300개 모임에 10만원이 제공된다.토스뱅크는 다음 달 말까지 모임지원금 이벤트를 진행한다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금을 지급한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>밤에만 할 수 있던 美주식 거래...이제 하루종일로 간다</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004966221?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 증권사들이 본격적으로 서학개미(해외주식 투자자) 잡기에 나섰다. 시차로 인해 밤에만 가능했던 미국주식 거래를 하루 20시간 이상 가능하게 만들고 있다. 24시간 가능한 곳도 나왔다.   8일 증권업계에 따르면 NH투자증권과 키움증권은 이날 미국주식 주간거래 서비스를 오픈했다.   앞서 삼성증권과 미래에셋증권이 지난해 2월과 10월 미국주식 주간거래를 시작한 바 있다. 최초로 이 서비스를 시작한 삼성증권과 블루오션 대체거래소(ATS)의 독점계약이 이달 7일 만료됨에 따라 국내 증권사들이 순차적으로 블루오션과 계약을 맺고 도입에 나선 것이다.   NH투자증권의 경우 주간거래(10~18시)를 시작으로 프리마켓(18시~23시30분), 정규장(23시30분~6시), 애프터마켓(6~10시)까지 총 24시간 국내 최장 거래시간을 제공한다. 국내 증권사 중 유일하다.   장 관리시스템 효율화를 통한 일일정산시간 최소화로 국내 최장 거래시간을 확보했다는 설명이다. 주간거래 매매 체결방식은 글로벌 시장조성자의 유동성 공급(LP)을 통해 실시간 매수·매도가 가능하다. NH투자증권 관계자는 "증권사 가운데 유일하게 출근시간대인 오전 7시30분~10시에도 매매할 수 있다"고 말했다.   키움증권의 경우 종전에는 프리마켓과 정규시장, 애프터마켓 시간에 미국주식 거래가 가능했으나 주간거래(10~18시) 시간대를 추가, 하루 중 20시간30분(서머타임 적용시 최대 21시간 30분) 동안 미국주식을 거래할 수 있다.   키움증권 글로벌영업팀 관계자는 "주간 시간대에 거래를 지원함으로써 늦은 시간대에 거래하기 피곤했던 고객들의 시차에 대한 불편함을 덜 수 있게 됐다"고 설명했다.   토스증권도 오는 13일부터 미국주식 거래 가능 시간에 10시~17시50분을 추가한다. 기존 거래시간과 더하면 총 21시간50분 동안 미국주식을 사고 팔 수 있다. 신규 마켓에선 지정가와 시장가 매매로 거래할 수 있다. 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다.   한국투자증권, 메리츠증권 등은 이달 중에, KB증권은 다음 달 초에 미국주식 주간거래 서비스를 각각 오픈할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>코인 거래소, 인터넷은행에 러브콜… “시중은행보다 덜 까다롭고 젊은 고객 많아”</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000875837?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>가상자산 거래소들이 실명확인 입출금 계좌를 발급 받기 위한 파트너사를 물색하면서 기존 시중은행 대신 인터넷은행으로 눈길을 돌리고 있다. 인터넷은행은 시중은행에 비해 계좌 발급을 위해 요구하는 조건이 비교적 덜 까다롭고, 젊은 이용자들이 많아 미래 잠재 고객을 유치하는 데도 유리하다는 판단에서다.서울 영등포구 여의도 카카오뱅크 오피스 모습./뉴스1        8일 가상자산 업계 관계자에 따르면 국내 4위 규모의 가상자산 거래소인 코빗은 오는 4월 신한은행과의 실명계좌 발급 계약 만기를 앞두고 인터넷은행인 카카오뱅크·토스뱅크와도 접촉해 협상을 진행 중인 것으로 알려졌다.특정금융정보법(특금법)에 따라 가상자산 거래소는 코인과 원화 간 거래 연동을 위해 반드시 은행의 실명계좌를 확보해야 한다. 현재 원화 거래가 가능한 곳은 5대 거래소로 꼽히는 업비트·빗썸·코인원·코빗·고팍스 뿐이다.금융위원회와 금융감독원은 은행의 자금세탁방지(AML) 능력 등을 고려해 국내 가상자산 거래소들에게 한 곳의 은행과만 계약을 하도록 규제하고 있다.국내 1위 거래소인 업비트는 가상자산 투자 열풍이 불었던 지난 2020년부터 인터넷전문은행인 케이뱅크와 실명계좌 계약을 맺고, 매년 계약을 갱신하고 있다.코인원의 경우 지난해 11월 NH농협은행과의 재계약을 포기하고 카카오뱅크와 새로 실명계좌 발급 계약을 맺었다. 빗썸도 다음달 NH농협은행과 실명계좌 계약 만료를 앞두고 카카오뱅크와의 계약을 추진하는 상황이다.서울 강남구 빗썸고객센터 전광판에 비트코인 등 주요 가상자산(암호화폐) 시세가 표시되고 있다./뉴스1        가상자산 업계 관계자는 “시중은행 입장에선 가상자산 거래소들에게 계좌를 발급해 주고 수수료로 벌어들이는 수익보다 부담해야 할 리스크가 더 크다”며 “이 때문에 최근 시중은행들이 더 까다로운 재계약 조건을 제시하고 있다”고 말했다.금감원에 따르면 가상자산 거래소들이 실명계좌 발급 계약을 맺은 은행에 2019년부터 지난해 상반기까지 지급한 수수료는 총 583억8100만원 수준이다.만약 가상자산 관련 사고가 터지면 거래소와 함께 실명계좌가 연결된 은행 역시 관리에 대한 책임이 부여되고 금융 당국으로부터 엄격한 관리·감독을 받는다. 시중은행은 그만큼 거래소에 수수료를 포함해 시스템 보안성, 내부통제 능력 등 까다로운 요구를 할 수 밖에 없다.반면 인터넷은행은 시중은행보다 전체 고객 수가 적은 대신 코인 투자에 관심이 많은 20~30대 젊은 고객 비중이 높고, 요구사항도 상대적으로 덜 까다로운 것으로 전해졌다.인터넷은행 입장에서도 가상자산 거래소와 손을 잡으면 외형을 확장하는 효과를 기대할 수 있다. 실제 케이뱅크의 경우 업비트와의 계약 이후 가입자와 수신 잔고가 크게 증가했다. 케이뱅크 가입자는 지난 2020년 말 219만명에서 지난해 말 800만명을 돌파하면서 2년 사이 4배 가까이 늘었다.한 가상자산 거래소 관계자는 “코인 투자를 많이 하는 젊은 층들은 인터넷은행만 가능한 100% 비대면 계좌 개설을 선호하기 때문에 시중은행보다 고객 확보에 유리하다”고 말했다. 그는 “최근 코인 시장이 얼어붙자, 거래소들이 신규 투자자를 늘리기 위해 인터넷은행과의 제휴에 더 적극적으로 뛰어들고 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>"토큰증권, 제도권 진입으로 시장 빅뱅...조각투자계 아마존 될 것"</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004849434?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[[스타트UP스토리]타르트 박아윤 대표]박아윤 타르트 대표/사진=홍봉진 기자 "제도권에 진입함에 따라 조각투자 시장이 빠르게 성장할 것으로 예상됩니다."  금융위원회가 '토큰 증권 발행(Security Token Offering·STO)을 허용키로 한 지난 5일 , 대체투자상품 비교 플랫폼 '프랩'을 운영하는 타르트 박아윤(29) 대표는 머니투데이 스타트업 미디어 플랫폼 유니콘팩토리와 인터뷰에서 이 같이 말했다. STO는 음악 저작권, 유명화가의 미술품, 명품, 빌딩, 선박 등과 같이 실물자산의 소유권을 여러 명이 쪼개서 거래가 가능하고, 지분만큼 수익을 나눠 가질 수도 있어 '조각투자'라고도 부른다. 프랩은 이런 상품 정보를 한데 모아 가격비교까지 지원하는 일종의 '조각투자상품 종합쇼핑몰'이다.  2019년 7월 창업한 타르트는 애초 컴퓨터 브라우저상에 주식 정보를 실시간 업데이트 해주는 서비스로 사업을 시작했다.  서비스 고도화를 위해 이용자 인터뷰를 진행하던 과정에서 프랩을 떠올리게 됐다. "한 이용자께서 조각투자상품에 대한 정보도 추가해주면 좋겠다는 하셔서 해당 시장을 분석해 봤죠. 전 세계 모든 조각 투자 거래 현황을 한눈에 확인할 수 있는 검색 플랫폼인 빈센트가 급성장하고 있었고, 국내엔 아직 이런 종합 서비스 플랫폼이 없다는 것을 알고 시작하게 됐습니다. "프랩 앱 화면 타르트는 2021년 8월 '열세번째 월급날'이라 명명한 베타버전을 출시하며 스니커즈 리셀 정보를 제공했다. 반응은 즉각적이었고 예상보다 뜨거웠다. 이후 서비스명이 너무 길다는 지적을 받아 프랩으로 바꾸고 조각투자, 스타트업 펀딩, P2P 등으로 취급상품을 확대했다. 현재 프랩에 입점한 조각투자상품 관련 업체는 20여개사이며 전체 서비스 상품 수는 약 5만개에 이른다.  하루 이용자는 평균 7000명 수준이다. 프랩은 최고가, 최저가는 물론 적정선의 투자금액을 파악할 수 있다는 점에서 큰 호응을 얻고 있다. "만약 A라는 미술품이 100만원짜리라면 실제로 그만큼의 가치로 평가받고 있는지 블록체인 기반 경매기록이라든지 해당 작가의 최근 작품 매매가 등의 정보를 취합해서 AI(인공지능)가 종합적으로 판단을 내립니다."타르트는 지난해 3월 중소벤처기업부에서 주관하는 팁스(TIPS) 프로그램에 선정돼 성장 가능성을 인정받았다. "올해 혁신금융서비스를 신청하는 등 상품 중개를 보다 더 확대해 나갈 거예요. 이를 통해 조각투자계 아마존이 되겠습니다."타르트는 내달 프랩 회원이 투자한 상품의 상태를 간편하게 추적 관리할 수 있는 신규 서비스도 선보일 예정이다. "토스나 뱅크샐러드처럼 내가 어디에 투자했고, 상품의 가치가 올랐는지 내렸는지 등을 확인할 수 있는 '종합투자지갑'을 곧 선보일 예정입니다."또 지금은 관심있는 상품을 클릭하면 해당 사이트로 이동하는 형태이나 앞으로는 프랩 사이트 내에서 투자·관리가 모두 이뤄질 수 있도록  할 방침이다.  프랩에 쌓인 데이터를 통해 STO 시장 현황·이슈 등을 분석한 리포트를 국가 연구기관, 증권사 등에 제공하는 B2B(기업 간 거래) 수익모델도 준비 중이다.   올해는 해외 진출도 추진할 계획이다. 첫 개척지로 일본을 꼽았다. "국가마다 문화·가치관이 다르듯 주로 취급하는 조각투자상품도 조금씩 달라요.  일본의 경우 건물, 그림, 와인, 시계 등 우리나라와 비슷한 상품들을 취급하고 있어서 진출하기가 용이하죠. 해외 투자자가 국내 상품에 투자하고, 해외 상품에 국내 투자자들이 투자할 수 있는 크로스보더 서비스 도입도 검토하고 있습니다." [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.02.06.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>금감원, 카드사에 경고…"한도·할부 일률적 축소 안돼"</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011676569?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>기사내용 요약카드사, 한도·무이자 할부 줄줄이 축소급전 필요한 차주, 결국 고금리 대출 이용감독당국 "무차별적 서비스 축소 없어야"현대캐피탈 플랫폼 대출 중단도 지적플랫폼 이용하면 무조건 고위험 차주인가여전업계 "다중채무자 늘어 리크스 관리 차원"[서울=뉴시스] 이복현 금융감독원장이 5일 서울 중구 여신금융협회에서 열린 14개 여신전문사 CEO와의 간담회에 참석해 발언하고 있다. (사진=금융감독원 제공) 2022.07.05. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 최홍 기자 = 금융감독원이 신용도를 고려하지 않고 일률적으로 카드 이용 한도와 무이자 할부를 축소해선 안 된다는 입장을 카드업계에 전달했다. 다중채무자 등 위험 관리 차원에 따라 고객서비스를 일부 조정할 순 있으나, 이를 고려하지 않은 일률적인 축소는 오히려 소비자권익을 침해할 수 있다는 것이다.6일 금융권에 따르면 최근 금감원은 카드사에 고객서비스 축소·중단에 대한 우려의 입장을 전달했다.금감원 관계자는 "저신용자에 대한 고객서비스 축소는 위험 관리 차원에서 불가피한 측면이 있지만, 중·고신용자의 서비스까지 일률적으로 줄여선 안 된다는 입장을 전했다"며 "또 고객서비스를 전면 중단한 행위에 대해서도 바람직하지 않다는 의견을 전달했다"고 말했다.실제로 카드사들은 한도와 무이자 할부 등 고객서비스를 대폭 줄이고 있다. 채권시장 악화에 따라 자금조달이 쉽지 않아 유동성을 넉넉하게 가져가야 하는 상황인 데다, 금리 인상 기조로 다중채무자 등 고위험 차주도 늘었기 때문이다.앞서 카드사들은 지난해 말부터 고객의 월평균 결제 능력, 신용도, 이용실적 등을 고려해, 한도 하향 조정 대상을 심사해왔다. 신용카드 모범규준에 따르면 카드사는 연간 1회 이상 정기적으로 카드 회원의 이용 한도 적정성을 점검할 수 있다.이 때문에 일부 고객은 카드 이용 한도가 크게 감소했다. 한 카드사 고객은 2000만원에서 200만원으로 한도가 줄기도 했다. 급전이 필요하면, 카드론을 이용하거나 금리가 더 높은 현금서비스와 '리볼빙'을 이용했다.아울러 채권시장 악화로 카드론 금리가 높아진 것도 소비자에겐 부담이다. 지난해 12월 기준 전업카드사 7곳(신한·KB국민·삼성·현대·롯데·우리·하나)의 카드론 평균 금리는 연 15.06%인 것으로 나타났다. 같은 기간 카드사 전체 신용대출 평균금리는 최대 18%에 달했다.금감원은 토스, 카카오페이, 핀다 등 대출 비교 플랫폼에서 신규 대출을 중단한 캐피탈사에 대해서도 문제의식을 느끼고 있다.예컨대 최근 현대캐피탈은 자체 운영하는 채널보다 외부 플랫폼을 통해 들어온 고객의 신용도가 더 좋지 않다고 판단해 대출을 중단했는데, 과연 대출 비교 플랫폼으로 들어온 고객이라고 해서 모두 신용이 좋지 않다고 볼 수 있냐는 것이다.금융위원회도 제2금융권을 향해 대출 중단에 신중해야 한다는 입장이다. 지난달 16일 이세훈 금융위 사무처장은 "저축은행, 여전사, 대부업 등은 어려운 환경에서도 서민들의 금융창구로서 역할을 지속해야 한다"며 "리스크 관리나 수익성 악화를 이유로 신규대출을 중단하는 등 시장여건 변화에 따른 위험부담을 금융소비자에게 모두 전가하는 행태는 지양돼야 한다"고 말했다.이에 대해 여신전문금융회사 관계자는 "요즘 다중채무자들이 늘고 있어 리스크 차원에서 금리를 높이고 한도도 줄일 수밖에 없다."고 말했다. 또 다른 금융권 관계자는 "자금시장이 여전히 좋지 않아 여전사들이 유동성을 넉넉하게 가져가야 하는 상황"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 `결제위젯` 출시</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002784129?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>토스페이먼츠가 간편하게 온라인 쇼핑몰 내 결제 화면을 만들 수 있는 '결제 위젯'을 출시했다고 밝혔다. 토스페이먼츠    토스의 페이테크(Paytech) 계열사 토스페이먼츠는 복잡한 코딩 없이 간편하게 온라인 쇼핑몰 내 결제 화면을 만들 수 있는 '결제 위젯'을 출시한다고 14일 밝혔다. '결제 위젯'은 개발자, 디자이너 등 전문인력 지원이 필요한 기존 전자결제 서비스와 달리 소프트웨어 개발 키트(SDK) 최초 연동 이후 누구나 클릭만으로 결제화면 구성이 가능한 서비스다. 토스 측은 '노코드(No Code) 운영' 방식으로 별도 비용 없이 직접 결제 화면을 다룰 수 있는 '결제 위젯'이 영세·중소 사업자들에게 큰 도움이 될 것으로 보고 있다. 전담 개발팀을 운용하기 어려운 대다수의 영세·중소 사업자는 전자결제시스템 구축 및 보수를 주로 외주 개발 인력에 의존하고 있는 상황이다.'결제 위젯'을 활용하면 사업자가 직접 결제 화면 내 토스페이, 카카오페이, 네이버페이 등 간편결제 서비스를 비롯해 △신용·체크카드 △계좌이체 △무통장 입금 등 다양한 결제수단을 즉시 추가·수정하거나, 고객에게 필요한 혜택 정보의 실시간 구성이 가능하다. 또한 결제 화면 및 결제 수단에 대한 커스터마이징 환경이 제한적인 기존 플랫폼 입점사(호스팅사)와 달리 사업자가 결제 화면 색상, 폰트 등의 디자인부터 결제수단 표기 순서 및 배치까지 모든 영역을 직접 변경해 최적화할 수 있다. 결제 화면 구성에 따라 달라지는 결제율 등 데이터를 분석할 수 있는 환경도 제공된다. 토스페이먼츠는 '결제 위젯' 출시를 기념하는 이벤트도 진행한다. 3월 10일까지 '결제전담팀을 빌려드립니다' 이벤트를 통해 응모한 사업자 중 세 곳을 선정해 결제 위젯 연동부터 결제 화면 UI(사용자 인터페이스) 최적화 전반에 대한 전문가 일 대 일 컨설팅을 제공할 예정이다.김민표 대표는 "가맹점이 사업 본질에 집중할 수 있도록 결제기술 전문 기업으로서 편리하고 안전한 결제 경험을 제공하는 것이 토스페이먼츠의 목표"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>K-코인은 해외로, 해외 코인은 국내로…코인업계 규제發 '크로스보더’</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006622993?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>국내 시장 내 'K-코인' 입지 좁아져…페이코인도 위믹스도 해외로해외 코인 프로젝트들, 한국 조직 출범 잇따라…규제 없이 유동성 누려암호화폐 비트코인과 이더리움의 삽화. 22.05.17 ⓒ 로이터=뉴스1(서울=뉴스1) 박현영 기자 = 국내 가상자산 규제가 자리를 잡아가면서 국내 가상자산 프로젝트들은 해외로 향하고, 해외 가상자산 프로젝트들이 오히려 국내 투자자 커뮤니티를 공략하는 규제 발(發) '크로스보더' 현상이 나타나고 있다. 이에 규제의 화살을 맞는 것은 국내 프로젝트 뿐이며, 국내 시장의 풍부한 유동성과 디지털 수용력 등 장점은 오히려 해외 프로젝트들이 누린다는 형평성 논란도 함께 제기되고 있다. 가상자산 시장은 글로벌 단위이므로 크로스보더는 자연스러운 현상이지만, 정작 국내 프로젝트들은 한국 시장의 이점을 노리지 못한다는 지적이다. ◇페이도 위믹스도 '해외행'…좁아진 김치코인 입지10일 관련 업계에 따르면 최근 규제의 벽을 넘지 못한 국내 프로젝트들이 해외 시장을 공략해야 하는 사례가 늘고 있다. 가상자산의 특성을 살려 해외로 서비스를 확장하는 게 아니라, '울며 겨자먹기'로 해외 시장에 사활을 걸어야 하는 경우다. 지난해 '테라 사태' 등을 거치며 금융당국이 가상자산 시장 모니터링을 강화한데다, 사실상 국내 시장을 좌지우지하는 디지털자산 거래소협의체(DAXA, 닥사)가 출범한 영향이다.최근 금융당국으로부터 가상자산사업자 변경신고 불수리 처분을 받고 국내 결제 서비스를 중단한 페이코인은 해외 서비스를 본격화하겠다는 대안을 내놨다. 물론 페이코인은 금융당국이 요구한대로 은행 실명확인입출금계정(실명계좌)을 확보해 변경신고에 재도전하겠다는 계획도 밝혔다. 하지만 변경신고에 실패하면 국내 결제 서비스를 완전히 종료해야 하므로 이 같은 상황에 대비해 해외로 나가겠다는 것이다.페이코인 측은 "금융당국 조치에 따라 2월 6일 부로 제한된 결제 서비스는 국내 앱으로 국한되며, 해외 앱을 통한 결제 서비스는 정상적으로 지원될 예정"이라고 밝혔다. 이어 "2분기 중 '해외 앱'을 통해 트리플에이의 가맹점에서 페이코인 결제가 가능하도록 할 계획"이라고 덧붙였다. 트리플에이는 페이코인과 파트너십을 맺은 싱가포르 가상자산 결제 기업이다. 지난해 닥사로부터 상장 폐지 통보를 받으며 사실상 국내 시장에서 퇴출됐던 위믹스도 최근 해외에서 가격을 끌어올리고 있다. 당초 위믹스는 원화마켓을 운영하는 국내 4대 거래소(업비트‧빗썸‧코인원‧코빗)에서의 거래량이 전체 거래량의 90% 이상인 김치코인 중의 김치코인이었다. 하지만 이들 거래소에서 한꺼번에 상장 폐지되면서 국내 시장에서 퇴출됐다. 이후 위믹스는 국내 거래소인 지닥에 상장되기는 했으나, 9일 코인마켓캡 기준 지닥에서의 위믹스 거래량은 10% 내외다. 현재 위믹스는 게이트아이오와 XT닷컴, 비트포렉스 등 해외 거래소에서 더 많이 거래되고 있다. 특히 게이트아이오에서의 거래 비중은 33%에 달한다. ◇김치코인 자리 꿰찬 해외 프로젝트들…"금융당국 타깃 아냐"이처럼 김치코인 프로젝트들이 국내 시장에서 설 자리를 잃자, 그 자리를 꿰찬 건 해외 가상자산 프로젝트들이다. 최근 해외 유명 가상자산 프로젝트들은 한국 시장에 물밀 듯이 진입하고 있다. 해외 프로젝트들에게 한국은 매력적인 시장이다. 가상자산 및 블록체인 기술 활용에 익숙한 '웹3' 커뮤니티가 잘 형성돼있을뿐더러 투자자들의 자본, 즉 유동성도 넘쳐나는 시장이기 때문이다. 이에 지난해 폴리곤, 니어프로토콜 등 블록체인 플랫폼 프로젝트들이 한국 팀을 꾸리고 국내 시장에 진입한 데 이어, 올해 들어 앱토스, 아발란체 등도 한국 조직을 꾸렸다. 한국 커뮤니티를 집중 공략한다는 취지다. '팬 토큰'으로 잘 알려진 칠리즈 역시 지난 8일 축구선수 김민재를 앰배서더로 영입하고 한국 웹3 커뮤니티를 본격적으로 공략한다고 밝혔다. 해외 유명 프로젝트들이 국내 시장에 진출하고, 국내 기업과 협업하는 것은 긍정적인 일이다. 다만 이들 프로젝트 중 일부는 국내 시장에서 서비스를 홍보하면서도 국내 프로젝트들처럼 가상자산사업자로 신고할 필요가 없다. 또 블록체인 플랫폼, 즉 인프라 프로젝트들은 가상자산사업자 신고 대상이 아니기도 하다. 금융당국이 국내에서 서비스를 제한한 해외 사업자도 가상자산 거래소로 한정된다. 해외에서 온 개별 가상자산 프로젝트까지 서비스나 홍보를 제한하지는 않았다. 그럼에도 이들 프로젝트가 발행한 가상자산은 업비트, 빗썸 등 국내 주요 거래소에 상장돼있다. 국내 프로젝트들이 규제에 막혀 설 자리를 잃는 동안, 해외 프로젝트들이 국내 시장의 풍부한 유동성을 가져가고 있는 셈이다. 이와 관련해 국내 가상자산 프로젝트의 관계자는 "디지털자산기본법이 마련되지 않은 상황에서 규제에 막히는 프로젝트들은 대부분 금융당국의 타깃이 된 프로젝트다. 문제는 금융당국이 주로 김치코인들만 예의주시한다는 점"이라며 "해외 프로젝트들은 한국에서 열심히 활동하면서도 정작 금융당국의 타깃이 될 가능성이 없다. 한국 투자자들의 자금만 가져갈 수 있는 것"이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.02.14.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>‘인뱅막내’ 토스뱅크, 상반기 전세대출 출시 목표…여신 완전체 박차</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000039980?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>전세대출 출시 후 주담대까지경쟁사와 차별화 요소 마련 필수인터넷전문은행 주택 관련 대출 출시[이코노미스트 김윤주 기자] 국내 인터넷전문은행 중 가장 늦게 출범한 ‘인뱅 막내’ 토스뱅크가 업계 내 존재감을 키워가고 있다. 토스뱅크는 올해 초에는 모임통장을 출시해 예·적금 등 수신 상품 구성을 강화했다. 이어 전세자금 대출을 출시해 ‘여신(대출) 완전체’를 꾸리는데 박차를 가할 계획이다.전세대출부터 주담대까지 ‘차근차근’14일 금융권에 따르면 토스뱅크는 올해 상반기 전세대출 출시를 목표로, 지난해 하반기부터 관련 작업에 돌입했다. 토스뱅크는 여신 상품 포트폴리오를 확대해 이자 수익 기반을 넓히겠다는 복안이다. 이처럼 토스뱅크가 주택관련 대출 시장에 뛰어드는 것은 주택 관련 대출이 은행의 효자 상품이기 때문이다. 실제로 주택 관련 대출은 지난 1월 말 기준 은행권 전체 가계대출 잔액 중 75.8%를 차지하는 주요 대출 상품이다. 주택 대출은 대출 규모가 클 뿐 아니라, 대출 기간이 길어 안정적으로 이자수익을 챙길 수 있다. 토스뱅크가 시장 영향력을 키우기 위해 주택 대출에 사활을 걸 수밖에 없는 이유다.토스뱅크 관계자는 “은행들은 신용‧보증‧담보 등 균형감있게 여신 포트폴리오를 가져가야 한다”면서 “토스뱅크 역시 이에 맞춰 전세대출과 등 주택 관련 대출을 준비하고 있다”고 말했다. 토스뱅크는 올해 상반기 목표로 전세대출을 출시한 뒤엔 주택담보대출(주담대)도 출시할 계획이다. 통상 주담대는 전세대출보다 서비스 개발 난이도가 더 높은 것으로 알려져 있다. 토스뱅크 또한 시장에 출시된 비대면 주담대보다 고차원의 프로세스와 상품성을 갖추기 위해 시간이 걸릴 것이라는 설명이다. 토스뱅크 관계자는 “다른 은행도 출범 후 4년 이후에나 전세대출, 주담대 순으로 출시한 만큼 준비 기간이 필요한 상품”이라고 설명했다. 케이뱅크 전경(왼쪽)과 카카오뱅크 내부 모습. [사진 각 사]경쟁사 보니…주택 대출 완성에 ‘약 4년’ 다른 인터넷전문은행 또한 주담대를 포함한 주택 대출을 완성하는데 오랜 시간이 걸렸다. 2017년 4월 출범한 케이뱅크는 3년 가량이 지난 2020년 8월 아파트담보대출을 출시했다. 이 또한 대환대출만 가능한 상품이었다. 이후 2021년 9월 전세대출, 2022년 10월 주택 구입 자급도 지원하는 아파트담보대출을 내놨다. 카카오뱅크는 2017년 7월 출범 이후 2018년 1월 전월세보증금 대출을 출시했다. 이후 2020년 2월 청년전월세보증금 대출을 출시했다. 주담대는 2022년 2월에 출시하면서, 출범 이후 약 4년만에 주택 대출 라인업을 완성했다.카카오뱅크는 주담대 출시 기자간담회에서 서비스 구현에 난이도가 있었다고 밝히기도 했다. 당시 송호근 카카오뱅크 주담대 스튜디오 팀장은 “비대면으로 주담대를 기획하면서 고민을 많이 했던 부분이 근저당 설정 등기와 소유권 이전 등기였다”고 말한 바 있다. 토스뱅크 내부 모습. [사진 토스뱅크]주택시장 침체는 우려…차별화 요소 내놔야토스뱅크는 2021년 10월 출범 이후 신용대출‧마이너스대출‧개인사업자대출 등으로 여신 포트폴리오를 지속 확대해왔다. 올해 주택 관련 대출까지 더해지면 토스뱅크의 여신 포트폴리오가 완전체를 갖출 것으로 보인다. 다만 최근 얼어붙은 부동산 시장은 주택 대출 출시에 있어 우려 요소다. 금리 인상 기조에 전세의 월세 전환이 가속화되고, 최근 주택 대출의 증가세는 답보 상태다. 한국은행의 ‘1월 중 금융시장 동향’에 따르면 1월 말 은행권 주택 대출 잔액은 전월과 동일했다. 이에 은행들간 ‘파이싸움’이 더욱 심화될 것으로 전망된다. 특히 토스뱅크는 인터넷전문은행 중 후발주자인 만큼 경쟁력 있는 대출 금리 등 혁신 요소가 필수적이다. 토스뱅크 관계자는 “주택 관련 정책 변경에 대해서는 지속적으로 주시하고 있다”면서 “전세대출 역시 고객들이 비대면으로 보다 편리하게 이용하실 수 있도록 완결성을 갖고 준비하겠다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>타다-아이엠택시, 합병 추진…카카오모빌 대항마 뜨나</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013732108?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>"지분 교환 방식 논의 중"타다-아이엠택시 로고[각사 제공. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모빌리티 플랫폼 '타다' 운영사 브이씨엔씨(VCNC)와 아이엠(i.M)택시를 운영하는 진모빌리티가 합병을 추진한다.    1일 업계에 따르면 브이씨엔씨 및 브이씨엔씨 최대 주주인 모바일 금융 서비스 '토스' 운영사 비바리퍼블리카는 진모빌리티와 지분 교환 방식의 합병을 검토하고 있다.     앞서 비바리퍼블리카는 2021년 10월 쏘카로부터 브이씨엔씨 지분 60%를 인수한 바 있다. 타다 측과 진모빌리티는 이 지분의 교환 비율 등을 비롯한 구체적인 합병 방식을 논의하는 것으로 전해졌다.    업계에서는 양측이 합병 추진을 통해 플랫폼 택시 업계 1위인 카카오모빌리티와 대형 택시 시장에서 맞설 경쟁력을 갖추려는 것으로 해석한다.    타다 관계자는 "합병을 논의 중이며, 현재 협의 초기 단계로 아직 확정된 내용은 없다"면서 "지분 교환이 아닌 매각 방식 등의 합병은 고려하지 않고 있다"고 말했다.     sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>日 배구 애니 하이큐, 게임으로 나왔다</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002281317?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>모바일 배구 게임 터치 더 드림 국내 선출시일본 유명 배구 애니메이션이 모바일 게임으로 재탄생했다. '하이큐 터치 더 드림'이다.이 게임이 기존 축구와 야구에 이어 배구팬들의 주목을 받을 경우 스포츠 게임 장르의 인기 지형도는 바뀔 전망이다.1일 다야몬즈는 일본 배구 애니메이션 하이큐 지식재산권(IP)을 기반으로 제작한 모바일 배구 게임 하이큐 터치 더 드림을 국내 구글과 애플 앱스토어에 정식 출시했다.하이큐 더치 더 드림.하이큐 더치 더 드림은 애니메이션 특유의 그래픽 연출성에 익숙한 배구 규칙, 원작에 등장하는 개성있는 캐릭터를 육성하는 등의 재미를 강조한 게 특징이다. 배구 경기의 핵심이라 할 수 있는 서브, 리시브, 토스, 스파이크, 블로킹 등의 스킬을 통해 전략적이고 박진감 넘치는 게임 플레이를 즐길 수 있다.또한 독특한 개성과 매력을 가진 캐릭터들을 통해 남녀노소 누구나 배구의 재미와 육성의 재미를 경험할 수 있다고 회사 측은 설명했다.배구는 축구와 야구 대비 비주류 게임에 속한다. 하지만 하이큐 터치 더 드림이 배구를 게임 주류 장르로 자리매김시킬 경우 스포츠 게임 시장에도 큰 변화가 예상된다.다야몬즈 측은 국내에 이어 일본에도 해당 신작을 선보일 계획이다. 해당 게임의 원작이 국내 보다 일본에서 인지도가 더 높은 만큼 일본 현지 성적에 시장의 관심은 더욱 쏠릴 것으로 보인다.게임 원작인 하이큐는 2012년부터 일본 만화 잡지 ‘소년 점프’에 연재된 이후 시리즈 누적 발행 부수 5천500만부를 돌파한 인기 만화를 애니메이션화한 작품이다.김동균 다야몬즈 대표는 "전세계 하이큐 팬들을 매료시킨 감동과 박진감 넘치는 스토리를 게임으로 완성시키기 위해 최선의 노력을 해왔다"면서 "하이큐 터치 더 드림을 통해 박진감 넘치는 배구의 감동과 함께 나만의 드림팀을 성장시켜 나가는 재미를 느낄 수 있을 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토스뱅크, 모임통장으로 카뱅과 맞대결</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004805662?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>인터넷은행 토스뱅크는 구성원 누구나 출금, 체크카드 발급, 결제 등을 할 수 있는 모임통장을 1일 선보였다. 회비를 모아 회식이나 MT를 갈 때 쓸 수 있는 모임통장을 출시한 건 카카오뱅크에 이어 두 번째다. 모임통장을 주력 상품으로 밀고 있는 카카오뱅크와의 경쟁이 본격화할 것으로 예상된다.토스뱅크의 모임통장은 하루만 맡겨도 연 2.3% 금리가 적용된다. 카카오뱅크의 모임통장과 다른 점은 최초 통장 개설자인 모임장 외에 ‘공동모임장’ 개념을 도입했다는 것이다.카카오뱅크 모임통장은 모임장 한 명이 출금, 결제, 카드 발급을 관리하는 방식이다. 토스뱅크 모임통장은 모임장 외에 공동모임장을 지정해 출금, 모임카드 발급, 이체가 가능하게 했다.공동모임장은 구성원 모두의 동의가 있어야 지정할 수 있다. 가입 인원 제한은 없다.홍민택 토스뱅크 대표는 “금융소비자들이 모임장 한 명이 권한을 독점하는 구조에 불편함을 느낀다는 점에 주목했다”며 “모임장 혼자 회계를 책임져야 해 부담이 크고, 카드가 한 장만 있다 보니 편의성이 떨어진다는 점을 개선했다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>업계가 들썩, 올해에만 500% 급등한 코인</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003743932?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>[코인 파헤치기] 메타 후광에 앱토스 코인 주목							2일 오후 5시 조선일보 경제 유튜브 채널 ‘조선일보 머니’와 조선닷컴 홈페이지를 통해서 방영된 ‘코인 파헤치기’는 조선일보 경제부 차장이자 경제학 박사인 방현철 기자가 진행자로 나서서 코인 전문가인 고란 알고란 대표와 토크쇼 형식으로 진행됐습니다. ‘코인 파헤치기’는 글로벌 가상화폐, 암호화폐, 코인 시장의 최근 동향과 대응 전략을 전문가들과 알아보는 토크 쇼입니다.[최근 코인시장 이슈 영상으로 확인] : https://youtu.be/u81bQlLqyAs고란 대표는 이날 최근 코인 시장에서 주목할 만한 세 가지 포인트로 ‘양의 탈을 쓴 늑대’, ‘끝까지 간다’, ‘재벌집 막내 아들’을 꼽았습니다.첫 번째, ‘양을 탈을 쓴 늑대’입니다. 금융당국이 ‘증권형 토큰(STO)’ 제도화를 추진하는 가운데, 이 방안이 코인 시장에는 양이 아니라 늑대가 될 수 있다는 주장이 나오고 있습니다. 증권형 토큰은 증권의 성격을 가진 가상자산을 뜻하는 데, 금융당국은 ‘토큰 증권’이라고 부르고 있습니다. 그런데 일부 언론이 금융당국이 코인 거래소 관계자들에게 거래 중인 ‘토큰 증권’을 분류하고 거래종료(상장폐지)하라는 지침을 전달했다고 보도하는 등 논란이 일고 있습니다. 하지만 이에 대해 금융당국은 부인하고 있고, 거래소들도 “각 거래소에 증권성이 있는 토큰은 상장돼 있지 않다”고 하고 있습니다. 다만 코인 업계에서는 금융당국이 향후에라도 코인 거래소에 현재 상장돼 있는 코인들의 증권성을 판단하라고 요구할 수 있다고 보고 경계하고 있는 상황입니다.										두 번째, ‘끝까지 간다’입니다. 320만 명의 누적 가입자를 확보한 ‘페이코인’에 대해 금융당국이 서비스를 정리하고 있어서 계속 논란이 되고 있습니다. 금융당국은 페이코인 사용도 코인 매매로 보고 실명 계좌를 확보해야 한다면서 이를 이행하지 못 하면 오는 5일까지 서비스를 정리하라고 하고 있습니다. 이에 코인거래소 협의체인 닥사도 지난달 6일 “실명확인 입출금계정(실명 계좌) 발급 및 가상자산 사업자 변경 신고에 실패하는 경우 페이코인 서비스에 중대한 영향이 있을 수 있다”며 페이코인을 유의종목으로 지정했습니다. 페이코인 측은 ‘끝까지 간다’는 심정으로 금융당국의 조치에 대해 법원에 집행정지를 신청했습니다. 또 코인거래소에서 상장 폐지되는 걸 막기 위해 뛰어 다니고 있습니다. 페이코인의 운명에 대해 코인 업계가 주목하고 있습니다.세 번째, ‘재벌집 막내 아들’입니다. 최근 코인 시장이 ‘미니 강세장’을 보이고 있는 가운데, 올 들어 한 때 500% 가까이 상승한 코인이 있습니다. 국내 투자자들 사이에선 ‘아파트’라고 불리기도 하는 ‘앱토스(APT)’입니다. 업비트에서 한 때 거래량이 1조 원을 넘기기도 했습니다. 이 코인은 ‘메타 코인’이라고 불리기도 합니다. 앞서 메타(옛 페이스북)가 2019년 가상자산 ‘리브라’ 출시 계획을 밝혔다가 각국 정부의 반발에 부딪히자 ‘디엠’으로 이름을 바꾸고 스테이블 코인 형식으로 출시하기로 했었습니다. 그런데 각종 규제가 강화되자 결국 디엠도 작년 1월 사업을 정리했습니다. 그런데 디엠 프로젝트의 핵심 개발자 등이 나와 만든 코인이 앱토스입니다. 그러다 보니 메타의 후광 등에 힘 입어 주목을 받는 것입니다. 앱토스는 기술적으로도 관심을 끌고 있습니다. 이더리움의 처리 속도가 10~15 TPS(초당 트랙잭션 처리량)인데 반해 앱토스는 이론적으로 16만 TPS에 달하기 때문입니다. 다만, 실제 처리 속도가 이에 크게 못 미치는 최고 1569 TPS에 그쳤다는 얘기도 있습니다. 유통 대기 중인 물량도 많다는 지적도 있습니다.조선일보가 마련한 ‘코인 파헤치기’는 매주 목요일 오후 5시 방송됩니다. 함께 즐겨 주시고 ‘좋아요’ ‘구독’ 부탁 드립니다.[최근 코인시장 이슈 영상으로 확인] : https://youtu.be/u81bQlLqyAs</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>토스뱅크 '모임통장', 모임장만 결제하던 불편 없앴다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003254741?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>'공동모임장' 기능 도입해 모임원 누구나 결제 가능연 2.3% 금리 적용1일 오전 서울 강남구 역삼동 토스뱅크 사옥에서 '토스뱅크 모임통장' 출시 기자간담회가 진행되고 있다. (왼쪽부터 이지홍 토스뱅크 커뮤니케이션팀 리더, 홍민택 토스뱅크 대표, 김서연 모임통장 PO(프로덕트 오너), 심종경 모임카드 PO)토스뱅크는 '모임통장'을 내놨다. 앞서 흥행한 카카오뱅크 모임통장과 비교해 다른 점은 모임원 누구나 출금 및 카드 발급, 결제 등 모임통장 이용이 가능하다는 것이다.1일 토스뱅크는 온라인 기자간담회를 통해 '공동모임장'이라는 새로운 개념을 추가한 모임통장을 출시했다. 기존 시중에 출시된 모임통장은 명의자인 '모임장'이 독점적으로 출금과 결제 권한을 가졌으나, 토스뱅크는 '공동모임장'을 도입해 모임원이라면 누구나 모임카드를 발급받아 사용할 수 있도록 만들었다.김서연 모임카드 프로덕트 오너는 "그동안 공동자금 관리를 위한 모임통장은 이체나 송금할 사람 딱 한사람만 가능했다"며 '이는 모임의 규모 크던 작던 발생했던 문제로 모임통장 이용자들을 만났을 때 가장 많이 들었던 불편이었다"고 말했다.공동모임장은 모임원의 투표를 통해 모임장의 승인을 받으면 숫자에 제한없이 가능하다. 2명이 이용하는 모임통장이라도 1명은 모임장, 1명은 공동모임장으로 설정해 모임통장의 자금을 이용할 수 있다는 얘기다. 예를 들어 부부는 생활비 카드로, 동아리는 회식 카드로 토스뱅크 모임통장을 개설해 모임장이 없어도 공동모임장이 있으면 언제든 결제가 가능하다.총무의 부담을 최소화하기 위한 '회비 관리 기능'도 있다.모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며 회비를 납부하지 않은 모임원에게 자동으로 푸시 알림도 보낸다.아울러 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달돼 투명한 회계 관리가 가능하다.모든 모임원이 다른 모임원을 초대할 수 있으며, 가입 가능한 모임원 인원에 제한도 없다.기존 토스뱅크 체크카드와 동일하게 모임통장에 모인 회비는 단 하루를 맡겨도 연 2.3%(세전) 금리가 적용된다. 또 모임의 주요 활동 영역에서 캐시백 혜택을 받을 수 있도록 설계됐다.혜택을 제공하는 주요 3대 영역으로는 회식(음식점·주점에서 오후 7시∼자정까지 결제 시 캐시백 혜택)과놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종), 장보기(이마트·농협하나로마트) 등이다.1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시 캐시백 혜택이 적용된다.캐시백 혜택은 모임통장 계좌별로 적용된다. 3대 영역 내에서 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번 즉시 캐시백 혜택을 받을 수 있다.모임카드는 에피소드 형태로 운영되며, 이번 혜택은 올해 6월 말까지 제공될 예정이다.모임장 혹은 공동모임장이 모임카드로 결제 시 체크카드 연말정산 혜택은 결제자 본인 명의로 귀속된다.홍민택 토스뱅크 대표는 "토스뱅크 철학은 현재 금융서비스를 사용하는 고객들이 불편해하는 문제를 서비스 관점에서 솔루션 제공하는 것"이라며 "모임통장의 문제는 토스뱅크가 풀수있는 솔루션을 갖고있다고 생각해서 준비했고 출시했다. 서비스 단위가 '모임'인 고객들의 문제를 해결하는 게 목표다"고 말했다.권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>삼정KPMG "핀테크 산업 재편…슈퍼앱·BNPL 등 10대 트렌드 제시"</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011688307?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>기사내용 요약'핀테크 산업 투자 동향과 주요 10대 트렌드' 보고서 발간[서울=뉴시스]우연수 기자 = 디지털 전환 가속화와 함께 핀테크 산업이 임베디드 금융(Embedded Finance), 선구매·후지불(BNPL, Buy Now Pay Later) 등 다양한 형태로 재편되고 있다는 연구 결과가 나왔다.삼정KPMG가 13일 발간한 보고서 '핀테크 산업 투자 동향과 주요 10대 트렌드'에 따르면 글로벌 핀테크 산업 투자는 2021년 2379억달러(8052건)까지 회복됐지만 지난해 다시 주요국 금리 인상 기조로 1449억달러(5498건)로 주춤했다.섹터별로 지급결제 부문이 투자를 주도한 것으로 나타났다. 또 핀테크 산업의 성숙화가 진행되며 블록체인 및 가상자산, 웰스테크, 자금조달 등 투자 섹터의 다양화·대형화 추세가 두드러졌다는 연구 결과가 나왔다.국내에서는 2021년 5월 케이뱅크의 1조2500억원 유상증자, 2020~2021년 토스 계열사의 약 1조4000억원 투자 유치 등 빅테크와 대형 핀테크에 투자가 집중됐다. 기존 금융업의 비효율성을 줄이고 틈새시장 내 혁신 비즈니스를 창출하며 성장해온 핀테크 산업은 디지털 금융 인프라 발전과 함께 임베디드 금융, BNPL, 슈퍼앱 등 다양한 형태로 발전하는 모습이다. 임베디드 금융은 비금융회사가 금융회사의 금융상품을 중개 및 재판매하는 것을 넘어, 자사 플랫폼에 핀테크 기능을 내재화하는 것을 뜻한다. 특히 최근 신용이력이 없는 MZ세대나 코로나19로 소득이 감소한 소비자를 중심으로 BNPL 서비스 수요도 급증했다. 스웨덴 클라르나, 미국 어펌, 호주 애프터페이 등이 대표적이며, 어펌은 2021년 1월 나스닥에 상장하며 가치를 입증했다. 뿐만 아니라 애플, 월마트 등도 BNPL 시장 진출 또는 진출을 예고하여 경쟁이 심화되고 있다.플랫폼 경쟁이 본격화되며 슈퍼앱도 부상했다. 슈퍼앱은 쇼핑, 송금, 투자 등 여러 서비스를 한 플랫폼 내에 연결한 앱을 뜻한다. 특히 동남아시아, 중국 등지의 플랫폼은 일상생활과 금융을 모두 아우르는 ‘종합금융플랫폼’으로 확장하며 생활 속 핵심 인프라 역할을 수행하고 있다. 아시아에서 주류를 이루고 있던 슈퍼앱 전략은 미국이나 유럽에서도 확장세가 두드러지고 있다. 아울러 보고서는 핀테크 산업 내 플레이어들에게 “디지털 채널, 비현금 거래의 대중화가 지속되고 오픈뱅킹 시대가 본격화됨에 따라 금융 서비스 제공 기업의 비대면 플랫폼 채널 확보와 강화가 필수”라고 강조했다. 데이터 개방 및 공유 전략을 모색하여 디지털 금융 생태계를 선점하는 것이 중요하며, 금융 시스템, 금융 소비자 및 데이터 보호, 규제 샌드박스 고도화 등의 규제 재정비 상황을 모니터링할 필요도 있다. 조재박 삼정KPMG 핀테크산업리더 부대표는 “고객이 기꺼이 비용을 지불할 수 있는 금융 서비스를 제공하기 위해 자사만의 특화된 사업 전략, 또한 B2C 외에도 기존 금융업 연계 및 비금융 확대 측면에서 시너지 창출이 가능한 B2B 및 B2B2C 서비스 모델을 검토할 시점”이라며 “금융 소비자의 빠른 선호 변화 대응을 위해 자사 비즈니스를 기반으로 혁신적 고객 경험을 제공하기 위한 차별화 및 제휴 등을 적극적으로 고려해야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>렌터카 아닌 기술기업 쏘카…'AI+데이터 드라이브'로 첫 연간 흑자 쾌거</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042483?sid=105</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>모빌리티 플랫폼 기업 쏘카가 2011년 창사 이래 첫 연간흑자를 달성했다. 기존 렌터카 사업자들과 달리 인공지능(AI)과 데이터 분석 기술을 카셰어링 알고리즘에 적극 활용하고 운영 전반에 대한 효율화 작업이 수익으로 전환된 덕분이다. 사진=쏘카.쏘카는 2022년에 연결 매출 3976억원, 영업이익 94억원을 기록했다고 15일 발표했다. 매출은 전년 대비 37.6% 증가하고, 마이너스(-) 92억원이었던 영업손실은 흑자로 전환됐다. 쏘카의 이번 흑자 전환은 지난해부터 예견된 일이다. 특히 지난 2021년 10월, 적자 자회사였던 VCNC('타다' 서비스 기업)를 비바리퍼블리카(토스)에 매각함으로써 연결 영업이익 전환에 숨통이 트였다. 그 외 사업은 2020년 이후 안정화 기조에 접어들었던 만큼 쏘카 입장에선 계속된 수익성 개선이 중요했다.핵심은 AI다. 쏘카는 2018년부터 AI 기반 사업운영 전략을 본격적으로 가동해 △서비스 수요 발굴 △차량 운영 △리스크 관리 등 사업 전 부문의 효율화 작업을 시작했다. 가령 공유차량을 정해진 차고지에 두고 손님이 올 때까지 기다리는 게 아니라 평상시 수요 데이터를 분석, 수요가 예상된 차량을 미리 적정 장소에 가져다 두는 '다이내믹 차량 배치'를 예로 들 수 있다. 이 과정에서 일반 소비자가 차량 탁송을 대신하는 '핸들러' 같은 서비스를 발굴해 차량 이용비용 절감과 소비자 편익이라는 두 마리 토끼도 잡았다. 수요 발굴 측면에선 기존 렌터카의 불편 요소를 해소한 '편도'와 '부름(이용자가 요청한 곳으로 공유차량 호출)' 서비스 등이 도입됐다. AI 비전인식(시각적 분석) 기술로는 △미신고 사고 적발 △세차 및 차량관리 △재난상황 대응 운행 안내를 효율화하고, 차량 주행기록 분석 데이터를 기반으로 보험 사기 모델 탐지도 강화했다.쏘카는 2022년 AI 기술 및 데이터분석 기술의 적극적인 활용을 통해 차량과 서비스 수익률 개선에 성공했다. (자료=쏘카)이는 곧 쏘카가 보유한 차량 유휴 시간 최소화, 대당 수익 증가로 이어진다. 2019년 102만원이었던 쏘카의 차량 1대당 월평균 매출은 2020년 118만7000원, 2022년에는 173만원으로 매년 급증하고 있다. 대당 매출이 증가하면 쏘카 입장에선 보유 차량을 무리하게 늘릴 필요가 없어 재무관리의 부담이 줄어든다. 필요에 따라 유연한 차량 감축, 중고차 판매가 가능해지는 것 또한 이점이다.쏘카는 당분간 이 같은 수익구조를 한층 공고히 하는데 주력할 방침이다. 서비스 접근성을 지속적으로 개선하고 모빌리티 데이터 결합을 통해 안정적인 수익 기반을 확대하는 것이 목표다. 자료=쏘카. 특히 올해는 카셰여링 이용 전후의 다양한 경험을 결합판매하는 모빌리티 플랫폼 전략도 본격적으로 전개할 계획이다. 현재 국내에서 쏘카 플랫폼을 이용 중인 사용자 수는 운전면허 보유자 4명 중 1명꼴인 약 850만명이다. 쏘카의 기존 모델이 단순히 차량을 효율적으로 빌려주는 것이었다면 이제는 △KTX 예약 △숙박 △놀이공원 △뮤지엄 등의 액티비티 상품을 카셰어링 상품과 함께 제공함으로써 이용자 편익, 부수적인 매출 상승을 노리는 것이다. 나아가 2023년에는 연간 당기순이익 흑자도 노린다. 쏘카는 2022년 영업이익 기준 흑자를 기록했지만 당기순이익은 -180억원으로 적자를 기록했다. 이는 VCNC 투자 및 매각과 관련이 있다. 쏘카는 2020년 VCNC 투자 금액을 전액 손실 처리했으나 2021년에 보유 지분 60%를 비바리퍼블리카에 매각함으로써 지분 판매분이 장부상 이익으로 계산됐다. 2021년에는 쏘카가 영업손실과 달리 당기순이익은 62억원을 기록했던 이유다. 그러나 2022년은 아직 보유한 40%의 지분이 발목을 잡았다. VCNC가 매각된 뒤 2022년에도 적자를 기록한 점, 그리고 쏘카가 2대 주주인 자율주행 업체 '라이드플럭스' 또한 적자를 기록한 점이 쏘카의 당기순손실에 영향을 미쳤다. 다만 이는 장부상 손실로, 회사의 실제 매출과 현금유출 등과는 관계가 없다. 쏘카가 올해 이를 극복하려면 지분의 추가 매각 혹은 사업의 대대적인 확장을 통해 손실분을 상쇄해야 한다.박재욱 쏘카 대표는 "금리 인상으로 인한 차량구매 감소, 1인 및 비자녀 가구 증가, 야외활동 증가 등 거시경제 변화가 카셰어링 시장에 긍정적으로 기여할 것으로 기대한다"며 "올해도 AI 기술력으로 고객 가치를 제고하고 안정적인 수익구조 구축에 기반한 실적 개선을 지속하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>"거품 빼고 몸집 줄인다"…네이버·카카오·토스, 야심차게 내놨던 부가 서비스 잇단 종료</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003966724?sid=105</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>극심한 경기 침체로 어려움을 겪고 있는 국내 정보기술(IT) 업계가 최근 주력 서비스 외 부수적인 기능들을 앞다퉈 종료하고 있다. 부가 서비스로 새롭게 얻는 신규 이용자 및 수익보다 유지 비용 절감이 시급하기 때문인 것으로 분석된다. 최근 IT업계에 따르면 네이버는 오는 3월 중 영화 제공 웹사이트인 '네이버 영화' 서비스를 종료할 예정이다. 2000년 8월 개설된 지 약 22년 7개월 만이다. 과거 큰 인기를 끌었던 해당 서비스는 모바일 페이지를 지원하지 않는데다가 2012년 등장해 비슷한 영화 평가를 제공하는 '왓챠피디아'에 밀리면서 영향력이 크게 줄어든 바 있다.네이버 측은 영화 서비스에서 제공해오던 영화 정보 검색, 리뷰·평점 등 기능을 통합검색으로 이관시키고 주력 서비스인 '검색'에 집중할 예정이다.네이버는 "그동안 '영화 지식베이스'라는 이름으로 네이버 통합검색에서 대부분의 영화 정보를 제공하는 데 힘써왔다"면서 "그 결과 많은 이용자가 네이버 검색을 통해 영화 정보를 만나보고 있기에 영화 서비스 페이지는 종료하고 영화 검색 서비스에 집중하려고 한다"고 밝혔다. 영화 다운로드 서비스는 '시리즈온'에서 이어갈 방침이다.네이버 관계사인 메신저 '라인'을 운영하는 라인플러스 역시 지난 2021년 11월 숏폼 기반 소셜미디어 서비스 제공을 위해 출시한 '라인 붐'의 국내 서비스를 2월 28일부터 단계적으로 종료한다. 일본을 포함한 해외에 비해 국내 이용자가 많지 않기 때문인 것으로 분석된다.앞서 카카오는 지난달 16일 정기구독 플랫폼 '구독온(ON)' 서비스를 종료했다. 구독온 서비스는 지난 2021년 6월 카카오가 출시한 서비스로 카카오톡 메신저를 활용, 실물 상품부터 서비스까지 아우르는 구독 서비스를 제공해 나갈 계획이었다. 출시 4개월 만인 지난해 10월 총 200여개의 브랜드를 확보했지만, 이후 서비스 이용자 모객 및 성과가 기대에 부응하지 못하면서 규모가 줄어들자 서비스 종료를 전격 결정했다. 카카오가 커머스(상거래) 부문을 사내독립법인(CIC)으로 분리하면서 체질 개선에 나선 것이란 분석도 나오고 있다. 추후 구독 모델을 카카오톡 선물하기, 쇼핑하기 등 기존 서비스에 접목시키는 방식으로 변경 등 방안을 검토 중인 것으로 전해졌다. 모바일 금융 서비스를 제공 중인 토스도 송금과 계좌 조회 등 주요 기능 외에 제공해오던 '채팅' 서비스를 오는 10일 중단할 예정이다. 토스는 지난 2021년 9월 출시 당시 채팅방 개설자에게 현금을 지급하는 이벤트까지 펼치며 채팅 서비스 적극적 홍보에 나섰고, 지난해 10월 판교 데이터센터 화재 사건 당시에도 채팅 서비스가 주목받은 바 있다. 그러나 월간활성이용자수(MAU)가 3만명대에 머무는 등 기대에 미치지 못하는 성과를 거둔 것으로 전해졌다.관련 업계는 이같은 플랫폼 기업들의 부가 서비스 종료 이유로 이어지는 경기 침체 상황 속 운영 효율화와 비용 절감 등을 꼽고 있다. 여기에는 '문어발식 사업 확장'보다 주력 사업에 집중한다는 의미도 포함된다.IT업계 관계자는 "IT 회사들이 인력 감축이나 채용 둔화 분위기가 이어지는 것과 같이 이들이 제공하는 서비스 역시 중요하고 잘 하는 것을 중심으로 운영해 나가기 위한 전략으로 보인다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.02.12.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스뱅크 '모임통장' 초기흥행 성공한 이유는?</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042446?sid=105</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장 관련 이미지.(사진=토스뱅크)"계주(계모임을 관리하는 사람)가 곗돈을 갖고 튀었다."디지털 시대에도 얼마든지 가능한 일이다. 모임주 개인명의 계좌를 모임통장으로 전환해 활용하는 방식에 기인한다. 이는 토스뱅크가 최근 출시한 모임통장이 반사이익을 보는 이유로 풀이된다. 토스뱅크의 모임통장은 모임원 누구나 출금 및 카드 발급, 결제까지 가능하게 한 '공동모임장' 기능을 최초로 도입했다. 금융당국과 긴밀한 논의로 기존 모임통장에 대한 법적 제약을 풀어낸 결과다.12일 토스뱅크에 따르면 지난 1일 출시한 '토스뱅크 모임통장'은 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다. 9초에 하나씩 신규 계좌가 개설된 셈이다. 은행업계 모임통장 상품 중에서는 전례 없는 성장 속도로 평가된다. 출시 일주일만에 구성원이 50명이 넘는 대규모 모임통장도 개설됐다.다양한 세대에서 인기를 얻었다. 신규 개설하거나 모임원으로 참여한 고객의 연령대 분포를 보면 △10대(11.13%) △20대(28.34%) △30대(25.28%) △40대(20.32%) △50대(11.53%)로 2040 세대가 중심을 이루는 가운데 10대와 50대까지 높은 비중으로 유입되고 있는 것으로 확인됐다.토스뱅크 모임통장은 공동모임장 기능과 더불어 하루만 맡겨도 연 2.3%(세전)의 금리를 제공한다. 또 모임활동에 특화된 캐시백 혜택을 담은 모임카드를 공동모임장이라면 누구나 발급받을 수 있게 했다. 이 같이 차별화된 혜택이 연령대나 모임의 규모를 불문하고 다양한 고객군으로부터 호응을 얻고 있는 것으로 토스뱅크는 분석했다.공동모임장은 토스뱅크 모임통장이 최초로 선보인 기능이다. 모임장의 동의를 받고, 실명확인 절차만 거치면 공동모임장이 될 수 있고 모임장과 기존 공동모임장의 동의를 통해 언제든 새로운 공동모임장을 추가할 수 있다. 홍민택 토스뱅크 대표는 "모임통장은 실시간으로 사용처와 금액 등 정보의 공유를 통해 분쟁 가능성을 축소할 수 있다"며 "송금 한도와 결제 한도는 더 보수적으로 접근했다"고 설명했다.현재까지 개설된 모임통장 6개 중 1개(약 16%)는 모임통장에 참여한 구성원 모두 공동모임장이 돼 출금과 카드 발급 및 결제 권한을 공유하고 있다. 공동모임장에 대한 이 같은 호응은 그동안 모임장 혼자 출금과 결제를 도맡아 처리하던 것에서 발생하던 불편함이 있었고 이를 해소하고자 하는 수요가 예상보다 높았던 것을 방증한다. '투명성'을 한 차원 높인 것 역시 주효했다.특히 모임 회비 사용 시 카드 결제 비중이 높은 특성이 있지만 그동안 모임장 혼자만 카드를 발급받고 연말 정산 혜택을 누리는 등 불합리한 점이 있었다. 토스뱅크 모임통장은 구성원 모두가 공동모임장으로서 자신의 명의로 모임카드를 발급받아 사용하고 체크카드 연말 정산 혜택도 각자가 투명하고 평등하게 받을 수 있다.이러한 차별화된 기능은 연말 정산이 중요한 맞벌이 부부의 생활비 통장이나 가족 모임통장에서부터 운영진이 다수인 대규모 모임통장까지 유용하게 활용될 수 있다. 토스뱅크 관계자는 "모임의 규모나 성격에 상관없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀기울이며 기능과 혜택을 강화해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>한진관광, `봄` 대한항공 유럽 직항 전세기 상품 출시</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002783730?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>청량한 바다를 바라보며 황홀함을 느끼는 '그리스'짙은 예술의 향기에 흠뻑 빠져보는 '남프랑스'거대하고 아름다운 풍경에 매료되는 '이탈리아 돌로미티&amp;토스카나'이탈리아 투스카니  [한진관광 제공]    해외여행에 대한 수요도가 지속적으로 증가하고 있는 가운데 한진관광(대표이사 안교욱)은 올 봄에 출발하는 유럽 3개국 대한항공 직항 전세기 상품을 출시했다고 13일 밝혔다. 한진관광에서 출시한 이번 대한항공 유럽 직항 전세기는 여행객들의 선호도가 높은 대표 3개국인 그리스, 남프랑스, 이탈리아 돌로미티&amp;토스카나로 향한다. 2016년부터 꾸준하게 진행해온 한진관광 그리스(아테네)직항 전세기 상품은 문명과 풍경을 한 눈에 담을 수 있다. 파란 지붕과 하얀 건물이 인상적인 에게해의 '산토리니'부터 유럽문화의 발상지로 낭만과 신화를 한 눈에 담는 '크레타', 고대 문명과 현대가 함께 공존하는 '아테네', 그림 같은 풍차와 바다가 펼쳐지는 '미코노스', 하늘 위로 솟은 듯한 수도원 '메테오라', 신의 흔적을 볼 수 있는 '델피', 청량하게 파란 바다를 보며 힐링하는 '자킨토스 나바지오 해변'까지 대표 여행지를 만나볼 수 있다. 봄은 그리스를 한 눈에 담기 좋은 여행 최적기이다. 이번 한진관광 그리스 직항 전세기 상품은 봄과 함께 만끽하는  아름다운 섬 관광은 물론 여유로운 일정에 편안한 숙박이 제공되며, 이 밖에 차별화된 특전도 준비 되어 있다. 여행 출발일은 5월의 매주 금요일인 5일, 12일, 19일, 26일 총 4회로 구성되었다. 8년간의 노하우로 높은 만족도를 기록한 한진관광 남프랑스(마르세유)직항 전세기 상품은 예술의 향기를 흠뻑 느낄 수 있다. 고흐의 대표작인 밤의 카페 테라스의 배경이 된 '아를', 장엄한 음악과 레이저 영상이 수놓아진 '레보드 프로방스', 폴 세잔의 마지막을 볼 수 있는 '액상 프로방스' 를 통해 예술가들의 발자취를 만날 수 있다. 또한 절벽 위에서 지중해의 아름다운 풍경을 바라보는 '에즈', 화가들이 사랑한 높은 성벽의 중세 마을 '생폴드방스', 프랑스에서 가장 아름다운 '고르드', 황토빛으로 물은 작은 마을 '루시용', 로마시대 유적을 만나는 암석 위에 위치한 '레포드 프로방스', 반 고흐가 치료 받던 생폴드 모졸 수도원이 있는 '생레미드 프로방스', 아름다운 도자기의 마을 '무스티엘생트마리' 까지 남프랑스의 특별한 마을도 만날 수 있다. 남프랑스는 오랜 역사를 지닌 것으로도 알려져 있다. 세계 문화 유산으로 지정된 퐁뒤가르, 카르카손을 비롯해 7명의 교황이 지냈던 아비뇽도 눈에 담을 수 있다. 또한 2600년의 역사로 이뤄진 문화 유적지 '마르세유', 세계적인 휴양 관광지로 다양한 매력을 만나는 '니스', 세계에서 두번째로 작은 '모나코' 도시도 즐길 수 있다. 반고흐, 피카소와 같은 화가에게 영감을 준 극장 '아를 원형 경기장', 성벽으로 둘러 쌓인 요새도시로 성 안에 마을이 보존되어 있는 '카르카손 시테 콤탈성', 화가 폴 세잔의 흔적이 남은 작업실과 정원을 볼 수 있는 '세잔 아뜰리에', 글라스 작품을 감상할 수 있는 색채의 마술사 '샤갈 미술관', 새하얀 바닷물과 절벽이 조화를 이루는 '칼랑크 국립공원', 가장 아름다운 로마의 수도원 중 하나인 '세낭크 수도원' 과 같은 꼭 방문해야 하는 관광명소까지 관람할 수 있다. 예술가들의 발자취와 관광 명소를 만날 수 있는 이번 한진관광 남프랑스 직항 전세기 상품은 엄선된 호텔은 물론 편안한 일정에 다양한 테마로 만날 수 있는 상품이 알차게 구성돼 있다. 여행 출발일은 6월의 금요일인 6월 2일, 9일, 16일 총 3회로 구성됐다. 특히 이번 한진관광의 유럽 직항 전세기 상품에서 주목 할 만 한 점이 있다. 여행객들의 꾸준한 사랑을 받아온 기존 전세기 지역 외에 신규로 이탈리아 돌로미티&amp;토스카나 지역이 추가됐다. 이탈리아의 돌로미티&amp;토스카나는 거대하면서도 아름다운 풍경을 만날 수 있고, 세계 자연 유산이 곳곳에 분포되어 있어 요즘 유럽 여행에서 각광 받는 도시다. 이탈리아 돌로미티는 3,000m 이상의 암봉 18개, 빙하 41개를 품은 거대한 이탈리아의 알프스이자, 세계자연유산에 속한다. 돌로미티는 트레킹 족에게 많은 관심을 받는 곳이다. '트레치메 디 라바레도'는 세개의 봉우리로 이루어진 거대한 암봉으로 만발한 야생화의 초원지대에서 바위의 정상까지 연결되는 트레킹 코스로 하이라이트로 손꼽히는 장소이다. '세체다'는 날카롭게 솟은 봉우리들이 이어져 있고, 넓은 초원을 바라보며 트레킹하는 최고의 코스이다. '라가주오이'는 가장 높은 곳에 위치하며 아름다운 산장이 위치해 있다. '알페 디 시우시'는 축구장 8000개 정도 크기의 고지대 평원으로 수많은 야생화와 청정한 바람을 즐길 수 있어 경이로움을 느낄 수 있다.이탈리아 토스카나는 예술가에게 많은 영감을 전해 준 독특한 계곡 '발도르차', 유네스코 세계문화유산으로 등재된 역사 유적지 '피엔차', 중세 및 르네상스 시대의 건축물로 고풍스러움을 느낄 수 있는 '몬테풀치아노', 유네스코 세계유산지역에 등재된 12개의 성곽 탑들의 도시 '산지미냐노' 를 통해 아름다운 풍경을 만날 수 있다.이외에도 절벽으로 연결된 해변 마을 '친퀘테레',  아름다운 해안 마을로 최고급 휴양지라고 일컫는 '포르토피노 코스트', 이탈리아의 가장 큰 호수인 가르다 호수 남쪽에 있는 '시르미오네', 로미오와 줄리엣의 배경이 된 로맨틱한 '베로나' 등 숨겨진 도시까지 즐길 수 있다. 올 봄은 이탈리아 돌로미티&amp;토스카나에서 트레킹을 즐기기 가장 좋은 계절이다. 이번 한진관광 직항 전세기 상품은 전문 가이드와 인솔자가 동행하는 안전한 여행, 여유 있는 일정에 지역별 특식 및 전통식까지 접할 수 있어 벌써부터 여행객들의 뜨거운 관심이 쏟아지고 있다. 여행 출발일은 6월 23일, 30일 총 2회로 구성되었다. 한진관광 상품 관계자는 "봄 맞이 유럽 여행을 준비하는 여행객을 위해 기존 진행하던 그리스, 남프랑스를 비롯해 신규 지역인 이탈리아 돌로미티&amp;토스카나 상품까지 출시했다. 관광 뿐만이 아닌 자연 속에서 트레킹을 할 수 있는 도시까지 추가됨에 따라 유럽여행의 선택 폭이 넓어졌고, 니즈에 맞춰 유럽 여행을 만끽할 수 있다. 다가오는 봄, 한진관광에서 준비한 대한항공 유럽 직항 전세기 여행에 많은 관심 바란다" 고 전했다. 이외에도 한진관광은 북유럽 노르웨이(오슬로)전세기 상품을 출시 예정에 있어, 대자연의 감동을 기다리는 유럽 여행객에게 곧 반가운 소식을 전할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>‘모바일 뱅킹’으로 동남아에서 열풍 일으키는 한국 금융</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000063986?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>신한·우리, 베트남에서 큰 성공…인터넷 은행들도 첫 진출 지역으로 동남아 고려[비즈니스 포커스]신한베트남은행의 모습.(사진=연합뉴스)동남아시아에 ‘금융 한류’가 불고 있다. 평균 연령이 젋고 시장 잠재력이 높은 ‘기회의 땅’에서 한국 은행들의 활약이 두드러지고 있다. 2010년대 중반부터 시작된 은행들의 동남아 시장 진출은 올해도 계속될 것으로 보인다. 최근 달라진 것은 ‘디지털 전략’을 앞세웠다는 점이다. 은행의 서비스가 디지털로 변환하는 과정에서 하루빨리 디지털 서비스의 점유율을 높여야만 글로벌 대형 은행과의 경쟁이 가능하기 때문이다. 이에 따라 시중 은행들은 모바일 뱅킹 구축, 핀테크 접목 등 동남아 시장을 점령하기 위한 다양한 디지털 전략을 앞세우고 있다. 10년 사이 달라진 동남아의 입지 지난 10년간 우리 금융권의 주요 진출 지역에는 변화가 생겨났다. 먼저 과거 금융권의 주요 해외 무대이던 중국과 일본에 대한 투자 자산 비율은 낮아졌다. 이 자리를 차지한 것이 미국과 동남아다. 특히 ‘신남방 정책’의 영향으로 한국 금융사들의 동남아 주요 국가들을 향한 투자는 늘어난 것으로 집계됐다. 기업 데이터 연구소 CEO스코어가 지난해 6월 기준 반기 보고서를 제출하고 해외 종속기업이 있는 금융사 39곳을 대상으로 조사한 결과 금융사 해외 종속기업 268곳의 총자산은 159조3709억원으로 10년 전에 비해 3.6배 증가했다. 4대 시중은행은 10조원씩 해외 자산 규모가 늘었다.눈에 띄는 것은 동남아가 차지하는 비율이다. 각 금융사들이 동남아 주요 국가를 대상으로 한 투자의 규모가 크게 증가했다. 인도네시아의 비율은 5.2%에서 13%로 7.8%포인트 높아졌고 베트남은 4.0%에서 11.2%로 7.2%포인트 높아졌다. 캄보디아는 2012년 상반기 0.4%에 불과했지만 올해는 7.3%까지 비율이 높아졌다.2023년에도 금융권은 동남아를 주목하고 있다. 윤종규 KB금융그룹 회장은 동남아와 선진국 시장의 ‘투 트랙 전략’을 추진해야 한다고 올해 신년사를 통해 강조했다. 윤 회장은 “동남아 주요 거점의 경영 정상화와 밸류업을 통해 글로벌 영업 기반을 안정화하고 계열사 네트워크를 추가 확장해 ‘동남아 현지 주요 금융그룹’의 입지를 확보해야 한다”고 말했다. 2010년대부터 시작된 은행들의 동남아 시장 진출은 이미 결실을 보고 있다. 신한베트남은행은 베트남에서 가장 성공한 외국계 은행으로 꼽힌다. 신한베트남은행의 2022년 상반기 순이익은 862억원으로 전년 동기보다 50% 가까이 증가했다. 현지화에 가장 성공한 은행으로 전국 지점을 46개로 늘렸다.신한베트남은행은 2009년 현지 지점을 전환해 설립됐다. 2011년 11월 신한비나은행을 인수·합병(M&amp;A)했고 2017년에는 호주계 은행인 안츠(ANZ)의 소매 금융 사업부문을 인수하면서 프라이빗 뱅크(PB) 부문에 발을 들여 놓았다. 안츠의 소매 금융 사업을 인수한 것은 신한베트남은행이 베트남에 있는 외국계 은행 중에서 1위 자리에 오른 결정적인 계기가 됐다. 지난해에는 베트남 은행권 최초로 비대면 신용 대출 상품인 ‘디지털 컨슈머론’을 출시했다. 신한은행에 따르면 디지털 컨슈머론은 신한은행의 디지털 금융 기술을 기반으로 베트남 금융 당국과의 협의를 통해 베트남 시중은행 최초로 대출 신청과 실행까지 모든 과정을 100% 디지털화했다. 신한 쏠(SOL) 베트남을 통해 대출 신청이 가능하고 신청 후 최대 5분 이내에 결과를 확인할 수 있다. 베트남우리은행 전경.(사진=우리은행) 평균 연령 젊어 디지털 공략에 유리 다른 한국 은행들도 최근 동남아 시장에서 좋은 성과를 내고 있다. 우리은행은 1월 27일 베트남우리은행이 2017년 법인 설립 이후 최대 실적인 영업수익 1억300만 달러, 당기순이익 5000만 달러를 달성했다고 밝혔다. 이는 전년 대비 각각 50%, 100% 이상 증가한 실적이다. 특히 디지털 전략을 강화한 것이 호실적의 기반이 됐다는 평가다. 베트남우리은행은 디지털 사용자 환경(UI)과 사용자 경험(UX)을 전면 개편하고 모기지론·카론 등 대출 신청 모바일 웹을 구축하는 등 디지털 부문을 강화해 디지털 고객 수는 전년 대비 150% 이상, 비대면 대출 금액은 500% 이상 증가했다. 이와 함께 현대탄콩, 방카 제휴 등 신사업을 다각화해 은행 간 무역 금융, 커스터디(수탁) 및 파생 영업 등 본부 비즈니스를 확대한 결과 비이자 이익이 전년 대비 42% 증가한 2600만 달러를 달성해 수익 구조가 강화됐다. 베트남우리은행은 1997년 베트남 하노이지점에 처음 진출했고 2006년 호찌민지점을 개설해 베트남 북부와 남부 지역으로 영업망을 확대했다. 이후 2017년 베트남우리은행 법인을 설립하고 유동 인구가 많은 쇼핑몰이나 공단 지역을 중심으로 지점과 출장소를 개설하는 등 고객 접점을 지속적으로 확대하고 있다.현재 베트남 북부에 하노이지점 등 11개, 중부에 다낭지점 1개, 남부에 호찌민지점 등 8개, 총 20개의 전국 네트워크를 구축했다. 우리은행 관계자는 “2023년까지 하노이·호찌민·껀터 지역에 3개 네트워크를 추가로 신설해 리테일 영업 확대에 더욱 박차를 가할 계획”이라고 말했다.베트남은 1인당 국내총생산(GDP) 대비 스마트폰 침투율이 높고 평균 연령이 낮아 현지 맞춤형 디지털 비즈니스를 통한 리테일 고객 확보가 용이하다. 동시에 중국의 ‘제로 코로나’ 정책 이후 세계의 제조 공장으로 급부상해 은행들에는 성장이 기대되는 국가로 꼽히고 있다.한편 글로벌 진출에 발을 들여 놓으려는 인터넷 은행들도 첫 진출 무대로 ‘동남아’를 택할 것이란 전망이 나오고 있다. 지난해부터 카카오뱅크의 첫 해외 진출 시장으로 인도네시아의 이름이 오르내리고 있다. 실제로 카뱅의 임원들이 글로벌 진출을 위해 인도네시아 현지 은행들과 접촉한 것으로 알려졌다. 인도네시아 현지 은행들의 지분을 인수하는 게 아니냐는 보도도 나왔지만 카카오뱅크 측은 ‘결정된 것은 없다’고 선을 그었다. 또 인도네시아가 첫 진출 국가로 유력하기는 하지만 태국·말레이시아·싱가포르 등 동남아의 다른 국가들도 후보에 오른 것으로 알려졌다. 토스뱅크의 첫 해외 진출 지역도 동남아가 유력하다. 이는 토스뱅크의 모기업인 토스가 이미 베트남 시장 진출 경험을 갖고 있기 때문이다.은행권 관계자는 “은행권의 모바일 전환이 필수가 된 시점에서 인터넷 은행이 한국 시장에서 다진 노하우를 동남아 지역에서도 발휘할 수 있다면 전망은 밝다”고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>앱토스는 제2의 위믹스일까?[엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005082127?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>[엠블록레터] 지금 코인 시장의 화제는 뭐니뭐니해도 앱토스입니다. 올해 1월 1일 종가 4475원을 기록했던 코인이 지난 26일 장중 최고가 2만5430원을 기록했습니다. 근 4주만에 무려 5배가 넘게 뛰었습니다. 업비트에서 살 수 있는 코인 중 가장 높은 상승률입니다. 거래 대금도 오랫만에 업비트에서 하루 1조원을 넘겨 막대한 유동성과 변동성을 보여줬습니다.앱토스가 이처럼 엄청난 가격 상승과 거래량을 기록하는 주된 이유는 크게 두가지를 꼽을 수 있습니다. 첫번째로는 최근 2주간의 급등에서 주목받는 게임 관련 코인의 대표 주자로 꼽힌 것입니다. 비트코인의 상승으로 훈풍이 불어닥친 알트코인 시장에서 디파이, NFT에 이은 다음 주자(메타)를 찾으려는 시도가 있었는데요. 지금까지는 게임이 바통을 이어받은 것으로 관찰됩니다. 앱토스 뿐 아니라 엑시인피니티, 보라, 샌드박스, 엔진 등과 같은 게임 관련 코인들이 해당 기간에 강세를 보였는데요. 이 중 앱토스는 게임에 적합한 고성능 처리속도를 전면에 내세운 데다가 엔픽셀의 그랑사가를 품에 안으면서 신진주자로 치고 나갔습니다. 여러모로 높아진 투자심리와 다음 세대를 찾는 투자자들의 선호가 맞아 떨어진 결과입니다.두번째는 FTX에 이어 바이낸스의 열렬한 지원입니다. 바이낸스에서는 최근 앱토스 거래에 BTC, USDT 유동성 전용 공급풀을 제공했다고 밝혔습니다. 앱토스를 낮은 거래 비용으로 매매할 수 있도록 호가를 촘촘히 만들수 있게 지원했다는 것인데요. 이는 보통 거래량 증가에 따른 가격 상승을 유도하는 경우가 많습니다. 이번 앱토스의 상승도 이같은 지원이 한몫한 것으로 추정됩니다.일단 게임 메타와 불장이라는 두 요소를 볼 때 자연스럽게 떠오르는 이름이 있습니다. 바로 위믹스입니다. 위믹스는 2021년 불장을 대표하는 코인 중 하나였습니다. 게임으로 돈을 버는 P2E 트렌드와 함께 독자적인 플랫폼과 메인넷 구축으로 엄청난 가격 상승을 기록했었죠. 그렇다면 앱토스를 제2의 위믹스로 봐도 될까요? 좀 더 자세히 살펴봐야겠습니다.앱토스와 위믹스의 공통점과 차이점앱토스와 위믹스는 게임 관련 코인이라는 점만 보면 일견 비슷하게 보이면서도 뜯어보면 다른 점도 많습니다. 일단 공통점을 보다 자세히 살펴보겠습니다.게임에 특화된 메인넷앱토스는 고성능을 전면에 내세운 독자적인 메인넷입니다. 병렬 처리를 지원해 보다 많은 양의 트랜잭션을 효과적으로 처리할 수 있습니다. 과거 솔라나를 떠올리게 하는 특성입니다.위믹스도 초기에는 클레이튼 기반 사이드 체인으로 시작했다가 위믹스 생태계에 특화된 독자적인 메인넷을 구축했습니다. 게임과 함께 NFT, DAO 등에도 쉽게 적용할 수 있는 메인넷을 표방합니다.2. 게임 온보딩 플랫폼 지향위믹스는 위메이드의 독자적인 메인넷이지만 위메이드 게임 뿐 아니라 다른 여러 게임사들과 협력해 다양한 게임을 구동하는 플랫폼을 지향합니다. 앱토스도 마찬가지로 엔픽셀과 협력 관계를 구축했으며 국내 다른 게임사들과도 지속적으로 협력을 모색하는 것으로 알려져 있습니다.이번에는 차이점을 알아보겠습니다.1. 게임회사 VS. 블록체인 개발사앱토스는 전 페이스북의 블록체인 프로젝트인 디엠의 개발자들이 주축이 된 프로젝트입니다. 출범은 최근이지만 개발 이력은 꽤 오래됐다고 볼 수 있죠. 즉, 진성 블록체인 개발자들의 모임이라고 할 수 있겠습니다. 반면 위믹스는 위메이드라는 게임회사, 여기에 상장사가 개발, 운영의 주체가 된 희귀한 경우입니다. 따라서 DAXA의 거래 지원 종료 전까지 계속해서 제기된 증권성 이슈에서 벗어나기가 어렵습니다.2. 투명성앱토스는 과거 FTX 파산 여파로 투자자들의 우려와 함께 산하 프로젝트가 중단되는 위기를 겪기도 했습니다. 그러나 관련 자금이 없다고 재단측이 발표하면서 우려는 잦아들었고 이외에 다른 특별한 코인의 이동 등이 관찰되진 않고 있습니다. 하지만 위믹스는 유통량과 관련한 불투명성 우려로 결국 DAXA의 합의에 따른 거래 지원 종료가 결정된 바 있습니다.앱토스와 위믹스를 같은 선상에 놓고 비교하면 이렇게 공통점과 차이점이 비교적 명확히 구분됩니다. 위믹스는 현재 국내 주요 거래소에서는 거래가 중지된 상태이지만 후오비 등 해외 거래소에서는 여전히 거래되고 있으며 올 연초 강세장 때도 다른 코인들과 함께 가격이 꽤 큰 폭으로 상승했습니다. 명암이 교차하는 위믹스의 과거에 비춰 볼 때 앱토스에서 특히 주의해야 할 점은 무엇일까요?앱토스의 핵심변수, 코인 물량 해제앱토스의 현 급등은 게임 메타, 불장, 그리고 바이낸스의 유동성 지원이라는 삼박자가 맞아 떨어진 결과로 풀이됩니다. 하지만 심리가 중요한 매매 시장에서 급등은 분명히 그에 비례하는 조정을 수반하기 마련입니다. 이 때 부정적인 변수가 부각된다면 그만큼 조정의 골도 깊어지겠죠.앱토스에서 현재 가장 고려해야 할 변수는 유통 물량의 증가 또는 코인의 언락 스케줄로 보입니다. 현재 거래소 등에 풀린 앱토스의 유통 물량은 약 1억4300만개로 전체 발행량 10억개 대비 14% 정도에 불과합니다. 전체 코인이 모두 풀리는 시기는 십년 뒤인 2033년이라 아직 많이 남았지만 올해 내내 주당 약 400만개 이상의 코인이 매주 풀립니다. 매주 약 3%의 물량이 늘어나고 가격이 고정되고 늘어난 물량이 시중에 바로 유통될 경우 이론적으로 주당 3% 정도의 가격 하락 요인이 발생하는 것입니다. 오는 11월부터는 팀과 투자자들에게 배정된 물량도 월별로 약 2천만개씩 추가 배분됩니다.이로 인해 시장 일각에서는 현 가격 상승이 늘어나는 유통 물량을 비싼 값에 처분하려는 유통 전문 회사, 즉 마켓 메이커들의 의도된 행위로 보인다는 분석도 있습니다. 바이낸스 리서치에서 앱토스 가격 상승이 NFT 활성화 등 때문이라는 보고서를 낸 것도 의심된다는 지적도 있구요. 아예 일리가 없는 지적은 아니라는 생각이 듭니다. 코인 시장은 아직도 여전히 규제가 없는 무법지대이니까요.이같은 상황을 감안한다면 앱토스 투자법은 비교적 간단하게 정리됩니다. 기존 투자자는 상승을 즐기돼 유통 물량을 챙겨볼 것이며 신규 투자를 꼭 해야겠다면 방망이를 짧게 잡고 단기 매매 위주로 접근하는 것이 현 상황에서는 좀 더 나아 보입니다. 투자가 급하지 않다면 위의 포인트 위주로 관련 소식들을 챙겨보면서 좀 더 싼 가격에 살 수 있는 기회를 모색하는 것도 좋겠습니다. 독자 여러분의 성투를 기원합니다.&lt;엠블록레터(Mblock)&gt;[엠블록레터]는 매일경제 블록체인 전문 자회사 '엠블록컴퍼니(Mblock)'의 뉴스레터입니다. 엠블록컴퍼니가 만든 무료 뉴스레터를 구독하시면 디지털 자산 투자의 지침이 될 올바른 정보와 새로운 블록체인 기술 트렌드를 따라잡을 수 있는 심층분석을 수·금 아침 이메일로 받아보실 수 있습니다. 아래 주소로 접속하시면 구독 페이지로 연결됩니다.https://bit.ly/mblockletter</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.02.01~2023.02.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.02.01~2023.02.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>금감원, 은행권 DSR 소득 산정 기준 일원화 추진</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000877766?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>인정소득 기준 따라 은행별 대출금액 차이금감원, 소득 산정 기준 보완 위해 현황 파악이복현 금감원장 “현 정부 DSR 근간은 유지”금융감독원 전경        은행별로 각기 다른 총부채원리금상환비율(DSR) 소득 산정 기준이 일원화된다. 은행별로 소득을 인정하는 잣대가 달라 동일한 차주가 어느 은행을 선택하느냐에 따라 대출 금액이 차이가 있는 데 따른 조치다. 금융감독원은 ‘갚을 수 있을 만큼 빌려달라’라는 DSR 규제의 취지에 맞게 은행의 소득 인정 기준을 통일해 상환능력을 넘는 대출이 이뤄질 수 있는 통로를 차단할 방침이다.15일 금감원에 따르면 감독당국은 DSR 규제에 따른 차주의 연소득 산정 방식을 동일하게 바꾸는 작업을 준비하고 있다. DSR은 소득 대비 전체 금융부채의 원리금 상환액 비율을 뜻한다. 연간 총부채 원리금 상환액을 연간 소득으로 나눠 산출한다.금감원 관계자는 “DSR 규제는 동일한데 은행별로 부채, 소득 산정의 기준이 달라 문제가 있는 부분이 있다”며 “대출은 기준이 그나마 정해진 편이지만, 소득 산정 부분은 보완해야 할 게 있다”고 말했다. 이 관계자는 “실제 소득보다 소득이 더 크게 잡혀 DSR 일관성이 무너지는 것을 방지하기 위해 개선점을 고민하고 있다”며 “은행별 현황 파악부터 할 것”이라고 덧붙였다.현재 DSR 규제에 포함되는 부채는 주택담보대출, 신용대출, 카드론 등이다. 은행이 DSR 산정 시 이 부채들을 넣어 계산할 때 개입의 여지가 없다. 이 계산식은 은행별로 동일하다.하지만 DSR 계산 시 필요한 차주의 소득은 은행별로 계산식이 다르다. 통상 은행에서는 증빙소득으로 연소득을 산정한다. 증빙소득이 없는 경우 인정소득을 활용하고, 이 경우 건강보험료로 소득을 추정할 수 있다. 건보료 납부 기간을 어떻게 잡느냐에 따라 소득이 과도하게 산정돼 대출 금액이 늘어날 여지가 있다. 지난해 토스뱅크에서 이 같은 문제가 드러났다. 토스뱅크는 3개월 치의 건보료를 활용해 연소득을 추정해 차주의 소득을 더 높게 인정했다. 건보료 정산 시기를 포함한 3개월 치 건보료를 활용하면서 실제보다 소득이 더 높아 보이는 착시 효과가 나타난 것이다. 다른 은행들은 통상 차주에게 건보료 6개월~1년 치를 요청한다.이복현 금융감독원장은 지난 6일 열린 업무계획 기자간담회에서 “지난해 특정 인터넷은행에서 비대면 대출을 활성화하면서 기준에 따라 소득이 늘어나고 줄어드는 문제가 있었다”며 “어떤 기준으로 하는 것이 합리적이고 보편적으로 와닿을 수 있는지 지적이 있다”고 했다.시장에서는 금감원이 DSR 제도 정교화에 나선 데 대해 대출 규제 완화의 연장선상이 될 수 있다는 기대가 나오고 있다. 소득 인정 기준을 완화하면 DSR 규제를 유지하면서도 대출금액이 늘어나는 효과가 있을 것이라는 전망이다. 다만 금감원은 DSR 규제 개선의 방향성도 아직 잡지 않은 상황이라고 일축했다. 금감원 관계자는 “대출 규제 완화와는 별개의 이야기”라며 “기준의 합리적인지를 우선 판단할 것”이라고 했다. 이 원장 역시 “DSR 근간에 대해서는 바꿀 생각이 없다는 게 이번 정부의 생각”이라며 DSR 규제 수정의 가능성을 차단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>배구 애니메이션 '하이큐!!' IP를 기반으로 한 모바일게임 '하이큐!! 터치 더 드림' 2일 출시</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003966862?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>다야몬즈가 배구 소재의 애니메이션 '하이큐!!' IP를 기반으로 한 모바일게임 '하이큐!! TOUCH THE DREAM(터치 더 드림)' 정식 서비스를 2일 시작한다.'하이큐!! TOUCH THE DREAM'은 배구를 향한 열정과 근성으로 한 자리에 모인 고교 배구부 선수들이 각자의 재능으로 코트 위에서 완벽한 승리를 만들어가는 성장과 도전을 그린 애니메이션을 콘텐츠에 녹여낸 게임이다.카라스노, 네코마, 아오바조사이 등 원작에 등장하는 모든 캐릭터가 귀여운 3D 미니 캐릭터로 구현돼 있으며, 배구 경기의 핵심이라 할 수 있는 서브, 리시브, 토스, 스파이크, 블로킹 등의 스킬을 통해 전략적이고 박진감 넘치는 경기를 즐길 수 있다고 다야몬즈는 전했다.또 애니메이션의 스토리라인을 재현한 스토리 모드와 다른 플레이어와 경기를 하는 PvP 매치 외에도 데일리 매치, 토너먼트 등 다양한 컨텐츠를 제공한다. 특히 스토리 모드에선 원작 애니메이션의 성우들이 선사하는 풀보이스를 감상할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.02.06.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>직방·토스·런드리고 투자사 대주주로 변신한 조현식 고문</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004152843?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>엠더블유컴퍼니 최대 주주로올해만 두 차례 유증 103억 참여한국타이어 경영권 동생으로 정리 후전문 투자사 통해 개인 역량 대내외 과시"모빌리티 및 관련산업 투자 확대 전망"[서울경제] 한국타이어그룹 장남인 조현식(사진) 한국앤컴퍼니(000240) 고문이 개인 투자회사에 대한 출자를 이어가고 있다. 한국타이어그룹 경영권이 동생 조현범 회장에게로 넘어간 이후 투자사를 통해 새로운 활동에 나선 모습이다.엠더블유홀딩은 6일 조현식 고문이 제3자 유상증자 방식으로 60만 주를 배정 받았다고 밝혔다. 주당 가격은 500원으로 총 출자액은 3억 원이다. 조 고문은 앞서 지난달 10일에도 제3자 유증에 참여해 2000만 주를 주당 500원에 받았다. 총 100억 원 규모다.엠더블유홀딩은 조현식 고문(75.96%)과 아내(9.76%) 및 세 자녀(각 4.88%)가 지분을 보유 중이다. 자본금은 지난해 말 기준 장부가 105억 원에서 추가 증자까지 합치면 208억 원 정도로 추산된다. 자회사인 엠더블유앤컴퍼니를 통해 투자 사업을 하고 있다. 엠더블유앤컴퍼니는 서울 강남구 논현동에 본사를 둔 투자사다. 홈페이지 소개글을 보면 “모빌리티와 관련된 산업에 투자하는 한편 산업의 국내 중소 기업 저변을 확대하고 대기업과 중소기업의 상생 관계 추구에 기여한다”고 적었다. 주요 투자사로는 토스, 직방, 런드리고 등 유명세를 탄 기업 외에도 산업 지능화 솔루션 스타트업 마키나락스, 라이다 제조 업체 라이드로, 자동광학검사 시스템 제조업체 기가비스로 확인된다. 이외에도 TV를 보면서 화면속에 나오는 상품을 쇼핑으로 즐기는 드쇼(De Show) 등 제조업 외에도 다양한 투자 포트폴리오를 가지고 있다.한편 한국타이어그룹의 지주회사인 한국앤컴퍼니는 지난해 말 그룹 정기인사에서 조양래 명예회장의 차남인 조현범 사장을 회장으로 새로 선임하며 후계구도에 종지부를 찍었다. 조 명예회장의 장남인 조현식 부회장은 고문으로 물러났다. 앞서 2021년에는 조현범 고문이 조희경 한국타이어나눔재단 이사장과 연대해 경영권 분쟁을 일으키기도 했다. 당시 3월 30일 열린 한국앤컴퍼니 주주총회에서는 조현식 고문이 주주제안으로 추천한 이한상 고려대학교 경영대학 교수가 사외이사 겸 감사위원으로 선출되는 등 경영권 분쟁에서 승기를 잡는 모습을 보이기도 했다. 현재 한국타이어앤컴퍼니 주주 구성은 조현범 회장이 42.03%, 조현식 회장이 18.93%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>"모임통장에 카드 여러개 발급 가능"… 토스뱅크 모임통장 출시</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004151049?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>'공동모임장' 개념 도입연말정산도 본인 명의로모임 인원수 제한 無[서울경제] 토스뱅크가 모임원이면 누구나 출금, 카드 발급, 결제가 가능한 ‘토스뱅크 모임통장’을 출시했다고 1일 밝혔다. 기존 출시된 시중 은행의 모임통장은 명의자인 모임장만 출금과 결제, 카드 발급을 할 수 있었다. 모임장이 혼자 회계를 책임져야 할 뿐만 아니라 카드도 한 장만 있어 모임비 결제 편의성까지 떨어졌다.이에 토스뱅크는 ‘공동모임장’이라는 개념을 도입해 모임원이라면 누구나 출금 및 이체, 모임카드를 발급받아 사용할 수 있도록 만들었다. 공동모임장은 모임장의 동의를 받고 실명확인 절차를 완료한 경우 될 수 있다. 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다.특히 여러 명이 발급받을 수 있는 ‘토스뱅크 모임카드’는 모임의 주요 활동인 먹고 놀고 장 볼 때 캐시백 혜택을 받을 수 있도록 했다. 혜택을 제공하는 주요 3대 영역으로는 △회식(음식점/주점에서 19시~24시까지 결제 시 캐시백 혜택) △놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) △장보기(이마트, 농협하나로마트) 등이다. 1만 원 이상 결제 시 건당 500원, 1만 원 미만 결제 시에는 건당 100원의 즉시캐시백 혜택이 적용된다. 3대 영역 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있다. 혜택은 모임통장 계좌별로 적용된다. 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산돼 적용된다. 이번 혜택은 올해 6월 말까지 제공될 예정이다. 모임 전용 카드인 만큼 ‘토스뱅크 모임카드’ 플레이트 뒷면에는 모임명을 새겨서 발급 받을 수 있다. 또 모임장 혹은 공동모임장이 본인의 모임카드로 결제 시 체크카드 연말정산 혜택도 본인 명의로 귀속된다.아울러 기존에 출시된 모임통장은 모임원 가입 인원 제한이 있었으나 토스뱅크 모임통장은 국내 최초로 가입 가능한 모임원 인원 제한을 없앴다. 서너 명의 소모임에서부터 다양한 인원의 대형 모임까지 모임통장 하나로 운영할 수 있게 됐다. 여기에 자동화된 회비 관리기능까지 제공해 총무의 부담을 최소화했다. 모임원의 회비 납부 현황을 직관적으로 확인할 수 있고 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 회비를 사용할 때마다 모임원 모두에게 알림 메시지도 전달된다. 또한 토스뱅크 모임통장은 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다.토스뱅크는 모임통장 출시를 기념해 다음 달 말까지 ‘모임지원금 이벤트’를 진행할 예정이다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만 원까지 모임지원금이 지원된다. 적립된 모임지원금은 모임통장으로 입금되고 출금과 결제에 바로 사용할 수 있다.토스뱅크 관계자는 “토스뱅크의 모든 혁신은 고객이 느끼는 불편함과 요구에서 출발하며 모임통장 또한 그러한 관점에서 ‘돈 쓸 권리’를 모임 구성원 모두에게 돌려드리려 한다”며 “토스뱅크만의 차별화된 모임통장과 모임카드를 통해 그 동안 없던 모임뱅킹 플랫폼을 완성한 만큼 모든 모임에 최고의 혜택과 편리함을 드릴 수 있도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>삼정KPMG "핀테크 산업 재편…10대 트렌드 제시"</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005217022?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>핀테크 산업이 임베디드 금융(Embedded Finance), 선구매·후지불(BNPL, Buy Now Pay Later) 등 다양한 형태로 재편되고 있다.삼정KPMG가 13일 발간한 '핀테크 산업 투자 동향과 주요 10대 트렌드'에 따르면 코로나19 팬데믹으로 크게 위축된 글로벌 핀테크 산업 투자가 2021년 8052건, 2379억달러로 회복됐지만, 지난해 주요국 금리인상 기조 등으로 약세를 보였다.투자 지역별로는 북미, 유럽의 강세가 이어지는 가운데, 코로나19 이후 동남아시아 및 라틴아메리카에서 핀테크 역할이 확대되며 투자자들의 주목을 받았다. 특히 지난해에는 전반적 투자 약세 속 호주 등에서 대형 인수합병(M&amp;A)이 발생했다.섹터별로는 지급결제 부문이 투자를 주도하는 한편, 핀테크 산업의 성숙화가 진행되며 블록체인 및 가상자산, 웰스테크, 자금조달 등 투자 섹터의 다양화·대형화 추세가 나타났다.2021년 국내 핀테크 시장은 디지털 전환 가속화와 국내 핀테크 산업의 성장 등으로 투자가 활발히 이뤄졌다. 다만 2021년 5월 케이뱅크의 1조2500억 원 유상증자, 2020~2021년 토스 계열사의 약 1조4000억 원 투자 유치 등 빅테크와 대형 핀테크에 투자가 집중됐다.기존 금융업의 비효율성을 줄이고 틈새시장 내 혁신 비즈니스를 창출하며 성장해온 핀테크 산업은 디지털 금융 인프라 발전과 함께 임베디드 금융, BNPL, 슈퍼앱 등 다양한 형태로 발전하는 모습이다.임베디드 금융은 비금융회사가 금융회사의 금융상품을 중개 및 재판매하는 것을 넘어, 자사 플랫폼에 핀테크 기능을 내재화하는 것을 뜻한다. 보고서는 결제와 보험 분야에서의 임베디드 금융 활용이 두드러질 것으로 전망했다.최근 신용 이력이 없는 MZ세대나 코로나19로 소득이 감소한 소비자를 중심으로 BNPL 서비스 수요도 급증했다. 스웨덴 클라르나, 미국 어펌, 호주 애프터페이 등이 대표적이며, 어펌은 2021년 1월 나스닥에 상장하며 가치를 입증했다. 그뿐만 아니라 애플, 월마트 등도 BNPL 시장 진출 또는 진출을 예고하여 경쟁이 심화되고 있다. 다만 최근 주요국 기준금리 인상, 경기 둔화 등과 맞물리며 BNPL 기업의 부실화 가능성이 대두되면서 금융당국의 규제 필요성이 논의되고 있다.플랫폼 경쟁이 본격화되며 슈퍼앱도 부상했다. 슈퍼앱은 쇼핑, 송금, 투자 등 여러 서비스를 한 플랫폼 내에 연결한 앱을 의미한다. 특히 동남아시아, 중국 등지의 플랫폼은 일상생활과 금융을 모두 아우르는 종합금융플랫폼으로 확장하며 생활 속 핵심 인프라 역할을 수행하고 있다. 아시아에서 주류를 이루고 있던 슈퍼앱 전략은 미국이나 유럽에서도 확장세가 두드러지고 있는 것으로 분석됐다.아울러 보고서는 "디지털 채널, 비현금 거래의 대중화가 지속되고 오픈뱅킹 시대가 본격화됨에 따라 금융 서비스 제공 기업의 비대면 플랫폼 채널 확보와 강화가 필수"라고 강조했다.데이터 개방 및 공유 전략을 모색하여 디지털 금융 생태계를 선점하는 것이 중요하며, 금융 시스템, 금융 소비자 및 데이터 보호, 규제 샌드박스 고도화 등의 규제 재정비 상황을 모니터링할 필요도 있다고 전했다.삼정KPMG 핀테크산업리더 조재박 부대표는 "고객이 기꺼이 비용을 지불할 수 있는 금융 서비스를 제공하기 위해 자사만의 특화된 사업 전략, 또한 B2C 외에도 기존 금융업 연계 및 비금융 확대 측면에서 시너지 창출이 가능한 B2B 및 B2B2C 서비스 모델을 검토할 시점"이라며 "금융 소비자의 빠른 선호 변화 대응을 위해 자사 비즈니스를 기반으로 혁신적 고객 경험을 제공하기 위한 차별화 및 제휴 등을 적극적으로 고려해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>고팍스, 바이낸스 산업회복기금 지원 결정[엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005084614?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[엠블록레터] 작년 11월 FTX 파산 이후 불거진 고팍스와 바이낸스간의 인수 합병 소문이 고팍스의 바이낸스 산업지원기금(IRI) 유치라는 결과를 낳았습니다. 이번 지원 유치로 고팍스는 제네시스 글로벌 캐피탈의 인출 중단에 따른 고파이 출금 지연을 해소할 수 있을 것으로 보이구요. 바이낸스는 고팍스 지원을 통해 국내에 진출할 안정적인 교두보를 확보하게 됐습니다.고팍스는 코인 예치 상품인 고파이의 상환 불가로 어려움을 겪어왔습니다. 업계에서 추산하는 고파이의 예치 금액은 1월 초 기준 약 600억원 규모인데요, 1월 한달간 코인 가격이 급등해 여기에서 상당히 더 많이 늘어났을 것으로 보입니다. 거래소 운영과 관계 없는 다른 예치 서비스인 데다가 규모마저 막대해서 자금 확보를 통한 해소밖에 방법이 없었는데요. 지원 제공처로 선택된 곳이 바로 바이낸스였습니다. 고팍스의 공지를 보면 약 한달 반에 가까운 기간동안 조율을 거쳐 바이낸스의 산업지원기금 지원을 유치했네요.하지만 이번 투자 협약 체결이 바이낸스의 고팍스 인수로 바로 이어질진 아직 명확하지 않습니다. 바이낸스의 산업지원기금은 바이낸스가 주축이 됐을 뿐 앱토스, 폴리곤, 점프크립토 등 여러 암호화폐 회사들이 함께 조성한 것이기 때문에 바이낸스의 인수 대금으로 쓰기 어려워 보이기 때문입니다. 하지만 블룸버그에서는 바이낸스발로 이번 협약이 고팍스 지분 인수라고 보도가 나온 상태입니다. 정작 고팍스에서는 관련 내용을 함구하고 있어 정확한 사실 관계가 확인되지 않고 있습니다. 아무래도 금융 당국과 연계된 실명계좌 확보 거래소여서 눈치를 봐야 하는 이유도 있어 보입니다.바이낸스는 이번 산업지원기금 제공과 함께 고팍스를 통해 바이낸스 아카데미 홍보에 나설 것으로 보입니다. 바이낸스 아카데미는 블록체인, 코인 관련 다양한 컨텐츠를 제공하는 온라인 교육 사이트인데요. 굉장히 많은 자료를 꼼꼼하게 제공해 코인 관련 공부에 매우 유용합니다. 바이낸스는 국내 코인 투자자들이나 업계에도 바이낸스 아카데미를 적극적으로 알림으로써 브랜드 인지도를 제고하려고 하는 것으로 보입니다.이번 협약으로 바이낸스의 국내 코인 업계에 대한 지원이 첫 술을 떴다고 할 수 있겠는데요. 앞으로가 더 기대가 됩니다. 이번 협약으로 양사가 또 어떤 분야에서 협력을 모색할지 추가 소식에 귀를 기울여야겠습니다.&lt;엠블록레터(Mblock)&gt;[엠블록레터]는 매일경제 블록체인 전문 자회사 '엠블록컴퍼니(Mblock)'의 뉴스레터입니다. 엠블록컴퍼니가 만든 무료 뉴스레터를 구독하시면 디지털 자산 투자의 지침이 될 올바른 정보와 새로운 블록체인 기술 트렌드를 따라잡을 수 있는 심층분석을 수·금 아침 이메일로 받아보실 수 있습니다. 아래 주소로 접속하시면 구독 페이지로 연결됩니다.https://bit.ly/mblockletter</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>총무님, 회비 좀 꺼내쓸게요…모임통장 ‘다수 인출’ 가능</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005082498?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>총무 아닌 다른 사람도 인출 가능회비 쓸 때마다 전체 알림 전송총무 말고 다른 사람도 모임통장에서 돈을 꺼내 쓸 수 있다. 모임통장에 모인 회비에는 연 2.3%의 금리도 받을 수 있다.토스뱅크는 이같은 기능을 갖춘 ‘토스뱅크 모임통장’을 출시했다고 1일 밝혔다. 토스뱅크는 한 명만 출금하고 결제할 수 있는 기존 모임통장과 달리 ‘공동모임장’을 선임할 수 있도록 했다. 모임장의 동의를 받고 실명확인 절차를 완료한 모임원을 공동모임장으로 지정할 수 있다. 모임장과 기존 지정된 공동모임장의 동의를 얻어 공동모임장을 여러 명 세울 수도 있다. 모임장들은 모두 본인 명의 카드를 발급받아 결제와 출금을 할 수 있다.토스뱅크 모임통장은 연 2.3%(세전)의 금리 혜택이 적용된다. 토스뱅크는 모임통장 출시를 기념해 다음달 말까지 ‘모임지원금 이벤트’도 진행한다. 모임통장을 최초 개설하는 모임장을 포함하여, 모임원 1인당 최대 1만원까지 모임지원금을 지원한다.모임원 가입 인원 제한도 없고, 모임통장에 속한 모든 모임원은 손쉽게 다른 모임원을 초대할 수 있다. 또 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달돼 투명한 회계도 가능하다.모임의 주요 활동에서 캐시백 혜택도 받을 수 있다. ▲회식(음식점/주점에서 19시~24시까지 결제 시 캐시백 혜택) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▲장보기(이마트/농협하나로마트) 등이다. 1만원 이상 체크카드 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 캐시백 혜택이 적용된다. 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산되어 적용된다. 3대 영역 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장에 금융당국 '혁신 의지' 담긴 사연</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002681337?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>은행권 최초 공동모임장 개념 도입안전사고 우려에도 혁신 시도 평가토스뱅크 모임통장 이미지. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크가 '공동모임장' 개념을 처음 도입해 모임통장을 내놓을 수 있었던 배경에 당국의 전향적인 혁신 의지가 뒷받침된 것으로 알려지면서 금융권의 관심이 더욱 커질 것으로 보인다. 금융사고 등 리스크에 대한 과도한 우려보다는 소비자 편익이 크다는 판단이다.기존 은행권에서 나온 모임통장들은 여러명이 돈을 넣을 수 있어도, 한 명만 돈을 쓰는 구조였던 터라, 이같은 '공동출금' 시스템이 파격적인 시도라는 평가가 나온다.7일 금융권에 따르면 토스뱅크는 지난 1일 모임원 누구나 출금과 결제, 카드 발급까지 가능한 모임통장을 출시했다. 모임통장은 동아리, 동호회 등 각종 모임 내 비용 관리를 위해 개설할 수 있는 통장이다.시중에 나온 다른 모임통장과 큰 차이점은 여러명이 함께 모임장이 될 수 있는 방식이다. 통장 최초 개설자인 모임장을 비롯해 모임원들도 공동모임장이 돼서, 본인 명의의 카드발급은 물론 이체, 결제, 출금을 할 수 있다. 모임장 1명이 총무 역할을 떠안지 않아도 되고, 모임원 모두가 직접 자금 관리를 할 수 있는 것이다.이는 다른 모임통장은 물론 시중은행 예금통장에도 없는 개념이다. 카카오뱅크의 모임통장은 예금주 1명만 입출금, 이체, 카드발급이 가능하다. 다른 은행 예금통장들도 '1계좌 1명의 실명 예금주'가 원칙이며, 만약 공동명의 통장이 가능할지라도 대표자 격인 한명만 출금을 관리할 수 있다. 횡령 등 금융사고의 위험성 때문이다.은행권 관계자는 "모임통장이나 공동명의 통장이라할지라도 핵심은 출금 관리"라며 "누구나 돈을 뺄 수 있는 모임통장에서는 참여인원이 많아질수록 횡령할 위험성도 커지고, 모임장이 사망, 체납 등 특이사고가 생겼을 때 공동명의자끼리 상속, 압류 문제가 복잡해질 수 있다"고 설명했다.은행권 최초 '공동모임장' 통장 출시는 토스뱅크의 적극적인 설득과 금융당국의 전격적인 판단이 있었기에 가능했다. 금융위원회에서도 토스뱅크 모임통장 출시를 두고 합법성이나 안전성 등을 다방면으로 상당기간 고심했지만, 결국 혁신에 방점을 두고 서비스 가능하다는 의견을 굳힌 것으로 알려졌다.정부서울청사 금융위원회 현판. ⓒ금융위원회홍민택 토스뱅크 대표도 지난 1일 관련 기자간담회에서 "서비스 구현 난이도 뿐만 아니라 소비자보호나 안전성 등 챙겨야할 부분이 많아 만전의 준비를 하느라 많은 시간이 소요됐다"며 "법적 근거와 규정을 검토하는 데 시간이 오래 걸렸는데, 금융당국과 긴밀한 소통을 거쳐 서비스를 출시하게 됐다"고 말했다.홍 대표가 지난해 6월 새로운 개념의 모임통장을 내놓겠다고 밝힌 이후 실제 출시가 이달 이뤄진 것을 고려하면, 반년 넘게 금융당국 설득에 나선 것으로 보인다.은행권 관계자는 "토스뱅크가 공동모임장의 리스크를 떠안고도 소비자편의를 위한 상품을 만든 것"이라며 "금융권 혁신의 메기 역할로도 보인다"고 말했다.금융당국은 지난해 새정부가 출범하고 이복현 금융감독원장과 김주현 금융위원장이 잇따라 취임한 이후 금융 혁신에 속도를 내는 분위기다.금융위는 지난해부터 최근까지 5번의 규제혁신회의를 열고 다양한 규제완화를 약속했다. 예·적금과 보험 등 금융 상품 비교·추천 서비스를 시범 운영하고, 핀테크들이 성장할 수 있도록 혁신펀드를 1조원 규모로 확대한다는 계획을 발표했다.올해 상반기에는 금산분리 제도 개선을 추진한다. 금산분리는 비금융주력자가 금융기관의 의결권이 있는 주식을 일정 한도 이상 보유할 수 없도록 제한한 원칙으로, 기업들이 고객 돈을 산업자금에 이용할 수 없도록 만든 규제지만, 기존 금융사들은 타산업에 진출하지 못해 불만이 컸다.금융위는 은행 등 금융사가 자회사 출자를 통해 생활 서비스 등 비금융 분야 사업에 자유롭게 진출할 수 있는 길을 열어주되 위험 총량을 규율하는 방안을 검토하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>민원서류, 방문 없이 스마트폰 하나로 발급… 전자증명서 확대한다</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003781156?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>은행에서 대출 받거나 이동통신에 가입할 때 번거로운 종이 증명서 없이 스마트폰 하나로 처리할 수 있는 모바일 전자증명서가 확대된다.     행정안전부는 7일 전자증명서 활성화를 위해 일반사업자를 대상으로 비대면 설명회를 열었다.     모바일 전자증명서는 가족관계증명서, 주민등록등본 등 행정·공공기관 민원 문서를 전자문서로 만든 형태다. 스마트폰으로 발급·제출하니 일일이 시·군·구청을 방문하지 않아도 된다.        행정안전부. 뉴시스    예를 들어 은행에 갔는데 추가로 건강보험납부확인서, 주민등록초본이 필요할 경우 기존에는 힘 없이 발길을 돌려야 했지만, 은행에서 전자증명서를 받아주면 스마트폰으로 바로 낼 수 있다. 은행 입장에서는 기존에 종이서류를 일일이 보관해야 했지만, 전자증명서로 받으면 전자지갑에 간편하게 수납할 수 있다. 업무 부담을 덜고 종이 사용을 줄여 비용을 절감하게 된다.      모바일 전자증명서는 2019년 12월 시작됐다. 지난달말 기준 누적 발급건수가 1022만건을 돌파했다.     전자증명서는 코로나19 확산 때 큰 몫을 했다. 2020년 3월부터 공적마스크 대리구매를 위한 가족관계증명이 스마트폰으로 가능해졌고, 2021년 백신접종증명서도 전자증명서로 발급했다. 2021년에는 농협·신한·국민은행, 미래에셋생명보험 등에서 전자증명서를 받기 시작했다. 같은 해 토스, 네이버, 카카오도 전자증명서 서비스를 시작했고, 지난해에는 SK텔레콤 3000여개 대리점이 전자증명서를 활용해 종이 사용을 줄였다.      현재 주민등록등·초본, 가족관계증명서, 부동산 등기사항증명서, 소득금액증명, 국민연금 가입 증명, 사업자등록증, 여권정보증명서, 대학 졸업·성적·휴학 증명 등 300여종을 전자증명서로 이용할 수 있다. 정부 24, 한국장학재단 등 공공 14개 앱, 네이버, 토스 등 민간 19개 앱이 이를 지원 중이다.        행정안전부는 행정·공공기관 782곳, 금융·법인 등 민간기관 9800여곳이 내부 용도 등으로 전자문서지갑을 갖고 있어, 1만여곳에서 전자증명서 서비스가 가능한 상태라고 설명했다.      유튜브로 진행된 이날 설명회에서는 법인용 전자증명서 발급 방법, 제출된 전자증명서 확인 절차 등을 안내했다. 또 한국장학재단과 SK텔레콤이 전자증명서로 업무를 간편하게 개선한 사례도 공유했다.      서보람 행안부 디지털정부국장은 “전자증명서 이용기관 설명회를 통해 다양한 업무에서 전자증명서를 활용할 수 있는 계기가 되고, 소상공인이나 사업자에게도 도움이 되기를 기대한다”며 “앞으로도 국민 누구든지 쉽게 정부서비스를 이용할 수 있도록 디지털플랫폼정부 구현에 노력해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스에도 ‘모임통장’…카카오뱅크와 경쟁 더 불붙나</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003202414?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>모임원 누구든 공동명의자 가능가입 인원 무제한·연 2.3% 금리카카오, 모임통장 기능 더해 차별인터넷전문은행 토스뱅크가 공동명의가 가능하고 명의자마다 체크카드를 발급할 수 ‘모임통장’을 1일 출시했다. 모임통장을 주력 상품 중 하나로 밀고 있는 카카오뱅크와의 경쟁이 본격화할 것으로 보인다.토스뱅크는 이날 온라인 기자간담회를 열고 모임원 누구나 출금, 체크카드 발급, 결제 등이 가능한 ‘토스뱅크 모임통장’을 출시했다고 밝혔다. 지난해 6월 모임통장 출시를 예고한 지 약 8개월 만에 실제 상품을 선보였다.토스뱅크 모임통장은 명의자가 동의하면 모임원 중 누구든 공동명의자가 될 수 있다는 게 기존 상품과 가장 다른 점이다. 시중에 나와 있는 모임통장은 명의자 한 사람만 출금, 결제 등이 가능하다.홍민택 토스뱅크 대표는 “(이 상품을 내놓기까지) 수많은 공동명의자가 송금, 카드 결제를 할 수 있도록 서비스를 구현하는 데 난도가 있었고 구현 과정에서 금융소비자 보호, 서비스 안정성 등 챙길 게 많았다”며 “금융당국과 긴밀한 소통을 통해 이 상품을 출시할 수 있었다”고 말했다.모임통장 가입 인원에 제한이 없다는 것도 기존 모임통장과 다른 점이다. 커플 데이트 비용, 부부 생활비부터 수십, 수백 명이 모이는 동호회 회비까지 관리할 수 있다.토스뱅크는 “모든 모임원이 회비 납부 현황을 직관적으로 확인할 수 있고 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 간다”며 “회비를 내지 않은 모임원에게는 자동으로 푸시 알림이 간다”고 말했다. 체크카드를 발급받은 공동명의자가 해당 카드를 사용한 금액만큼 연말정산을 받을 수 있다는 것도 장점이다.모임통장 회비에는 토스뱅크 통장과 같은 세전 연 2.3% 금리가 적용된다. 카카오뱅크 모임통장의 경우에는 연 0.1%가 기본으로 제공되고, ‘세이프박스’와 연결했을 때 연 2.6% 금리를 받을 수 있다.홍 대표는 “타사 모임통장에 비해 금리가 높은 편이지만, 현재는 은행권이 전반적으로 수신금리가 높은 고금리 환경이기 때문에 연 2.3%는 토스뱅크에서 충분히 제공할 수 있는 금리 수준”이라고 말했다.토스뱅크가 모임통장 시장에 출사표를 내면서, 편리한 사용성으로 모임통장을 흥행시킨 카카오뱅크와의 경쟁이 치열해질 것으로 보인다.카카오뱅크 수신 중 모임통장 비중은 지난해 3분기 14.1%로, 전년 동기 대비 1.9%포인트 증가했다. 카카오뱅크는 지난달 27일 모임통장에 생활비 관리 기능, 회비 관리 기능 등을 신설했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>'회비관리 척척, 하루만 맡겨도 연 2.3%'…이 통장 뭐야?</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000322084?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>'연 2.3% 이자' 토스뱅크 모임통장, 출시 일주일만에 7만좌 돌파토스뱅크는 오늘(9일) '토스뱅크 모임통장'이 출시 일주일 만에 계좌 개설 수 7만좌를 돌파했다고 밝혔습니다. 9초에 하나씩 신규 계좌가 개설되며 출시 초반부터 흥행을 이어가고 있다고 전했습니다.  신규 개설하거나 모임원으로 참여한 고객의 연령대를 살펴보면 ▲10대 (11.13%) ▲20대(28.34%) ▲30대(25.28%) ▲40대(20.32%) ▲50대(11.53%)로 고른 분포를 보였습니다.  토스뱅크 모임통장은 '공동모임장' 기능과 더불어 하루만 맡겨도 연 2.3%(세전)의 금리를 제공합니다. 또 모임활동에 특화된 캐시백 혜택을 담은 모임카드를 공동모임장이라면 누구나 발급받을 수 있게 했습니다.토스뱅크 관계자는 "모임의 규모나 성격에 상관 없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀기울이며 기능과 혜택을 강화해 나갈 것"이라고 전했습니다. 한편, 출시 기념 '모임지원금 이벤트'도 다음 달 말까지 이어집니다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만 원까지 모임지원금을 줍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>여차하면 세네배 떡상, K-코인은 왜 이럴까?[엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005086381?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[엠블록레터] 2월 들어 주춤거리는 코인 시장에 또 하나의 떡상 사례가 등장했습니다. 바로 페이코인(PCI)입니다. 금융 당국으로부터 실명계좌 계약을 요구받았지만 이행하지 못해 결제 서비스를 중단해야 하는 상황에 몰려 빗썸, 업비트 등 국내 주요 가상자산 거래소에서 거래지원이 종료될 것으로 보였지만 예상을 깨고 오는 3월까지 유의종목 지정 연장 판정을 받았기 때문입니다. 유의종목 지정 연장이 알려진 6일 저녁 페이코인은 근 3시간만에 140원대에서 420원대로 3배가 올랐습니다.지난 1월 가장 두드러진 떡상 사례는 바로 앱토스(APT)였죠. 심볼 때문에 아파트 코인이라고 불리며 해외에서도 한국 투자자들이 집 없는 설움을 달래기 위해 집중 매수한다는 평까지 등장했습니다. 앱토스는 1월 한달동안 4천원대 후반에서 2만2천원대까지 5배가 오른 바 있습니다.일각에서는 이런 화끈한(?) 떡상 때문에 코인 투자를 한다는 얘기도 하고 있습니다. 야구가 시간 제한이 없는 스포츠여서 9회말 2아웃에도 무슨 일이 일어날지 모르는 것처럼 코인도 상하한가 제한이 없는 투자 시장이기 때문에 일발역전이 가능하다는 주장인 것이죠. 그러나 제어할수도 없는 변동성이 내 편을 들어줄 것이라고 생각하는 것 만큼 근거없는 기대는 없습니다. 도대체 코인 시장은 왜 이러는 걸까요? 몇가지 이유를 들 수 있습니다.코인 시장에는 기관 투자자가 없다?주식 시장이나 다른 금융 시장에 대한 기사를 보면 기관 투자자라는 단어가 자주 등장합니다. 자본시장연구원의 한 보고서에 따르면 기관 투자자는 ‘소액 투자자의 자금을 대규모로 집합한 후 집적된 자금을 주로 자본시장을 통해 운용하는 투자주체’를 의미합니다. 쉽게 말해 남의 돈을 십시일반해서 모은 다음 그 돈을 굴리는 전문 투자 회사나 기관을 말하는 것입니다.왜 갑자기 기관 투자자를 말하냐구요? 이 기관 투자자가 바로 다른 투자 시장과 코인 시장간의 결정적인 차이 중 하나로 들 수 있기 때문입니다. 앞서 말한 정의에서 기관 투자자의 핵심은 두가지입니다. 하나는 바로 ‘남의 돈’이고 다른 하나는 ‘전문’입니다. 뒤집어 말해 자기 돈으로 투자하거나 전문 회사가 아니면 기관 투자자가 아니라는 것입니다.대규모의 자금을 집합하기 때문에 언뜻 보면 큰 손, 즉 큰 액수의 투자금을 굴리는 주체를 기관 투자자로 간주하기 쉽지만 그렇지 않습니다. 코인 시장에도 대규모 자금을 운용하는 주체들이 있기 때문에 이들을 가끔 기관 투자자라고 지칭하는 경우가 있긴 한데요. 그러나 이들 중 소액 투자자의 자금을 대규모로 집합한 회사는 거의 없습니다.자금의 대규모 집합의 대표적인 사례는 펀드입니다. 하지만 코인 투자를 목적으로 펀드를 조성하는 집합 행위는 국내에서는 사실상 불법에 해당됩니다. 해외에서도 보편적이지 않고요. 따라서 코인 시장에서 대규모 자금을 거래하는 주체들은 사실상 코인으로 부를 축적한 신흥 큰손들이라고 보는 것이 타당합니다. 자기자본 거래의 비중이 높고 설령 위탁받은 자금이라 하더라도 명확한 전략이나 수익률 목표 없이 자기자본처럼 운영하는 경우가 많죠.이렇게 코인 시장의 큰손과 기관 투자자가 일치하지 않다 보니 투자 시장에서 기관 투자자들이 수행하는 역할이 공백 상태입니다. 일부 기관 투자자들은 주가가 급락할 때는 저점을 지지하거나 급등할 때는 적당한 매도로 가격을 눌러줘 시장의 안정성을 높여줍니다. 없으면 당연히, 가격 널뛰기에 대한 제어도 어려워지는 것이죠.그래서 코인시장 규제는 언제할까?이러다 보니 코인 시장에서는 전문 자산운용사들에 의한 다양한 전략에 따른 장기 투자가 부재합니다. 따라서 장기 투자보다는 단기 ‘매매’가 주를 이루며 이렇기 때문에 유동성 공급, 또는 시장 조성(마켓메이킹)자의 관여에 따른 변동폭이 큽니다. 변동성 증가에 따른 시장 조성자의 수익도 더 높습니다.모든 경우는 아니지만 상당히 많은 고변동성 사례가 시장 조성자와의 연관성을 의심받고 있습니다. 몇몇 사례는 언론을 통해 보도되기도 했는데요. 검찰이 수사중인 사안도 있습니다. 아무리 코인 시장이 규제가 없는 무법지대라지만 기망행위에 따른 사기죄는 엄연히 적용이 되니까요.하지만 그럼에도 불구하고 일각에서는 시장 조성 행위가 여전히 많이 이뤄지고 있다고 제기합니다. 아무리 찾아봐도 뚜렷한 이유를 찾기 힘든 가격 급등이 요 근래 몇차례 발생했거든요. 게다가 이른바 ‘상폐빔’이라는 은어로도 불리는, 유의종목 지정과 거래 지원 종료 예고에도 불구하고 느닷없이 급등해 투자자들의 눈을 흐리게 하는 경우도 찾아볼 수 있습니다. 단적으로 랠리(RLY)는 최근 사업 중단을 발표해 유의종목으로 지정됐음에도 불구하고 이유없는 급등을 보여주기도 했습니다.눈을 돌려 다른 투자 시장을 보면 이같은 시장 조성 행위는 엄격한 규제 대상입니다. 국내 주식시장에서 시장 조성자는 한국거래소와 계약을 체결한 회사에 국한됩니다. 또 시장 조성 행위 자체도 상시 모니터링의 대상입니다. 이는 해외에서도 크게 다르지 않습니다. 호가를 촘촘히 쌓아 거래 비용을 줄여 시장 활성화에 기여하지만 시장 교란을 통한 부당 이득 또는 이해 상충의 여지가 발생할 가능성이 높기 때문입니다.코인 시장에 적절한 규제가 필요하다는 주장의 근거도 여기에 있습니다. 시장 조성 행위가 시장의 활성화에 기여하는 부분은 분명히 존재하지만 자본 시장, 그리고 투자 시장의 특성상 규제로 인한 손해가 발생하지 않으면 이득이 나는 방향으로 움직이는 것이 시장 참여자들입니다. 그리고 현재 코인 시장에서는 시장 조성자들이 규제 공백으로 인한 이득을 얻기에 너무 유리한 환경인 것이구요. 또 여기에 가장 큰 영향을 받는 코인이 바로 최근 이유없는 떡상을 보여준 K-코인들로 추정됩니다.그렇다면 개인 투자자는 이에 어떻게 대응해야 할까요? 가장 주의해야 할 것이 변동성에 올라타지 않는 것입니다. 10분에 10%씩 뛰는 가격을 보면 지금에라도 매수하면 10분 뒤 10%라는 달콤한 수익을 얻을 수 있겠다는 생각에 휩싸이기 쉽습니다. 하지만 이 변동성은 결코 제어할 수 없는 변동성이라는 것을 명심해야 합니다. 막대한 호가 변동은 그에 상응하는 자본이 있어야만 가능합니다. 큰손의 변덕에 휘둘리는 것은 언제나 개인 투자자임을 기억해야겠습니다.분명 코인 시장은 다양한 정보, 가치 분석, 가격 예측 등에 의거한 장기 투자보다는 중단기 매매의 비중이 높은 시장입니다. 몇년에 한번씩 찾아오는 크립토 윈터는 온갖 분석을 무력하게 만드는 주범이기도 하구요. 하지만 중단기 매매에 주력한다 하더라도 한번에 변동성 홈런을 날리겠다는 생각은 수익 타율을 매우 낮추는 결과를 초래하기 쉽습니다. 현재 주목받는 트렌드나 각 프로젝트의 활동 기록, 커뮤니티의 참가 등과 같은 재료를 활용해 중단타를 높은 타율로 기록하겠다는 생각이 수익률 관리에는 보다 도움이 될 것입니다. 오늘도 눈에 띄는 급등 코인에 현혹되지 말고 차분한 투자를 하시길 기원합니다.&lt;엠블록레터(Mblock)&gt;[엠블록레터]는 매일경제 블록체인 전문 자회사 '엠블록컴퍼니(Mblock)'의 뉴스레터입니다. 엠블록컴퍼니가 만든 무료 뉴스레터를 구독하시면 디지털 자산 투자의 지침이 될 올바른 정보와 새로운 블록체인 기술 트렌드를 따라잡을 수 있는 심층분석을 수·금 아침 이메일로 받아보실 수 있습니다. 아래 주소로 접속하시면 구독 페이지로 연결됩니다.https://bit.ly/mblockletter</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>알리콘 ‘로켓펀치’, 취준생 위해 현직자 커리어 조언 ‘커피챗’ 운영</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005085270?sid=105</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>삼성, 네이버, 카카오, 토스 등 국내 대표 기업 실무 코치진 40명과 무료 커피챗 진행 취준컴퍼니코치(알리콘 제공)커리어 소셜 네트워크 ‘로켓펀치‘와 분산 오피스 ‘집무실’을 운영하는 알리콘(공동대표: 김성민, 조민희)이 사회 초년생과 이직 또는 직무 전환을 고려중인 구직자들을 위해 국내 대표기업의 실무진으로 구성된 멘토 프로그램을 운영한다고 8일 밝혔다.멘토 프로그램은 알리콘이 1월부터 진행해온 취업을 위한 가상회사 ‘취준컴퍼니’ 캠페인의 주요 프로그램이다. ‘취준컴퍼니’는 매월 제한된 선발 인원을 모집해 오직 취업활동에만 집중할 수 있도록 집무실 이용권과 업계 사람들의 네트워킹과 취업 정보를 얻을 수 있는 로켓펀치 프리미엄 서비스를 무료로 제공한다.이번 2월 한달 동안 활동하는 취준컴퍼니 2기에 선발된 취업준비생에게는 삼성, 현대자동차, 네이버, 카카오, SK텔레콤 등 국내 유수 기업의 N년차 실무진 40명이 참여하는 멘토 프로그램이 준비됐다.  취업 준비생의 커리어 조언을 제공하는 다양한 직무의 코치진으로 구성된 멘토 프로그램은 온라인 또는 오프라인 집무실 지점에서 커피챗을 진행한다.  이들 코치진 또한 매월 기수마다 자발적 지원을 통해 이뤄진다.코치진의 직군은 △개발자 데이터 △마케팅/브랜딩 △기획/PM △HR/운영 △비즈니스/투자 △디자인 등 다양하게 구성했다.  커피챗의 주제는 멘토들이 자율적으로 정한다. 예를 들어, 성공적인 커리어 전환, 스타트업과 대기업 업무 스타일 차이, 커리어 관리 팁 등 다양하다. 코치들은 취업 팁, 직무 별 기초 소양, 현업 실무 과정 등 자신만의 노하우를 전달한다.한편, 취준컴퍼니 선발인원은 로켓펀치의 개인 워크 프로필을 강화하고, 매주 적극적인 구직활동을 하는 것이 유일한 미션이다. 미션 요건을 충족 시 다음 기수에도 참여할 수 있는 자격이 주어진다. 로켓펀치를 통한 취업 성공 시, 축하금 50만원을 증정한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>저축은행, 금융당국에 "플랫폼 수수료 과도하다" 건의 예정</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004846900?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>저축은행업계가 금융위원회에 토스·카카오페이 등 플랫폼사가 부과하는 수수료율이 과도하다는 의견을 전달한다. 플랫폼사들이 은행과 저축은행 간 수수료율을 4배 이상 차등한 게 부당하다는 주장이다. 이에 대해 플랫폼사들은 인위적으로 수수료율을 하향 조정하면 중소형 플랫폼사의 영업이 어려워져 오히려 플랫폼 독과점 문제를 유발할 수 있다고 반박했다. 2일 금융업권에 따르면 금융위와 저축은행 업계는 오는 7일 비공개 오찬 간담회를 갖는다. 금융위는 최근 논란이 된 저축은행과 플랫폼사 간 수수료율 부과 문제, 5월 구축 예정인 비대면 대환대출 인프라에 관한 업계 의견을 듣는다. 저축은행업계는 간담회 자리에서 플랫폼사가 저축은행에 부과하는 수수료율이 지나치게 높다는 의견을 전달할 예정이다. 플랫폼사들은 구축된 시스템에 의해 고객을 모집한다. 그런데 은행에는 평균 0.5% 이하 수수료율을 적용하는 반면, 저축은행들엔 1.5% 가량의 수수료율을 책정한 점이 부당하다고 주장한다. 플랫폼사들은 대출비교 서비스를 통해 여러 금융사의 대출을 고객에 소개해주고 대출이 이뤄지면 금융사로부터 수수료를 받고 있다. 지난해부터 조달비용이 상승하는 등 업황이 어려워지자 저축은행들은 플랫폼에 내는 수수료 부담도 커지고 있다고 설명한다. 저축은행의 조달비용인 예금금리(1년 만기 기준)는 이날 평균 4.58%로 집계됐다. 올 1월1일(5.37%)보다는 줄었지만, 지난해 2월2일(2.43%)보다는 여전히 2배 가까이 높다. 가뜩이나 법정최고금리가 20%로 제한돼 있어 마진이 줄어드는데 플랫폼에 수수료까지 내다보니 저축은행의 실적 악화 부담이 가중됐다는 것이다.특히 은행에 비해 오프라인 점포수가 적은 저축은행들은 대출 모집 과정에서 플랫폼 의존도가 높다. 지난해 9월말 기준 출장소를 포함한 저축은행 점포수는 287개로 KB국민·신한·우리·하나은행 점포수(2891개)의 10분의 1 수준이다. 저축은행의 대출모집인 수도 2021년말 2960명에서 지난해말 2210명으로 크게 줄었다. 이런 상황에서 저축은행 일부는 신규 취급 대출 절반 이상이 플랫폼에서 이뤄지고 있는 것으로 파악됐다.저축은행들은 플랫폼 수수료율을 낮추기 위해 애쓰고 있다. 최근에는 플랫폼사들이 회원사로 있는 핀테크산업협회와 관련 의견을 나눴지만, 합의점을 찾지 못했다. 저축은행 내부에서는 플랫폼사별로 수수료율을 따져 합리적으로 판단한 곳에만 입점하는 방안도 검토 중인 것으로 알려졌다. 반면 플랫폼사들은 은행과의 수수료율 차이는 시장 논리에 의해 자연스럽게 결정된 것이라 반박한다. 상대적으로 탄탄한 대출 모집 채널을 보유한 은행을 입점시키기 위해서는 저축은행보다 낮은 수수료율을 적용할 수밖에 없다는 설명이다. 또 저축은행들도 기존 오프라인 모집인보다 1%포인트(p) 가량 낮은 수수료율이 적용돼 많은 이익을 봤다고 주장했다.나아가 플랫폼사들은 인위적으로 수수료율을 낮추면 오히려 저축은행들이 우려하는 플랫폼 독과점 문제가 발생할 수 있다고 지적한다. 한 플랫폼사 관계자는 "현재 수수료율 체계에서도 플랫폼사가 가져가는 이익이 크지 않다"며 "이런 상황에서 인위적으로 수수료율을 낮추면 중소형 플랫폼사는 앞으로 서비스를 더 이어가기 힘들 수 있다"고 말했다.이어 "중소형 플랫폼사들이 사업을 접고 대형 플랫폼사만 남으면 기존 금융권이 우려하는 플랫폼 독과점 문제가 생길 수 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>“최고 4%, 파킹통장의 시대”…요즘은 인뱅이 쏠쏠하네</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000039337?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>시중은행 정기예금 3%대로 낮아져인뱅 파킹통장 경쟁력 부각서울 시내의 한 저축은행에 설치된 예·적금 금리 현황판. [연합뉴스][이코노미스트 김윤주 기자] 은행권 예금금리 하락세에 다시 ‘파킹통장’에 대한 관심이 높아지고 있다. 인터넷전문은행의 파킹통장‧수시입출금통장이 최고 4%의 높은 금리를 제공하고 있는 만큼, 틈새 이득을 볼 수 있을 것으로 보인다.3일 금융권에 따르면 국민은행‧신한은행‧하나은행‧우리은행‧NH농협은행 등 5대은행의 1월 말 기준 정기예금 잔액은 812조2500억원이다. 이는 한달 전인 작년 말보다 6조1866억원 감소한 수치다. 5대은행의 예금 잔액은 지난해 10월 808조2276억원을 기록한 뒤, 11월 827조2986억원까지 상향 곡선을 그리다가 연말부터 줄어들기 시작했다.지난해 하반기 5대 은행의 정기예금 금리가 연 5%를 넘으며 고금리 예금상품에 대한 관심이 급증했다. 이후 다시 금리가 꺾이면서 정기예금 잔액이 감소세로 전환한 것으로 풀이된다. 이 가운데 인터넷전문은행의 파킹통장이 ‘어부지리’로 이득을 볼 것으로 기대된다. 파킹통장이란 일시적으로 돈을 넣어 두는 상품을 뜻한다. 주차장에 잠시 주차를 하는 것과 같이 하루만 맡기더라도 이자를 받을 수 있고 자유롭게 입출금을 할 수 있다. 파킹통장은 지금처럼 변동성이 심한 시기에 투자처를 찾지 못하고 오갈 데를 잃은 자금들을 잠시 맡겨두기 편한 상품으로 꼽힌다.케이뱅크의 파킹통장인 ‘플러스박스’는 3억원 한도 내에서 연 3% 금리를 제공한다. 케이뱅크는 올해부터 ‘지금이자받기’ 서비스도 시작했다. 누적된 이자 금액이 1원 이상인 경우 고객이 원할 때 매일 1회 이자를 수령할 수 있다. 그동안은 매월 한 달에 한 번 넷째 주 토요일에 이자가 지급됐다.카카오뱅크의 파킹통장인 ‘세이프박스’는 1억원 한도 내에서 연 2.6%의 금리를 제공한다.또한 토스뱅크의 수시입출금식 통장인 ‘토스뱅크 통장’은 5000만원 초과 금액에 대해 연 4% 금리를 적용한다. 다만 5000만원 이하 금액은 연 2.3% 금리를 제공한다. 수시입출금통장은 파킹통장처럼 별도의 공간으로 자금을 이동하지 않고, 고금리 혜택을 받을 수 있다는 게 토스뱅크 측의 설명이다.3일 기준 5대은행의 1년 만기 정기예금 최고금리는 3.51%~3.73% 수준이다. 인터넷전문은행의 파킹‧수시입출금 통장의 최고금리가 평균 3.2%인 것과 비슷한 수준이다.특히 시중은행의 정기예금은 3%대 최고금리를 받기 위해 상품별로 다양한 우대 조건을 충족해야하는 반면, 인터넷전문은행의 파킹통장과 수시입출금통장은 별다른 조건이 없다는 점 또한 고객을 유인하는 요소다.그간 인터넷전문은행은 높은 금리의 파킹통장과 수시입출금통장으로 고객을 끌어모은 만큼, 쉽사리 해당 상품의 금리를 낮추지는 않을 것으로 전망된다.한 인터넷은행 관계자는 “최근 은행 예금 금리가 낮아지고 있지만 파킹통장의 금리는 유지 중”이라면서 “아직 파킹통장의 금리인하 계획은 없다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[디마人]'제로 웨이스트 마케팅'을 꿈꾸다…팀민트 한만형 대표</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042476?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>'디마人'은 '디지털마케팅 종사자(人)'와 영어 'Demine(지뢰를 제거하다)'을 포함한 중의적 표현으로, 치열한 디지털마케팅 시장에서 고군분투하는 업계 종사자들의 목소리를 담습니다.마케팅 단계별로 각각의 대행사를 선정해 진행되는 파편화된 커뮤니케이션은 전문성과 효율성을 떨어뜨릴 수 있다. '풀스택 마케팅 회사'를 표방하는 팀민트는 프로젝트별로 전담팀을 구성해 예산 낭비 없는 '제로웨이스트(환경 보호를 위해 쓰레기를 최소화하는 운동)'를 목표로 하고 있다.한만형 팀민트 대표. (사진=팀민트)회사명 '민트'는 마케팅 인텔리전스 앤드 테크놀로지(Marketing Inteligence &amp; Technology)의 약자다. 마케팅에 기술을 더해 실제 비즈니스 성과에 개선을 주겠다는 포부를 담았다. 회사는 2022년 5월 설립돼 브랜딩·콘텐츠·퍼포먼스 등 디지털 마케팅 전체를 아우르는 풀스택 마케팅 서비스를 제공 중이다.2022년 3분기부터는 뉴미디어 종합 콘텐츠 기업 '더에스엠씨그룹'과 협력을 하다, 아예 인수돼 '팀민트'로써 디지털 퍼포먼스 역량을 더하고 있다. 지난해 9월 기준 취급고 30억원을 달성하며 빠르게 성장 중으로, 올 상반기 108억원의 취급고를 달성할 것으로 전망된다.팀민트를 이끄는 한만형 대표는 사회적기업 '다누리맘' 대표를 지낸 이후, 퍼포먼스마케팅 전문 대행사 '모비데이즈'를 거쳤다. 그는 &lt;블로터&gt;와 만나 "마케팅 예산의 30%에서 절반은 제대로 쓰이지 않고 있다는 얘기가 있다. 좋은 뜻을 가지고 있는 사업체들의 목표를 달성하는 데 예산이 잘 쓰이면 우리 사회가 더 좋은 사회가 될 수 있다고 믿는다"며 팀민트의 비전을 '제로 웨이스트'라고 밝혔다.다음은 한만형 대표와의 일문일답.Q. 다누리맘 대표 이력이 독특하다. 당시 어떤 일을 했나? A. 다누리맘은 지역사회 구성원들의 삶을 개선하기 위해 다양한 비즈니스 프로젝트를 만드는 글로벌 연합동아리 '인액터스'에서 출발했다. 결혼 이주 여성들은 언어나 음식 등 문화적으로 익숙하지 않은 이주 초기에 임신과 출산을 경험하게 된다. 이때 겪는 산후조리의 어려움을 조금이나마 도와주기 위해 같은 문화권의 여성들을 산후조리사로 매칭해 주는 것이 골자다. 산후조리사 또한 이주 여성으로서 겪는 경제적 어려움을 다소 해소할 수 있다. Q. 사회적 기업과는 달리 마케팅은 완전히 '수익'을 추구하는 업계다. 마케팅 업계로 오게된 계기는?A. 마케팅에 대해선 아무것도 몰랐다. 모비데이즈도 수습으로 들어가 운좋게 많은 경험을 쌓을 수 있었다. 마케팅에 관심을 가진 것도 다누리맘과 비슷한 이유에서였다. 자본주의 사회에서도 윤리적 의식과 도덕적 기준을 가지고 사업을 해서 잘되면 곧 사회에 기여하는 것이라고 생각했기 때문이다. 좋은 미션들을 가진 기업들이 정말 많다. 디즈니의 미션은 '사람을 행복하게 하는 것'이고, 한국 기업 중에서 토스와 타다는 각각 금융 생활과 이동에서의 불편함을 해소하는 것을 목표로 하는 회사다. 이 미션을 달성하기 위해서는 그것을 원하는 사람들에게 연결을 잘 해줘야 한다. 이때 마케팅 역량을 가진 사람들이 서포트할 수 있고, 이는 궁극적으로 우리 사회가 뭔가 좀 더 좋은 사회로 나아가는 데 있어서 기여하는 것이라고 생각한다. Q. 창업 계기는?A. 종대사, 종합광고대행사라고 하는 곳들은 규모가 큰 회사일 뿐 실제 모든 마케팅을 종합적으로 다 해주진 않는다. 퍼포먼스 마케팅이나 검색 광고, 브랜딩 캠페인 등등 각각 중점을 둔 분야들이 있다. 퍼포먼스 마케팅을 주로 해오면서 퍼포먼스 마케팅만으로 해결할 수 있는 게 아니라는 생각이 든 서비스들도 많았다. 광고주 하나를 두고 여러개의 에이전시들이 있으니 각 전략간 시너지가 나기 어렵고, 커뮤니케이션에 있어서도 비효율적이다. 그래서 민트는 고객사가 마케팅에서 경험하는 어려움들을 해소할 수 있는 모든 방법들을 종합적으로 제공한다는 생각으로 만들었다.리포트 자동화(데이터 표준화) 솔루션 '허브'를 만든 것도 그 이유 중 하나다. 광고 캠페인을 운영하면서 리포트를 작성하는 데만도 많은 시간이 걸린다. 메타, 구글, 네이버, 카카오 등 각각 광고 매체가 제공하는 데이터의 양식이 모두 다르기 때문이다. 허브는 하나의 데이터 플랫폼으로, 광고 데이터를 다운로드 받고 표준화(정제)하는 것을 자동화해준다. 담당자는 불필요한 작업에 치이지 않고, 데이터를 기반으로 인사이트를 도출하는 데 보다 집중할 수 있게 된다.리포트 자동화 솔루션 '허브' 이용 시 1시간 정도의 데이터 작업을 단축시킬 수 있다. (사진=허브 소개 페이지 갈무리)Q. 민트가 종합 마케팅 회사가 될 수 있는 근거는?A. 회사 인력은 35명 정도로, PA(퍼포먼스 아키텍트)팀·BA(브랜드 아키텍트)·테크팀·디자인팀으로 나뉜다. PA팀에서 회사1을 맡고, BA팀에서 회사2를 맡는 식이 아니라, 하나의 광고주에 맞는 팀을 구성한다. 리더격인 프로젝트 매니저가 선출이 되면 팀이 구성이 되고, 그 안에서 광고주에게 필요한 마케팅 솔루션을 고민하고 제공하는 것이다. Q. 더에스엠씨그룹과 합병 이후 시너지를 내는 부분, 혹은 이후 기대하는 부분이 있다면?A. 기획이나 브랜딩 면에서도 확장을 계속 하고 있다. 더에스엠씨와 민트는 각각 콘텐츠와 퍼포먼스 마케팅에 역량이 있는 회사였고, 합병을 통해 시너지를 낼 수 있다고 생각해서 진행된 일이다. 특히 DB손해보험 같은 경우 더에스엠씨에서 광고를 제작해 왔고, 합병 이후에는 팀민트에서도 새로운 것들을 시도하고 있다.또, D2C(자사몰) 마케팅 역량도 생겼다. 더에스엠씨에는 기존 퍼포먼스 마케팅 조직인 '퀀텀파이러츠'가 있었는데 팀민트와 합쳐졌다. 퀀텀파이러츠는 D2C몰 운영을 강점으로 하는 인력들이 많은 팀이었다. 보습 크림 브랜드 '피지오겔'의 경우 자사몰 운영부터 시작한 케이스다. 팀민트에도 잘 어우러져 커머스 영역에서도 더 많은 성과를 낼 수 있을 것으로 기대한다.Q. 많은 마케팅 회사들이 인력난을 토로하고 있다. 구직자에게 회사의 비전이나 장점을 어필해 본다면?A. 마케팅은 노동 집약적인 비즈니스다. 광고대행사에서 AE(Account Executive), 퍼포먼스 마케터 한 분 한 분이 저희 회사의 제품이자 서비스다. 그래서 이들이 더 좋은 환경에서 더 많은 생산성을 만들어 낼 수 있는 환경을 만들려고 한다. 사실 허브도 그래서 만들어진 툴이기도 하다. 나이나 경력을 따지진 않는다. 실제로 지금도 인턴이나 신입으로 들어와 단기간에 퍼포먼스 마케팅에 적응한 분들이 있다. Q. 시중에도 퍼포먼스 마케팅 수업들이 많다. 그러나 수료 후 실제 상황에 바로 투입되기엔 역부족이라는 비판도 많은데?A. 기존 광고 업계에서 인재를 육성하는 방식들은 대부분 도제식이다. 사수-부사수가 있고, 2~3년 같이 다니면서 사수가 A부터 Z까지 다 알려주는 식이다. 그러다 보니 성장하는 데 시간도 오래 걸리고 사수를 누구로 만나느냐에 따라서도 다른 결과가 나온다. 그래서 팀민트는 좀 더 체계화된 교육 시스템을 만들었다. 퍼포먼스 마케터가 필수적으로 습득해야 할 기초 지식을 문서화했고, 2주간의 OJT(직무간 훈련) 기간 동안 학습할 수 있도록 지원한다. 커리큘럼은 신규 입사자의 빠른 적응에 필요한 내용들로 채워졌으며, 조직의 방향성을 이해하기 위한 '비즈니스 모델 개괄'부터 현업자도 헷갈려하는 'SKAdNetwork(iOS 인스톨 어트리뷰션을 위한 프레임워크)'까지 구성원들의 기초 지식을 상향평준화를 목표로 계속 업데이트하고 있다. 교육에서 끝나는 것이 아니라 실제 광고 캠페인들을 대상으로 실습을 할 수 있어 현장과의 싱크가 높다는 점이 특징이다.Q. 마지막 한 말씀.A. 회사 핵심 가치 중 하나가 '퍼머넌트 베타(permanent beta)'다. 앞으로 계속 계속 개선하고 발전시켜야 되는 '지속적인 성장'을 의미한다. 지금 단계에서 가장 고민은 역시 채용이다. 마케팅 업계에서 새로운 획을 그어보고 싶은 분이라면 함께 꿈꿀 수 있는 기회가 있으면 좋겠다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.02.11.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>아트투어 남프랑스, 에코투어 토스카나 특별한 여행</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002102562?sid=103</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>한진관광-대한항공 테마여행 전세기 띄워[헤럴드경제=함영훈 여행 선임 기자] 진짜 예술여행은 남프랑스, 진짜 에코여행은 내 고향 같은 서정을 주는 이탈리아 토스카나이다. 한진관광이 대한항공과 손잡고 한국인들의 하이퀄리티 여행을 위해 전세기를 띄운다.▶고흐,마티스,샤갈,피카소..아비뇽 교황청= 11일 한진관광에 따르면, 8년간의 노하우로 높은 만족도를 기록한 한진관광 남프랑스(마르세유)직항 전세기 상품은 예술의 향기를 흠뻑 느낄 수 있다. 고흐의 대표작인 밤의 카페 테라스의 배경이 된 ‘아를’, 장엄한 음악과 레이저 영상이 수놓아진 ‘레보드 프로방스’, 폴 세잔의 마지막을 볼 수 있는 ‘액상 프로방스’ 를 통해 예술가들의 발자취를 만날 수 있다.고흐의 그림 속 아를 풍경. 론강 위 빛나는 별. 별이 빛나는 밤에샤갈의 족적이 짙게 남은 생폴드방스또한 절벽 위에서 지중해의 아름다운 풍경을 바라보는 ‘에즈’, 샤갈 등 화가들이 사랑한 높은 성벽의 중세 마을 ‘생폴드방스’, 프랑스에서 가장 아름다운 ‘고르드’, 황토빛으로 물은 작은 마을 ‘루시용’, 로마시대 유적을 만나는 암석 위에 위치한 ‘레포드 프로방스’, 반 고흐가 치료 받던 생폴드 모졸 수도원이 있는 ‘생레미드 프로방스’, 아름다운 도자기의 마을 ‘무스티엘생트마리’ 까지 남프랑스의 특별한 마을도 만날 수 있다.▶모나코, 마르세유= 남프랑스는 오랜 역사를 지닌 것으로도 알려져 있다. 세계 문화 유산으로 지정된 퐁뒤가르, 카르카손을 비롯해 7명의 교황이 지냈던 아비뇽도 눈에 담을 수 있다. 또한 2600년의 역사로 이뤄진 문화 유적지 ‘마르세유’, 표현주 마티스가 활동했던 세계적인 휴양 관광지 ‘니스’, 세계에서 두번째로 작은 ‘모나코’ 도시도 즐길 수 있다.반고흐, 피카소와 같은 화가에게 영감을 준 극장 ‘아를 원형 경기장’, 성벽으로 둘러 쌓인 요새도시로 성 안에 마을이 보존되어 있는 ‘카르카손 시테 콤탈성’, 화가 폴 세잔의 흔적이 남은 작업실과 정원을 볼 수 있는 ‘세잔 아뜰리에’, 글라스 작품을 감상할 수 있는 색채의 마술사 ‘샤갈 미술관’, 새하얀 바닷물과 절벽이 조화를 이루는 ‘칼랑크 국립공원’, 가장 아름다운 로마의 수도원 중 하나인 ‘세낭크 수도원’ 과 같은 꼭 방문해야 하는 관광명소까지 관람할 수 있다.남프랑스예술가들의 발자취와 관광 명소를 만날 수 있는 이번 한진관광 남프랑스 직항 전세기 상품은 엄선된 호텔은 물론 편안한 일정에 다양한 테마로 만날 수 있는 상품이 알차게 구성되어 있다. 여행 출발일은 6월의 금요일인 6월 2일, 9일, 16일 총 3회로 구성되었다.▶이탈리아 돌로미티&amp;토스카나= 특히 이번 한진관광의 유럽 직항 전세기 상품에서 주목 할 만 한 점이 있다. 여행객들의 꾸준한 사랑을 받아온 기존 전세기 지역 외에 신규로 이탈리아 돌로미티&amp;토스카나 지역이 추가되었다.이탈리아의 돌로미티&amp;토스카나는 거대하면서도 아름다운 풍경을 만날 수 있고, 세계 자연 유산이 곳곳에 분포되어 있어 요즘 유럽 여행에서 각광 받는 도시이다.돌로미티이탈리아 돌로미티는 3,000m 이상의 암봉 18개, 빙하 41개를 품은 거대한 이탈리아의 알프스이자, 세계자연유산에 속한다. 돌로미티는 트레킹 족에게 많은 관심을 받는 곳이다. ‘트레치메 디 라바레도’는 세개의 봉우리로 이루어진 거대한 암봉으로 만발한 야생화의 초원지대에서 바위의 정상까지 연결되는 트레킹 코스로 하이라이트로 손꼽히는 장소이다. ‘세체다’는 날카롭게 솟은 봉우리들이 이어져 있고, 넓은 초원을 바라보며 트레킹하는 최고의 코스이다. ‘라가주오이’는 가장 높은 곳에 위치하며 아름다운 산장이 위치해 있다. ‘알페 디 시우시’는 축구장 8,000개 정도 크기의 고지대 평원으로 수많은 야생화와 청정한 바람을 즐길 수 있어 경이로움을 느낄 수 있다.▶예술가엔 영감을, 유네스코엔 감동을= 이탈리아 토스카나는 예술가에게 많은 영감을 전해 준 독특한 계곡 ‘발도르차’, 유네스코 세계문화유산으로 등재된 역사 유적지 ‘피엔차’, 중세 및 르네상스 시대의 건축물로 고풍스러움을 느낄 수 있는 ‘몬테풀치아노’, 유네스코 세계유산지역에 등재된 12개의 성곽 탑들의 도시 ‘산지미냐노’ 를 통해 아름다운 풍경을 만날 수 있다.토스카나이외에도 절벽으로 연결된 해변 마을 ’친퀘테레’, 아름다운 해안 마을로 최고급 휴양지라고 일컫는 ‘포르토피노 코스트’, 이탈리아의 가장 큰 호수인 가르다 호수 남쪽에 있는 ‘시르미오네’, 로미오와 줄리엣의 배경이 된 로맨틱한 ‘베로나’ 등 숨겨진 도시까지 즐길 수 있다.올 봄은 이탈리아 돌로미티&amp;토스카나에서 트레킹을 즐기기 가장 좋은 계절이다. 이번 한진관광 직항 전세기 상품은 전문 가이드와 인솔자가 동행하는 안전한 여행, 여유 있는 일정에 지역별 특식 및 전통식까지 접할 수 있어 벌써부터 여행객들의 뜨거운 관심이 쏟아지고 있다. 여행 출발일은 6월 23일, 30일 총 2회로 구성되었다.▶태양의 후예와 펠레폰네소스전쟁= 2016년부터 꾸준하게 진행해온 한진관광 그리스(아테네)직항 전세기 상품은 문명과 풍경을 한 눈에 담을 수 있다.파란 지붕과 하얀 건물이 인상적인 에게해의 ‘산토리니’부터 유럽문화의 발상지, 펠레폰네소스의 진원지로 낭만과 신화를 한 눈에 담는 ‘크레타’, 고대 문명과 현대가 함께 공존하는 ‘아테네’, 그림 같은 풍차와 바다가 펼쳐지는 ‘미코노스’, 하늘 위로 솟은 듯한 수도원 ‘메테오라’, 신의 흔적을 볼 수 있는 ‘델피’, 청량하게 파란 바다를 보며 힐링하는 ‘자킨토스 나바지오 해변’까지 대표 여행지를 만나볼 수 있다.산토리니봄은 그리스를 한 눈에 담기 좋은 여행 최적기이다. 이번 한진관광 그리스 직항 전세기 상품은 봄과 함께 만끽하는 아름다운 섬 관광은 물론 여유로운 일정에 편안한 숙박이 제공되며, 이 밖에 차별화된 특전도 준비 되어 있다. 여행 출발일은 5월의 매주 금요일인 5일, 12일, 19일, 26일 총 4회로 구성되었다.▶오슬로도 개방박두= 이외에도 한진관광은 북유럽 노르웨이(오슬로)전세기 상품을 출시 예정에 있어, 대자연의 감동을 기다리는 유럽 여행객에게 곧 반가운 소식을 전할 예정이다.한진관광 상품 관계자는 “봄 맞이 유럽 여행을 준비하는 여행객을 위해 기존 진행하던 그리스, 남프랑스를 비롯해 신규 지역인 이탈리아 돌로미티&amp;토스카나 상품까지 출시했다. 관광 뿐만이 아닌 자연 속에서 트레킹을 할 수 있는 도시까지 추가됨에 따라 유럽여행의 선택 폭이 넓어졌고, 니즈에 맞춰 유럽 여행을 만끽할 수 있다. 다가오는 봄, 한진관광에서 준비한 대한항공 유럽 직항 전세기 여행에 많은 관심을 바란다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>24시간 美주식 거래 시작…서학개미 유치 전쟁</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004154053?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>삼성證 블루오션ATS 독점 만료로美주식 주간거래 서비스 빗장 풀려NH '24시간' 첫선···키움·토스도 확대최대 25배 수수료 수입에 경쟁 가열[서울경제] 삼성증권과 블루오션 대체거래소(ATS)의 독점 계약이 만료되며 국내 증권사들이 ‘미국 주식 주간 거래’ 서비스를 잇달아 내놓고 있다. ‘24시간 거래’까지 제공하는 증권사도 등장했다. 이같이 서학개미 잡기 경쟁이 달아오르는 것은 국내 주식 대비 최대 25배 비싼 수수료를 받을 수 있기 때문이다.8일 금융투자 업계에 따르면 NH투자증권·키움증권·토스증권 등은 미국 주식 주간 거래 서비스를 앞다퉈 출시했다.NH투자증권은 이날부터 24시간 미국 주식 매매 서비스를 시작했다. 국내 증권사 중 처음으로 24시간 해외주식 거래 서비스를 제공하기로 했다. NH투자증권은 주간 거래(오전 10시부터 오후 6시) 서비스를 시작으로 프리마켓(오후 6시~오후 11시 30분), 정규장(오후 11시 30분~다음날 오전 6시), 애프터마켓(오전 6시~오전 10시)으로 나눠 운영한다. 특히 글로벌 시장 조성자의 유동성 공급(LP)을 통해 실시간 매수·매도가 가능하게 했다. 현재 5호가로 열었지만 향후 10호가로 시세 제공도 확대할 예정이다. 정중락 NH투자증권 플랫폼혁신본부 대표는 “미국 주식에 대한 투자수요와 유연한 투자 기회 제공을 위해 서비스를 마련했다”며 “앞으로도 해외 주식 플랫폼 경쟁력 제고를 위해 최선을 다하겠다”고 말했다.키움증권도 이날부터 미국 주식 주간 거래 서비스를 시작했다. 키움증권은 이번에 추가로 주간 시간대가 늘어나면서 하루 최대 21시간 30분 동안 미국 주식 거래를 지원하게 됐다. 토스증권도 이달 13일부터 미국 주식 거래시간을 확대하기로 했다. 기존 운영 시간에 데이마켓(오전 10시~오후 5시 50분)을 추가해 미국 주식 거래시간을 총 21시간 50분으로 늘렸다. 다만 토스증권의 소수점 거래 서비스는 정규장에서만 실시간 거래로 가능하다.그간 삼성증권 등 몇 개의 증권사만 운영하던 미국 주식 주간 거래 서비스가 여러 증권사로 확대된 배경에는 삼성증권이 맺었던 독점 계약 만료가 있다. 지난해 삼성증권은 ‘오버나이트 세션’ 지원 기능을 승인받은 유일한 ATS인 블루오션과 1년간 독점으로 계약했으나 이달 7일부로 만료됐다. 통상 미국 주식 주간 거래 서비스는 미국 금융산업규제국(FINRA)과 미국 증권거래위원회(SEC)로부터 오버나이트 세션을 지원할 수 있는 업무를 승인 받은 ATS와 제휴를 통해 제공된다.증권사들이 미국 주식 거래 서비스를 대폭 늘리는 것은 수수료 때문이다. 각종 수수료 이벤트가 없다고 가정했을 때 NH투자증권의 모바일 기준 미국 주식 수수료는 0.25%로 국내 주식(0.01%) 대비 높다. 삼성증권 역시 미국 주식 수수료는 0.25%다. 반면 국내 주식 수수료는 1000만 원 미만 기준 0.14% 수준이다. 다만 최근에는 미국·국내 주식 모두 수수료 ‘0원’ 이벤트 등을 진행하고 있어 수수료 차이는 크지 않다는 것이 증권사 측의 설명이다. 동시에 동학개미 운동 이후 해외 주식에 관심을 갖는 투자가들이 급증한 것 역시 미국 주식 주간 거래 서비스에 대한 수요를 발생시켰다. 업계의 한 관계자는 “최근 몇 년간 서학개미 수가 크게 늘어나며 미국 주식 주간 거래에 대한 수요도 커졌다”며 “편의성 등 고객 만족 차원에서 많은 증권사들이 관련 서비스를 출시하고 있다”고 설명했다.향후 메리츠증권·한국투자증권도 연달아 관련 서비스를 선보일 것으로 보여 경쟁은 더욱 치열해질 것으로 전망된다. 메리츠증권은 이달 13일, 한국투자증권은 이달 중으로 미국 주식 주간 거래 서비스를 출시하겠다고 밝혔다. KB증권은 3월 초 서비스 제공을 목표로 준비 중이다. KB증권 측은 “미국 주식 중개사 및 시세 제공사와 협의를 완료한 상태”라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>앱토스 디파이 페럼·해시드, 해커톤 '퍼네스' 15일 개최</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004809793?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>사진=페럼앱토스(Aptos, APT) 기반 디파이(DeFi) 프로젝트 페럼(Ferum)은 전 세계 빌더들을 대상으로 가상 해커톤 '퍼네스(Furnace)'를 진행한다고 13일 밝혔다.페럼은 무브(Move)의 프로그래밍 언어를 사용해 앱토스 생태계에 구축한 CLOB(중앙지정가주문장)로, 가장 효율적인 온체인 오더북이라는 설명이다. 페럼과 해시드가 공동 주최하는 이번 해커톤은 오는 15일~26일 11일간 진행되며 상금은 총 20만 달러(한화 약 2억5500만 원)에 달한다.먼저 15일 서울 강남구에 위치한 해시드 라운지에서 퍼네스의 킥오프 미팅이 열린다. 오전 11시부터 약 6시간 동안 이번 해커톤의 개요와 상금, 실력 발휘 비법 등이 공개될 예정이다. 킥오프 행사 이후에는 무브, 앱토스, 페럼의 워크숍과 더불어 피스네트워크(Pyth)의 파트너 워크숍 등이 차례로 이어진다.상세한 행사 내용 및 참가 신청은 페럼 측 공식 채널을 통해 확인할 수 있다.이번 행사의 주최자이자 페럼의 코어 컨트리뷰터인 소주(Soju)는 "퍼네스는 디파이에 흥미를 느끼는 신규 개발자들이 높은 수준의 상금과 지식을 활용해 강력한 프로젝트를 구축할 수 있는 기회가 될 것"이라고 말했다.한경닷컴 뉴스룸 open@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1조3000억 넘는 은행권 ‘성과급 잔치’ 논란에 이복현 “보수체계·지배구조 점검하겠다”</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003783588?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>금융위, 금융사 내부통제 강화·지배구조 개선 세부방안 마련 위해 내달 초 TF 출범 시중銀 관계자 "은행은 공공재 아닌 주주가 있는 엄연한 민간 기업" 반발도    게티이미지뱅크       은행에 대한 정부와 여론의 '이자 장사', '돈 잔치' 비난이 커지는 가운데, 지난해 5대 은행 임직원에 지급된 성과급만 모두 1조3000억원이 넘는 것으로 확인됐다.     한 명당 많게는 수억 원, 적게는 수천만 원에 이르는데, 결국 금융 당국이 이런 보수 산정에 합리적 근거가 있는지 들여다보기로 했다.     연합뉴스에 따르면 "민간기업의 임금 산정에 정부가 개입하는 것은 어불성설", "지나친 관치 금융"이라는 반론도 만만치 않지만, 대통령까지 나서 "은행은 공공재"라고 여러 차례 강조한 만큼 당분간 은행 등 금융기관에 대한 현 정부의 공익성, 사회적 책임 압박은 갈수록 커질 전망이다.     14일 국회에서는 은행 임직원의 전체, 평균 성과급 규모가 잇따라 공개돼 '돈 잔치' 논란의 불씨를 이어갔다.     금융감독원이 정무위원회 황운하 의원(더불어민주당)에게 제출한 자료에 따르면, 지난해 5대 시중은행의 성과급은 모두 1조3천823억원으로 파악됐다. 2021년 성과급 총액(1조19억원)보다 약 35%나 늘었다.     개별은행 임원 1명의 평균 성과급을 따져보면, KB국민은행이 2억1천600만원으로 가장 많았고 이어 하나은행(1억6천300만원), 신한은행(1억7천200만원), 우리은행(1억400만원), NH농협은행(4천800만원) 순이었다.     직원 1명의 평균 성과급의 경우 NH농협은행(3천900만원)이 1위를 차지했다. 하나은행(1천300만원)·신한은행(1천300만원)·KB국민은행(1천100만원)·우리은행(1천만원)도 모두 1000만원을 넘었다.     NH농협은행은 이에 대해 "기본급을 제외한 정기 상여금 등이 포함된 수치"라며 "은행별 급여체계 차이에 따라 상여금이 많은 것으로 집계됐을 뿐, 총급여 수준은 다른 은행들보다 낮다"고 설명했다.     금감원이 양정숙 의원(무소속)에게 낸 자료에서는 2021년 5대 시중은행의 성과급이 1조709억원으로 집계됐다.     5대 시중은행의 성과급은 ▲ 2017년 1조78억원 ▲ 2018년 1조1천95억원 ▲ 2019년 1조755억원 ▲ 2020년 1조564억원 ▲ 2021년 1조709억원으로 5년간 줄곧 1조원을 넘어섰고, 2022년 성과급은 2021년 당시 최대 실적을 바탕으로 더 늘었다. 지난해 인터넷은행 카카오뱅크와 케이뱅크, 토스뱅크도 전년보다 각 139%, 105%, 78% 많은 258억원, 138억원, 34억원을 성과급으로 지급했다.     성과급뿐 아니라 주요 은행들의 주주 배당도 계속 불어나는 추세다.     양 의원실 자료에 따르면 2021년 기준 국내 17개 은행의 배당(현금·주식배당) 합계는 7조2천412억원으로, 2020년(5조6천707억원)보다 28%나 많았다.     배당 규모는 ▲ 2017년 4조96억원 ▲ 2018년 5조4천848억원 ▲ 2019년 6조5천446억원 ▲ 2020년 5조6천707억원으로, 코로나19가 터진 2020년을 제외하면 해마다 급증하고 있다.     양 의원은 "2021년에는 7조2천억원이 넘는 배당금을 60∼70%의 외국인을 포함한 주주들에게 나눠줬고, 최근 5년간(2017∼2021년) 현금 지급기처럼 뿌린 배당금만 29조원에 육박한다"고 지적했다.     은행이 성과급과 배당을 지나치게 늘리는 데 대한 여론의 비난은 해마다 반복되는 일이지만, 최근에는 정부가 공개 석상에서 끊임없이 직접 문제를 제기하고 개선을 목적으로 실제 행동에 나섰다는 점에서 큰 차이가 있다.     신종 코로나바이러스 감염증(코로나19)을 계기로 급증한 대출과 최근 기준금리 상승으로 손쉽게 돈을 벌면서, 늘어난 이익을 공익에 환원하기보다는 내부 임직원들의 상여금이나 퇴직금을 늘리고 주주 배당 확대에만 몰두하는데 심각한 문제의식을 느끼고 있다는 얘기다.     이복현 금융감독원장은 이날 내부 임원 회의에서 "고금리와 경기둔화 등으로 국민의 어려움이 가중되고 있는 상황에서 은행권이 사상 최대 이자 이익을 바탕으로 거액의 성과급 등을 지급하면서도 국민과 함께 상생하는 노력은 부족하다는 비판이 수그러들지 않고 있다"고 지적했다.     아울러 "은행권의 (공익적 금융) 지원 내역을 면밀히 파악해 실효성 있는 지원이 이뤄지는지 점검해 적극적으로 감독하라"고 주문하며 "성과보수 체계가 금융회사의 지배구조에 관한 법률의 취지와 원칙에 부합하게 운영되고 있는지에 대해 점검하겠다"고도 했다.     윤석열 대통령이 앞서 13일 수석비서관회의에서 "은행은 공공재적 성격이 있다. 수익을 어려운 국민, 자영업자, 소상공인 등에게 이른바 상생 금융 혜택으로 돌아갈 수 있도록 배려하고 향후 금융시장 불안정성에 대비해 충당금을 튼튼하게 쌓는 데에 쓰는 것이 적합하다"며 "은행의 '돈 잔치'로 국민들의 위화감이 생기지 않도록 금융위는 관련 대책을 마련하라"고 지시한 것과 같은 맥락이다.     보수 체계 수술뿐 아니라 금융지주 회장들의 '셀프 연임' 시도 등을 원천 차단하기 위한 금융그룹 지배구조 개선 작업도 본격적으로 시작될 분위기다.     김주현 금융위원장은 이날 금융발전심의회 전체 회의에서 "금융회사 내부통제 강화와 지배구조 개선에 대해 조속히 세부 방안을 마련하겠다"며 다음 달 초 '기업지배구조 개선 태스크포스(TF)' 출범을 예고했다.     금리 상승과 함께 은행의 이자 이익이 크게 늘어난 만큼, 다양한 감면과 인하를 통해 취약계층의 이자 부담을 줄여주는 것은 공익적 측면뿐 아니라 은행의 건전성 관리 측면에서도 필요하다는 데는 은행들도 공감하고 있다.     이에 따라 은행권은 현재 다양한 취약계층 금융 지원책도 실제로 실행하고 있다.     하지만 정부가 지나치게 금리, 급여체계, 인사 등 금융의 모든 본질적 요소에 개입해 좌지우지하는 것은 시장 원리에 맞지 않고 효율성도 떨어진다는 불만의 목소리도 점차 커지고 있다.     한 시중은행 관계자는 "금융지주와 은행은 공공재가 아니다. 주주가 있는 엄연한 민간기업일 뿐"이라며 "사기업으로서 적정한 급여로 인력 수급을 관리해야 하고 이익으로 충당금을 많이 쌓아 대출 위험 관리도 해야 한다"고 반박했다.     또 다른 시중은행 관계자도 "정부가 지나치게 예금·대출 금리 조정에 간섭하면, 예금 금리와 시장금리, 대출 금리가 자연스럽게 연동되는 금리 체계가 망가져 오히려 소비자들이 혼란스러울 수도 있다"며 "더구나 사기업 은행에 공익 지출만 강조하는 것도, 금융위기가 닥쳤을 때 최후의 완충장치로서 충격을 흡수해야 하는 은행의 ‘체력’을 떨어뜨리는 일"이라고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>IT 경기 얼어붙자, 경력직 채용시장도 한겨울</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003256794?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>지난해 말 대형 전자회사를 그만둔 A(40대)씨는 요새 가끔 밤잠을 설친다. 퇴사한 지 한 달 가까이 지나도록 구직 인터뷰 기회를 잡지 못하고 있어서다. 사실 그는 재취업 걱정을 크게 하지 않았다. 재직 중 물류 고도화 작업을 주도했고, 이전 직장인 외국계 기업에선 전략 업무를 경험하는 등 경력이 나름 화려해서다. 레퍼런스(평판)도 나쁘지 않았다. 하지만 그는 “지난해 회사에 몸담고 있을 때는 스카우트 제의를 종종 받았었는데, 최근엔 이렇다 할 오퍼(제안)가 없다”며 초조감을 드러냈다.      그래픽=김경진 기자 capkim@joongang.co.kr           새해 들어 경력직 채용 시장이 급랭하고 있다. 잘나가는 정보기술(IT) 분야 개발자도 사정은 비슷하다. 헤드헌팅 업체인 드래곤HR의 박용란 대표는 “올 1월 전체 의뢰 건수는 지난해 동기 대비 20~30% 선이고, 의뢰 기업 수도 절반 수준”이라며 “대기업은 물론 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’ 같은 테크기업, 투자금 유치에 성공한 성장기업 모두 의뢰가 크게 줄었다”고 말했다. 그는 이어 “지난해 같으면 서너 건의 인터뷰 기회를 잡았을 구직자도 최근엔 한 번도 힘들 정도”라며 “성장기업의 구인 의뢰는 씨가 말랐다”고 덧붙였다.      지난해 경력직 이직 시장은 호황기에 가까웠다. 헤드헌팅 업체별로 매출이 전년보다 20% 가까이 늘었다. 굿커리어의 지난해 채용 의뢰 건수는 2100여 건에 달했다. 하지만 지난해 말부터 분위기가 반전했다. 무엇보다 경력직 채용을 주도했던 IT 기업과 외국계 기업이 채용을 급격히 꺼렸다. 업계에서는 올해 구직 의뢰가 지난해의 60% 선에 그칠 것으로 예상한다.      업계에서는 불경기 우려에 더해 코로나19 기간 중 급격히 몸집을 불린 기업이 이제 숨 고르기에 들어간 것으로 풀이한다. 실제 IT 기업은 코로나19 팬데믹 당시 인원을 크게 늘렸다. 네이버의 경우 2021년 6월 4235명이던 직원 수가 1년 만에 4885명으로 15.3%(650명) 늘었다. 같은 기간 카카오도 2961명에서 3603명으로 21.7% 증가했다.      그래픽=김경진 기자 capkim@joongang.co.kr           여기에 인원 증가가 반드시 ‘성과 향상’으로 이어지지 않는다는 학습 효과까지 더해졌다. 온라인 유통업체인 B사는 올해 최대한 채용을 보수적으로 진행할 방침이다. 이 회사 직원 수는 700여 명이다. 코로나19 팬데믹 당시 900명 이상으로 조직을 키웠지만 당분간은 현재 인원을 유지할 계획이다. 이 회사 관계자는 “지금 직원 수는 200명가량 줄었지만 실적은 되레 나아졌다”며 “올해는 결원을 채우는 선에서만 사람을 뽑을 계획”이라고 말했다. 박용란 대표는 “그동안 ‘초봉 6000만원, 평균 1억원’을 기본으로 하던 개발자 채용 붐이 정점을 지났다”며 “곧 아파트 가격처럼 붕괴할 수 있다”고 경고했다.      IT·스타트업계로 흘러들어오는 투자액이 마르고 있다는 점도 부담 요소다. 중소벤처기업부에 따르면 지난해 4분기 벤처 투자액은 1조3268억원으로 전년 동기보다 43.9%(1조381억원) 줄었다. 이영미 커리어케어 수석(부사장)은 “지난해엔 플랫폼 기업이 엄청난 규모로 인력을 뽑았다”며 “스타트업 경기가 얼어붙은 게 채용 시장을 경직시키는 가장 큰 요인”이라고 말했다. 그나마 수요가 꾸준한 분야별 ‘S급(최우수) 인재’의 경우 지난해 대거 자리를 옮기면서 스톡옵션 등 계약 조건에 묶여있어 쉽게 움직이기 어려운 경우가 많다.      다만 모든 경력직 시장이 얼어붙은 건 아니다. 기업 성과와 직결되는 영업 전문가 등의 채용은 비교적 활발하다. 또 삼성과 SK, 현대차 등 재계 5대 그룹 계열사와 바이오·배터리 등 특정 분야에서는 인력 수요가 꾸준하다. 지난해 대졸 신입·경력을 더해 1만명가량을 신규 선발한 삼성전자는 최근 기존 경력직 채용 기준을 ‘경력 4년 이상’에서 ‘2년 이상’으로 낮췄다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>토스뱅크, 모임통장 출시 일주일 만에 7만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000876039?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>토스뱅크는 토스뱅크 모임통장이 출시 일주일 만에 계좌 개설 수 7만좌를 돌파했다고 밝혔다. /토스뱅크 제공        토스뱅크는 지난 1일 출시한 ‘토스뱅크 모임통장’이 출시 일주일 만에 계좌 개설 수 7만좌를 돌파했다고 9일 밝혔다.토스뱅크 모임통장은 모임원이라면 누구나 출금 및 카드 발급, 결제까지 가능하게 한 ‘공동모임장’ 기능을 도입했다. 또 하루만 맡겨도 연 2.3%(세전)의 금리를 제공한다.신규 개설하거나 모임원으로 참여한 고객의 연령대 분포를 보면 ▲10대 (11.13%), ▲20대(28.34%), ▲30대(25.28%), ▲40대(20.32%), ▲50대(11.53%) 등으로 전 세대에서 고른 인기를 받았다.출시 일주일만에 구성원이 50명이 넘는 대규모 모임통장도 개설됐다. 현재까지 개설된 모임통장 6개 중 1개는(약 16%) 모임통장에 참여한 구성원 모두 ‘공동모임장’이 되어 출금과 카드 발급 및 결제 권한을 공유했다. 이 통장은 특히 공동모임장 모두 자신의 명의로 모임카드를 발급받아 사용하고 체크카드 연말 정산도 각자 받을 수 있다.한편 토스뱅크는 모임통장 출시를 기념해 진행하는 모임지원금 이벤트도 다음달 말까지 계속된다고 밝혔다. 토스뱅크는 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금을 지원한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>위믹스는 부활할 수 있을까 [코인브리핑]</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004969407?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>비트코인은 2만2000달러·2800만원대 회복 위메이드 제공 [파이낸셜뉴스] 위메이드가 개발한 가상자산 '위믹스'는 부활할 수 있을까. 지난해 경영진의 무더기 매도를 시작으로 원화 거래소에서 상장 폐지된 위믹스가 올해 재상장을 추진한다.     위믹스 올해 안에 재상장할 수 있을까   15일 업계에 따르면 위메이드는 국내 가상자산 거래소에 위믹스 상장을 신청했다. 아직 어느 거래소에 신청했는지 위메이드는 밝히지 않고 있지만 업계에서는 "재상장 가능성이 높다"라는 이야기까지 나오고 있다.   위믹스는 지난해 12월 업비트·빗썸·코인원·코빗 등 국내 4대 가상자산 거래소에서 상장폐지된 바 있다. 당시 디지털자산거래소공동협의체(DAXA)는 △위믹스의 중대한 유통량 위반 △투자자들에 대한 미흡하거나 잘못된 정보 제공 △소명 기간 중 제출된 자료의 오류 및 신뢰훼손 등을 이유로 상장폐지를 결정했다.   위메이드는 DAXA가 요구하는 상장조건을 맞춘다면 심사 가능성이 열려있다고 보고 있다. 위믹스의 재상장을 반등의 기회로 삼겠다는 목표다. 이날 위믹스는 브라질 최대 가상자산 거래소 ‘메르카도 비트코인’에서 거래를 시작했다.    장현국 위메이드 대표. 연합뉴스 제공 장현국 위메이드 대표는 이날 오전 컨퍼런스콜을 통해 “위믹스는 디지털 이코노믹 플랫폼으로 앞서나갈 것”이라며 “위믹스 플레이가 오픈 블록체인 게임 플랫폼으로 지위를 공고히하고 인터게임 이코노미를 고도화해 양적-질적으로 성장하는 한 해가 될 것”이라고 말했다. 이어 “지난해 적자는 투자로 인한 것”이라고 덧붙였다.   다만 1·4분기까지 100개의 게임을 위믹스에 온보딩하는 계획은 채우지 못할 것이라고 예상했다. 위메이드는 개수보다 플랫폼 전체의 활성화를 추진하는 만큼 목표 개수를 설정하지 않겠다는 계획이다.   또한 업계 관계자는 "현재 위믹스의 재상장 가능성에 대한 이야기는 대부분 위메이드에서 자가발전하는 것으로 안다"라며 위믹스의 재상장에 대해 조심스러운 입장을 보였다.     최악 면한 CPI...코인시장도 회복세   지난 새벽 미국 소비자물가지수(CPI)가 발표되면서 코인시장은 조금씩 회복세를 보이고 있다. CPI가 전년 대비 6.4% 오르며 예상치를 상회했지만, '최악은 피했다'라는 인식이 시장에 공유된 것으로 풀이된다.   글로벌 가상자산 시황 중계 사이트 코인마켓캡에 따르면 이날 오전 10시 기준 비트코인 가격은 24시간 전보다 1.85% 오른 2만2163.90달러를 기록하고 있다. 같은 시간 국내 가상자산 거래소 업비트에서 비트코인은 전일보다 0.20% 떨어진 2873만9000원에 거래됐다.   알트코인(얼터너티브 코인·비트코인을 제외한 나머지 대체 가상자산) 대장 이더리움 역시 회복세다. 코인마켓캡에서 이더리움은 24시간 전보다 3.22% 상승한 1551.10달러를 기록 중이다. 업비트에서 전일보다 0.15% 떨어진 201만3000원에 거래된다.   디지털 자산 거래소 업비트의 업비트 마켓 인덱스(UBMI) 지수는 이날 오전 9시 기준 5143.73포인트로 전날보다 2.21% 상승했다.   비트코인의 지배적인 영향력을 제외한 시장의 흐름을 확인할 수 있는 UBAI 지수도 2.85% 상승했다.   이날 업비트 기준 디지털 자산 원화마켓 총 거래대금은 1조원으로 전일보다 4.7% 감소했으며, 알트코인들의 총 거래대금은 1조원으로 전일보다 9.02% 감소했다. 총 거래대금 중 비트코인의 거래대금 비중은 11.53%이다.    뉴스1 제공 테마별로 보면 대부분의 테마 디지털자산이 소폭 상승한 가운데 광고산업 관련 디지털자산들의 상승 폭이 4.3%로 가장 컸다.   개별 종목별로 보면 거래대금이 3284억원으로 가장 많았던 앱토스(APT) 종목의 경우 이날 오전 9시 기준 1만원으로 전날보다 7.34% 상승했다. 던프로토콜(DAWN) 종목은 거래대금 증가율(이전 30일 평균 거래대금 대비 전일 거래대금)이 92.76%로 가장 높았으며, 가격 또한 6.72% 상승해 1000원을 기록하며 투자자들의 이목을 집중시켰다.   가격이 가장 많이 상승한 종목은 어거(REP) 종목으로, 이날 오전 9시 기준 1만원으로 전날보다 18.01% 상승했고, 이에 따라 거래대금은 이전 30일 평균 거래대금에 비해 61.7% 상승해 964억원을 기록했다.   업비트 공포지수는 전날에 비해 2포인트 상승한 56포인트를 기록했다. 이 수치는 현재 시장이 중립 상태에 있음을 의미한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[손에 잡히는 재테크] '돈 모으기' 무조건 성공하는 적금 챌린지?</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000320913?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>■ 재테크 노하우 100분 머니쇼 '손에 잡히는 재테크' - 신희은 밀레니얼머니스쿨 대표Q. 말씀 주신 게 '적금 챌린지'라는 건데, 어찌 됐든 적금이니까 금리가 중요할 것 같거든요. 그런데 요즘 금리 많이 떨어졌다는 이야기 많이 들리던데, 괜찮나요?- 금리 뚝뚝 떨어진다, 예·적금 금리 상황은?- 시중은행 정기예금 금리 3%대로 일제히 하락- 예금금리 5% 어디 갔지...'특판 상품'도 실종Q. 그런데 이런 상황에서도 고금리를 쳐주는 상품들이 있다는 거죠? 저축 챌린지에 사용되는 적금 상품들에는 어떤 것들이 있는지 소개 좀 해주시죠.- 저축금리 줄줄이 하락…아직은 틈새 상품 있다?- 카뱅 '26주적금'·신한 '쏠메이트 적금'이 연 7%로 최고- 토스뱅크의 '키워봐요 적금', 카카오뱅크 '26주 적금' 등- 적금 챌린지 상품, 26주라는 비교적 짧은 납입기간 특징- 최고 금리 3% 제공, 최소 1000원부터 적금 가능- 최소 1천 원 이상 최대 20만 원까지 납입 한도Q. 근데 짧은 기간 동안 소액으로 투자하다 보니 티끌 모아 티끌일 것 같은데, 적금 챌린지에 특별한 이점이 있는 겁니까?- 단기간 고금리 목돈마련…적금 챌린지란?- 26주 동안 최초 가입 금액만큼 매주 증액해 넣는 '26주적금'- 커피값부터 시작하는 저축 챌린지…장점은?- 적금 챌린지, 소액으로 부담 없이 시작할 수 있다는 장점- 소액을 꾸준히 넣어서 목적자금 만들기에 유용한 방식- 매달 작은 성취감은 물론 적은 금액으로 누구나 쉽게 활용- 적금 가입 시기를 분산해 목돈 전체를 해지하지 않아도 돼- 가입 금액이 소액으로 설정할 수 있다는 점도 부담 적어- 계획한 금액에 맞춰 자산관리 가능- 반면 매일 정해진 금액을 납입하는 과정에서 번거로움- 매월 은행에 넣을 수 있는 한도가 적어 받을 수 있는 이자 금액 한계- 저축은행, 1금융권으로 자금 쏠림을 막기 위한 상품 출시- 매주 저금 성공 시 우대금리 제공하나 한주라도 실패하면 기본금리 적용- 토스 '키워봐요 적금' 계약기간 동안 총 6회까지 일부 금액 출금 가능Q. 이런 단기 적금 상품은 사실상 큰 규모의 돈을 운용하는 방식은 아니다 보니, 효과를 배가시키기 위해 '풍차돌리기'라는 재테크 전략도 있다던데요. 이건 또 뭔가요?- '풍차돌리기'…제2의 월급이 된다?- 풍차돌리기는 특정 상품의 이름이 아니라 적금 방식 지칭하는 용어- 매월 1년짜리 적금 혹은 예금에 새롭게 가입해 목돈을 모으는 방식- 첫 달에는 10만 원, 두 번째 달 적금통장 추가해 월 납입금 20만 원- 1년 동안 유지하면 1년이 된 시점에는 적금통장 12개, 120만 원- 1년이 지난 13개월 차부터 순차적으로 적금 만기, 매달 원금 120만 원과 이자를 수령Q. 고금리 상품이고 단기간에 목적자금을 마련할 수 있으니까 좋아 보이는데, 이런 저축챌린지를 하시는 분들이 간과해선 안 될 부분도 있다면서요?- 고금리 적금의 함정…1년 돈 모아도 이자는 '쥐꼬리'?- 이자 5% 적금이라더니…깜짝 고금리 상품의 '함정'- 금리가 높은 대신 가입 금액 제한- 26주 적금의 이율이 일반 저축보다 높지만, 효과 미미- 26주 동안 자신이 선택한 금액을 증액시켜 적금하는 방식- 첫 주 1만 원, 둘째 주 2만 원, 셋째 주 3만 원 증액- 26주 차에는 돈의 26배인 26만 원 넣고 만기- 26주 가까워질수록 적금에 들어간 돈이 커져- 26주 이자 금액에 세금 15.4% 부과- 만약 자동이체에 1번이라도 실패했다면 우대금리 못 받아(자세한 내용은 동영상을 시청하시기 바랍니다.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>미국 주식, 이제 낮에도 사고판다... 증권사 주간거래 서비스 속속</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004966427?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>NH투자證, 24시간 거래 가능  증권사들이 본격적으로 서학개미(해외주식 투자자) 잡기에 나섰다. 시차로 인해 밤에만 가능했던 미국주식 거래를 하루 20시간 이상 가능하게 만들고 있다. 24시간 가능한 곳도 나왔다.   8일 증권업계에 따르면 NH투자증권과 키움증권은 이날 미국주식 주간거래 서비스를 오픈했다.   앞서 삼성증권과 미래에셋증권이 지난해 2월과 10월 미국주식 주간거래를 시작한 바 있다. 최초로 이 서비스를 시작한 삼성증권과 블루오션 대체거래소(ATS)의 독점계약이 이달 7일 만료됨에 따라 국내 증권사들이 순차적으로 블루오션과 계약을 맺고 도입에 나선 것이다.   NH투자증권의 경우 주간거래(10~18시)를 시작으로 프리마켓(18시~23시30분), 정규장(23시30분~6시), 애프터마켓(6~10시)까지 총 24시간 국내 최장 거래시간을 제공한다. 국내 증권사 중 유일하다.   장 관리시스템 효율화를 통한 일일정산시간 최소화로 국내 최장 거래시간을 확보했다는 설명이다. 주간거래 매매 체결방식은 글로벌 시장조성자의 유동성 공급(LP)을 통해 실시간 매수·매도가 가능하다. NH투자증권 관계자는 "증권사 가운데 유일하게 출근시간대인 오전 7시30분~10시에도 매매할 수 있다"고 말했다.   키움증권의 경우 종전에는 프리마켓과 정규시장, 애프터마켓 시간에 미국주식 거래가 가능했으나 주간거래(10~18시) 시간대를 추가, 하루 중 20시간30분(서머타임 적용시 최대 21시간 30분) 동안 미국주식을 거래할 수 있다.   토스증권도 오는 13일부터 미국주식 거래 가능 시간에 10시~17시50분을 추가한다. 기존 거래시간과 더하면 총 21시간50분 동안 미국주식을 사고 팔 수 있다. 신규 마켓에선 지정가와 시장가 매매로 거래할 수 있다. 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다.   한국투자증권, 메리츠증권 등은 이달 중에, KB증권은 다음 달 초에 미국주식 주간거래 서비스를 각각 오픈할 예정이다.   nvcess@fnnews.com 이정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.02.07.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>노코드 이커머스 솔루션 아임웹, 고객사 누적 거래액 3조 돌파</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005419900?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>‘22년 한 해 거래액만 1조원 육박전년 대비 50% 성장100% 노코딩으로 쉽고 빠른 웹사이트 구축 가능결제·물류·챗봇 등 이커머스 관련 기능도 간편하게 추가[이데일리 김현아 기자] 노코드 이커머스 솔루션 ㈜아임웹(대표 이수모)이 고객사의 누적 거래액이 2023년 2월 기준 3조원을 돌파했다고 7일 밝혔다.아임웹은 지난해 말 누적 개설 웹사이트·쇼핑몰 수 50만개를 돌파한 데 이어 올 2월에는 고객사 누적 거래액 3조원을 돌파하며 가파른 성장세를 이어가고 있다.아임웹 고객사의 누적 거래액은 2020년 9월 1조원을 돌파했고, 2022년 1월 2조원을 돌파했다. 2016년 본격적인 서비스를 개시한 후 4년 만에 1조원을 넘어섰고, 그 후 16개월 만에 2조원을 돌파했으며, 약 1년간의 짧은 기간 뒤 3조원을 돌파했다.2022년 아임웹의 고객사 거래액 규모는 약 9,625억원으로 1조원에 육박했다. 이는 2021년 약 6,397억원 규모였던 것에서 1.5배가량 성장한 수치다. 2022년 한 해 고객사의 주문 건수 또한 1,000만건을 넘기며(약 1,170만건) 2021년(약 938만건) 대비 약 25% 성장한 모습을 보였다.거래액과 주문 건수의 빠른 증가는 신규 고객 유입률과 고객사별 거래액의 폭발적인 성장 덕분이다. 지난해 아임웹을 통해 한 달 평균 1만1,000여 개 신규 사이트가 개설되면서 신규 쇼핑몰 수가 크게 늘었고, 고객사들은 IT 개발이나 디자인에 시간을 투자하는 대신 마케팅에 더욱 집중해 매출도 큰 폭으로 성장할 수 있었다.아임웹은 100% 노코드 기반의 편리한 웹사이트 구축 및 이커머스 운영 솔루션을 제공한다. 마우스 클릭과 드래그 앤 드롭 만으로도 심미성 높은 웹사이트를 만들 수 있고, △네이버페이 △카카오페이 △토스페이 등 다양한 간편결제 서비스 연동으로 수만명의 이커머스 사업자가 아임웹을 선택하고 있다. 아임웹은 여러 기업과 파트너십을 맺고 △패션 플랫폼에 상품 목록 연동 △물류 대행 서비스 연동 △챗봇 서비스 연동 등 쇼핑몰 운영을 더욱 편리하게 해주는 여러 기능도 제공하고 있다.올 한 해 아임웹은 새롭게 이커머스 사업을 시작하거나 기존 사업을 확장하려는 고객들을 지원하기 위해 마케팅 도구를 대폭 개선하고 확장할 계획이다. 여기에는 △기존 기능 업데이트 △새로운 기능 추가 개발 △신규 기업과의 연계를 통한 앱(연동) 서비스 확대 등이 포함된다. 기능 고도화를 통해 신규 고객 유치에 힘쓰고, 궁극적으로는 고객들이 편리하게 이커머스 사업을 영위할 수 있도록 ‘판매자를 위한 생태계’를 조성할 계획이다.이수모 아임웹 대표는 “꾸준히 새로운 고객이 유입되고 거래액 규모도 가파른 상승세를 보이고 있다”며 “아임웹은 사업자가 사업 아이템에만 온전히 집중할 수 있는 이커머스 환경을 지원한다는 목표로 판매자에게 도움을 줄 수 있는 마케팅 요소들을 전방위적으로 지원할 계획이다. 좋은 사업 아이템만 있다면 아임웹이 제공하는 다양한 마케팅 도구들을 활용해 기업 규모를 키우고 지속적으로 성장할 수 있도록 도울 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>다야몬즈, 신작 '하이큐' 정식 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000725821?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>배구 소재 애니메이션 '하이큐'가 게임으로[사진=다야몬즈]다야몬즈(대표 김동균)는 모바일 게임 '하이큐!! 터치 더 드림(이하 하이큐)'의 정식 서비스를 1일 시작했다.하이큐는 동명의 배구 소재 애니메이션을 기반으로 한 게임이다. 카라스노, 네코마, 아오바조사이, 등 원작에 등장하는 캐릭터가 3D 미니 캐릭터로 구현됐으며 서브, 리시브, 토스, 스파이크, 블로킹 등의 스킬을 통해 박진감 넘치는 경기를 즐길 수 있다.애니메이션의 스토리라인을 재현한 스토리 모드와 다른 플레이어와 경기를 하는 PVP 매치 외에도 데일리 매치, 토너먼트 등 다양한 콘텐츠를 갖췄다. 스토리 모드의 경우 원작 애니메이션의 성우들이 선사하는 풀보이스를 감상할 수 있다.김동균 다야몬즈 대표는 "전세계 하이큐 팬들을 매료시킨 감동과 박진감 넘치는 스토리를 게임으로 완성시키기 위해 최선의 노력을 해왔다"며 "하이큐를 통해 박진감 넘치는 배구의 감동과 함께 나만의 드림팀을 성장시켜 나가는 재미를 느낄 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 2.3%···토뱅, 고금리 ‘모임통장’으로 카뱅에 도전장</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002097656?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>하루만 넣어도 연 2.3% 금리모임원 누구나 출금·카드 발급 및 결제 가능모임원 늘어날 때마다 ‘모임지원금’ 지급[토스뱅크 제공][헤럴드경제=홍승희 기자] 토스뱅크가 하루만 맡겨도 2.3%의 금리를 제공하는 입출금통장을 모임통장까지 확대하며 시장 공략에 나선다. 4년 전 모임통장을 출시해 안정적으로 저원가성 예금을 확보하고 있는 카카오뱅크의 벽을 넘을 수 있을지가 관건이 될 것으로 보인다.토스뱅크는 1일 ‘모임통장 온라인 기자간담회’를 열고 모임원 누구가 출금 및 카드 발급, 결제까지 가능한 ‘토스뱅크 모임통장’을 선보였다. ‘한 곳에 모아서, 쓸 때는 모두가’라는 슬로건을 내세우며 카카오뱅크에 정면 도전장을 낸 셈이다디자인그래픽 : 이은경‘하루만 맡겨도 연 2.3%’ 모임통장까지 확대…공동모임장 가능토록토스뱅크가 모임통장을 내놓은 것은 지난해 6월 홍민택 대표의 예고 이후 7개월여 만이다. 특히 이번에 내놓은 토스뱅크 모임통장의 가장 큰 메리트는 금리다. 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 수시입출금통장 성격을 유지하기 때문에 여타 파킹통장과 달리 별도의 공간으로 자금을 이동해 출금·결제가 안 되도록 묶어 놓을 필요 없이 편리하게 고금리 혜택을 받을 수 있다. 카카오뱅크의 경우 세이프박스와 연결할 시 2.6%의 이자를 받을 수 있지만 모임통장 자체의 이자가 연 0.1%라는 점을 감안하면, 편리성과 금리 우위를 가져가겠다는 전략으로 풀이된다.홍 대표는 이에 대해 “모임통장의 2.3% 금리 결정은 단순히 고이율을 주는 수익성 악화라기 보다는 규모의 경제를 키우기 위한 전략적 결정으로 이해해달라”고 설명했다.또 ‘공동모임장’이라는 개념을 새로이 제시했다. 통장 최초 개설자인 모임장을 비롯해, ‘공동모임장’들도 본인 명의로 결제 및 출금을 할 수 있다. 모임장의 동의를 받고 실명확인 절차를 완료한 모임원은 공동모임장이 되며, 모임장과 기존 지정된 공동모임장의 동의를 얻어 언제든 새로운 공동모임장을 추가할 수 있다. 여기에 공동모임장이라면 누구나 본인 명의의 모임카드를 발급 받을 수 있어 그 동안 계좌 하나당 카드 한 개만 발급돼 결제가 불편했던 점을 없앴다는 설명이다.홍민택(왼쪽에서 두 번째) 토스뱅크 대표와 김서연 모임통장 PO, 심종경(맨 오른쪽) 모임카드 PO가 모임통장에 대해 설명하고 있다.[토스뱅크 제공]모임원 가입 인원 제한을 없앤 것도 차별화 지점이다. 모임통장에 속한 모든 모임원은 손쉽게 다른 모임원을 초대할 수 있어서, 모임장의 부담을 덜어주는 것은 물론 빠르게 모임원 초대 및 운영이 가능하다. 서너 명의 소모임에서부터 다양한 인원의 대형 모임까지 모임통장 하나로 운영할 수 있게 했다. 여기에 자동화된 회비 관리기능까지 제공해 총무의 부담을 최소화했다. 모임원의 회비 납부 현황을 직관적으로 확인할 수 있으며, 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 아울러 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달돼 투명한 회계까지 가능하다.초기 현금지원 팍팍…1인당 모인지원금 최대 1만원까지토스뱅크는 시장을 이미 선점한 카카오뱅크의 벽을 넘기 위해 오는 3월 31일까지 ‘모임지원금’ 이벤트를 진행한다. 모임원 1인당 최대 1만원까지 모임지원금이 지원돼 모임 규모가 커질수록 받아갈 수 있는 혜택의 크기도 같이 커진다. 적립된 모임지원금은 모임통장으로 입금되며, 출금과 결제에 바로 사용할 수 있다. 단 사용자가 몰릴 시 조기 마감될 수 있다는 설명이다.캐시백 혜택도 있다. 혜택을 제공하는 주요 3대 영역인 ▷회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) ▷놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▷장보기(이마트·농협하나로마트) 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있다. 이 혜택은 모임통장 계좌별로 적용되며, 하나의 계좌에 여러 장의 카드가 있어도 혜택 횟수는 통장 하나로 합산되어 적용된다. 모임카드는 에피소드 형태로 운영되며, 이번 혜택은 올해 6월 말까지 제공될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>`비대면 확대·검사 강화`에 저축은행 대출모집인 급감</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002783418?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>저축은행의 대출모집인 수가 급감하고 있다. 모바일 플랫폼을 통한 비대면 대출 확대와 함께 관리감독이 강화된 영향으로 풀이된다. 10일 금융업계에 따르면 지난해 말 기준 저축은행 등록 대출모집인은 총 2210명으로 집계됐다. 2년 전(3970명)과 비교하면 44.3% 급감한 것이다. 저축은행 대출모집인은 2018년 3719명, 2019년 3887명, 2020년 3970명, 2021년 2960명을 기록하면서 급속도로 줄어드는 추세다. 대출모집인은 대출상담사(개인)과 대출모집법인을 일컫는다. 저축은행과 위탁계약을 맺고 금융소비자와 연결해 수수료를 받는다. 수수료율은 대출 상품과 금액에 따라 다르지만, 대부업법 중개수수료 상한을 기준으로 삼는다. 대출금액이 500만원 이하라면 3%, 500만원을 넘는다면 초과액에 15만원을 더한 금액의 2.25%다. 예컨 대출자가 A저축은행에서 1300만원의 신용대출을 받으면 대출모집인은 중개수수료로 33만원(15만원+800만원*2.25%)을 얻게 되는 식이다. 최근 저축은행 대출모집인의 빠른 감소는 대출비교 플랫폼 등을 통한 온라인 대출이 활성화한 영향으로 풀이된다. 대출비교 서비스는 국내 약 24개 기업이 제공하는데, 네이버파이낸셜, 카카오페이, 토스가 대표적인 업체다. 업계에 따르면 현재 빅테크 3사의 대출 중개 서비스에는 저축은행이 약 30곳씩 입점해 있다. 저축은행들도 모바일 앱, 홈페이지 등 자체 대출 플랫폼 고도화 정책을 펴면서 대출 모집인에 대한 의존도가 점점 낮아지고 있다. 대출모집인이 유독 지난해에 많이 축소된 것을 두고는 금융당국의 관리감독이 강화된 영향이라는 지적도 있다. 저축은행 대출모집인은 작년 1분기 2890명에서 지난해 4분기 2210명으로 1년 만에 680명이 이탈했다. 2020년 3월 금융소비자보호법(금소법)이 시행되면서 대출모집인도 금융당국의 직접적인 검사와 제재 대상에 포함됐다. 금감원은 지난해 8월부터 대출모집법인을 대상으로 한 검사를 처음 진행했다. 그 결과 SBI·OK·페퍼·애큐온·OSB 등 5개 대형 저축은행에서 1조2000억원 규모의 불법대출 취급 사례를 적발했다. 대출 모집인들이 각종 서류를 불법으로 위·변조해 저축은행에 제출하고, 저축은행들은 사업자 주택담보대출을 내주면서 문제가 발생했다. 모집인 축소 현상은 당분간 이어질 것이라는 관측이 나온다. 한 업계 관계자는 "비대면 대출 확대 추세에 따라 모집인 수요가 점점 감줄어들 것으로 본다"면서도 "대출 모집인은 고령층 고객 확보에 효과적이어서 저축은행 수요가 있기 때문에 당장 위축되는 수준으로 줄지는 않을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토뱅 `모임통장` 출시… 카뱅 아성에 도전장</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002781682?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>모임원 누구나 카드발급 가능하루만 가입해도 연 2.3% 금리인원 제한 없애 카뱅과 차별화내달까지 최대 1만원 지원 행사토스뱅크가 '토스뱅크 모임통장' 출시 기자간담회를 개최했다. 이지홍(왼쪽부터) 토스뱅크 커뮤니케이션팀 리더, 홍민택 토스뱅크 대표, 김서연 모임통장 PO(프로덕트 오너), 심종경 모임카드 PO. 토스뱅크 제공    토스뱅크가 '토스뱅크 모임통장'을 앞세워 카카오뱅크의 모임통장 아성에 도전한다.'토스뱅크 모임통장'은 연 2.3% 금리를 제공하고 모임원 누구나 카드 발급·결제가 가능하다.토스뱅크는 1일 온라인 기자간담회를 열고 모임원 누구나 출금, 체크카드 발급, 결제 등이 가능한 '토스뱅크 모임통장'을 출시한다고 밝혔다. 지난해 6월 모임통장 출시를 예고한 지 약 8개월 만에 실제 상품을 선보였다.토스뱅크 모임통장은 명의자가 동의하면 모임원 중 누구든 공동명의자가 될 수 있다는 게 기존 상품과 가장 다른 점이다. 시중에 나와 있는 모임통장은 명의자 한 사람만 출금, 결제 등이 가능하다. 또한 카카오뱅크는 모임통장 인원을 최대 100명으로 제한하고 있는 반면 토스뱅크 모임통장은 가입 가능한 모임 인원 제한을 없애 자유롭게 모임 규모를 늘릴 수 있다.금리는 하루만 맡겨도 연 2.3%를 제공한다. 수시입출금통장으로 파킹통장과 달리 묶어놓을 필요가 없다. 카카오뱅크의 모임통장 금리는 0.1%다.자동화된 회비 관리기능도 제공한다. 회비를 납부하지 않은 모임원에게는 자동으로 푸시 알림이 간다. 아울러 회비를 사용할 때마다 모임원 모두에게 알림 메시지가 전달된다.토스뱅크는 공동모임장 누구에게나 발급되는 '모임카드'에 혜택을 더했다. 카드 명의자가 사용 금액에 따라 연말정산을 받을 수도 있으며, 소비 부문에 따른 캐시백 혜택도 제공된다. 주요 캐시백 제공 영역은 △회식(음식점·주점에서 19시~24시까지 결제 시 캐시백) △놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) △장보기(이마트·농협하나로마트) 등이다. 모임통장 계좌별로 적용되며, 이번 혜택은 올해 6월 말까지 제공된다.토스뱅크는 다음달 말까지 '모임지원금 이벤트'도 진행한다. 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금을 지원해 모임 규모가 커질수록 혜택이 늘어나게 했다.홍민택 토스뱅크 대표는 모임카드를 여러 개 발급하는 과정에서 횡령 등 금융사고 발생 우려가 있다는 지적과 관련,"'공동모임장' 등록을 위해 전체 모임원의 동의를 받도록 하는 등 안전장치를 마련했다"며 "출시 후 다른 리스크가 발견될 경우 솔루션을 고안해 출시할 계획"이라고 밝혔다. 토스가 모임통장 시장에 출사표를 내면서, 편리한 사용성으로 모임통장을 흥행시킨 카카오뱅크와 경쟁이 치열해질 것으로 보인다. 카카오뱅크 수신 중 모임통장 비중은 지난해 3분기 14.1%로, 전년 동기 대비 1.9%포인트 상승했다. 카카오뱅은 전달 27일 모임통장에 생활비 관리 기능, 회비 관리 기능 등을 신설했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>'토스뱅크 모임통장' 출시 일주일 만에 7만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001082052?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>토스뱅크가 지난 1일 출시한 '토스뱅크 모임통장'이 출시 일주일 만에 계좌 개설 수 7만좌를 돌파했다.토스뱅크 모임통장은 모임원이라면 누구나 출금 및 카드 발급, 결제까지 가능하게 한 공동모임장 기능을 최초로 도입했다.토스뱅크에 따르면, 모임통장은 출시 초반부터 다양한 세대에서 인기를 얻은 것으로 나타났다.신규 개설하거나 모임원으로 참여한 고객의 연령대 분포를 보면 △10대 (11.13%) △20대(28.34%) △30대(25.28%) △40대(20.32%) △50대(11.53%)로 2040세대에서의 고른 인기를 중심으로 10대와 50대까지 높은 비중으로 유입됐다.또 출시 일주일 만에 구성원이 50명이 넘는 대규모 모임통장도 개설됐다.토스뱅크 모임통장은 공동모임장 기능과 더불어 하루만 맡겨도 세전 연 2.3%의 높은 금리를 제공한다.모임 활동에 특화된 캐시백 혜택을 담은 모임 카드를 공동모임장이라면 누구나 발급받을 수 있게 했다.공동모임장은 토스뱅크 모임통장이 최초로 선보인 기능이다. 모임장의 동의를 받고, 실명 확인 절차만 거치면 공동모임장이 될 수 있다.토스뱅크 관계자는 "출시 초기부터 모임통장에 높은 관심과 애정을 보여주시는 고객에게 진심으로 감사드린다"며 "모임 규모나 성격에 상관 없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀 기울이며 기능과 혜택을 강화해 나갈 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>'먹통' 케이뱅크, '고금리' 카카오뱅크…줄기는 커녕 5년째 민원 급증</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000322403?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>[앵커] 모바일 뱅킹 이용자가 크게 늘면서 인터넷전문은행도 급성장하고 있습니다. 하지만 전산 장애 등으로 불만을 느끼는 민원은 매년 늘고 있어 서비스 개선 노력이 더 필요하다는 지적이 나옵니다. 권준수 기자가 취재했습니다. [기자] 석 달 전 케이뱅크는 7시간 넘게 전산장애가 이어지면서 소비자들이 큰 불편을 겪었습니다. 이 같은 서비스 불편을 호소하며 지난해 금융감독원에 접수된 케이뱅크 관련 민원은 246건으로 나타났습니다. 한 해 전보다 20건 가까이 늘었습니다. 3년 전 100건을 밑돌던 민원은 줄어들지 않고 오히려 2년 전 두 배이상 늘더니 200건을 훌쩍 넘어섰습니다. 카카오뱅크 역시 지난해 카카오 서버 화재사태로 앱 접속이 지연돼 소비자들이 불편을 겪었습니다. 지난해 두 인터넷 은행의 민원은 모두 660건 전년 대비 10% 가까이 늘었습니다. [박재호 / 더불어민주당 국회의원: IT를 기반으로 한 인터넷 전문은행의 경우 통신 장애 같은 문제에 더욱 철저히 대비하여 소비자 입장에서 불편을 겪지 않도록 해야 하는데 대비가 부족했던 것으로 보입니다.]전산 장애뿐만 아니라 카카오뱅크 같은 경우 동종업권 대비 높은 대출금리 문제가 민원으로 이어진 경우도 많았습니다. 지난해 카카오뱅크는 가계 신용대출 금리가 케이뱅크보다 평균 2%p 정도 더 높았고, 최대 4%p 넘게 벌어지기도 했습니다. 카카오뱅크는 "고객 수가 늘고 지난해 기준금리가 오르면서 민원이 소폭 증가했다"고 설명했습니다. [이은희 / 인하대 소비자학과 교수: 고객수가 늘어난다고 무조건 민원이 늘어나는 건 아닙니다. 인터넷 은행은 그만큼 시간이 지날수록 안전한 시스템을 갖춰야 한다고 생각합니다.]재작년 10월 문을 연 토스뱅크 역시 지난해 128건으로 적지 않은 민원이 발생했습니다. SBS Biz 권준수입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>혁신적인 청년 창업가 키울 곳 없으신가요?…중진공, 운영사 모집</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004846961?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>중진공 본사 전경./사진=머니투데이 DB중소벤처기업부와 중소벤처기업진흥공단이 혁신적인 청년창업자를 양성할 청년창업사관학교 민간운영사를 오는 10일까지 공개 모집한다고 3일 밝혔다2011년부터 운영 중인 청창사는 만 39세 이하 청년 창업자의 사업계획 수립부터 사업화, 졸업 후 성장을 위한 연계지원까지 창업 전 단계를 원스톱으로 지원하는 사업이다.  모집지역은 세종과 전북 2곳으로, 입교생 규모는 세종 청창사가 30명, 전북 청창사는 40명이다. 중진공은 창업초기 청년창업자의 성장 가능성을 확대하고 사업화 성공률을 높이기 위해 우수한 창업지원 역량을 보유한 민간운영사를 선정해 창업교육·코칭(문제해결형 워크숍), 사업화 지원 및 네트워킹 프로그램을 운영해 오고 있다. 올해 청창사는 지역별 특성화 분야를 중심으로 운영될 예정이다. 초격차·신산업 창업분야와 지역주력산업 등을 영위하는 예비 창업자와 기업을 중점 선발해 육성할 계획이다. 민간 운영사 공모 신청은 K-스타트업 누리집(www.k-startup.go.kr)에서 모집공고 확인 후 신청서 및 사업계획서 등을 구비해 접수처로 우편 또는 방문 접수하면 된다. 한편 청창사는 전국 18개 지역에서 현재까지 6741명의 청년창업가를 배출했다. 청창사 출신 청년창업가들은 최근 5년간 3조6818억원의 누적 매출성과와 1만7150명의 신규 일자리를 창출했다. '토스', '직방'과 같은 유니콘 기업을 배출하는 등 대한민국 청년 기술창업의 대표 양성소로 자리매김하고 있다. 특히 코로나19 위기 속에도 비대면(온라인) 교육·코칭 시스템 조기 도입과 방역지침에 따른 탄력적 운영으로 지난해 12기 졸업생 899명을 배출했으며, 매출액 2257억원, 일자리 2729명 창출, 투자유치 223억원 등 괄목할 만한 성과를 달성하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>[오!머니] 등산 동호회 통장 만드는데… 카카오뱅크vs토스뱅크</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000891722?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 토스뱅크가 모임통장 시장에서 경쟁한다./사진=이미지투데이 #. 30대 직장인 A씨는 '청계산 날다람쥐'로 불린다. 등산을 좋아해 지난해엔 등산에 취미가 있는 지인 몇을 모아 등산모임을 꾸리기도 했다.하지만 모임장이 되니 신경쓸 게 은근 많았다. 모임원들과 등산 일정을 짜는 건 물론 간식이나 뒤풀이 비용을 관리해야했기 때문이다. 모임비를 투명하게 그리고 효율적으로 관리하기 위한 방법을 찾아보던 중 인터넷은행의 모임통장이 쏠쏠하다는 소리를 들었다.카카오뱅크와 토스뱅크가 대표적이라는데 어떤 모임통장이 좋을까?두 은행이 '모임통장'에서 맞붙는다. 2018년 출시돼 이용자수 1100만명 이상을 확보한 카카오뱅크와 상대적으로 높은 금리와 인원 제한이 없다는 강점을 내세운 토스뱅크가 모임통장 시장에서 격돌할 전망이다.━카톡으로 간편하게 초대… '생활비 관리' 기능도 추가━사진=카카오뱅크 모임통장 시장은 현재 카카오뱅크가 꽉 잡고 있는 상황이다. 2018년 12월 모임통장을 선보인 카카오뱅크는 카카오톡의 친구 초대 기능을 통해 모임원을 간편하게 초대할 수 있다는 편의성을 앞세워 빠르게 성장했다.2018년말 기준 89만명이던 이용자수는 2019년말 499만명으로 급증하더니 2020년말 769만명, 2021년말 996만명, 지난해 상반기 1100만명을 돌파했다.연령대도 고르게 분포됐다. 지난해 상반기 기준 이용자 중 30대 비중이 34.7%로 가장 컸고 20대 이하가 27.1%, 40대 24.1%, 50대 이상은 14.1%로 각각 나타났다.최근엔 서비스 개편도 완료했다. 카카오뱅크는 모임통장을 가족 통장·데이트 통장으로 사용하는 소비자들이 늘면서 '생활비 관리 기능'을 더했다. '회비 관리 기능'을 통해 모임주는 더 간편하게 회비 미입금자 관리 및 회비 규칙 안내를 진행할 수 있게 됐다.'생활비 관리 기능'은 한 달 '목표 생활비'를 설정하면 예산 대비 지출 현황을 실시간으로 제공하는 기능이다. 특히 '생활비 지출 현황' 항목에서 올해 월평균 생활비 및 누적 생활비 등 자세한 정보를 그래프로 제공해 한 눈에 비교할 수 있다.'회비 관리 기능'은 회비규칙을 설정해 모임원들에게 알림을 보내는 기능이다. 모임주가 '회비규칙 설정' 버튼을 눌러 회비 금액과 회비를 내는 날을 설정하면 모임원이 회비 입금을 잊지 않도록 해당일에 맞춰 자동으로 알림이 보내진다.회비 입금 요청 서비스도 개선됐다. 입금현황에서 '미입금'을 누르면 회비를 입금하지 않은 멤버 확인이 가능하며 해당 모임원들을 선택해 한 번에 입금을 요청할 수 있다.지원금도 눈여겨볼 만하다. 카카오뱅크는 오는 14일까지 신규 모임통장을 개설하는 고객에게 추첨을 통해 최대 100만원을 지급하는 모임 지원금이벤트를 진행한다. ━토스뱅크 "우린 더 크게 논다"… 캐시백·고금리 '눈길'━사진=토스뱅크 토스뱅크는 카카오뱅크의 아성에 도전한다. 토스뱅크는 지난 1일 모임원 누구가 출금 및 카드 발급, 결제까지 가능한 '토스뱅크 모임통장'을 선보였다. '모두의 돈 쓸 권리'에 주목해 상품을 개발했다는 설명이다.그동안 모임통장은 모임장 혼자 통장을 관리하는 식이었지만 토스뱅크는 기존 서비스의 불편함에 주목해 모두가 모임장이 되도록 했다. 이는 사실상 카카오뱅크에게 도전장을 내민 셈이다.토스뱅크는 경쟁력을 위해 모임 규모에도 주목했다. 현재 카카오뱅크는 모임통장 인원을 최대 100명으로 제한하고 있는 반면 토스뱅크 모임통장은 국내 최초로 가입 가능한 모임원 인원 제한을 없앴다. 모임통장과 연결된 카드 역시 1계좌 당 1개 카드만 발급이 가능한 카카오뱅크와 달리 모임장이면 누구나 본인명의 카드 발급이 가능하도록 했다.금리도 강점이다. 하루만 맡겨도 연 2.3%(세전)의 금리 혜택이 적용된다. 수시입출금통장 성격을 유지하기 때문에 기존 타 은행 파킹통장과 달리 별도의 공간으로 자금을 이동해 출금·결제가 안 되도록 묶어 놓을 필요가 없다는 게 토스뱅크의 설명이다. 카카오뱅크 모임통장의 기본 금리는 연 0.1%로 '세이프박스'와 연결해야만 연 2.6% 금리가 붙는다는 조건이 있다.'모임카드'도 나왔다. 공동모임장이라면 누구나 본인 명의의 모임카드를 발급 받을 수 있어 그 동안 계좌 하나당 카드 한 개만 발급돼 결제가 불편했던 점을 없앴다.'토스뱅크 모임카드'는 모임의 주요 활동에 특화됐으며 캐시백도 받을 수 있다.▲회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▲장보기(이마트·농협하나로마트) 등에서 캐시백해주며 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시 캐시백이 적용된다.토스뱅크도 모임 지원금 이벤트를 진행한다. 오는 3월말까지 모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원까지 모임지원금이 지원된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>금융 플랫폼 이용자 쑥↑…플랫폼으로 ‘이자장사’ 오명 벗을까[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002103375?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>은행권, 플랫폼 확대 노력 지속해앱 사용자 수 2년새 20% 증가해‘수익성 다각화’ 발판 마련하고 있지만금산분리 규제 등에 수익 창출 방향성 뚜렷하지 않아“당분간 플랫폼 확장에 주력할 것”[게티이미지뱅크][헤럴드경제=김광우 기자] 각 은행이 자체 플랫폼 규모 확대에 사활을 걸고 있다. ‘이자장사’를 넘어선 수익성 다각화의 발판으로 디지털 경쟁력이 주목받고 있기 때문이다. 실제 주요 시중은행의 애플리케이션 월간 활성 이용자 수(MAU)도 꾸준히 늘고 있는 것으로 나타났다. 하지만 이런 노력이 수익으로 직결될 수 있을지는 아직은 미지수라는 평가가 많다. 금산분리 규제에 따라 뚜렷한 서비스 특정에 어려움이 있고, 플랫폼 편의성 등 매력 요인에서도 인터넷은행 등에 우위를 점하지 못한 탓이다.MAU 2년 만에 20%↑…과반이 인터넷·모바일 전용상품13일 빅데이터 분석업체 모바일인덱스에 따르면 주요 5대 시중은행(KB국민·신한·하나·우리·NH농협)이 서비스하고 있는 대표 애플리케이션의 월간 활성 이용자 수는 2023년 1월 기준 3812만명으로, 2년 전 같은 기간(3165만명)과 비교해 약 20% 이상 증가한 것으로 나타났다.이 같은 성장세는 은행권이 MAU 향상을 위해 다양한 플랫폼 유입 요인을 만들어온 결과다. 대표적으로는 금융상품을 비대면으로만 가입할 수 있게 하거나, 비대면으로 가입할 시 우대금리를 제공하는 등의 방식이다. 은행연합회에 따르면 이날 기준 국내은행에서 판매 중인 정기예금 상품 20개(최고금리 순) 중 과반이 인터넷 및 모바일 전용상품인 것으로 나타났다. 이 밖에도 은행권은 주기적으로 경품이나 포인트 지급을 내건 이벤트를 실시하며 이용자 수 확보에 열을 올리고 있다.은행권이 활성 이용자 수에 공을 들이는 이유는 점차 확산되는 비대면 서비스에 대응하는 동시에, 이자이익 중심의 사업 구조에서 벗어나 수익 구조를 다각화하기 위해서다. 사업 추진의 원동력이 될 수 있는 ‘플랫폼’의 이용자 규모를 키워 손쉽게 다양한 분야의 사업을 추진하겠다는 전략이다. 최근 금융지주에서 주요 계열사를 아우르는 ‘유니버셜 앱’을 신설하거나 강화하는 것 또한 같은 맥락에서다.하지만 이 같은 노력에도 아직은 갈길이 멀다는 평가다. 지난해 사상 최대의 실적을 거둔 4대 시중은행(KB국민·신한·하나·우리)의 비이자이익은 1조8301억원에 그쳤다. 이는 전년(2조8313억원)과 비교해 35.4%나 쪼그라든 규모다. 은행들이 ‘이자장사’에 치중했다는 비판이 나오고 있는 것도 이 때문이다.서울 한 거리에 시중은행의 자동화입출금기기(ATM)가 놓여 있다.[연합]금산분리 규제 완화…위험 총량 규제 방안 검토이에 수익 다각화가 절실해진 은행권의 플랫폼 이용자 수 확보 경쟁은 더욱 치열해질 전망이다. 하지만 플랫폼 경쟁력이 수익 창출로 이어지기까지는 더 많은 시간이 필요하다는 관측이다.문제는 아직 플랫폼을 통해 수익을 창출할 수 있는 뚜렷한 방향성을 찾지 못했다는 것이다. 올해 예정된 금산분리 규제 완화의 세부 내용이 명확히 결정되지 않은 탓에, 금융권은 특정 비금융 서비스를 위한 투자를 강행하기보다 플랫폼 규모 확장에 주력하고 있다.금융당국은 현재 은행 등 금융사가 자회사 출자를 통해 생활서비스 등 비금융 분야 사업에 자유롭게 진출할 수 있는 길을 열어주되, 위험 총량을 규제하는 방안을 검토하고 있다. ‘안 되는 것 빼고 다 된다’는 식의 네거티브 규제 전환도 검토 중이지만, 규제 강도에 대해서는 여전히 불확실성이 존재한다.한 금융지주 관계자는 “금융권 또한 수익을 낼 수 있는 서비스를 계속 고민하는 단계로, 현재는 꾸준히 플랫폼 규모 확장을 통해 기초 작업을 수행하고 있다”며 “금산분리 규제 등 불확실성이 해소되기 전까지는 각종 업무협약, 인수·합병(M&amp;A) 등을 통해 플랫폼의 확장 가능성을 넓히는 데에 주력할 전망”이라고 말했다.[게티이미지뱅크]기존 금융권의 플랫폼 경쟁력이 인터넷은행·빅테크 등과의 경쟁에서 우위를 점할 수 있을지도 관건이다. 애초 비대면 서비스로 시작한 카카오뱅크·토스 등 인터넷은행·빅테크 플랫폼은 편의성이나 신규 서비스 측면에서 기존 금융권에 비해 우세하다는 평가를 받고 있다. 실제 금융앱 MAU에서도 여전히 토스와 카카오뱅크가 기존 금융권을 제치고 선두권을 유지하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>토스증권, 美주식 주간 거래 서비스</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002681990?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>오는 13일부터 개시ⓒ토스증권[데일리안 = 황인욱 기자] 토스증권은 오는 13일부터 미국주식 거래 시간을 대폭 확대한다고 밝혔다.늘어나는 거래 시간은 한국시간 오전 10시부터 오후 5시50분까지로 기존 거래시간과 더하면 총 21시간50분, 하루 대부분의 시간에 미국주식 거래가 가능해진다.거래 시간에 따라 프리마켓(오후 6시~오후 11시30분), 정규장(오후 11시30분~오전 6시), 애프터마켓(오전 6시~오전 8시), 데이마켓(오전 10시~오후 5시50분)으로 구분되고, 새롭게 추가되는 데이마켓에서는 지정가와 시장가 매매로 거래할 수 있다.거래 방법은 기존 투자 방식과 같다. 별도의 거래 방법을 익힐 필요없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다. 토스 앱 내 ‘주식’ 탭을 통해 토스증권 MTS에서 원하는 미국주식을 거래하면 된다.만약, 주문이 체결되지 않으면 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문은 유지된다. 애프터마켓까지 체결되지 않을 경우 주문은 자동 취소된다.토스증권은 다양한 시간대에 고객의 원활한 미국 주식거래를 위해 유동성 공급자(Liquidity Provider, LP)를 확보하며 이번 서비스를 준비해왔다.토스증권 관계자는 "투자 대상과 방법 만큼 투자가능 시간도 투자판단에 중요한 요소"라며 "우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것"이라 말했다.한편, 토스증권 미국주식 서비스는 주말과 미국 휴장일에는 정규장이 열리지 않기 때문에 데이마켓 거래도 제공되지 않는다. 미국주식 수수료(0.1%)는 모든 거래 시간에 동일하게 적용되고, 소수점 주문은 정규시장에만 실시간 거래가 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>PO? 그로스 해커? 무궁무진해지는 스타트업 직무 세계 [스테파니]</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003477484?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카 제공.안녕하세요 스테파니 독자 여러분! 동아일보에서 스타트업 취재를 담당하고 있는 김하경 기자입니다. (스테파니는 ‘스’타트업과 ‘테’크놀로지를 ‘파’헤쳐보‘니’의 준말입니다.)혹시 ‘PO’라는 용어를 들어보셨나요? ‘Project Owner’의 줄임말로 요즘 스타트업에서 많이 볼 수 있는 직무입니다. 스타트업 업계에 계신 분들에게는 익숙하지만, 오랜 역사를 갖고 있는 기업이나 조직에서 근무하고 계신 분들이라면 생소하게 느껴질 것 같습니다.오늘은 PO를 비롯해 스타트업 업계에 등장하고 있는 직무 몇 가지를 소개해드리고자 합니다. 이외에도 혹시 추가로 궁금하거나 알리고 싶은 직무가 있다면 제 이메일(whatsup@donga.com)로 제보해주세요! 스타트업 직무 소개 2탄으로 또 소개해드리겠습니다^^●미니 CEO, ‘PO’‘PO’를 도입한 대표적인 스타트업으로는 모바일 금융 서비스 ‘토스’를 운영하는 ‘비바리퍼블리카’가 꼽힙니다. 토스는 ‘애자일(Agile)’ 조직으로 운영이 되는데요. 기능을 중심으로 디자이너는 디자이너끼리, 엔지니어는 엔지니어끼리 모여 있는 것이 아니라, 목적을 중심으로 기획자·디자이너·개발자·데이터 전문가 등 서로 다른 역할을 하는 사람들이 한 팀이 돼 움직이는 방식입니다. 이때 각 팀의 목표를 달성하기 위해 이끌어나갈 사람이 필요해지는데, 그 역할을 PO가 하는 것이죠. 토스 관계자는 “PO는 때로는 기획자, 때로는 개발자, 때로는 미니 CEO의 역할을 한다”며 “주로 팀의 목표와 전략을 짜고 실현될 수 있도록 리드하고 팀원들이 더 재밌게 일할 수 있도록 돕는다”고 말했습니다.PO는 탑다운 방식으로 업무를 수행하는 기존 조직보다는 자율과 책임, 오너십이 주어져 바텀업 방식으로 일할 수 있는 조직에 맞는 직무입니다. 요즘 PO를 도입하는 스타트업이 굉장히 많은데요. 업계에서는 재무팀, 디자인팀, 개발팀 등 기능별로 조직이 구성된 회사에서 PO를 도입할 경우, PO가 도입 취지에 맞게 제 역할을 하기가 힘들다고 하니 PO를 꿈꾸는 구직자분들은 조직의 형태도 잘 살펴보셔야할 듯 합니다.  ●데이터 바탕으로 적극적으로 서비스 개선하는 ‘그로스 해커’‘그로스 해커(Growth Hacker)’도 최근 늘어난 직무 중 하나입니다. ‘다른 사람의 컴퓨터에 침입해서 바이러스를 퍼뜨리는 사람을 기업에 둔다고?’ 라고 생각하면 큰 오해십니다^^; 여기서 해커는 일종의 마케터 개념으로 이해하셔야 하는데요. 데이터를 기반으로 고객의 취향과 유입과정 등을 단계별로 분석해서 서비스를 개선하는 역할을 합니다. 업계에 따르면 고객의 행동을 해킹 수준으로 잘게 쪼개서 들여다본다는 맥락에서 ‘해커’라는 이름이 붙었다고 하네요. 그로스해커를 도입한 대표적인 스타트업으로는 ‘마이리얼트립’을 꼽을 수 있습니다. 마이리얼트립은 2018년 7월 ‘그로스팀’이라는 이름으로 데이터 조직을 만들기 시작했는데요. 현재는 ‘그로스실’로 조직 규모가 더 커진 상태입니다. 사실 마이리얼트립 그로스실 인력은 데이터분석가와 마케터 등으로 이뤄져있고, 이들을 별도로 ‘그로스 해커’라고 칭하지는 않는다고 하는데요. 외부에서는 ‘그로스 해킹을 하는 사람’이라는 의미에서 그로스실 직원들을 ‘그로스 해커’라고 칭하기도 한다네요. 이들은 마이리얼트립 예약 데이터와 이용자의 행동로그 등을 분석해 제품이나 서비스를 성장시키는 방법을 찾는 역할을 합니다. 사실 데이터를 다루는 조직을 갖춘 회사는 많습니다. 대개 타 부서에서 ‘이러한 내용의 데이터를 분석해달라’고 요청하면 이를 수행해주는 역할을 하죠. 하지만 마이리얼트립 그로스실의 데이터 분석가들은 요청을 받아서 일을 하기 보다는 각 상품이나 서비스에 개입해 개선돼야할 부분을 적극적으로 찾아내고, 이를 바탕으로 기획자와 개발자와 함께 일을 한다고 합니다. 마이리얼트립이 그로스 해킹을 강화한 배경에는 ‘크로스 셀링’ 확대에 있습니다. 보통 여행 플랫폼에서는 고객들이 비행기 티켓만 사거나 숙소만 예약하고 서비스를 이탈해버리는데요. 마이리얼트립은 그로스 해킹을 바탕으로 서비스를 정비해 항공권을 구매한 소비자가 여기에 그치지 않고 숙소, 투어상품, 여행자보험 등 다양한 상품을 마이리얼트립 플랫폼 안에서 모두 구매하도록 이끌어냅니다. 양승화 마이리얼트립 그로스실 실장은 “그로스 해킹은 서비스 운영을 통해 쌓이는 데이터를  분석해서 서비스가 어떤 문제를 갖고 있고 어떻게 해결해야하는지 찾아나가는 방법론이라 할 수 있다”며 “그로스 해킹을 통해 실제로 특정 도시에서는 마이리얼트립에서의 교차구매율이 60%까지 오르기도 했다”고 말했습니다. ●기업 고유 비즈니스에 특화된 직무 신설도일부 스타트업은 사업의 방향에 따라 임원급에 새로운 명칭을 도입하기도 하는데요. 인플루언서 커머스 스타트업 ‘뷰티셀렉션’은 2년 전에 ‘CCO(Chief Commerce Officer·최고 커머스 책임자)’라는 직책을 도입했습니다. 인플루언서 시장에 대한 인사이트를 바탕으로 커머스 본질에 집중하겠다는 의지를 담아 만든 것이라고 하네요. 뷰티셀렉션 관계자는 “단순히 물건을 판매하고 인플루언서를 모델로 섭외하는 것을 넘어, 제품 판매 전략을 세우고 브랜드를 런칭하는 등 인플루언서 커머스 마켓 규모를 키우는데 집중하기 위해 신설한 직책”이라고 설명했습니다. 스타트업의 직무 세계, 취재하면 취재할수록 정말 무궁무진하다는 생각이 들었는데요. 앞으로 또 어떤 직무들이 생겨날지 기대되네요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>금리인하요구권 활성화되나…금융당국, 공시기준 세분화</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004154378?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>비대면 신청률 등 보조지표도 추가연합뉴스[서울경제] 금융 당국이 금융회사 간 자발적인 금리 인하 경쟁을 유도하기 위해 금융소비자의 금리인하요구권 수용률 공시를 더 촘촘하고 친절하게 하도록 개선한다. 골자는 가계대출과 기업대출로만 구분하는 데에서 한 발 나아가 가계신용대출·가계담보대출·가계주택담보대출·기업신용대출·기업담보대출 등과 같이 보다 세세하게 분류하고 비대면 신청률과 평균 인하금리 폭도 추가 공시하는 것이다. 금리인하요구 불수용 사유 역시 세분화하고 신청인이 원할 땐 신용도 평가에 활용된 정보내역을 제공받을 수 있게 된다.금융위원회와 금융감독원은 9일 이 같은 내용이 담긴 ‘금리인하요구제도 실효성 제고방안’을 발표했다. 금리인하요구권은 대출 등을 이용하는 소비자가 본인의 신용상태가 개선된 경우 금융회사에 금리인하를 요구할 수 있는 권리다. 금리인하요구권은 2018년 12월 은행·보험·저축은행·여신전문금융회사 등에서 법제화돼 2021년 10월 제도 개선으로 반기별 금융회사의 운영실적이 비교 공시되고 있지만 수용률이 낮고 정보 제공이 불충분하다는 지적이 지속됐다. 실제로 신청건수는 2019년 75만 4000건에서 2022년 상반기 119만 1000건으로 급증한 데 반해 같은 기간 수용률은 48.6%에서 28.8%로 급락했다.이에 금융 당국은 △소비자 안내 강화를 통한 수용률 제고 △비교공시 개선을 통한 공시효과 제고 △심사결과 통지 구체화를 통한 소비자 권익 향상을 꾀하기로 했다. 우선 인터넷전문은행 토스뱅크처럼 신용점수가 상승한 경우 선제적으로 고객에게 금리 인하를 요구할 수 있다고 알려주는 수시안내 서비스를 반기 1회 이상 시행할 예정이다. 취업, 승진 등 두루뭉술한 금리인하요구 신청요건도 은행의 수신실적, 연체여부, 부수거래·급여이체 실적 등과 같이 가능한 범위 내에서 충분히 안내하도록 한다.공시양식도 뜯어고친다. 가계와 기업 차주 유형뿐만 아니라 담보 유무와 종류도 따져가며 상세히 공시할 수 있게 된다. 아울러 비대면 신청률과 평균 인하금리 폭과 같은 보조지표가 더해져 금융회사별 비교가 용이해진다.금리인하요구 거절 이유를 구체적으로 알기어려웠던 문제도 일부 해소된다. 현재는 ①대상상품이 아님 ②이미 최저금리 적용 ③신용도 개선이 경미함 등 3가지 표준통지서식에 따르고 있는데 앞으로는 ‘(내부)신용등급 변동이 없음’ ‘(법정)최고금리 초과 산출’ 등이 추가돼 거절 사유를 더욱 명확히 알 수 있게 된다. 금리인하요구를 신청한 소비자가 희망할 경우 평가결과, 주요기준, 기초정보 등에 대한 설명을 요구할 수도 있다.금융 당국 관계자는 “이달 말 은행권부터 개선된 내용으로 지난해 하반기 정기 공시를 실시하고 나머지 업권은 올해 상반기 공시에 반영하겠다”며 “거래 금융회사 선택시 합리적 의사결정에 도움이 되길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>금감원, 5대 은행 과점 체제 깬다… 시장경쟁 촉진</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000877573?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>5대 은행, 예금·대출 시장 60~70% 점유은행 신설 대신 인터넷은행 활성화 방안 택할 듯당국, 스몰 라이선스 도입 방안 고민이복현 금융감독원장이 지난 6일 서울 여의도 금감원에서 열린 2023년 업무계획을 발표하는 기자간담회에서 발언하고 있다./금융감독원 제공        금융감독원이 5대 시중은행의 과점 체제를 깨트려 완전 경쟁을 유도하는 방안을 검토한다. 금리 인상이 은행의 이익으로 직결되는 현 체제에서 벗어나 은행간 경쟁을 촉진해 금리 인하를 유도하고 은행 자체 경쟁력도 제고하겠다는 것이다.15일 금융권에 따르면 금융감독원은 신한은행, KB국민은행, 하나은행, 우리은행, NH농협은행 등 5대 은행 중심의 과점 체제를 완전 경쟁 체제로 바꾸는 방안에 대해 검토하고 있다.이복현 금감원장은 전일 금감원 임원 회의에서 “여·수신 등 은행업무의 시장경쟁을 더욱 촉진함으로써 보다 효율적인 시장가격으로 은행서비스가 금융소비자에게 제공될 수 있도록 하는 다양한 제도･방안에 대해서도 심도있게 검토할 필요가 있다”고 주문했다. 이는 윤석열 대통령이 지난 13일 수석비서관회의에서 “‘은행의 돈 잔치’로 인해 국민들의 위화감이 생기지 않도록 관련 대책을 마련하라”고 지시한 데 따른 후속 조치다.2019년 5대 은행이 전체 18개 은행에서 차지하는 비중이 원화 예수금 기준 77%에 달했다. 이들 은행은 예금 시장에서 각각 15~16%대의 점유율을 차지하고 있다. 원화대출금을 기준으로 해도 5대 은행의 점유율은 67%다. 사실상 5대 은행이 예금·대출 시장에서 과점 체제를 형성하고 있다.금융당국은 이같은 과점 체제로 은행이 대출금리 인하의 필요성을 인식하지 못한다고 판단했다. 금융당국 관계자는 “5대 시중은행뿐만 아니라 다른 참여자들도 들어와 경쟁을 촉진하는 방식으로 예대금리차 이슈 등을 완화할 수 있을 것으로 본다”라며 ”완전 경쟁을 해야 효율적인 가격이 가능한 만큼 다양한 제도나 방안을 고민하고 있다”고 했다.금감원은 이와 관련해 해외 사례도 살펴보고 있는 것으로 전해졌다. 영국은 산업간 경쟁을 촉진하기 위해 은행 신설을 유도했다. 이 과정에서 인터넷 전문은행이나 핀테크와 접목한 형태의 은행 등이 확대되며 은행업의 경쟁이 확대됐다.국내에서는 영국과 같이 은행을 신설하는 방식 대신 카카오뱅크·토스뱅크·케이뱅크 등 기존 인터넷은행을 활성화하는 방안으로 완전 경쟁 체제를 구축할 가능성이 크다. 지난해 말 금융산업 경쟁도평가위원회는 인터넷은행의 성장으로 가계대출 부문에서 일반은행의 시장 집중도가 낮아졌다고 분석했다. 평가 위원회는 인터넷은행이 시중은행의 과점 체제에 영향을 준 만큼 신규 은행 진입 필요성에 대해서는 “인터넷은행 도입 초기이기 때문에 성장세를 지켜봐야 한다”라는 의견을 냈다.아울러 금감원은 금융위와 함께 은행의 경쟁 촉진을 위해 ‘스몰 라이선스’(은행업 인가 단위를 세분화해 개별인가로 내주는 것) 도입, 은행업을 예금을 수취하는 업으로 규정함으로써 유사한 기능을 수행하는 대형 전자금융업자도 포섭할 수 있는 ‘은행업법’ 제정 등을 고려할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스뱅크 모임통장, 출시 일주일만에 7만좌 넘어</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002682189?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>토스뱅크는 모임통장이 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 모임통장이 출시 일주일만에 계좌 개설 수 7만좌를 돌파했다고 9일 밝혔다.지난 1일 출시한 것을 고려하면 9초에 하나씩 신규 계좌가 개설된 셈이다.토스뱅크 모임통장은 모임원이라면 누구나 출금 및 카드 발급, 결제까지 가능하게 한 '공동모임장' 기능을 최초로 도입하여 그 동안 혼자서 모든 자금을 관리하던 모임장의 과도한 부담을 덜고 모임 회비 관리 편의성과 투명성을 한 차원 높였다.이와 함께 2.3%(세전)의 높은 금리를 제공한다. 또한, 모임활동에 특화된 캐시백 혜택을 담은 모임카드를 공동모임장이라면 누구나 발급받을 수 있게 했다.모임통장은 출시 초반부터 다양한 세대에서 인기를 얻으며 빠르게 시장에 안착하고 있는 것으로 나타났다.신규 개설하거나 모임원으로 참여한 고객의 연령대 분포를 보면 ▲10대 (11.13%), ▲20대(28.34%), ▲30대(25.28%), ▲40대(20.32%), ▲50대(11.53%) 로 2040 세대에서의 고른 인기를 중심으로 10대와 50대까지 높은 비중으로 유입되고 있는 것으로 확인됐다.또 출시 일주일만에 구성원이 50명이 넘는 대규모 모임통장도 개설됐다.현재까지 개설된 모임통장 6개 중 1개는(약 16%) 모임통장에 참여한 구성원 모두 '공동모임장'이 되어 출금과 카드 발급 및 결제 권한을 공유하고 있다.구성원 모두가 공동모임장으로서 자신의 명의로 모임카드를 발급 받아 사용하고 체크카드 연말 정산 혜택도 각자가 투명하고 평등하게 받을 수 있다. 이러한 차별화된 기능은 연말 정산이 중요한 맞벌이 부부의 생활비 통장이나 가족 모임통장에서부터 운영진이 다수인 대규모 모임통장까지 유용하게 활용될 수 있다.토스뱅크 관계자는 "모임의 규모나 성격에 상관 없이 최고의 경험을 드릴 수 있도록 앞으로도 고객의 목소리에 귀기울이며 기능과 혜택을 강화해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.02.03.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>비트코인,다음 강세장서 폴카닷·코스모스에 밀릴 수도</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002296531?sid=004</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>◆…사진:유튜브가상화폐 시장 대장으로 비트코인이 집중 조명되고 있지만, 다음 상승장에서는 2개의 알트코인 상승이 비트코인을 압도할 것이라는 분석이 나왔다.   구독자 221만 명을 가진 가상화폐 관련 유명 유튜브 계정 코인 뷰로(Coin Bureau) 운영자 가이 터너는 향후 가상화폐 강세장에서 폴카닷(DOT)과 코스모스(ATOM)이 비트코인을 훨씬 능가하는 상승을 나타낼 것이라고 말했다.   그는 일렉트릭 캐피탈(Electric Capital)의 보고서를 인용, 이들 토큰이 다음 상승장에서 좋은 성과를 보일 수 있는 것은 솔라나(SOL),폴리곤(MATIC), 니어 프로토콜(Near Protocol)보다 훨씬 적은 자금을 들이고도 개발자를 유치하고 유지할 수 있었기 때문이라고 덧붙였다.   투자자가 많은 가상화폐 프로젝트는 약세장의 영향을 훨씬 적게 받으며 여기에 폴리곤, 솔라나, 니어 프로토콜과 함께 앱토스(Aptos)와 같은 잠재적인 미래 블루 칩 프로젝트도 포함된다는 설명이다.   그러나 이러한 원칙의 예외도 있는 바 바로 폴카닷과 코스모스가 그것으로 상당히 적은 투자금으로도 개발자 기반을 구축할 수 있는 능력을 갖춘 프로젝트들이라고 주장했다. 특히 이들 코인이 가장 헌신적인 커뮤니티를 형성하고 있다는 점도 강점으로 꼽았다.   이전 가상화폐 활황기에 DOT와 ATOM이 빛을 내지 못했던 것도 다음 활황기에는 빛을 볼 수 있는 시간이 될 것임을 시사한다고 지적했다.   일렉트릭 캐피털 보고서에 따르면 솔라나, 폴카닷, 코스모스, 폴리곤의 개발자 수는 2018년 가상화폐 침체기 200여 명에서 현재 1000명 이상으로 늘어났고 앱토스 같은 블록제인은 지난해에만 50% 이상, 니어 프로토콜은 40% 이상 증가했다.   다만 터너는 규제 리스크와 가상화폐 시장의 추가 하락이 프로젝트에 개발자를 붙잡아놓을 가능성을 저해할 수 있다며 문제는 현재 약세장의 바닥을 보지 못했을 수도 있다는 것을 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>생보협회 "온라인 보험 추천서비스, 상반기 내 출시"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000039895?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>간담회서 플랫폼 보험서비스 관련 질의 답변"타 업권 이슈로 도입 지연...상반기 내 로드맵 나올 것"정희수 생명보험협회장(오른쪽에서 세번째)이 13일 열린 기자간담회에서 발언하고 있다.[사진 생명보험협회][이코노미스트 김정훈 기자]생명보험협회가 도입이 지지부진한 온라인 플랫폼 보험 비교·추천서비스와 관련해 "올 상반기 내 방향성을 잡고 출시될 것"이라고 밝혔다. 도입이 늦어지는 이유에 대해서는 '타 업권 이슈'를 거론했다. 현재 손해보험업계는 보험 비교·추천서비스에 자동차보험 포함 여부를 두고 네이버, 카카오, 토스 등 플랫폼업계와 평행선을 달리는 중이다.생명보험협회는 13일 광화문 생명보험교육센터에서 열린 기자간담회에서 도입이 예고된 온라인 플랫폼 보험 비교·추천서비스와 관련해 입장을 밝혔다. 금융위원회는 지난해 8월, '금융회사의 플랫폼 업무 활성화 및 온라인 플랫폼 금융상품 중개업 시범운영'과 '금융규제 샌드박스 내실화 추진' 방안에 따라 핀테크사 등 온라인 플랫폼사가 비교·추천을 가능케 하는 중개업 시범서비스 운영을 허용했다. 이에 금융소비자들은 네이버, 카카오, 토스 등의 대형 플랫폼 안에서 여러 보험사의 상품을 비교 및 추천을 받고 가입할 수 있는 길이 열렸다. 이 서비스는 지난달 윤석열 대통령에게 업무보고까지 진행됐다. 하지만 보험·플랫폼·대리점(GA)업계가 판매 상품과 수수료율 등에서 이견을 보이면서 여전히 시행일이 미정이다.  이와 관련 김인호 생보협회 시장혁신본부장은 간담회에서 보험 비교·추천서비스 도입이 늦어지는 이유에 대해 "금융위원회가 주관하는 이 서비스는 생·손보, 플랫폼, 대리점업계가 어떤 판매채널로, 어떤 상품을 팔 것이며, 수수료를 어떻게 책정할 것인가에 대해 계속 논의 중"이라며 "생보업계의 입장은 보험 비교·추천을 도입하는 것은 소비자 편의성 때문이지만 이 서비스로 인한 비용이 소비자에게 전가돼선 안된다는 것"이라고 밝혔다.현재 보험업계는 플랫폼사에 지급하는 수수료 비용 때문에 향후 보험료가 상승하는 등 소비자 피해가 있을 수 있다는 입장이다. 배달의민족 등 배달 플랫폼사가 등장해 배달비용, 음식값 등이 상승했듯 플랫폼 보험 비교로 보험서비스 비용이 상승해 소비자 부담도 커질 수 있다는 얘기다.그러면서 김 본부장은 보험 비교·추천서비스 도입 지지부진과 관련해 '생보업권 이슈'는 없다고 강조했다. 그는 "서비스 도입이 지지부진한 것은 저희 업권의 이슈는 아니다"라며 "타 업권의 이슈가 있어 평행선을 달리고 있다"고 말했다. 손보업계는 비교·추천서비스에 가입자만 2000만명에 달하는 자동차보험이 포함돼선 안된다고 주장하고 있다. 또한 소비자 플랫폼 내에서 비교·추천을 받고 건당 발생하는 수수료율에 대해서도 플랫폼업계와 손보업계가 합의를 내지 못한 것으로 알려졌다. 한편 금융위는 보험 비교·추천 서비스 관련 플랫폼 업계와 2월 중 간담회를 가질 것으로 알려졌다. 이와 관련 플랫폼 업계 관계자는 "아직 간담회 관련 구체적인 일정을 통보받지 못했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.02.13.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>금리 덕에 16조 순익… 4대 금융지주 ‘흥청망청’ 돈잔치</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001586337?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>배당·퇴직금 확대 ‘돈 잔치’ 벌이며서민금융은 정책 상품 공급에 그쳐민간 기업 손볼 수 없는 당국 고심KB·신한·하나·우리 등 4대 금융지주가 지난해 16조원에 육박하는 당기순이익을 냈지만 사회 환원에는 소홀하다는 지적이 나오고 있다. 배당금과 퇴직금을 늘려 주주와 임직원이 ‘돈 잔치’를 벌이는 것과는 대조적인 모습이다. 이런 관행에 직접 제동을 걸 수 없는 금융당국은 해법을 찾느라 고심하고 있다.12일 금융권에 따르면 4대 금융지주는 지난해 이자 이익이 큰 폭으로 증가하면서 총 15조8500억원의 순익을 기록했다. 특히 4대 금융지주의 이자 이익 합계치가 39조6800억원으로 전년(34조7100억원)에 비해 5조원 가량 늘었다.역대급 실적을 낸 4대 금융지주는 주주 환원을 위한 배당 확대, 희망퇴직을 통한 인력 구조조정 등에 실탄을 쏟고 있다. 4대 금융지주는 최근 한 목소리로 각각 1500억~3000억원어치 자사주 소각을 포함해 총 주주환원율을 30% 수준으로 끌어올리겠다고 밝혔다.4대 금융지주의 주력 계열사인 시중은행은 지난해 말부터 올해 초까지 수천명의 임직원을 내보내면서 1인당 수억원의 퇴직금을 지출했다. KB국민은행은 1인당 평균 3억8200만원을, 신한은행은 3억4400만원을, 우리은행은 4억4300만원을 각각 내줬다. 하나은행은 희망퇴직 인원과 퇴직금 규모를 아직 공개하지 않았다.반면 각 금융지주가 통 큰 사회 환원책을 내놨다는 소식은 없다. 4대 시중은행은 최근 막대한 이익 일부를 사회에 환원하겠다며 모바일·인터넷 뱅킹 이체 수수료 면제를 발표했다. 그러나 모바일·인터넷 뱅킹 이체 수수료는 토스 등 핀테크 서비스가 사실상 무료화해 금융 소비자가 느끼는 편익은 크지 않다.은행권은 매년 5000억원 안팎의 서민금융을 제공하고 있다고 발표하지만 대부분 햇살론과 새희망홀씨 등 정책 상품 공급액을 집계한 것에 불과하다. 은행권의 올해 상반기 금리 인하 요구 수용률 역시 29%밖에 되지 않는다.금융당국은 ‘은행=공공재’라는 생각을 갖고 있지만 직접 칼을 댈 수 없다. 은행은 금융당국이 내준 영업권을 바탕으로 운영되지만 기본적으로 민간 기업이기 때문이다. 이와 관련해 이복현 금융감독원장은 최근 “시중은행은 과점 시장 형태로 예대(예금과 대출) 금리차에 의해 순익을 낼 수 있는 특권을 부여받고 있다. 십수조원의 순익을 주주와 임직원 성과로만 배분하는 것이 적절한지 진지한 고찰이 필요하다”고 지적했다.금융당국은 일단 배당금이나 퇴직금 지급이 가능한 이익을 줄이는 방식으로 대처하고 있다. 금융위원회는 은행권이 경기 악화 등 만일의 사태가 발생할 때 꺼내 쓸 곳간 개념의 ‘특별 대손 준비금’ 적립 요구권을 올해 상반기 도입할 예정이다. 금융당국 관계자는 “현행법상 은행의 배당금이나 성과급 책정에 개입하기 어렵다. 현재로서는 대손 준비금 등을 더 쌓게 해 순익 규모를 줄이는 방법 뿐”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.02.09.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>증권가, 미국주식 거래 “8~6시 낮에도 이용”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003695138?sid=103</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 증권업계가 미국주식 거래 서비스 제공 시간 확대에 나서고 있다. 미국 뉴욕 시간으로 저녁 6시~새벽 4시에 해당하는 한국 낮 시간에 증권거래가 가능해진다.8일 증권업계에 따르면  NH투자증권, 키움증권, 토스증권이 미국주식 거래 서비스 제공시간을 넓혔다. 서비스 제공시간 변경 후에는 미국주식 거래 서비스를 낮에도 이용할 수 있다. NH투자증권은 이날 오전 10시부터 미국주식 거래 서비스를 24시간 제공한다.주간거래 서비스(10:00~18:00)를 시작으로 프리마켓(18:00~23:30), 정규장(23:30~06:00), 애프터마켓(06:00~10:00)에서 총 24시간 서비스를 제공한다. 키움증권도 같은날 오전 10시부터 미국주식 주간거래 서비스(10:00~18:00)를 시작해, 서머타임 적용시 하루 최대 21시간30분 미국주식 거래를 지원한다.기존에는 프리마켓(18:00~23:30)과 정규시장(23:30~06:00), 애프터마켓(06:00~07:00) 시간에 미국주식 거래가 가능했다.토스증권은 오는 13일부터 미국주식 거래 시간을 확대한다. 거래 시간에 따라 프리마켓(18:00~23:30), 정규장(23:30~06:00), 애프터마켓(06:00~08:00), 데이마켓(10:00~17:50)으로 구분된다.토스증권 관계자는 “우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적인 투자를 경험할 수 있게 될 것”이라고 말했다. [사진=NH투자증권](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.02.10.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>업비트 ASTR 상장 직후 20% 급등... 하루 수익률은?</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002297158?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>ASTR 토큰 가격, 전날 대비 -4.19% 기록   업비트 상장 코인, 초반 급등세... 이후 고점 대비 절반 이상 급락상장 시 차익실현에 의한 시세급락 가능성 의심거래소 "대규모 자금유입 모니터링 중... 1회 최대 주문가능금액도 설정" ◆…[사진=클립아트코리아]가상화폐 아스타(ASTR)가 지난 9일 업비트에 상장된 지 1시간 만에 20% 수익률을 기록했지만 이후 큰 폭의 하락세를 보이며 가격이 급락했다.    10일 가상자산 거래소 업비트에 의하면 이날 오후 5시 44분 현재 아스타는 전날 대비 4.19% 하락한 96.74원에 거래되고 있다.   이처럼 코인이 상장된 직후 가격이 상승했다가 이후 큰 폭으로 하락하는 현상이 최근 자주 발생하여 투자에 주의가 요구된다.   이날 본지가 가상자산거래소 업비트 데이터를 취합한 결과 지난 1년간 총 26건의 상장이 이루어졌으며 대부분 가격이 잠깐 상승했다가 이후 큰 폭으로 하락하는 패턴을 보였다.   이들 코인 가격은 상장 직후 1시간 동안 20% 넘게 상승했지만 이후 한 달 동안 고점 대비 절반 이상의 급락세를 보였다.   한편 어느 마켓에 상장했느냐에 따라 단기 수익률 결과도 달랐다. BTC 마켓에 상장될 경우 단기(1시간) 수익률은 낮고 가격변동성(MDD)은 높았다.     개별적으로는 올해 연초 대비 500% 넘는 수익률로 투자자 사이에서 입소문을 탄 앱토스(APT)에서도 이러한 현상이 관찰됐다. 지난해 10월 업비트 원화마켓에서 거래지원 개시된 앱토스는 최초 1시간 동안 가격이 21.2% 급등했지만 이후 한 달간 최대 65.5%의 하락률을 보였다.   앱토스는 앱토스 네트워크에서 거래 수수료 지불, 검증인 스테이킹 참여, 온체인 거버넌스 참여, 네트워크 내 디지털 자산 거래를 위한 지불수단 등에 활용되는 네이티브 토큰이다.   또한 지난해 4월 업비트 BTC 마켓에 상장된 래디클(RAD)은 상장 1시간 동안 최대 92.0% 상승해 개당 2만600사토시에 거래됐다. 그러나 이후 한 달 만에 1만1사토시를 기록해 가격이 최대 51.5% 하락했다.   BTC 마켓에서는 원화가 아닌 비트코인을 화폐로 가상자산을 거래한다. 비트코인이 다른 가상자산에 비해 가치가 높기 때문에 '사토시(Satoshi)'라는 별도 화폐 기준이 등장했다. 사토시 1억 개는 비트코인 1개와 같다.  ◆…래디클(RAD) 차트. [출처=업비트]종합하면 상장 코인이 당초 가격을 유지하지 못하고 급락세를 보인다는 점에서 거래소 내 수요와 공급의 불일치가 시세 급락의 주요인이라는 분석이 나온다.   특히 차익실현을 노리는 투자자들이 해외거래소에서 마련한 코인을 출금해 업비트에 입금한 후 대량 매도할 경우 가격이 급락할 가능성이 존재한다. 차익거래로 인한 시세급락이라는 예측 가능한 투자 피해를 최소화 하기 위한 거래소 차원의 대책 마련이 필요한 시점이다.   이에 대해 거래소 측은 현재 다양한 조치를 시행해 이 같은 위험을 미연에 방지하고 있다고 입장을 밝혔다.   업비트 관계자는 "디지털 자산 가격 등락의 원인은 다양하기에 단일 사유로 설명하기는 어렵다"면서도 "대규모 물량 처분을 방지하기 위해 내부 정책에 따라 의심스러운 입금건을 비롯해 대규모 자금유입 여부가 정당한 지 모니터링 중이며 1회 최대 주문가능금액 설정 등의 조치 역시 이뤄지고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.02.02.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>프리미엄 한과로 1325:1 뚫은 선미한과를 아시나요?</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000079826?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>강소상인 피칭대회 우승자들시식 후 구매율 90% ‘기염’ 로렌츄컴퍼니도 화제스타트업 시장에서는 한 달에도 수차례 ‘데모데이(Demoday)’ 행사가 열린다. 스타트업이 투자자 앞에서 시제품과 비즈니스 모델(BM)을 선보이고 투자를 유치하는 자리다. 토스, 당근마켓, 직방 등 유명 스타트업도 데모데이를 통해 기업가치 1조원 넘는 ‘유니콘’으로 성장했다.최근에는 소상공인 분야에서도 데모데이가 한창이다. 2019년부터 소상공인시장진흥공단과 중소상공인희망재단 주최로 열리고 있는 ‘소상공인쇼케이스데이’ 그리고 지난해부터 중기부가 신설한 ‘강한 소상공인 오디션’이 대표 사례다. 우승하면 최대 1억원의 지원금이 주어져 참여 열기가 스타트업 데모데이 못잖다. 강한 소상공인 오디션의 경우 지난해 3월 공고가 올라온 후 1325명이 지원, 이 중 150개 팀이 예선을 통과해 대면 심사(오디션)를 받았다. 그리고 1차 오디션에서 34개 팀이 각각 3000만~5000만원을, 2차 오디션에서 10개 팀이 다시 추가로 그만큼의 아이디어 실현 자금을 받게 됐다. 반응이 뜨겁자 중기부는 올해 지원 규모를 3배로 늘려 확대 운영한다는 계획이다.선발 과정을 보면 스타트업의 그것과 크게 다르지 않다. IR덱(사업보고서)과 대면 면접, 1·2차 피칭대회까지 4단계에 걸친 심층 심사를 거친다.일례로 지난해 열린 강한 소상공인 오디션에서는 우선 창작자, 스타트업, 소상공인 3가지 분과 중 하나를 선택해 서류 접수를 했다. Q&amp;A 형식으로 기업 소개, 사업(제품·서비스) 소개, 주요 성과, 향후 사업 목표 4가지 질문에 대한 답변을 150자 이내로 작성하도록 했다. 2단계는 대면 평가. 서류 지원한 1300여개 팀 중 150개 팀을 대상으로 5~10분간 전문가 두 명과 대면 인터뷰를 했다. 여기서 100개 팀이 추려졌다. 3단계는 1차 오디션. 100개 팀이 선배 창업가, 투자자 등 각계 전문가들 앞에서 20분 발표(15분 소개, 5분 Q&amp;A)를 진행했다. 온라인으로 생중계돼 팽팽한 긴장감을 자아냈다. 여기서 선발된 34개 팀이 4단계 2차 오디션 무대에 섰다. 1차 오디션의 각계 전문가와 대국민 평가단 200명이 심사위원이 돼서 10분 발표(5분 소개, 5분 Q&amp;A)로 진행됐다.지난해 강한 소상공인 오디션에서 ‘선미한과(고급 한과)’ ‘디자인스튜디오(친환경 패키지)’ ‘훌템(이동형 매트리스 세탁·건조)’이, 소상공인 쇼케이스데이에서는 ‘로렌츄컴퍼니(무알코올 음료)’ ‘파션(반려동물 아웃도어)’ ‘엔이티인터내셔날(친환경 유아 식기)’이 각각 1~3위를 차지했다.각 대회 우승자를 만나 성공 비결과 사업 계획을 물었다.강한 소상공인 오디션 우승자 | 김성래 선미한과 대표3대째 이어온 강릉 전통 한과로 디저트 시장 정조준 2022년 강한 소상공인 오디션에서 우승한 김성래 선미한과 대표.Q. 강한 소상공인 오디션 우승 비결은.A. 워낙 쟁쟁한 경쟁자가 많아 사실 우승은 기대하지 않았다. 오디션 과정에서 주로 선미한과의 핵심 가치인 고품질 한과와 고유의 브랜드를 만들어야 하는 이유를 간결하고 명확하게 설명하기 위해 집중했다. 최종 2차 오디션에서는 (3대째 이어져온) 선미한과만의 브랜드 유산(heritage)을 확실하게 스토리텔링한 것이 심사위원과 대국민 평가단에게 깊은 인상을 남길 수 있었던 것 같다.Q. 이런 대회는 처음이었는데 어떻게 지원하게 됐나.A. 원래는 자동차공학을 전공한 ‘공돌이(공학도)’였다. 2018년 부모님 사업을 함께하게 되면서 예비 창업 교육에 참가했고, 소상공인과 중소기업에 대한 정부 지원 사업이 많이 있다는 것을 알게 됐다. 이후로는 SNS 접속하듯 수시로 정부 지원 사업 공고 사이트를 둘러보며 관련 사업을 확인하고 지원했다.Q. 심사위원들은 어떤 질문을 던졌고 뭐라고 답했나.A. 1·2차 오디션 동안 10여개 질문을 받았다. 주로 선미한과의 성장성, 전통 식품인 한과 산업의 사업성에 관한 질문이었다. 한과의 글로벌 확장 가능성, 명절 위주로 판매되는 한계성, 퀀텀 점프를 하기 위한 성장 전략도 물었다.우선 한과의 글로벌 확장 가능성에 대해서는 매우 긍정적이라고 답했다. 해외 수출에 대한 공급자 의지가 강하고, (외국인 입맛에 맞게) 한과의 끈적임을 줄이며, 유통 기한과 저장성 등의 문제 해결을 위한 투자가 선행된다면, 한류 열풍을 타고 서양의 디저트와 어깨를 나란히 할 수 있다고 강조했다. 성장 전략은 첫째로 한과의 디저트화, 그리고 일상 선물용으로 자리매김해 명절 위주 판매에서 연중 꾸준히 소비되는 제품군으로 만들어야 한다고 말했다. 둘째로는 자동화 설비, 스마트 생산 관리 시스템 구축 등 제조 역량을 강화해야 수출 등 공격적인 판로 개척에 나설 수 있다고 밝혔다.Q. 오디션에 참여하며 애로 사항은 없었나.A. 대다수 소상공인 대표들이 ‘1인 다역’을 하느라 바쁘다. 저 또한 오디션 일정이 명절 기간과 겹쳐 온전하게 피칭 준비를 하기 힘들었다. 추가로 e-나라도움시스템에서 보조금 집행과 증빙을 진행해야 하는 게 익숙지 않아 고생했다. 1차 오디션이 비공개로 진행될 예정이었는데, 생중계로 전환되면서 심리적 부담도 컸다.Q. 8500만원이라는 거금을 지원받았다. 활용 계획은.A. 우선 선미한과의 브랜드 고도화 사업에 집중 투자할 생각이다. 전통 강릉 한과를 재해석하고 젊고 세련되고 고급스러운 이미지로 부각하기 위해 선미한과만의 스토리텔링과 브랜드 개발에 40% 예산을 집행하겠다. 또한 패키지 디자인 개발과 제작에 30%, 디지털 마케팅 홍보와 광고에 30%를 투입할 계획이다.Q. 향후 계획은.A. 단기적으로는 현재 한계에 달하고 있는 선미한과 생산 역량(capacity)을 확충하는 것이다. 연매출 100억원을 대비해 제2공장 선미한과 캠퍼스 신축을 준비 중이다. 최근 부지 매입이 거의 완료됐다. 장기적으로는 대전 성심당, 부산 삼진어묵, 강릉 테라로사와 같이 지역(강릉)을 대표하는 브랜드로 성장하는 것이 목표다. 이어 정관장과 같이 국내 선물하기 시장에서 프리미엄 브랜드로 자리매김하고, 마지막은 한과 분야의 글로벌 하이엔드 브랜드가 되고자 한다.소상공인 쇼케이스데이 우승자 | 추세은 로렌츄컴퍼니 대표30억 가치에 3억 투자 유치…“일본 거쳐 중동 진출할 것” 2022년 소상공인 쇼케이스데이에서 우승한 추세은 로렌츄컴퍼니 대표Q. 소상공인 쇼케이스데이 우승 비결은.A. 무알코올 음료 사업을 하면서 끊임없이 시행착오를 겪었지만 굴하지 않고 묵묵하게 도전을 계속해온 부분을 좋게 봐주신 것 같다. 그리고 피칭보다 Q&amp;A 부분에서 실질적인 답변을 한 부분이 주효했던 듯하다. 평가 지표에 ‘가능성’이 있었는데 무알코올 기술로 확장이 가능한 시장성과 성장성 부분도 좋게 평가받았다고 생각한다.Q. 기억에 남는 심사위원 질문이나 평가 문구는 무엇인가.A. “큰 자본과 기술을 가진 대기업이 이미 선점한 영역에 굴하지 않고 겁 없이 뛰어들어 노력하는 부분을 높게 평가한다”는 말이 마음에 깊이 남았다. 사실 F&amp;B 산업, 그중에서도 음료업계는 모방하기 쉽다. 특히, 논알코올 영역은 절대 시장 규모가 크지 않다. 하지만 앞으로의 무한한 확장성과 가능성을 확신했기에 뛰어들었는데 그 부분을 예리하게 봐줘서 감사했다.Q. 카카오 선물하기 채널 비중이 85% 이상으로 매우 높다. 주로 선물용으로 판매되는 건가.A. 식품이지만 제품 특성상 단순 취식용이 아니라 누군가에게 가치 있는 선물을 줄 때 꼭 생각나는 브랜드이고 싶었는데 그 전략이 주효했던 것 같다.건강과 맛을 다 같이 담은 상품이 시중에 생각보다 적다는 점에 착안했더니, 특별한 마케팅 활동 없이 입소문만으로 판매량이 늘고 재구매가 이뤄졌다. 6개월 내 재구매 비율이 60%가 넘는다.Q. 현재까지 누적 투자 유치 금액과 기업가치는.A. 2021년 5월에 30억원 가치를 인정받고 누적 3억원 투자를 받았다. 상품과 기술 개발에 투자금을 집중 사용했다. 올해는 기술 고도화와 성장을 위한 Pre A라운드를 진행할 예정이다. 소상공인 쇼케이스데이 우승 상금은 1등 1500만원이고, 투자 검토와 소상공인점프업허브 입주 시 혜택 등을 받았다.Q. 향후 계획은.A. 오프라인 팝업 스토어 등에서 시식 후 구매율이 90% 가까이 되더라. 올해 안에 우리 특성이 담긴 독창적인 매장을 오픈할 계획이다. 작지만 여러 실험도 병행하면서 고객들의 ‘와우(WOW)포인트’를 찾을 수 있는 공간을 만들고자 한다. 수출도 박차를 가하고 있다. 해외 박람회 등에서 만난 수출 담당자들과 협의 중이고 인증 절차도 진행 중이다. 처음에는 한국 시장과 가장 유사한 일본을 시작으로 이슬람 문화권이 있는 동남아 지역, 최종적으로는 0% 무알코올 개발이 되는 시점에 중동 시장까지 진출할 생각이다.올해 다양한 시도를 위한 구조와 조직을 구축할 것이다. 관심 있는 해외 진출 전문가 또는 오프라인 매장 근무 희망자들의 많은 지원을 바란다.Q. 기업가형을 꿈꾸는 소상공인에게 조언 한마디.A. 기업을 오래 다니다 늦은 나이에 첫 창업을 했다. 그런데 창업과 사장은 처음이다 보니 스스로를 잘 믿지 못하고 외부 전문가 등에서 답을 구하기 위해 에너지를 많이 썼다. 상품을 만드는 것에는 자신 있었지만 기업을 만드는 일은 생소해 너무 조심스럽게 회사를 꾸려나갔다. 하지만 3년이 지난 지금 돌아보면 누구보다 이 시장을 잘 아는 나 자신을 믿고 더 과감한 의사 결정을 했다면 더 빠른 성장이 있지 않았을까 생각이 든다. 결국 대표는 자기 자신을 믿고 신중하게 결정하되 빠르게 실행하는 것이 중요하다. 더불어 지금 당장 바쁘게 돈 버는 것도 중요하지만, 5~10년 뒤에 대한 꿈과 비전을 한시도 잊지 않았으면 한다. 아직 저도 그 꿈을 이뤄가고 있는 중이다. 꿈은 내가 잊지 않으면 꼭 이뤄질 수 있다고 생각한다.[본 기사는 매경이코노미 제2194호 (2023.02.01~2023.02.07일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>"회비 이 통장으로"…회비 하루만 맡겨도 연 2.3%</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000320988?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1400만명 카뱅에 도전장…토뱅 '모임통장' 차별점은?토스뱅크가 1일 부부와 친구, 동아리 등 모임 비용을 한 곳에 모아 관리할 수 있는 '모임통장'을 출시했습니다.앞서 지난 2018년 12월 상품 출시 이후 1400만명(중복 포함)을 끌어 모은 카카오뱅크를 상대로 금리 등 차별점을 앞세워 치열한 경쟁을 예고했습니다. 하루만 맡겨도 '연 2.3%' 파격 금리 [토스뱅크는 1일 서울 강남구 역삼동 사옥에서 모임통장 출시 기념 온라인 기자간담회를 열었다. (자료=토스뱅크)]가장 눈길을 끄는 건 '연 2.3%'의 금리입니다. 파킹통장의 성격을 지닌 '토스뱅크 통장'과 동일한 금리를 내걸었습니다. 카카오뱅크의 모임통장은 기본적으로 입출금통장과 동일한 연 0.1% 금리를 주고 있고, 파킹통장인 '세이프박스'를 별도로 연결하면 연 2.6%의 금리를 제공하고 있는 상황입니다. 다소 파격적인 금리에 홍민택 토스뱅크 대표는 "아직 출범한 지 1년5개월 정도 밖에 지나지 않은 신생은행으로서 규모의 경제를 통해 이익을 내야할 시기"라며 "수익 악화보다는 규모의 경제를 키우기 위한 전략"이라고 설명했습니다. 이와 함께 토스뱅크는 출시를 기념해 다음 달 말까지 '모임지원금 이벤트'도 진행합니다.모임통장을 최초 개설하는 모임장을 포함해 모임원 1인당 최대 1만원을 줄 예정입니다. 여러명이 '결제·출금·카드발급'  또 다른 차별점은 '공동 모임장' 기능입니다. 기존의 모임통장들은 통장 최초 개설장인 모임장만 카드를 발급받을 수 있고, 결제와 출금을 할 수 있는 상황입니다. 하지만 토스뱅크 모임통장은 모임장의 동의를 받고, 실명확인 절차를 거쳐 '공동 모임장'이 될 수 있습니다. 최초 모임장과 동일하게 여러명이 카드 발급과 결제, 출금이 가능해진 겁니다. 사용 편의성이 높아지긴 했지만, 횡령 등 금융사고 가능성도 제기됐습니다.이에 대해 홍 대표는 "공동 모임장이 되기 위해선 다른 모임장의 동의를 받아야 하고, 또 통장의 사용처와 금액 등 모든 정보를 실시간 확인할 수 있고 송금 한도나 결제한도는 좀 더 보수적으로 설정하는 등 안전장치를 두었다"고 설명했습니다.  공동 모임장은 1일 100만원까지 거래할 수 있고, 100만원을 초과하는 거래를 하기 위해서는 다른 공동 모임장의 동의가 필요합니다. 모임통장의 거래한도는 하루 1000만원이고, 이는 공동 모임장의 거래한도를 포함한 한도입니다. 음식점부터 골프장까지…즉시 캐시백 혜택도  이와 함께 발급되는 '모임카드'의 캐시백 혜택도 눈에 띕니다. 모임카드는 모임의 주요 활동인 먹고 놀고 장보는 순간에 캐시백 혜택을 받을 수 있도록 했습니다. ▲회식(음식점·주점에서 19시~24시까지 결제 시 캐시백 혜택) ▲놀이(노래방, 볼링장, 당구장, 골프장, 골프연습장 업종) ▲장보기(이마트, 농협하나로마트) 등에서 캐시백 혜택을 누릴 수 있습니다. 1만원 이상 결제 시 건당 500원, 1만원 미만 결제 시에는 건당 100원의 즉시캐시백 혜택이 적용됩니다. 캐시백 혜택은 모임기준으로 적용됩니다. 3대 영역 내에서 각 영역마다 일 1회, 월 5회까지 혜택이 제공돼 월 최대 15번까지 즉시캐시백 혜택을 받을 수 있습니다. 캐시백 혜택은 오는 6월 말까지 제공될 예정입니다. 토스뱅크는 "토스뱅크만의 차별화된 모임통장과 모임카드를 통해 그 동안 없던 모임뱅킹 플랫폼을 완성한 만큼, 모든 모임에 최고의 혜택과 편리함을 드릴 수 있도록 노력할 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.02.15.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>‘은행 돈 잔치’, 은행 탓만 할 수 없다 [오늘과 내일/박용]</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003479750?sid=110</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>당국이 시장 진입과 대출 규제,금리까지 개입해놓고 은행 탓박용 부국장윤석열 대통령이 13일 수석비서관회의에서 “‘은행의 돈 잔치’로 국민들이 위화감이 생기지 않도록 금융위는 대책을 마련하라”고 지시했다고 한다. 은행이 번 돈을 성과급이나 배당으로만 쓰지 말고 소비자들의 금리 부담을 완화하고 금융시장 불안을 대비해 손실 흡수 능력을 확충하는 데 쓰라는 주문이다.  은행들이 “손쉬운 이자 장사로 막대한 돈을 번다”는 인식은 틀리지 않는다. 국내 은행의 이자수익 비중은 90%에 육박한다. 대통령실에 따르면 국내 은행은 지난해  18조9000억 원의 당기순이익을 냈다. 전년보다 2조 원 많다. 지난해 금리 급등기에 이자로 짭짤한 재미를 본 셈이다.   하지만 은행의 이자 장사를 위한 ‘게임의 규칙’을 정한 건 금융당국이었다. 이복현 금융감독원장은 “은행은 과점적 형태로, 여수신 차익 등 영업익을 얻는 것에 대해 특권적 지위를 주는 부분이 있다”고 했다. 인허가와 규제를 거머쥔 당국은 은행들엔 ‘저승사자’나 다름없다. 2021년 금융당국이 과열된 부동산 시장을 진정시키기 위해 은행 대출을 제한하자, 고금리를 약속하고 예금을 잔뜩 끌어모았던 신생 인터넷은행 토스뱅크는 이자 장사를 하지 못해 위기를 겪었다.   은행 이자이익이 급증한 건 한국은행이 지난해부터 올해 1월까지 기준금리를 8번 올렸기 때문이다. 기준금리가 연 1.0%에서 연 3.5%로 단기 급등하는 과정에서 예금금리보다 대출금리가 더 빨리 올라 은행들은 손쉽게 돈방석에 앉았다. 대통령실에 따르면 국내 은행의 예대금리 차이는 지난해 1월 2.24%포인트에서 12월엔 2.55%포인트로 벌어졌다. 은행의 이자 장사가 걱정이라면 예금금리와 대출금리의 시차를 초래하는 금리 산정 체계의 구조적 문제부터 해결해야 한다. 금융당국은 지난해 10월 가산금리 산정 체계를 정비한다며 부랴부랴 대책을 내놨다.   대통령실은 은행 이자수익 확대에 대한 대책으로 지난해 7월 당국이 내놓은 예대금리 차 비교공시 제도도 소개했다. 그러면서 은행권 신규 예대금리 차가 2022년 1월 1.80%포인트에서 지난해 12월 1.34%포인트로 줄었다고 소개했다. 하지만 비교공시 제도의 효과인지는 분명치 않다. 오히려 비교공시 제도가 경쟁자의 진입이 제한된 시장에선 합법적인 금리 담합 장치로 작용할 수 있다는 우려도 나온다.  대형마트의 최저가격 보상제가 치열한 가격 경쟁으로 이어질 것 같지만 실상은 서로 가격 경쟁을 피하게 하는 경쟁 억제 장치로 작용하는 역설과 비슷하다. 군기 잡기는 그때뿐이다. 은행의 돈 잔치가 마뜩잖으면 금리 인상기에 큰돈을 벌지 못하도록 시장 환경을 구조적으로 바꾸는 게 근본 해법이다. 은행이 예금금리를 더 높게 주고, 대출금리를 더 낮게 받으면 이자수익은 자연스럽게 준다. 시장 진입장벽을 낮춰 기존 은행의 특권적 지위를 낮추고 과점적 시장을 경쟁 체제로 바꾸면 은행들이 서로 경쟁하는 과정에서 예금이자는 높아지고, 대출이자는 낮아질 것이다. 하지만 은행 진입장벽은 아직도 높다. 오히려 당국은 지난해 하반기에 ‘레고랜드 사태’로 회사채 시장이 경색되자 은행들에 수신금리 경쟁 자제를 요청하는 역주행을 했다. 예금이자는 뚝 떨어졌고, 예금자의 불만은 고조됐다. 은행들은 덕분에 이자 장사를 할 기회를 또 얻었다. 정부에 정책이 있다면 시장엔 대책이 있다. 얼핏 시장 실패처럼 보이는 일도 따지고 보면 정부 실패가 원인일 때가 많다. 정부가 스스로에 관대하고 시장에 엄격하면 개혁에 대한 공감과 지지는 떨어진다. 시장에선 “은행 다음 차례는 또 다른 규제산업인 통신사”라는 말이 나온다. 언제까지 시장 탓만 할 건가.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.02.08.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>“하루 2시간 빼고 美주식 거래 가능”···어느 증권사?</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004966031?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>토스증권, 데이터마켓 추가오전 10시부터 오후 5시50분까지총 21시간50분 미국 주식 거래 사진=토스증권 제공[파이낸셜뉴스] 토스증권을 이용하면 오전 10시부터 미국 주식 거래를 할 수 있게 됐다. 이에 따라 하루 2시간 정도를 제외하고는 매매할 수 있는 길이 열렸다.   8일 증권업계에 따르면 토스증권은 오는 13일부터 한국시간 기준 오전 10시부터 오후 5시50분까지 거래 가능 시간을 추가한다. 기존 거래시간과 더하면 총 21시간50분이다.   현재 프리마켓(18:00~23:30), 정규장(23:30~06:00), 애프터마켓(06:00~08:00)에 데이마켓(10:00~17:50)이 더해지는 셈이다. 신규 마켓에선 지정가와 시장가 매매로 거래할 수 있다.   거래 방법은 기존 투자 방식과 동일하다. 별도의 거래 방법을 익힐 필요 없이 원화 기반 가격정보를 활용해 24시간 환전 서비스로 거래할 수 있다.   다만 주말과 미국 휴장일에는 정규장이 열리지 않기 때문에 데이마켓 거래도 제공되지 않는다. 미국주식 수수료(0.1%)는 모든 거래 시간에 동일하게 적용되고, 소수점 주문은 정규시장에만 실시간 거래가 가능하다.   토스 애플리케이션 내 ‘주식’ 탭을 통해 모바일트레이딩시스템(MTS)에서 원하는 미국주식을 사고팔면 된다.   주문이 체결되지 않을 시 프리마켓과 정규장, 애프터마켓으로 이어져 다음날 오전 8시까지 주문이 유지된다. 애프터마켓까지 체결되지 않으면 주문은 자동 취소된다.   토스증권은 고객에게 다양한 거래 시간대를 제공하기 위해 유동성 공급자(LP)를 확보하며 이번 서비스를 준비해왔다.   토스증권 관계자는 “투자 대상과 방법만큼 매매 가능 시간도 투자판단에 중요한 요소”라며 “우리나라 증시 시간과 같은 시간에 미국 주식을 거래할 수 있어 업종 간 주식을 비교하며 투자하거나, 미국 공시나 뉴스에 따라 선제적 투자를 경험할 수 있게 될 것”이라 말했다. #토스증권</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.02.01.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>"모임원 위한 카드 여러개 발급 가능"…토스뱅크 '모임통장' 출시</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004805448?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스인터넷은행 토스뱅크가 모임원 누구나 출금과 카드 발급, 결제가 가능한 모임통장을 선보였다. 회비를 모아 회식 때나 MT, 생활비로 쓸 수 있는 모임통장을 출시한 건 카카오뱅크에 이어 두 번째다.토스뱅크는 하루만 맡겨도 연 2.3% 금리가 적용되는 토스뱅크 모임통장을 1일 출시했다. 기존 카카오뱅크의 모임통장과 다른 것은 최초 통장 개설자인 모임장 외에 '공동모임장' 개념을 도입했다는 점이다. 카카오뱅크 모임통장은 모임장 한 명이 출금과 결제, 카드 발급을 관리하는 방식인 반면 토스뱅크 모임통장은 모임장 외에 공동모임장을 지정해 출금과 모임카드 발급, 이체가 가능하도록 했다.공동모임장은 모임원 모두의 동의가 있어야 지정이 가능하다. 모임원 가입 인원 제한은 없다. 토스뱅크는 "모임장 한 명이 출금, 결제, 카드 발급 권한까지 독점하는 구조에 불편함을 느낀다는 점에 주목했다"며 "모임장 혼자 회계를 책임져야 해 부담감이 컸고, 카드가 한 장만 있다보니 편의성이 떨어진다는 점을 개선했다"고 밝혔다.모임장의 '횡령'을 막기 위한 회비 관리기능도 특이한 점이다. 모임원의 회비 납부 현황을 확인할 수 있으며 회비를 내지않은 모임원에게는 푸시 알림이 간다. 회비를 쓸 때마다 모임원 모두 사용처와 금액을 기재한 알림 메시지를 받을 수 있다.모임카드는 한 계좌당 여러 개를 발급받을 수 있는 공동 체크카드다. 공동모임장 전원의 동의가 있어야 모임카드 발급이 가능하다. 회식(음식점에서 오후 7~12시 결제시 캐시백), 놀이(노래방, 볼링장 등), 장보기(이마트, 농협하나로마트) 등 3개 영역에서 캐시백 혜택이 주어진다. 1만원 이상 결제시 건당 500원, 1만원 미만 결제시 건당 100원이다. 3개 영역에서 각 영역마다 일 1회, 월 5회까지 캐시백 혜택이 제공된다. 월 최대 15회까지 혜택을 받을 수 있다. 혜택은 통장 하나로 합산하며, 이번 혜택은 6월말까지 유지될 예정이다. 연말정산 혜택은 모임카드를 발급받은 모임장과 공동모임장 명의로 귀속된다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
